--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Jengibre.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Jengibre.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44397</v>
+        <v>44389</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="K2" t="n">
-        <v>12500</v>
+        <v>12000</v>
       </c>
       <c r="L2" t="n">
         <v>13000</v>
       </c>
       <c r="M2" t="n">
-        <v>12750</v>
+        <v>12500</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>981</v>
+        <v>962</v>
       </c>
       <c r="Q2" t="n">
         <v>13</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44406</v>
+        <v>44229</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="K3" t="n">
-        <v>17000</v>
+        <v>44000</v>
       </c>
       <c r="L3" t="n">
-        <v>18000</v>
+        <v>45000</v>
       </c>
       <c r="M3" t="n">
-        <v>17500</v>
+        <v>44500</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>1346</v>
+        <v>3423</v>
       </c>
       <c r="Q3" t="n">
         <v>13</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44229</v>
+        <v>44159</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="K4" t="n">
-        <v>44000</v>
+        <v>23000</v>
       </c>
       <c r="L4" t="n">
-        <v>45000</v>
+        <v>24000</v>
       </c>
       <c r="M4" t="n">
-        <v>44500</v>
+        <v>23500</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>3423</v>
+        <v>1808</v>
       </c>
       <c r="Q4" t="n">
         <v>13</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44379</v>
+        <v>44320</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="K5" t="n">
-        <v>12000</v>
+        <v>19000</v>
       </c>
       <c r="L5" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="M5" t="n">
-        <v>12667</v>
+        <v>19500</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>974</v>
+        <v>1500</v>
       </c>
       <c r="Q5" t="n">
         <v>13</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44320</v>
+        <v>44406</v>
       </c>
       <c r="E6" t="n">
         <v>15</v>
@@ -792,13 +792,13 @@
         <v>160</v>
       </c>
       <c r="K6" t="n">
-        <v>19000</v>
+        <v>17000</v>
       </c>
       <c r="L6" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="M6" t="n">
-        <v>19500</v>
+        <v>17500</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>1500</v>
+        <v>1346</v>
       </c>
       <c r="Q6" t="n">
         <v>13</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44389</v>
+        <v>44397</v>
       </c>
       <c r="E7" t="n">
         <v>15</v>
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="K7" t="n">
-        <v>12000</v>
+        <v>12500</v>
       </c>
       <c r="L7" t="n">
         <v>13000</v>
       </c>
       <c r="M7" t="n">
-        <v>12500</v>
+        <v>12750</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>962</v>
+        <v>981</v>
       </c>
       <c r="Q7" t="n">
         <v>13</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44159</v>
+        <v>44379</v>
       </c>
       <c r="E8" t="n">
         <v>15</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="K8" t="n">
-        <v>23000</v>
+        <v>12000</v>
       </c>
       <c r="L8" t="n">
-        <v>24000</v>
+        <v>13000</v>
       </c>
       <c r="M8" t="n">
-        <v>23500</v>
+        <v>12667</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>1808</v>
+        <v>974</v>
       </c>
       <c r="Q8" t="n">
         <v>13</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Jengibre.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Jengibre.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44389</v>
+        <v>44379</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -510,7 +510,7 @@
         <v>13000</v>
       </c>
       <c r="M2" t="n">
-        <v>12500</v>
+        <v>12667</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>962</v>
+        <v>974</v>
       </c>
       <c r="Q2" t="n">
         <v>13</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44229</v>
+        <v>44159</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="K3" t="n">
-        <v>44000</v>
+        <v>23000</v>
       </c>
       <c r="L3" t="n">
-        <v>45000</v>
+        <v>24000</v>
       </c>
       <c r="M3" t="n">
-        <v>44500</v>
+        <v>23500</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>3423</v>
+        <v>1808</v>
       </c>
       <c r="Q3" t="n">
         <v>13</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44159</v>
+        <v>44406</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>100</v>
+        <v>160</v>
       </c>
       <c r="K4" t="n">
-        <v>23000</v>
+        <v>17000</v>
       </c>
       <c r="L4" t="n">
-        <v>24000</v>
+        <v>18000</v>
       </c>
       <c r="M4" t="n">
-        <v>23500</v>
+        <v>17500</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>1808</v>
+        <v>1346</v>
       </c>
       <c r="Q4" t="n">
         <v>13</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44406</v>
+        <v>44229</v>
       </c>
       <c r="E6" t="n">
         <v>15</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="K6" t="n">
-        <v>17000</v>
+        <v>44000</v>
       </c>
       <c r="L6" t="n">
-        <v>18000</v>
+        <v>45000</v>
       </c>
       <c r="M6" t="n">
-        <v>17500</v>
+        <v>44500</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>1346</v>
+        <v>3423</v>
       </c>
       <c r="Q6" t="n">
         <v>13</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44397</v>
+        <v>44389</v>
       </c>
       <c r="E7" t="n">
         <v>15</v>
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="K7" t="n">
-        <v>12500</v>
+        <v>12000</v>
       </c>
       <c r="L7" t="n">
         <v>13000</v>
       </c>
       <c r="M7" t="n">
-        <v>12750</v>
+        <v>12500</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>981</v>
+        <v>962</v>
       </c>
       <c r="Q7" t="n">
         <v>13</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44379</v>
+        <v>44397</v>
       </c>
       <c r="E8" t="n">
         <v>15</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="K8" t="n">
-        <v>12000</v>
+        <v>12500</v>
       </c>
       <c r="L8" t="n">
         <v>13000</v>
       </c>
       <c r="M8" t="n">
-        <v>12667</v>
+        <v>12750</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>974</v>
+        <v>981</v>
       </c>
       <c r="Q8" t="n">
         <v>13</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Jengibre.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Jengibre.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R8"/>
+  <dimension ref="A1:R9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44320</v>
+        <v>44469</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="K5" t="n">
-        <v>19000</v>
+        <v>13000</v>
       </c>
       <c r="L5" t="n">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="M5" t="n">
-        <v>19500</v>
+        <v>13500</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>1500</v>
+        <v>1038</v>
       </c>
       <c r="Q5" t="n">
         <v>13</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44229</v>
+        <v>44320</v>
       </c>
       <c r="E6" t="n">
         <v>15</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="K6" t="n">
-        <v>44000</v>
+        <v>19000</v>
       </c>
       <c r="L6" t="n">
-        <v>45000</v>
+        <v>20000</v>
       </c>
       <c r="M6" t="n">
-        <v>44500</v>
+        <v>19500</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>3423</v>
+        <v>1500</v>
       </c>
       <c r="Q6" t="n">
         <v>13</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44389</v>
+        <v>44229</v>
       </c>
       <c r="E7" t="n">
         <v>15</v>
@@ -864,13 +864,13 @@
         <v>120</v>
       </c>
       <c r="K7" t="n">
-        <v>12000</v>
+        <v>44000</v>
       </c>
       <c r="L7" t="n">
-        <v>13000</v>
+        <v>45000</v>
       </c>
       <c r="M7" t="n">
-        <v>12500</v>
+        <v>44500</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>962</v>
+        <v>3423</v>
       </c>
       <c r="Q7" t="n">
         <v>13</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44397</v>
+        <v>44389</v>
       </c>
       <c r="E8" t="n">
         <v>15</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="K8" t="n">
-        <v>12500</v>
+        <v>12000</v>
       </c>
       <c r="L8" t="n">
         <v>13000</v>
       </c>
       <c r="M8" t="n">
-        <v>12750</v>
+        <v>12500</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,12 +955,84 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>981</v>
+        <v>962</v>
       </c>
       <c r="Q8" t="n">
         <v>13</v>
       </c>
       <c r="R8" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>1</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Agrícola del Norte S.A. de Arica</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="n">
+        <v>44397</v>
+      </c>
+      <c r="E9" t="n">
+        <v>15</v>
+      </c>
+      <c r="F9" t="n">
+        <v>100114007</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Jengibre</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J9" t="n">
+        <v>140</v>
+      </c>
+      <c r="K9" t="n">
+        <v>12500</v>
+      </c>
+      <c r="L9" t="n">
+        <v>13000</v>
+      </c>
+      <c r="M9" t="n">
+        <v>12750</v>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>$/caja 13 kilos</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>Perú</t>
+        </is>
+      </c>
+      <c r="P9" t="n">
+        <v>981</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>13</v>
+      </c>
+      <c r="R9" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Jengibre.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Jengibre.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44379</v>
+        <v>44406</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="K2" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="L2" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="M2" t="n">
-        <v>12667</v>
+        <v>17500</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>974</v>
+        <v>1346</v>
       </c>
       <c r="Q2" t="n">
         <v>13</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44159</v>
+        <v>44379</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="K3" t="n">
-        <v>23000</v>
+        <v>12000</v>
       </c>
       <c r="L3" t="n">
-        <v>24000</v>
+        <v>13000</v>
       </c>
       <c r="M3" t="n">
-        <v>23500</v>
+        <v>12667</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>1808</v>
+        <v>974</v>
       </c>
       <c r="Q3" t="n">
         <v>13</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44406</v>
+        <v>44469</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="K4" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="L4" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="M4" t="n">
-        <v>17500</v>
+        <v>13500</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>1346</v>
+        <v>1038</v>
       </c>
       <c r="Q4" t="n">
         <v>13</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44469</v>
+        <v>44229</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="K5" t="n">
-        <v>13000</v>
+        <v>44000</v>
       </c>
       <c r="L5" t="n">
-        <v>14000</v>
+        <v>45000</v>
       </c>
       <c r="M5" t="n">
-        <v>13500</v>
+        <v>44500</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>1038</v>
+        <v>3423</v>
       </c>
       <c r="Q5" t="n">
         <v>13</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44229</v>
+        <v>44159</v>
       </c>
       <c r="E7" t="n">
         <v>15</v>
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="K7" t="n">
-        <v>44000</v>
+        <v>23000</v>
       </c>
       <c r="L7" t="n">
-        <v>45000</v>
+        <v>24000</v>
       </c>
       <c r="M7" t="n">
-        <v>44500</v>
+        <v>23500</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>3423</v>
+        <v>1808</v>
       </c>
       <c r="Q7" t="n">
         <v>13</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44389</v>
+        <v>44397</v>
       </c>
       <c r="E8" t="n">
         <v>15</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="K8" t="n">
-        <v>12000</v>
+        <v>12500</v>
       </c>
       <c r="L8" t="n">
         <v>13000</v>
       </c>
       <c r="M8" t="n">
-        <v>12500</v>
+        <v>12750</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>962</v>
+        <v>981</v>
       </c>
       <c r="Q8" t="n">
         <v>13</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44397</v>
+        <v>44389</v>
       </c>
       <c r="E9" t="n">
         <v>15</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="K9" t="n">
-        <v>12500</v>
+        <v>12000</v>
       </c>
       <c r="L9" t="n">
         <v>13000</v>
       </c>
       <c r="M9" t="n">
-        <v>12750</v>
+        <v>12500</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>981</v>
+        <v>962</v>
       </c>
       <c r="Q9" t="n">
         <v>13</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Jengibre.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Jengibre.xlsx
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44379</v>
+        <v>44397</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="K3" t="n">
-        <v>12000</v>
+        <v>12500</v>
       </c>
       <c r="L3" t="n">
         <v>13000</v>
       </c>
       <c r="M3" t="n">
-        <v>12667</v>
+        <v>12750</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>974</v>
+        <v>981</v>
       </c>
       <c r="Q3" t="n">
         <v>13</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44469</v>
+        <v>44320</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="K4" t="n">
-        <v>13000</v>
+        <v>19000</v>
       </c>
       <c r="L4" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="M4" t="n">
-        <v>13500</v>
+        <v>19500</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>1038</v>
+        <v>1500</v>
       </c>
       <c r="Q4" t="n">
         <v>13</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44229</v>
+        <v>44379</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -720,13 +720,13 @@
         <v>120</v>
       </c>
       <c r="K5" t="n">
-        <v>44000</v>
+        <v>12000</v>
       </c>
       <c r="L5" t="n">
-        <v>45000</v>
+        <v>13000</v>
       </c>
       <c r="M5" t="n">
-        <v>44500</v>
+        <v>12667</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>3423</v>
+        <v>974</v>
       </c>
       <c r="Q5" t="n">
         <v>13</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44320</v>
+        <v>44159</v>
       </c>
       <c r="E6" t="n">
         <v>15</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="K6" t="n">
-        <v>19000</v>
+        <v>23000</v>
       </c>
       <c r="L6" t="n">
-        <v>20000</v>
+        <v>24000</v>
       </c>
       <c r="M6" t="n">
-        <v>19500</v>
+        <v>23500</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>1500</v>
+        <v>1808</v>
       </c>
       <c r="Q6" t="n">
         <v>13</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44159</v>
+        <v>44229</v>
       </c>
       <c r="E7" t="n">
         <v>15</v>
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="K7" t="n">
-        <v>23000</v>
+        <v>44000</v>
       </c>
       <c r="L7" t="n">
-        <v>24000</v>
+        <v>45000</v>
       </c>
       <c r="M7" t="n">
-        <v>23500</v>
+        <v>44500</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>1808</v>
+        <v>3423</v>
       </c>
       <c r="Q7" t="n">
         <v>13</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44397</v>
+        <v>44389</v>
       </c>
       <c r="E8" t="n">
         <v>15</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="K8" t="n">
-        <v>12500</v>
+        <v>12000</v>
       </c>
       <c r="L8" t="n">
         <v>13000</v>
       </c>
       <c r="M8" t="n">
-        <v>12750</v>
+        <v>12500</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>981</v>
+        <v>962</v>
       </c>
       <c r="Q8" t="n">
         <v>13</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44389</v>
+        <v>44469</v>
       </c>
       <c r="E9" t="n">
         <v>15</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="K9" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="L9" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="M9" t="n">
-        <v>12500</v>
+        <v>13500</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>962</v>
+        <v>1038</v>
       </c>
       <c r="Q9" t="n">
         <v>13</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Jengibre.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Jengibre.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44406</v>
+        <v>44379</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="K2" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="L2" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="M2" t="n">
-        <v>17500</v>
+        <v>12667</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>1346</v>
+        <v>974</v>
       </c>
       <c r="Q2" t="n">
         <v>13</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44320</v>
+        <v>44159</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="K4" t="n">
-        <v>19000</v>
+        <v>23000</v>
       </c>
       <c r="L4" t="n">
-        <v>20000</v>
+        <v>24000</v>
       </c>
       <c r="M4" t="n">
-        <v>19500</v>
+        <v>23500</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>1500</v>
+        <v>1808</v>
       </c>
       <c r="Q4" t="n">
         <v>13</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44379</v>
+        <v>44320</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="K5" t="n">
-        <v>12000</v>
+        <v>19000</v>
       </c>
       <c r="L5" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="M5" t="n">
-        <v>12667</v>
+        <v>19500</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>974</v>
+        <v>1500</v>
       </c>
       <c r="Q5" t="n">
         <v>13</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44159</v>
+        <v>44469</v>
       </c>
       <c r="E6" t="n">
         <v>15</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="K6" t="n">
-        <v>23000</v>
+        <v>13000</v>
       </c>
       <c r="L6" t="n">
-        <v>24000</v>
+        <v>14000</v>
       </c>
       <c r="M6" t="n">
-        <v>23500</v>
+        <v>13500</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>1808</v>
+        <v>1038</v>
       </c>
       <c r="Q6" t="n">
         <v>13</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44389</v>
+        <v>44406</v>
       </c>
       <c r="E8" t="n">
         <v>15</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="K8" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="L8" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="M8" t="n">
-        <v>12500</v>
+        <v>17500</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>962</v>
+        <v>1346</v>
       </c>
       <c r="Q8" t="n">
         <v>13</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44469</v>
+        <v>44389</v>
       </c>
       <c r="E9" t="n">
         <v>15</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="K9" t="n">
+        <v>12000</v>
+      </c>
+      <c r="L9" t="n">
         <v>13000</v>
       </c>
-      <c r="L9" t="n">
-        <v>14000</v>
-      </c>
       <c r="M9" t="n">
-        <v>13500</v>
+        <v>12500</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>1038</v>
+        <v>962</v>
       </c>
       <c r="Q9" t="n">
         <v>13</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Jengibre.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Jengibre.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44379</v>
+        <v>44320</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="K2" t="n">
-        <v>12000</v>
+        <v>19000</v>
       </c>
       <c r="L2" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="M2" t="n">
-        <v>12667</v>
+        <v>19500</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>974</v>
+        <v>1500</v>
       </c>
       <c r="Q2" t="n">
         <v>13</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44397</v>
+        <v>44389</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="K3" t="n">
-        <v>12500</v>
+        <v>12000</v>
       </c>
       <c r="L3" t="n">
         <v>13000</v>
       </c>
       <c r="M3" t="n">
-        <v>12750</v>
+        <v>12500</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>981</v>
+        <v>962</v>
       </c>
       <c r="Q3" t="n">
         <v>13</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44159</v>
+        <v>44379</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="K4" t="n">
-        <v>23000</v>
+        <v>12000</v>
       </c>
       <c r="L4" t="n">
-        <v>24000</v>
+        <v>13000</v>
       </c>
       <c r="M4" t="n">
-        <v>23500</v>
+        <v>12667</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>1808</v>
+        <v>974</v>
       </c>
       <c r="Q4" t="n">
         <v>13</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44320</v>
+        <v>44397</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="K5" t="n">
-        <v>19000</v>
+        <v>12500</v>
       </c>
       <c r="L5" t="n">
-        <v>20000</v>
+        <v>13000</v>
       </c>
       <c r="M5" t="n">
-        <v>19500</v>
+        <v>12750</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>1500</v>
+        <v>981</v>
       </c>
       <c r="Q5" t="n">
         <v>13</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44469</v>
+        <v>44159</v>
       </c>
       <c r="E6" t="n">
         <v>15</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="K6" t="n">
-        <v>13000</v>
+        <v>23000</v>
       </c>
       <c r="L6" t="n">
-        <v>14000</v>
+        <v>24000</v>
       </c>
       <c r="M6" t="n">
-        <v>13500</v>
+        <v>23500</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>1038</v>
+        <v>1808</v>
       </c>
       <c r="Q6" t="n">
         <v>13</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44229</v>
+        <v>44406</v>
       </c>
       <c r="E7" t="n">
         <v>15</v>
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="K7" t="n">
-        <v>44000</v>
+        <v>17000</v>
       </c>
       <c r="L7" t="n">
-        <v>45000</v>
+        <v>18000</v>
       </c>
       <c r="M7" t="n">
-        <v>44500</v>
+        <v>17500</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>3423</v>
+        <v>1346</v>
       </c>
       <c r="Q7" t="n">
         <v>13</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44406</v>
+        <v>44229</v>
       </c>
       <c r="E8" t="n">
         <v>15</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="K8" t="n">
-        <v>17000</v>
+        <v>44000</v>
       </c>
       <c r="L8" t="n">
-        <v>18000</v>
+        <v>45000</v>
       </c>
       <c r="M8" t="n">
-        <v>17500</v>
+        <v>44500</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>1346</v>
+        <v>3423</v>
       </c>
       <c r="Q8" t="n">
         <v>13</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44389</v>
+        <v>44469</v>
       </c>
       <c r="E9" t="n">
         <v>15</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="K9" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="L9" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="M9" t="n">
-        <v>12500</v>
+        <v>13500</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>962</v>
+        <v>1038</v>
       </c>
       <c r="Q9" t="n">
         <v>13</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Jengibre.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Jengibre.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44320</v>
+        <v>44229</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="K2" t="n">
-        <v>19000</v>
+        <v>44000</v>
       </c>
       <c r="L2" t="n">
-        <v>20000</v>
+        <v>45000</v>
       </c>
       <c r="M2" t="n">
-        <v>19500</v>
+        <v>44500</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>1500</v>
+        <v>3423</v>
       </c>
       <c r="Q2" t="n">
         <v>13</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44389</v>
+        <v>44159</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="K3" t="n">
-        <v>12000</v>
+        <v>23000</v>
       </c>
       <c r="L3" t="n">
-        <v>13000</v>
+        <v>24000</v>
       </c>
       <c r="M3" t="n">
-        <v>12500</v>
+        <v>23500</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>962</v>
+        <v>1808</v>
       </c>
       <c r="Q3" t="n">
         <v>13</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44379</v>
+        <v>44397</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="K4" t="n">
-        <v>12000</v>
+        <v>12500</v>
       </c>
       <c r="L4" t="n">
         <v>13000</v>
       </c>
       <c r="M4" t="n">
-        <v>12667</v>
+        <v>12750</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>974</v>
+        <v>981</v>
       </c>
       <c r="Q4" t="n">
         <v>13</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44397</v>
+        <v>44406</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="K5" t="n">
-        <v>12500</v>
+        <v>17000</v>
       </c>
       <c r="L5" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="M5" t="n">
-        <v>12750</v>
+        <v>17500</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>981</v>
+        <v>1346</v>
       </c>
       <c r="Q5" t="n">
         <v>13</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44159</v>
+        <v>44320</v>
       </c>
       <c r="E6" t="n">
         <v>15</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>100</v>
+        <v>160</v>
       </c>
       <c r="K6" t="n">
-        <v>23000</v>
+        <v>19000</v>
       </c>
       <c r="L6" t="n">
-        <v>24000</v>
+        <v>20000</v>
       </c>
       <c r="M6" t="n">
-        <v>23500</v>
+        <v>19500</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>1808</v>
+        <v>1500</v>
       </c>
       <c r="Q6" t="n">
         <v>13</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44406</v>
+        <v>44469</v>
       </c>
       <c r="E7" t="n">
         <v>15</v>
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="K7" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="L7" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="M7" t="n">
-        <v>17500</v>
+        <v>13500</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>1346</v>
+        <v>1038</v>
       </c>
       <c r="Q7" t="n">
         <v>13</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44229</v>
+        <v>44379</v>
       </c>
       <c r="E8" t="n">
         <v>15</v>
@@ -936,13 +936,13 @@
         <v>120</v>
       </c>
       <c r="K8" t="n">
-        <v>44000</v>
+        <v>12000</v>
       </c>
       <c r="L8" t="n">
-        <v>45000</v>
+        <v>13000</v>
       </c>
       <c r="M8" t="n">
-        <v>44500</v>
+        <v>12667</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>3423</v>
+        <v>974</v>
       </c>
       <c r="Q8" t="n">
         <v>13</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44469</v>
+        <v>44389</v>
       </c>
       <c r="E9" t="n">
         <v>15</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="K9" t="n">
+        <v>12000</v>
+      </c>
+      <c r="L9" t="n">
         <v>13000</v>
       </c>
-      <c r="L9" t="n">
-        <v>14000</v>
-      </c>
       <c r="M9" t="n">
-        <v>13500</v>
+        <v>12500</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>1038</v>
+        <v>962</v>
       </c>
       <c r="Q9" t="n">
         <v>13</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Jengibre.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Jengibre.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44229</v>
+        <v>44469</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="K2" t="n">
-        <v>44000</v>
+        <v>13000</v>
       </c>
       <c r="L2" t="n">
-        <v>45000</v>
+        <v>14000</v>
       </c>
       <c r="M2" t="n">
-        <v>44500</v>
+        <v>13500</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>3423</v>
+        <v>1038</v>
       </c>
       <c r="Q2" t="n">
         <v>13</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44159</v>
+        <v>44406</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>100</v>
+        <v>160</v>
       </c>
       <c r="K3" t="n">
-        <v>23000</v>
+        <v>17000</v>
       </c>
       <c r="L3" t="n">
-        <v>24000</v>
+        <v>18000</v>
       </c>
       <c r="M3" t="n">
-        <v>23500</v>
+        <v>17500</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>1808</v>
+        <v>1346</v>
       </c>
       <c r="Q3" t="n">
         <v>13</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44397</v>
+        <v>44159</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="K4" t="n">
-        <v>12500</v>
+        <v>23000</v>
       </c>
       <c r="L4" t="n">
-        <v>13000</v>
+        <v>24000</v>
       </c>
       <c r="M4" t="n">
-        <v>12750</v>
+        <v>23500</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>981</v>
+        <v>1808</v>
       </c>
       <c r="Q4" t="n">
         <v>13</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44406</v>
+        <v>44397</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="K5" t="n">
-        <v>17000</v>
+        <v>12500</v>
       </c>
       <c r="L5" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="M5" t="n">
-        <v>17500</v>
+        <v>12750</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>1346</v>
+        <v>981</v>
       </c>
       <c r="Q5" t="n">
         <v>13</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44469</v>
+        <v>44389</v>
       </c>
       <c r="E7" t="n">
         <v>15</v>
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="K7" t="n">
+        <v>12000</v>
+      </c>
+      <c r="L7" t="n">
         <v>13000</v>
       </c>
-      <c r="L7" t="n">
-        <v>14000</v>
-      </c>
       <c r="M7" t="n">
-        <v>13500</v>
+        <v>12500</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>1038</v>
+        <v>962</v>
       </c>
       <c r="Q7" t="n">
         <v>13</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44389</v>
+        <v>44229</v>
       </c>
       <c r="E9" t="n">
         <v>15</v>
@@ -1008,13 +1008,13 @@
         <v>120</v>
       </c>
       <c r="K9" t="n">
-        <v>12000</v>
+        <v>44000</v>
       </c>
       <c r="L9" t="n">
-        <v>13000</v>
+        <v>45000</v>
       </c>
       <c r="M9" t="n">
-        <v>12500</v>
+        <v>44500</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>962</v>
+        <v>3423</v>
       </c>
       <c r="Q9" t="n">
         <v>13</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Jengibre.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Jengibre.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R9"/>
+  <dimension ref="A1:R10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44320</v>
+        <v>44580</v>
       </c>
       <c r="E6" t="n">
         <v>15</v>
@@ -792,13 +792,13 @@
         <v>160</v>
       </c>
       <c r="K6" t="n">
-        <v>19000</v>
+        <v>11000</v>
       </c>
       <c r="L6" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="M6" t="n">
-        <v>19500</v>
+        <v>11500</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>1500</v>
+        <v>885</v>
       </c>
       <c r="Q6" t="n">
         <v>13</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44389</v>
+        <v>44320</v>
       </c>
       <c r="E7" t="n">
         <v>15</v>
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="K7" t="n">
-        <v>12000</v>
+        <v>19000</v>
       </c>
       <c r="L7" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="M7" t="n">
-        <v>12500</v>
+        <v>19500</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>962</v>
+        <v>1500</v>
       </c>
       <c r="Q7" t="n">
         <v>13</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44379</v>
+        <v>44389</v>
       </c>
       <c r="E8" t="n">
         <v>15</v>
@@ -942,7 +942,7 @@
         <v>13000</v>
       </c>
       <c r="M8" t="n">
-        <v>12667</v>
+        <v>12500</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>974</v>
+        <v>962</v>
       </c>
       <c r="Q8" t="n">
         <v>13</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44229</v>
+        <v>44379</v>
       </c>
       <c r="E9" t="n">
         <v>15</v>
@@ -1008,13 +1008,13 @@
         <v>120</v>
       </c>
       <c r="K9" t="n">
-        <v>44000</v>
+        <v>12000</v>
       </c>
       <c r="L9" t="n">
-        <v>45000</v>
+        <v>13000</v>
       </c>
       <c r="M9" t="n">
-        <v>44500</v>
+        <v>12667</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,12 +1027,84 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>3423</v>
+        <v>974</v>
       </c>
       <c r="Q9" t="n">
         <v>13</v>
       </c>
       <c r="R9" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>1</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Agrícola del Norte S.A. de Arica</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="n">
+        <v>44229</v>
+      </c>
+      <c r="E10" t="n">
+        <v>15</v>
+      </c>
+      <c r="F10" t="n">
+        <v>100114007</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Jengibre</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J10" t="n">
+        <v>120</v>
+      </c>
+      <c r="K10" t="n">
+        <v>44000</v>
+      </c>
+      <c r="L10" t="n">
+        <v>45000</v>
+      </c>
+      <c r="M10" t="n">
+        <v>44500</v>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>$/caja 13 kilos</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>Perú</t>
+        </is>
+      </c>
+      <c r="P10" t="n">
+        <v>3423</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>13</v>
+      </c>
+      <c r="R10" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Jengibre.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Jengibre.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44469</v>
+        <v>44389</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="K2" t="n">
+        <v>12000</v>
+      </c>
+      <c r="L2" t="n">
         <v>13000</v>
       </c>
-      <c r="L2" t="n">
-        <v>14000</v>
-      </c>
       <c r="M2" t="n">
-        <v>13500</v>
+        <v>12500</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>1038</v>
+        <v>962</v>
       </c>
       <c r="Q2" t="n">
         <v>13</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44159</v>
+        <v>44379</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="K4" t="n">
-        <v>23000</v>
+        <v>12000</v>
       </c>
       <c r="L4" t="n">
-        <v>24000</v>
+        <v>13000</v>
       </c>
       <c r="M4" t="n">
-        <v>23500</v>
+        <v>12667</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>1808</v>
+        <v>974</v>
       </c>
       <c r="Q4" t="n">
         <v>13</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44397</v>
+        <v>44229</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="K5" t="n">
-        <v>12500</v>
+        <v>44000</v>
       </c>
       <c r="L5" t="n">
-        <v>13000</v>
+        <v>45000</v>
       </c>
       <c r="M5" t="n">
-        <v>12750</v>
+        <v>44500</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>981</v>
+        <v>3423</v>
       </c>
       <c r="Q5" t="n">
         <v>13</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44580</v>
+        <v>44320</v>
       </c>
       <c r="E6" t="n">
         <v>15</v>
@@ -792,13 +792,13 @@
         <v>160</v>
       </c>
       <c r="K6" t="n">
-        <v>11000</v>
+        <v>19000</v>
       </c>
       <c r="L6" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="M6" t="n">
-        <v>11500</v>
+        <v>19500</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>885</v>
+        <v>1500</v>
       </c>
       <c r="Q6" t="n">
         <v>13</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44320</v>
+        <v>44469</v>
       </c>
       <c r="E7" t="n">
         <v>15</v>
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="K7" t="n">
-        <v>19000</v>
+        <v>13000</v>
       </c>
       <c r="L7" t="n">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="M7" t="n">
-        <v>19500</v>
+        <v>13500</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>1500</v>
+        <v>1038</v>
       </c>
       <c r="Q7" t="n">
         <v>13</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44389</v>
+        <v>44397</v>
       </c>
       <c r="E8" t="n">
         <v>15</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="K8" t="n">
-        <v>12000</v>
+        <v>12500</v>
       </c>
       <c r="L8" t="n">
         <v>13000</v>
       </c>
       <c r="M8" t="n">
-        <v>12500</v>
+        <v>12750</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>962</v>
+        <v>981</v>
       </c>
       <c r="Q8" t="n">
         <v>13</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44379</v>
+        <v>44159</v>
       </c>
       <c r="E9" t="n">
         <v>15</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="K9" t="n">
-        <v>12000</v>
+        <v>23000</v>
       </c>
       <c r="L9" t="n">
-        <v>13000</v>
+        <v>24000</v>
       </c>
       <c r="M9" t="n">
-        <v>12667</v>
+        <v>23500</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>974</v>
+        <v>1808</v>
       </c>
       <c r="Q9" t="n">
         <v>13</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44229</v>
+        <v>44580</v>
       </c>
       <c r="E10" t="n">
         <v>15</v>
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="K10" t="n">
-        <v>44000</v>
+        <v>11000</v>
       </c>
       <c r="L10" t="n">
-        <v>45000</v>
+        <v>12000</v>
       </c>
       <c r="M10" t="n">
-        <v>44500</v>
+        <v>11500</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>3423</v>
+        <v>885</v>
       </c>
       <c r="Q10" t="n">
         <v>13</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Jengibre.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Jengibre.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R10"/>
+  <dimension ref="A1:R11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44320</v>
+        <v>44592</v>
       </c>
       <c r="E6" t="n">
         <v>15</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="K6" t="n">
-        <v>19000</v>
+        <v>12000</v>
       </c>
       <c r="L6" t="n">
-        <v>20000</v>
+        <v>13000</v>
       </c>
       <c r="M6" t="n">
-        <v>19500</v>
+        <v>12500</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>1500</v>
+        <v>962</v>
       </c>
       <c r="Q6" t="n">
         <v>13</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44469</v>
+        <v>44320</v>
       </c>
       <c r="E7" t="n">
         <v>15</v>
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="K7" t="n">
-        <v>13000</v>
+        <v>19000</v>
       </c>
       <c r="L7" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="M7" t="n">
-        <v>13500</v>
+        <v>19500</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>1038</v>
+        <v>1500</v>
       </c>
       <c r="Q7" t="n">
         <v>13</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44397</v>
+        <v>44469</v>
       </c>
       <c r="E8" t="n">
         <v>15</v>
@@ -936,13 +936,13 @@
         <v>140</v>
       </c>
       <c r="K8" t="n">
-        <v>12500</v>
+        <v>13000</v>
       </c>
       <c r="L8" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="M8" t="n">
-        <v>12750</v>
+        <v>13500</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>981</v>
+        <v>1038</v>
       </c>
       <c r="Q8" t="n">
         <v>13</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44159</v>
+        <v>44397</v>
       </c>
       <c r="E9" t="n">
         <v>15</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="K9" t="n">
-        <v>23000</v>
+        <v>12500</v>
       </c>
       <c r="L9" t="n">
-        <v>24000</v>
+        <v>13000</v>
       </c>
       <c r="M9" t="n">
-        <v>23500</v>
+        <v>12750</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>1808</v>
+        <v>981</v>
       </c>
       <c r="Q9" t="n">
         <v>13</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44580</v>
+        <v>44159</v>
       </c>
       <c r="E10" t="n">
         <v>15</v>
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="K10" t="n">
-        <v>11000</v>
+        <v>23000</v>
       </c>
       <c r="L10" t="n">
-        <v>12000</v>
+        <v>24000</v>
       </c>
       <c r="M10" t="n">
-        <v>11500</v>
+        <v>23500</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,12 +1099,84 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>885</v>
+        <v>1808</v>
       </c>
       <c r="Q10" t="n">
         <v>13</v>
       </c>
       <c r="R10" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>1</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Agrícola del Norte S.A. de Arica</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="n">
+        <v>44580</v>
+      </c>
+      <c r="E11" t="n">
+        <v>15</v>
+      </c>
+      <c r="F11" t="n">
+        <v>100114007</v>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Jengibre</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J11" t="n">
+        <v>160</v>
+      </c>
+      <c r="K11" t="n">
+        <v>11000</v>
+      </c>
+      <c r="L11" t="n">
+        <v>12000</v>
+      </c>
+      <c r="M11" t="n">
+        <v>11500</v>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>$/caja 13 kilos</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>Perú</t>
+        </is>
+      </c>
+      <c r="P11" t="n">
+        <v>885</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>13</v>
+      </c>
+      <c r="R11" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Jengibre.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Jengibre.xlsx
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44406</v>
+        <v>44379</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="K3" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="L3" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="M3" t="n">
-        <v>17500</v>
+        <v>12667</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>1346</v>
+        <v>974</v>
       </c>
       <c r="Q3" t="n">
         <v>13</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44379</v>
+        <v>44580</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="K4" t="n">
+        <v>11000</v>
+      </c>
+      <c r="L4" t="n">
         <v>12000</v>
       </c>
-      <c r="L4" t="n">
-        <v>13000</v>
-      </c>
       <c r="M4" t="n">
-        <v>12667</v>
+        <v>11500</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>974</v>
+        <v>885</v>
       </c>
       <c r="Q4" t="n">
         <v>13</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44229</v>
+        <v>44469</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="K5" t="n">
-        <v>44000</v>
+        <v>13000</v>
       </c>
       <c r="L5" t="n">
-        <v>45000</v>
+        <v>14000</v>
       </c>
       <c r="M5" t="n">
-        <v>44500</v>
+        <v>13500</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>3423</v>
+        <v>1038</v>
       </c>
       <c r="Q5" t="n">
         <v>13</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44592</v>
+        <v>44406</v>
       </c>
       <c r="E6" t="n">
         <v>15</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="K6" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="L6" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="M6" t="n">
-        <v>12500</v>
+        <v>17500</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>962</v>
+        <v>1346</v>
       </c>
       <c r="Q6" t="n">
         <v>13</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44320</v>
+        <v>44592</v>
       </c>
       <c r="E7" t="n">
         <v>15</v>
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="K7" t="n">
-        <v>19000</v>
+        <v>12000</v>
       </c>
       <c r="L7" t="n">
-        <v>20000</v>
+        <v>13000</v>
       </c>
       <c r="M7" t="n">
-        <v>19500</v>
+        <v>12500</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>1500</v>
+        <v>962</v>
       </c>
       <c r="Q7" t="n">
         <v>13</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44469</v>
+        <v>44159</v>
       </c>
       <c r="E8" t="n">
         <v>15</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="K8" t="n">
-        <v>13000</v>
+        <v>23000</v>
       </c>
       <c r="L8" t="n">
-        <v>14000</v>
+        <v>24000</v>
       </c>
       <c r="M8" t="n">
-        <v>13500</v>
+        <v>23500</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>1038</v>
+        <v>1808</v>
       </c>
       <c r="Q8" t="n">
         <v>13</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44397</v>
+        <v>44320</v>
       </c>
       <c r="E9" t="n">
         <v>15</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="K9" t="n">
-        <v>12500</v>
+        <v>19000</v>
       </c>
       <c r="L9" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="M9" t="n">
-        <v>12750</v>
+        <v>19500</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>981</v>
+        <v>1500</v>
       </c>
       <c r="Q9" t="n">
         <v>13</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44159</v>
+        <v>44397</v>
       </c>
       <c r="E10" t="n">
         <v>15</v>
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="K10" t="n">
-        <v>23000</v>
+        <v>12500</v>
       </c>
       <c r="L10" t="n">
-        <v>24000</v>
+        <v>13000</v>
       </c>
       <c r="M10" t="n">
-        <v>23500</v>
+        <v>12750</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>1808</v>
+        <v>981</v>
       </c>
       <c r="Q10" t="n">
         <v>13</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44580</v>
+        <v>44229</v>
       </c>
       <c r="E11" t="n">
         <v>15</v>
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="K11" t="n">
-        <v>11000</v>
+        <v>44000</v>
       </c>
       <c r="L11" t="n">
-        <v>12000</v>
+        <v>45000</v>
       </c>
       <c r="M11" t="n">
-        <v>11500</v>
+        <v>44500</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>885</v>
+        <v>3423</v>
       </c>
       <c r="Q11" t="n">
         <v>13</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Jengibre.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Jengibre.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R11"/>
+  <dimension ref="A1:R12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44379</v>
+        <v>44616</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -576,13 +576,13 @@
         <v>120</v>
       </c>
       <c r="K3" t="n">
-        <v>12000</v>
+        <v>19000</v>
       </c>
       <c r="L3" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="M3" t="n">
-        <v>12667</v>
+        <v>19500</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>974</v>
+        <v>1500</v>
       </c>
       <c r="Q3" t="n">
         <v>13</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44580</v>
+        <v>44379</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="K4" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="L4" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="M4" t="n">
-        <v>11500</v>
+        <v>12667</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>885</v>
+        <v>974</v>
       </c>
       <c r="Q4" t="n">
         <v>13</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44469</v>
+        <v>44580</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="K5" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="L5" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="M5" t="n">
-        <v>13500</v>
+        <v>11500</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>1038</v>
+        <v>885</v>
       </c>
       <c r="Q5" t="n">
         <v>13</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44406</v>
+        <v>44469</v>
       </c>
       <c r="E6" t="n">
         <v>15</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="K6" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="L6" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="M6" t="n">
-        <v>17500</v>
+        <v>13500</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>1346</v>
+        <v>1038</v>
       </c>
       <c r="Q6" t="n">
         <v>13</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44592</v>
+        <v>44406</v>
       </c>
       <c r="E7" t="n">
         <v>15</v>
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="K7" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="L7" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="M7" t="n">
-        <v>12500</v>
+        <v>17500</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>962</v>
+        <v>1346</v>
       </c>
       <c r="Q7" t="n">
         <v>13</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44159</v>
+        <v>44592</v>
       </c>
       <c r="E8" t="n">
         <v>15</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="K8" t="n">
-        <v>23000</v>
+        <v>12000</v>
       </c>
       <c r="L8" t="n">
-        <v>24000</v>
+        <v>13000</v>
       </c>
       <c r="M8" t="n">
-        <v>23500</v>
+        <v>12500</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>1808</v>
+        <v>962</v>
       </c>
       <c r="Q8" t="n">
         <v>13</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44320</v>
+        <v>44159</v>
       </c>
       <c r="E9" t="n">
         <v>15</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="K9" t="n">
-        <v>19000</v>
+        <v>23000</v>
       </c>
       <c r="L9" t="n">
-        <v>20000</v>
+        <v>24000</v>
       </c>
       <c r="M9" t="n">
-        <v>19500</v>
+        <v>23500</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>1500</v>
+        <v>1808</v>
       </c>
       <c r="Q9" t="n">
         <v>13</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44397</v>
+        <v>44320</v>
       </c>
       <c r="E10" t="n">
         <v>15</v>
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="K10" t="n">
-        <v>12500</v>
+        <v>19000</v>
       </c>
       <c r="L10" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="M10" t="n">
-        <v>12750</v>
+        <v>19500</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>981</v>
+        <v>1500</v>
       </c>
       <c r="Q10" t="n">
         <v>13</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44229</v>
+        <v>44397</v>
       </c>
       <c r="E11" t="n">
         <v>15</v>
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="K11" t="n">
-        <v>44000</v>
+        <v>12500</v>
       </c>
       <c r="L11" t="n">
-        <v>45000</v>
+        <v>13000</v>
       </c>
       <c r="M11" t="n">
-        <v>44500</v>
+        <v>12750</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,12 +1171,84 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>3423</v>
+        <v>981</v>
       </c>
       <c r="Q11" t="n">
         <v>13</v>
       </c>
       <c r="R11" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>1</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Agrícola del Norte S.A. de Arica</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="n">
+        <v>44229</v>
+      </c>
+      <c r="E12" t="n">
+        <v>15</v>
+      </c>
+      <c r="F12" t="n">
+        <v>100114007</v>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Jengibre</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J12" t="n">
+        <v>120</v>
+      </c>
+      <c r="K12" t="n">
+        <v>44000</v>
+      </c>
+      <c r="L12" t="n">
+        <v>45000</v>
+      </c>
+      <c r="M12" t="n">
+        <v>44500</v>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>$/caja 13 kilos</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>Perú</t>
+        </is>
+      </c>
+      <c r="P12" t="n">
+        <v>3423</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>13</v>
+      </c>
+      <c r="R12" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Jengibre.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Jengibre.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44389</v>
+        <v>44320</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="K2" t="n">
-        <v>12000</v>
+        <v>19000</v>
       </c>
       <c r="L2" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="M2" t="n">
-        <v>12500</v>
+        <v>19500</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>962</v>
+        <v>1500</v>
       </c>
       <c r="Q2" t="n">
         <v>13</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44616</v>
+        <v>44580</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="K3" t="n">
-        <v>19000</v>
+        <v>11000</v>
       </c>
       <c r="L3" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="M3" t="n">
-        <v>19500</v>
+        <v>11500</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>1500</v>
+        <v>885</v>
       </c>
       <c r="Q3" t="n">
         <v>13</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44379</v>
+        <v>44389</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -654,7 +654,7 @@
         <v>13000</v>
       </c>
       <c r="M4" t="n">
-        <v>12667</v>
+        <v>12500</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>974</v>
+        <v>962</v>
       </c>
       <c r="Q4" t="n">
         <v>13</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44580</v>
+        <v>44159</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="K5" t="n">
-        <v>11000</v>
+        <v>23000</v>
       </c>
       <c r="L5" t="n">
-        <v>12000</v>
+        <v>24000</v>
       </c>
       <c r="M5" t="n">
-        <v>11500</v>
+        <v>23500</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>885</v>
+        <v>1808</v>
       </c>
       <c r="Q5" t="n">
         <v>13</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44469</v>
+        <v>44397</v>
       </c>
       <c r="E6" t="n">
         <v>15</v>
@@ -792,13 +792,13 @@
         <v>140</v>
       </c>
       <c r="K6" t="n">
+        <v>12500</v>
+      </c>
+      <c r="L6" t="n">
         <v>13000</v>
       </c>
-      <c r="L6" t="n">
-        <v>14000</v>
-      </c>
       <c r="M6" t="n">
-        <v>13500</v>
+        <v>12750</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>1038</v>
+        <v>981</v>
       </c>
       <c r="Q6" t="n">
         <v>13</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44406</v>
+        <v>44616</v>
       </c>
       <c r="E7" t="n">
         <v>15</v>
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="K7" t="n">
-        <v>17000</v>
+        <v>19000</v>
       </c>
       <c r="L7" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="M7" t="n">
-        <v>17500</v>
+        <v>19500</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>1346</v>
+        <v>1500</v>
       </c>
       <c r="Q7" t="n">
         <v>13</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44592</v>
+        <v>44229</v>
       </c>
       <c r="E8" t="n">
         <v>15</v>
@@ -936,13 +936,13 @@
         <v>120</v>
       </c>
       <c r="K8" t="n">
-        <v>12000</v>
+        <v>44000</v>
       </c>
       <c r="L8" t="n">
-        <v>13000</v>
+        <v>45000</v>
       </c>
       <c r="M8" t="n">
-        <v>12500</v>
+        <v>44500</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>962</v>
+        <v>3423</v>
       </c>
       <c r="Q8" t="n">
         <v>13</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44159</v>
+        <v>44406</v>
       </c>
       <c r="E9" t="n">
         <v>15</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>100</v>
+        <v>160</v>
       </c>
       <c r="K9" t="n">
-        <v>23000</v>
+        <v>17000</v>
       </c>
       <c r="L9" t="n">
-        <v>24000</v>
+        <v>18000</v>
       </c>
       <c r="M9" t="n">
-        <v>23500</v>
+        <v>17500</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>1808</v>
+        <v>1346</v>
       </c>
       <c r="Q9" t="n">
         <v>13</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44320</v>
+        <v>44379</v>
       </c>
       <c r="E10" t="n">
         <v>15</v>
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="K10" t="n">
-        <v>19000</v>
+        <v>12000</v>
       </c>
       <c r="L10" t="n">
-        <v>20000</v>
+        <v>13000</v>
       </c>
       <c r="M10" t="n">
-        <v>19500</v>
+        <v>12667</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>1500</v>
+        <v>974</v>
       </c>
       <c r="Q10" t="n">
         <v>13</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44397</v>
+        <v>44469</v>
       </c>
       <c r="E11" t="n">
         <v>15</v>
@@ -1152,13 +1152,13 @@
         <v>140</v>
       </c>
       <c r="K11" t="n">
-        <v>12500</v>
+        <v>13000</v>
       </c>
       <c r="L11" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="M11" t="n">
-        <v>12750</v>
+        <v>13500</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>981</v>
+        <v>1038</v>
       </c>
       <c r="Q11" t="n">
         <v>13</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44229</v>
+        <v>44592</v>
       </c>
       <c r="E12" t="n">
         <v>15</v>
@@ -1224,13 +1224,13 @@
         <v>120</v>
       </c>
       <c r="K12" t="n">
-        <v>44000</v>
+        <v>12000</v>
       </c>
       <c r="L12" t="n">
-        <v>45000</v>
+        <v>13000</v>
       </c>
       <c r="M12" t="n">
-        <v>44500</v>
+        <v>12500</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>3423</v>
+        <v>962</v>
       </c>
       <c r="Q12" t="n">
         <v>13</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Jengibre.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Jengibre.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44320</v>
+        <v>44580</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -504,13 +504,13 @@
         <v>160</v>
       </c>
       <c r="K2" t="n">
-        <v>19000</v>
+        <v>11000</v>
       </c>
       <c r="L2" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="M2" t="n">
-        <v>19500</v>
+        <v>11500</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>1500</v>
+        <v>885</v>
       </c>
       <c r="Q2" t="n">
         <v>13</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44580</v>
+        <v>44320</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -576,13 +576,13 @@
         <v>160</v>
       </c>
       <c r="K3" t="n">
-        <v>11000</v>
+        <v>19000</v>
       </c>
       <c r="L3" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="M3" t="n">
-        <v>11500</v>
+        <v>19500</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>885</v>
+        <v>1500</v>
       </c>
       <c r="Q3" t="n">
         <v>13</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44389</v>
+        <v>44229</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -648,13 +648,13 @@
         <v>120</v>
       </c>
       <c r="K4" t="n">
-        <v>12000</v>
+        <v>44000</v>
       </c>
       <c r="L4" t="n">
-        <v>13000</v>
+        <v>45000</v>
       </c>
       <c r="M4" t="n">
-        <v>12500</v>
+        <v>44500</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>962</v>
+        <v>3423</v>
       </c>
       <c r="Q4" t="n">
         <v>13</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44159</v>
+        <v>44379</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="K5" t="n">
-        <v>23000</v>
+        <v>12000</v>
       </c>
       <c r="L5" t="n">
-        <v>24000</v>
+        <v>13000</v>
       </c>
       <c r="M5" t="n">
-        <v>23500</v>
+        <v>12667</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>1808</v>
+        <v>974</v>
       </c>
       <c r="Q5" t="n">
         <v>13</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44616</v>
+        <v>44469</v>
       </c>
       <c r="E7" t="n">
         <v>15</v>
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="K7" t="n">
-        <v>19000</v>
+        <v>13000</v>
       </c>
       <c r="L7" t="n">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="M7" t="n">
-        <v>19500</v>
+        <v>13500</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>1500</v>
+        <v>1038</v>
       </c>
       <c r="Q7" t="n">
         <v>13</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44229</v>
+        <v>44159</v>
       </c>
       <c r="E8" t="n">
         <v>15</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="K8" t="n">
-        <v>44000</v>
+        <v>23000</v>
       </c>
       <c r="L8" t="n">
-        <v>45000</v>
+        <v>24000</v>
       </c>
       <c r="M8" t="n">
-        <v>44500</v>
+        <v>23500</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>3423</v>
+        <v>1808</v>
       </c>
       <c r="Q8" t="n">
         <v>13</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44406</v>
+        <v>44592</v>
       </c>
       <c r="E9" t="n">
         <v>15</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="K9" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="L9" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="M9" t="n">
-        <v>17500</v>
+        <v>12500</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>1346</v>
+        <v>962</v>
       </c>
       <c r="Q9" t="n">
         <v>13</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44379</v>
+        <v>44616</v>
       </c>
       <c r="E10" t="n">
         <v>15</v>
@@ -1080,13 +1080,13 @@
         <v>120</v>
       </c>
       <c r="K10" t="n">
-        <v>12000</v>
+        <v>19000</v>
       </c>
       <c r="L10" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="M10" t="n">
-        <v>12667</v>
+        <v>19500</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>974</v>
+        <v>1500</v>
       </c>
       <c r="Q10" t="n">
         <v>13</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44469</v>
+        <v>44406</v>
       </c>
       <c r="E11" t="n">
         <v>15</v>
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="K11" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="L11" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="M11" t="n">
-        <v>13500</v>
+        <v>17500</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>1038</v>
+        <v>1346</v>
       </c>
       <c r="Q11" t="n">
         <v>13</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44592</v>
+        <v>44389</v>
       </c>
       <c r="E12" t="n">
         <v>15</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Jengibre.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Jengibre.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44580</v>
+        <v>44379</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="K2" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="L2" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="M2" t="n">
-        <v>11500</v>
+        <v>12667</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>885</v>
+        <v>974</v>
       </c>
       <c r="Q2" t="n">
         <v>13</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44320</v>
+        <v>44389</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="K3" t="n">
-        <v>19000</v>
+        <v>12000</v>
       </c>
       <c r="L3" t="n">
-        <v>20000</v>
+        <v>13000</v>
       </c>
       <c r="M3" t="n">
-        <v>19500</v>
+        <v>12500</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>1500</v>
+        <v>962</v>
       </c>
       <c r="Q3" t="n">
         <v>13</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44229</v>
+        <v>44469</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="K4" t="n">
-        <v>44000</v>
+        <v>13000</v>
       </c>
       <c r="L4" t="n">
-        <v>45000</v>
+        <v>14000</v>
       </c>
       <c r="M4" t="n">
-        <v>44500</v>
+        <v>13500</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>3423</v>
+        <v>1038</v>
       </c>
       <c r="Q4" t="n">
         <v>13</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44379</v>
+        <v>44229</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -720,13 +720,13 @@
         <v>120</v>
       </c>
       <c r="K5" t="n">
-        <v>12000</v>
+        <v>44000</v>
       </c>
       <c r="L5" t="n">
-        <v>13000</v>
+        <v>45000</v>
       </c>
       <c r="M5" t="n">
-        <v>12667</v>
+        <v>44500</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>974</v>
+        <v>3423</v>
       </c>
       <c r="Q5" t="n">
         <v>13</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44397</v>
+        <v>44159</v>
       </c>
       <c r="E6" t="n">
         <v>15</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="K6" t="n">
-        <v>12500</v>
+        <v>23000</v>
       </c>
       <c r="L6" t="n">
-        <v>13000</v>
+        <v>24000</v>
       </c>
       <c r="M6" t="n">
-        <v>12750</v>
+        <v>23500</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>981</v>
+        <v>1808</v>
       </c>
       <c r="Q6" t="n">
         <v>13</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44469</v>
+        <v>44616</v>
       </c>
       <c r="E7" t="n">
         <v>15</v>
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="K7" t="n">
-        <v>13000</v>
+        <v>19000</v>
       </c>
       <c r="L7" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="M7" t="n">
-        <v>13500</v>
+        <v>19500</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>1038</v>
+        <v>1500</v>
       </c>
       <c r="Q7" t="n">
         <v>13</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44159</v>
+        <v>44320</v>
       </c>
       <c r="E8" t="n">
         <v>15</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>100</v>
+        <v>160</v>
       </c>
       <c r="K8" t="n">
-        <v>23000</v>
+        <v>19000</v>
       </c>
       <c r="L8" t="n">
-        <v>24000</v>
+        <v>20000</v>
       </c>
       <c r="M8" t="n">
-        <v>23500</v>
+        <v>19500</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>1808</v>
+        <v>1500</v>
       </c>
       <c r="Q8" t="n">
         <v>13</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44592</v>
+        <v>44397</v>
       </c>
       <c r="E9" t="n">
         <v>15</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="K9" t="n">
-        <v>12000</v>
+        <v>12500</v>
       </c>
       <c r="L9" t="n">
         <v>13000</v>
       </c>
       <c r="M9" t="n">
-        <v>12500</v>
+        <v>12750</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>962</v>
+        <v>981</v>
       </c>
       <c r="Q9" t="n">
         <v>13</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44616</v>
+        <v>44406</v>
       </c>
       <c r="E10" t="n">
         <v>15</v>
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="K10" t="n">
-        <v>19000</v>
+        <v>17000</v>
       </c>
       <c r="L10" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="M10" t="n">
-        <v>19500</v>
+        <v>17500</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>1500</v>
+        <v>1346</v>
       </c>
       <c r="Q10" t="n">
         <v>13</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44406</v>
+        <v>44580</v>
       </c>
       <c r="E11" t="n">
         <v>15</v>
@@ -1152,13 +1152,13 @@
         <v>160</v>
       </c>
       <c r="K11" t="n">
-        <v>17000</v>
+        <v>11000</v>
       </c>
       <c r="L11" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="M11" t="n">
-        <v>17500</v>
+        <v>11500</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>1346</v>
+        <v>885</v>
       </c>
       <c r="Q11" t="n">
         <v>13</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44389</v>
+        <v>44592</v>
       </c>
       <c r="E12" t="n">
         <v>15</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Jengibre.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Jengibre.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44379</v>
+        <v>44616</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -504,13 +504,13 @@
         <v>120</v>
       </c>
       <c r="K2" t="n">
-        <v>12000</v>
+        <v>19000</v>
       </c>
       <c r="L2" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="M2" t="n">
-        <v>12667</v>
+        <v>19500</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>974</v>
+        <v>1500</v>
       </c>
       <c r="Q2" t="n">
         <v>13</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44389</v>
+        <v>44229</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -576,13 +576,13 @@
         <v>120</v>
       </c>
       <c r="K3" t="n">
-        <v>12000</v>
+        <v>44000</v>
       </c>
       <c r="L3" t="n">
-        <v>13000</v>
+        <v>45000</v>
       </c>
       <c r="M3" t="n">
-        <v>12500</v>
+        <v>44500</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>962</v>
+        <v>3423</v>
       </c>
       <c r="Q3" t="n">
         <v>13</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44469</v>
+        <v>44406</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="K4" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="L4" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="M4" t="n">
-        <v>13500</v>
+        <v>17500</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>1038</v>
+        <v>1346</v>
       </c>
       <c r="Q4" t="n">
         <v>13</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44229</v>
+        <v>44580</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="K5" t="n">
-        <v>44000</v>
+        <v>11000</v>
       </c>
       <c r="L5" t="n">
-        <v>45000</v>
+        <v>12000</v>
       </c>
       <c r="M5" t="n">
-        <v>44500</v>
+        <v>11500</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>3423</v>
+        <v>885</v>
       </c>
       <c r="Q5" t="n">
         <v>13</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44616</v>
+        <v>44592</v>
       </c>
       <c r="E7" t="n">
         <v>15</v>
@@ -864,13 +864,13 @@
         <v>120</v>
       </c>
       <c r="K7" t="n">
-        <v>19000</v>
+        <v>12000</v>
       </c>
       <c r="L7" t="n">
-        <v>20000</v>
+        <v>13000</v>
       </c>
       <c r="M7" t="n">
-        <v>19500</v>
+        <v>12500</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>1500</v>
+        <v>962</v>
       </c>
       <c r="Q7" t="n">
         <v>13</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44320</v>
+        <v>44397</v>
       </c>
       <c r="E8" t="n">
         <v>15</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="K8" t="n">
-        <v>19000</v>
+        <v>12500</v>
       </c>
       <c r="L8" t="n">
-        <v>20000</v>
+        <v>13000</v>
       </c>
       <c r="M8" t="n">
-        <v>19500</v>
+        <v>12750</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>1500</v>
+        <v>981</v>
       </c>
       <c r="Q8" t="n">
         <v>13</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44397</v>
+        <v>44469</v>
       </c>
       <c r="E9" t="n">
         <v>15</v>
@@ -1008,13 +1008,13 @@
         <v>140</v>
       </c>
       <c r="K9" t="n">
-        <v>12500</v>
+        <v>13000</v>
       </c>
       <c r="L9" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="M9" t="n">
-        <v>12750</v>
+        <v>13500</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>981</v>
+        <v>1038</v>
       </c>
       <c r="Q9" t="n">
         <v>13</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44406</v>
+        <v>44389</v>
       </c>
       <c r="E10" t="n">
         <v>15</v>
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="K10" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="L10" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="M10" t="n">
-        <v>17500</v>
+        <v>12500</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>1346</v>
+        <v>962</v>
       </c>
       <c r="Q10" t="n">
         <v>13</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44580</v>
+        <v>44320</v>
       </c>
       <c r="E11" t="n">
         <v>15</v>
@@ -1152,13 +1152,13 @@
         <v>160</v>
       </c>
       <c r="K11" t="n">
-        <v>11000</v>
+        <v>19000</v>
       </c>
       <c r="L11" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="M11" t="n">
-        <v>11500</v>
+        <v>19500</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>885</v>
+        <v>1500</v>
       </c>
       <c r="Q11" t="n">
         <v>13</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44592</v>
+        <v>44379</v>
       </c>
       <c r="E12" t="n">
         <v>15</v>
@@ -1230,7 +1230,7 @@
         <v>13000</v>
       </c>
       <c r="M12" t="n">
-        <v>12500</v>
+        <v>12667</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>962</v>
+        <v>974</v>
       </c>
       <c r="Q12" t="n">
         <v>13</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Jengibre.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Jengibre.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44616</v>
+        <v>44320</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="K2" t="n">
         <v>19000</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44229</v>
+        <v>44397</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="K3" t="n">
-        <v>44000</v>
+        <v>12500</v>
       </c>
       <c r="L3" t="n">
-        <v>45000</v>
+        <v>13000</v>
       </c>
       <c r="M3" t="n">
-        <v>44500</v>
+        <v>12750</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>3423</v>
+        <v>981</v>
       </c>
       <c r="Q3" t="n">
         <v>13</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44406</v>
+        <v>44592</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="K4" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="L4" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="M4" t="n">
-        <v>17500</v>
+        <v>12500</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>1346</v>
+        <v>962</v>
       </c>
       <c r="Q4" t="n">
         <v>13</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44580</v>
+        <v>44406</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -720,13 +720,13 @@
         <v>160</v>
       </c>
       <c r="K5" t="n">
-        <v>11000</v>
+        <v>17000</v>
       </c>
       <c r="L5" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="M5" t="n">
-        <v>11500</v>
+        <v>17500</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>885</v>
+        <v>1346</v>
       </c>
       <c r="Q5" t="n">
         <v>13</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44159</v>
+        <v>44379</v>
       </c>
       <c r="E6" t="n">
         <v>15</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="K6" t="n">
-        <v>23000</v>
+        <v>12000</v>
       </c>
       <c r="L6" t="n">
-        <v>24000</v>
+        <v>13000</v>
       </c>
       <c r="M6" t="n">
-        <v>23500</v>
+        <v>12667</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>1808</v>
+        <v>974</v>
       </c>
       <c r="Q6" t="n">
         <v>13</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44592</v>
+        <v>44229</v>
       </c>
       <c r="E7" t="n">
         <v>15</v>
@@ -864,13 +864,13 @@
         <v>120</v>
       </c>
       <c r="K7" t="n">
-        <v>12000</v>
+        <v>44000</v>
       </c>
       <c r="L7" t="n">
-        <v>13000</v>
+        <v>45000</v>
       </c>
       <c r="M7" t="n">
-        <v>12500</v>
+        <v>44500</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>962</v>
+        <v>3423</v>
       </c>
       <c r="Q7" t="n">
         <v>13</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44397</v>
+        <v>44580</v>
       </c>
       <c r="E8" t="n">
         <v>15</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="K8" t="n">
-        <v>12500</v>
+        <v>11000</v>
       </c>
       <c r="L8" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="M8" t="n">
-        <v>12750</v>
+        <v>11500</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>981</v>
+        <v>885</v>
       </c>
       <c r="Q8" t="n">
         <v>13</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44469</v>
+        <v>44616</v>
       </c>
       <c r="E9" t="n">
         <v>15</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="K9" t="n">
-        <v>13000</v>
+        <v>19000</v>
       </c>
       <c r="L9" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="M9" t="n">
-        <v>13500</v>
+        <v>19500</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>1038</v>
+        <v>1500</v>
       </c>
       <c r="Q9" t="n">
         <v>13</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44320</v>
+        <v>44469</v>
       </c>
       <c r="E11" t="n">
         <v>15</v>
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="K11" t="n">
-        <v>19000</v>
+        <v>13000</v>
       </c>
       <c r="L11" t="n">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="M11" t="n">
-        <v>19500</v>
+        <v>13500</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>1500</v>
+        <v>1038</v>
       </c>
       <c r="Q11" t="n">
         <v>13</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44379</v>
+        <v>44159</v>
       </c>
       <c r="E12" t="n">
         <v>15</v>
@@ -1221,16 +1221,16 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="K12" t="n">
-        <v>12000</v>
+        <v>23000</v>
       </c>
       <c r="L12" t="n">
-        <v>13000</v>
+        <v>24000</v>
       </c>
       <c r="M12" t="n">
-        <v>12667</v>
+        <v>23500</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>974</v>
+        <v>1808</v>
       </c>
       <c r="Q12" t="n">
         <v>13</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Jengibre.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Jengibre.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44320</v>
+        <v>44379</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="K2" t="n">
-        <v>19000</v>
+        <v>12000</v>
       </c>
       <c r="L2" t="n">
-        <v>20000</v>
+        <v>13000</v>
       </c>
       <c r="M2" t="n">
-        <v>19500</v>
+        <v>12667</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>1500</v>
+        <v>974</v>
       </c>
       <c r="Q2" t="n">
         <v>13</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44397</v>
+        <v>44616</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="K3" t="n">
-        <v>12500</v>
+        <v>19000</v>
       </c>
       <c r="L3" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="M3" t="n">
-        <v>12750</v>
+        <v>19500</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>981</v>
+        <v>1500</v>
       </c>
       <c r="Q3" t="n">
         <v>13</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44592</v>
+        <v>44469</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="K4" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="L4" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="M4" t="n">
-        <v>12500</v>
+        <v>13500</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>962</v>
+        <v>1038</v>
       </c>
       <c r="Q4" t="n">
         <v>13</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44406</v>
+        <v>44159</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="K5" t="n">
-        <v>17000</v>
+        <v>23000</v>
       </c>
       <c r="L5" t="n">
-        <v>18000</v>
+        <v>24000</v>
       </c>
       <c r="M5" t="n">
-        <v>17500</v>
+        <v>23500</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>1346</v>
+        <v>1808</v>
       </c>
       <c r="Q5" t="n">
         <v>13</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44379</v>
+        <v>44397</v>
       </c>
       <c r="E6" t="n">
         <v>15</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="K6" t="n">
-        <v>12000</v>
+        <v>12500</v>
       </c>
       <c r="L6" t="n">
         <v>13000</v>
       </c>
       <c r="M6" t="n">
-        <v>12667</v>
+        <v>12750</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>974</v>
+        <v>981</v>
       </c>
       <c r="Q6" t="n">
         <v>13</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44580</v>
+        <v>44592</v>
       </c>
       <c r="E8" t="n">
         <v>15</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="K8" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="L8" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="M8" t="n">
-        <v>11500</v>
+        <v>12500</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>885</v>
+        <v>962</v>
       </c>
       <c r="Q8" t="n">
         <v>13</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44616</v>
+        <v>44389</v>
       </c>
       <c r="E9" t="n">
         <v>15</v>
@@ -1008,13 +1008,13 @@
         <v>120</v>
       </c>
       <c r="K9" t="n">
-        <v>19000</v>
+        <v>12000</v>
       </c>
       <c r="L9" t="n">
-        <v>20000</v>
+        <v>13000</v>
       </c>
       <c r="M9" t="n">
-        <v>19500</v>
+        <v>12500</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>1500</v>
+        <v>962</v>
       </c>
       <c r="Q9" t="n">
         <v>13</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44389</v>
+        <v>44406</v>
       </c>
       <c r="E10" t="n">
         <v>15</v>
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="K10" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="L10" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="M10" t="n">
-        <v>12500</v>
+        <v>17500</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>962</v>
+        <v>1346</v>
       </c>
       <c r="Q10" t="n">
         <v>13</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44469</v>
+        <v>44320</v>
       </c>
       <c r="E11" t="n">
         <v>15</v>
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="K11" t="n">
-        <v>13000</v>
+        <v>19000</v>
       </c>
       <c r="L11" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="M11" t="n">
-        <v>13500</v>
+        <v>19500</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>1038</v>
+        <v>1500</v>
       </c>
       <c r="Q11" t="n">
         <v>13</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44159</v>
+        <v>44580</v>
       </c>
       <c r="E12" t="n">
         <v>15</v>
@@ -1221,16 +1221,16 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>100</v>
+        <v>160</v>
       </c>
       <c r="K12" t="n">
-        <v>23000</v>
+        <v>11000</v>
       </c>
       <c r="L12" t="n">
-        <v>24000</v>
+        <v>12000</v>
       </c>
       <c r="M12" t="n">
-        <v>23500</v>
+        <v>11500</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>1808</v>
+        <v>885</v>
       </c>
       <c r="Q12" t="n">
         <v>13</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Jengibre.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Jengibre.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44379</v>
+        <v>44592</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -510,7 +510,7 @@
         <v>13000</v>
       </c>
       <c r="M2" t="n">
-        <v>12667</v>
+        <v>12500</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>974</v>
+        <v>962</v>
       </c>
       <c r="Q2" t="n">
         <v>13</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44616</v>
+        <v>44229</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -576,13 +576,13 @@
         <v>120</v>
       </c>
       <c r="K3" t="n">
-        <v>19000</v>
+        <v>44000</v>
       </c>
       <c r="L3" t="n">
-        <v>20000</v>
+        <v>45000</v>
       </c>
       <c r="M3" t="n">
-        <v>19500</v>
+        <v>44500</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>1500</v>
+        <v>3423</v>
       </c>
       <c r="Q3" t="n">
         <v>13</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44469</v>
+        <v>44159</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="K4" t="n">
-        <v>13000</v>
+        <v>23000</v>
       </c>
       <c r="L4" t="n">
-        <v>14000</v>
+        <v>24000</v>
       </c>
       <c r="M4" t="n">
-        <v>13500</v>
+        <v>23500</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>1038</v>
+        <v>1808</v>
       </c>
       <c r="Q4" t="n">
         <v>13</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44159</v>
+        <v>44379</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="K5" t="n">
-        <v>23000</v>
+        <v>12000</v>
       </c>
       <c r="L5" t="n">
-        <v>24000</v>
+        <v>13000</v>
       </c>
       <c r="M5" t="n">
-        <v>23500</v>
+        <v>12667</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>1808</v>
+        <v>974</v>
       </c>
       <c r="Q5" t="n">
         <v>13</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44397</v>
+        <v>44469</v>
       </c>
       <c r="E6" t="n">
         <v>15</v>
@@ -792,13 +792,13 @@
         <v>140</v>
       </c>
       <c r="K6" t="n">
-        <v>12500</v>
+        <v>13000</v>
       </c>
       <c r="L6" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="M6" t="n">
-        <v>12750</v>
+        <v>13500</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>981</v>
+        <v>1038</v>
       </c>
       <c r="Q6" t="n">
         <v>13</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44229</v>
+        <v>44320</v>
       </c>
       <c r="E7" t="n">
         <v>15</v>
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="K7" t="n">
-        <v>44000</v>
+        <v>19000</v>
       </c>
       <c r="L7" t="n">
-        <v>45000</v>
+        <v>20000</v>
       </c>
       <c r="M7" t="n">
-        <v>44500</v>
+        <v>19500</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>3423</v>
+        <v>1500</v>
       </c>
       <c r="Q7" t="n">
         <v>13</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44592</v>
+        <v>44616</v>
       </c>
       <c r="E8" t="n">
         <v>15</v>
@@ -936,13 +936,13 @@
         <v>120</v>
       </c>
       <c r="K8" t="n">
-        <v>12000</v>
+        <v>19000</v>
       </c>
       <c r="L8" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="M8" t="n">
-        <v>12500</v>
+        <v>19500</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>962</v>
+        <v>1500</v>
       </c>
       <c r="Q8" t="n">
         <v>13</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44389</v>
+        <v>44406</v>
       </c>
       <c r="E9" t="n">
         <v>15</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="K9" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="L9" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="M9" t="n">
-        <v>12500</v>
+        <v>17500</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>962</v>
+        <v>1346</v>
       </c>
       <c r="Q9" t="n">
         <v>13</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44406</v>
+        <v>44580</v>
       </c>
       <c r="E10" t="n">
         <v>15</v>
@@ -1080,13 +1080,13 @@
         <v>160</v>
       </c>
       <c r="K10" t="n">
-        <v>17000</v>
+        <v>11000</v>
       </c>
       <c r="L10" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="M10" t="n">
-        <v>17500</v>
+        <v>11500</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>1346</v>
+        <v>885</v>
       </c>
       <c r="Q10" t="n">
         <v>13</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44320</v>
+        <v>44389</v>
       </c>
       <c r="E11" t="n">
         <v>15</v>
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="K11" t="n">
-        <v>19000</v>
+        <v>12000</v>
       </c>
       <c r="L11" t="n">
-        <v>20000</v>
+        <v>13000</v>
       </c>
       <c r="M11" t="n">
-        <v>19500</v>
+        <v>12500</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>1500</v>
+        <v>962</v>
       </c>
       <c r="Q11" t="n">
         <v>13</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44580</v>
+        <v>44397</v>
       </c>
       <c r="E12" t="n">
         <v>15</v>
@@ -1221,16 +1221,16 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="K12" t="n">
-        <v>11000</v>
+        <v>12500</v>
       </c>
       <c r="L12" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="M12" t="n">
-        <v>11500</v>
+        <v>12750</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>885</v>
+        <v>981</v>
       </c>
       <c r="Q12" t="n">
         <v>13</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Jengibre.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Jengibre.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44592</v>
+        <v>44320</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="K2" t="n">
-        <v>12000</v>
+        <v>19000</v>
       </c>
       <c r="L2" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="M2" t="n">
-        <v>12500</v>
+        <v>19500</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>962</v>
+        <v>1500</v>
       </c>
       <c r="Q2" t="n">
         <v>13</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44229</v>
+        <v>44616</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -576,13 +576,13 @@
         <v>120</v>
       </c>
       <c r="K3" t="n">
-        <v>44000</v>
+        <v>19000</v>
       </c>
       <c r="L3" t="n">
-        <v>45000</v>
+        <v>20000</v>
       </c>
       <c r="M3" t="n">
-        <v>44500</v>
+        <v>19500</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>3423</v>
+        <v>1500</v>
       </c>
       <c r="Q3" t="n">
         <v>13</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44159</v>
+        <v>44397</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="K4" t="n">
-        <v>23000</v>
+        <v>12500</v>
       </c>
       <c r="L4" t="n">
-        <v>24000</v>
+        <v>13000</v>
       </c>
       <c r="M4" t="n">
-        <v>23500</v>
+        <v>12750</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>1808</v>
+        <v>981</v>
       </c>
       <c r="Q4" t="n">
         <v>13</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44379</v>
+        <v>44406</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="K5" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="L5" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="M5" t="n">
-        <v>12667</v>
+        <v>17500</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>974</v>
+        <v>1346</v>
       </c>
       <c r="Q5" t="n">
         <v>13</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44469</v>
+        <v>44389</v>
       </c>
       <c r="E6" t="n">
         <v>15</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="K6" t="n">
+        <v>12000</v>
+      </c>
+      <c r="L6" t="n">
         <v>13000</v>
       </c>
-      <c r="L6" t="n">
-        <v>14000</v>
-      </c>
       <c r="M6" t="n">
-        <v>13500</v>
+        <v>12500</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>1038</v>
+        <v>962</v>
       </c>
       <c r="Q6" t="n">
         <v>13</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44320</v>
+        <v>44379</v>
       </c>
       <c r="E7" t="n">
         <v>15</v>
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="K7" t="n">
-        <v>19000</v>
+        <v>12000</v>
       </c>
       <c r="L7" t="n">
-        <v>20000</v>
+        <v>13000</v>
       </c>
       <c r="M7" t="n">
-        <v>19500</v>
+        <v>12667</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>1500</v>
+        <v>974</v>
       </c>
       <c r="Q7" t="n">
         <v>13</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44616</v>
+        <v>44469</v>
       </c>
       <c r="E8" t="n">
         <v>15</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="K8" t="n">
-        <v>19000</v>
+        <v>13000</v>
       </c>
       <c r="L8" t="n">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="M8" t="n">
-        <v>19500</v>
+        <v>13500</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>1500</v>
+        <v>1038</v>
       </c>
       <c r="Q8" t="n">
         <v>13</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44406</v>
+        <v>44592</v>
       </c>
       <c r="E9" t="n">
         <v>15</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="K9" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="L9" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="M9" t="n">
-        <v>17500</v>
+        <v>12500</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>1346</v>
+        <v>962</v>
       </c>
       <c r="Q9" t="n">
         <v>13</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44389</v>
+        <v>44159</v>
       </c>
       <c r="E11" t="n">
         <v>15</v>
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="K11" t="n">
-        <v>12000</v>
+        <v>23000</v>
       </c>
       <c r="L11" t="n">
-        <v>13000</v>
+        <v>24000</v>
       </c>
       <c r="M11" t="n">
-        <v>12500</v>
+        <v>23500</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>962</v>
+        <v>1808</v>
       </c>
       <c r="Q11" t="n">
         <v>13</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44397</v>
+        <v>44229</v>
       </c>
       <c r="E12" t="n">
         <v>15</v>
@@ -1221,16 +1221,16 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="K12" t="n">
-        <v>12500</v>
+        <v>44000</v>
       </c>
       <c r="L12" t="n">
-        <v>13000</v>
+        <v>45000</v>
       </c>
       <c r="M12" t="n">
-        <v>12750</v>
+        <v>44500</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>981</v>
+        <v>3423</v>
       </c>
       <c r="Q12" t="n">
         <v>13</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Jengibre.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Jengibre.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44320</v>
+        <v>44159</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="K2" t="n">
-        <v>19000</v>
+        <v>23000</v>
       </c>
       <c r="L2" t="n">
-        <v>20000</v>
+        <v>24000</v>
       </c>
       <c r="M2" t="n">
-        <v>19500</v>
+        <v>23500</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>1500</v>
+        <v>1808</v>
       </c>
       <c r="Q2" t="n">
         <v>13</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44616</v>
+        <v>44379</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -576,13 +576,13 @@
         <v>120</v>
       </c>
       <c r="K3" t="n">
-        <v>19000</v>
+        <v>12000</v>
       </c>
       <c r="L3" t="n">
-        <v>20000</v>
+        <v>13000</v>
       </c>
       <c r="M3" t="n">
-        <v>19500</v>
+        <v>12667</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>1500</v>
+        <v>974</v>
       </c>
       <c r="Q3" t="n">
         <v>13</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44406</v>
+        <v>44616</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="K5" t="n">
-        <v>17000</v>
+        <v>19000</v>
       </c>
       <c r="L5" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="M5" t="n">
-        <v>17500</v>
+        <v>19500</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>1346</v>
+        <v>1500</v>
       </c>
       <c r="Q5" t="n">
         <v>13</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44389</v>
+        <v>44469</v>
       </c>
       <c r="E6" t="n">
         <v>15</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="K6" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="L6" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="M6" t="n">
-        <v>12500</v>
+        <v>13500</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>962</v>
+        <v>1038</v>
       </c>
       <c r="Q6" t="n">
         <v>13</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44379</v>
+        <v>44592</v>
       </c>
       <c r="E7" t="n">
         <v>15</v>
@@ -870,7 +870,7 @@
         <v>13000</v>
       </c>
       <c r="M7" t="n">
-        <v>12667</v>
+        <v>12500</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>974</v>
+        <v>962</v>
       </c>
       <c r="Q7" t="n">
         <v>13</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44469</v>
+        <v>44580</v>
       </c>
       <c r="E8" t="n">
         <v>15</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="K8" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="L8" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="M8" t="n">
-        <v>13500</v>
+        <v>11500</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>1038</v>
+        <v>885</v>
       </c>
       <c r="Q8" t="n">
         <v>13</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44592</v>
+        <v>44389</v>
       </c>
       <c r="E9" t="n">
         <v>15</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44580</v>
+        <v>44229</v>
       </c>
       <c r="E10" t="n">
         <v>15</v>
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="K10" t="n">
-        <v>11000</v>
+        <v>44000</v>
       </c>
       <c r="L10" t="n">
-        <v>12000</v>
+        <v>45000</v>
       </c>
       <c r="M10" t="n">
-        <v>11500</v>
+        <v>44500</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>885</v>
+        <v>3423</v>
       </c>
       <c r="Q10" t="n">
         <v>13</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44159</v>
+        <v>44320</v>
       </c>
       <c r="E11" t="n">
         <v>15</v>
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>100</v>
+        <v>160</v>
       </c>
       <c r="K11" t="n">
-        <v>23000</v>
+        <v>19000</v>
       </c>
       <c r="L11" t="n">
-        <v>24000</v>
+        <v>20000</v>
       </c>
       <c r="M11" t="n">
-        <v>23500</v>
+        <v>19500</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>1808</v>
+        <v>1500</v>
       </c>
       <c r="Q11" t="n">
         <v>13</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44229</v>
+        <v>44406</v>
       </c>
       <c r="E12" t="n">
         <v>15</v>
@@ -1221,16 +1221,16 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="K12" t="n">
-        <v>44000</v>
+        <v>17000</v>
       </c>
       <c r="L12" t="n">
-        <v>45000</v>
+        <v>18000</v>
       </c>
       <c r="M12" t="n">
-        <v>44500</v>
+        <v>17500</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>3423</v>
+        <v>1346</v>
       </c>
       <c r="Q12" t="n">
         <v>13</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Jengibre.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Jengibre.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44159</v>
+        <v>44592</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="K2" t="n">
-        <v>23000</v>
+        <v>12000</v>
       </c>
       <c r="L2" t="n">
-        <v>24000</v>
+        <v>13000</v>
       </c>
       <c r="M2" t="n">
-        <v>23500</v>
+        <v>12500</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>1808</v>
+        <v>962</v>
       </c>
       <c r="Q2" t="n">
         <v>13</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44379</v>
+        <v>44406</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="K3" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="L3" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="M3" t="n">
-        <v>12667</v>
+        <v>17500</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>974</v>
+        <v>1346</v>
       </c>
       <c r="Q3" t="n">
         <v>13</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44397</v>
+        <v>44320</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="K4" t="n">
-        <v>12500</v>
+        <v>19000</v>
       </c>
       <c r="L4" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="M4" t="n">
-        <v>12750</v>
+        <v>19500</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>981</v>
+        <v>1500</v>
       </c>
       <c r="Q4" t="n">
         <v>13</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44616</v>
+        <v>44580</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="K5" t="n">
-        <v>19000</v>
+        <v>11000</v>
       </c>
       <c r="L5" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="M5" t="n">
-        <v>19500</v>
+        <v>11500</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>1500</v>
+        <v>885</v>
       </c>
       <c r="Q5" t="n">
         <v>13</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44469</v>
+        <v>44159</v>
       </c>
       <c r="E6" t="n">
         <v>15</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="K6" t="n">
-        <v>13000</v>
+        <v>23000</v>
       </c>
       <c r="L6" t="n">
-        <v>14000</v>
+        <v>24000</v>
       </c>
       <c r="M6" t="n">
-        <v>13500</v>
+        <v>23500</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>1038</v>
+        <v>1808</v>
       </c>
       <c r="Q6" t="n">
         <v>13</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44592</v>
+        <v>44616</v>
       </c>
       <c r="E7" t="n">
         <v>15</v>
@@ -864,13 +864,13 @@
         <v>120</v>
       </c>
       <c r="K7" t="n">
-        <v>12000</v>
+        <v>19000</v>
       </c>
       <c r="L7" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="M7" t="n">
-        <v>12500</v>
+        <v>19500</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>962</v>
+        <v>1500</v>
       </c>
       <c r="Q7" t="n">
         <v>13</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44580</v>
+        <v>44379</v>
       </c>
       <c r="E8" t="n">
         <v>15</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="K8" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="L8" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="M8" t="n">
-        <v>11500</v>
+        <v>12667</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>885</v>
+        <v>974</v>
       </c>
       <c r="Q8" t="n">
         <v>13</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44229</v>
+        <v>44469</v>
       </c>
       <c r="E10" t="n">
         <v>15</v>
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="K10" t="n">
-        <v>44000</v>
+        <v>13000</v>
       </c>
       <c r="L10" t="n">
-        <v>45000</v>
+        <v>14000</v>
       </c>
       <c r="M10" t="n">
-        <v>44500</v>
+        <v>13500</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>3423</v>
+        <v>1038</v>
       </c>
       <c r="Q10" t="n">
         <v>13</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44320</v>
+        <v>44229</v>
       </c>
       <c r="E11" t="n">
         <v>15</v>
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="K11" t="n">
-        <v>19000</v>
+        <v>44000</v>
       </c>
       <c r="L11" t="n">
-        <v>20000</v>
+        <v>45000</v>
       </c>
       <c r="M11" t="n">
-        <v>19500</v>
+        <v>44500</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>1500</v>
+        <v>3423</v>
       </c>
       <c r="Q11" t="n">
         <v>13</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44406</v>
+        <v>44397</v>
       </c>
       <c r="E12" t="n">
         <v>15</v>
@@ -1221,16 +1221,16 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="K12" t="n">
-        <v>17000</v>
+        <v>12500</v>
       </c>
       <c r="L12" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="M12" t="n">
-        <v>17500</v>
+        <v>12750</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>1346</v>
+        <v>981</v>
       </c>
       <c r="Q12" t="n">
         <v>13</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Jengibre.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Jengibre.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R12"/>
+  <dimension ref="A1:R13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44406</v>
+        <v>44764</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="K3" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="L3" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="M3" t="n">
-        <v>17500</v>
+        <v>12500</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>1346</v>
+        <v>962</v>
       </c>
       <c r="Q3" t="n">
         <v>13</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44320</v>
+        <v>44406</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -648,13 +648,13 @@
         <v>160</v>
       </c>
       <c r="K4" t="n">
-        <v>19000</v>
+        <v>17000</v>
       </c>
       <c r="L4" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="M4" t="n">
-        <v>19500</v>
+        <v>17500</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>1500</v>
+        <v>1346</v>
       </c>
       <c r="Q4" t="n">
         <v>13</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44580</v>
+        <v>44320</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -720,13 +720,13 @@
         <v>160</v>
       </c>
       <c r="K5" t="n">
-        <v>11000</v>
+        <v>19000</v>
       </c>
       <c r="L5" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="M5" t="n">
-        <v>11500</v>
+        <v>19500</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>885</v>
+        <v>1500</v>
       </c>
       <c r="Q5" t="n">
         <v>13</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44159</v>
+        <v>44580</v>
       </c>
       <c r="E6" t="n">
         <v>15</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>100</v>
+        <v>160</v>
       </c>
       <c r="K6" t="n">
-        <v>23000</v>
+        <v>11000</v>
       </c>
       <c r="L6" t="n">
-        <v>24000</v>
+        <v>12000</v>
       </c>
       <c r="M6" t="n">
-        <v>23500</v>
+        <v>11500</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>1808</v>
+        <v>885</v>
       </c>
       <c r="Q6" t="n">
         <v>13</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44616</v>
+        <v>44159</v>
       </c>
       <c r="E7" t="n">
         <v>15</v>
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="K7" t="n">
-        <v>19000</v>
+        <v>23000</v>
       </c>
       <c r="L7" t="n">
-        <v>20000</v>
+        <v>24000</v>
       </c>
       <c r="M7" t="n">
-        <v>19500</v>
+        <v>23500</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>1500</v>
+        <v>1808</v>
       </c>
       <c r="Q7" t="n">
         <v>13</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44379</v>
+        <v>44616</v>
       </c>
       <c r="E8" t="n">
         <v>15</v>
@@ -936,13 +936,13 @@
         <v>120</v>
       </c>
       <c r="K8" t="n">
-        <v>12000</v>
+        <v>19000</v>
       </c>
       <c r="L8" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="M8" t="n">
-        <v>12667</v>
+        <v>19500</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>974</v>
+        <v>1500</v>
       </c>
       <c r="Q8" t="n">
         <v>13</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44389</v>
+        <v>44379</v>
       </c>
       <c r="E9" t="n">
         <v>15</v>
@@ -1014,7 +1014,7 @@
         <v>13000</v>
       </c>
       <c r="M9" t="n">
-        <v>12500</v>
+        <v>12667</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>962</v>
+        <v>974</v>
       </c>
       <c r="Q9" t="n">
         <v>13</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44469</v>
+        <v>44389</v>
       </c>
       <c r="E10" t="n">
         <v>15</v>
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="K10" t="n">
+        <v>12000</v>
+      </c>
+      <c r="L10" t="n">
         <v>13000</v>
       </c>
-      <c r="L10" t="n">
-        <v>14000</v>
-      </c>
       <c r="M10" t="n">
-        <v>13500</v>
+        <v>12500</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>1038</v>
+        <v>962</v>
       </c>
       <c r="Q10" t="n">
         <v>13</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44229</v>
+        <v>44469</v>
       </c>
       <c r="E11" t="n">
         <v>15</v>
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="K11" t="n">
-        <v>44000</v>
+        <v>13000</v>
       </c>
       <c r="L11" t="n">
-        <v>45000</v>
+        <v>14000</v>
       </c>
       <c r="M11" t="n">
-        <v>44500</v>
+        <v>13500</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>3423</v>
+        <v>1038</v>
       </c>
       <c r="Q11" t="n">
         <v>13</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44397</v>
+        <v>44229</v>
       </c>
       <c r="E12" t="n">
         <v>15</v>
@@ -1221,16 +1221,16 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="K12" t="n">
-        <v>12500</v>
+        <v>44000</v>
       </c>
       <c r="L12" t="n">
-        <v>13000</v>
+        <v>45000</v>
       </c>
       <c r="M12" t="n">
-        <v>12750</v>
+        <v>44500</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,12 +1243,84 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>981</v>
+        <v>3423</v>
       </c>
       <c r="Q12" t="n">
         <v>13</v>
       </c>
       <c r="R12" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>1</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Agrícola del Norte S.A. de Arica</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="n">
+        <v>44397</v>
+      </c>
+      <c r="E13" t="n">
+        <v>15</v>
+      </c>
+      <c r="F13" t="n">
+        <v>100114007</v>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Jengibre</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J13" t="n">
+        <v>140</v>
+      </c>
+      <c r="K13" t="n">
+        <v>12500</v>
+      </c>
+      <c r="L13" t="n">
+        <v>13000</v>
+      </c>
+      <c r="M13" t="n">
+        <v>12750</v>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>$/caja 13 kilos</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>Perú</t>
+        </is>
+      </c>
+      <c r="P13" t="n">
+        <v>981</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>13</v>
+      </c>
+      <c r="R13" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Jengibre.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Jengibre.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44592</v>
+        <v>44229</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -504,13 +504,13 @@
         <v>120</v>
       </c>
       <c r="K2" t="n">
-        <v>12000</v>
+        <v>44000</v>
       </c>
       <c r="L2" t="n">
-        <v>13000</v>
+        <v>45000</v>
       </c>
       <c r="M2" t="n">
-        <v>12500</v>
+        <v>44500</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>962</v>
+        <v>3423</v>
       </c>
       <c r="Q2" t="n">
         <v>13</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44764</v>
+        <v>44397</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>200</v>
+        <v>140</v>
       </c>
       <c r="K3" t="n">
-        <v>12000</v>
+        <v>12500</v>
       </c>
       <c r="L3" t="n">
         <v>13000</v>
       </c>
       <c r="M3" t="n">
-        <v>12500</v>
+        <v>12750</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>962</v>
+        <v>981</v>
       </c>
       <c r="Q3" t="n">
         <v>13</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44320</v>
+        <v>44580</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -720,13 +720,13 @@
         <v>160</v>
       </c>
       <c r="K5" t="n">
-        <v>19000</v>
+        <v>11000</v>
       </c>
       <c r="L5" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="M5" t="n">
-        <v>19500</v>
+        <v>11500</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>1500</v>
+        <v>885</v>
       </c>
       <c r="Q5" t="n">
         <v>13</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44580</v>
+        <v>44389</v>
       </c>
       <c r="E6" t="n">
         <v>15</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="K6" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="L6" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="M6" t="n">
-        <v>11500</v>
+        <v>12500</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>885</v>
+        <v>962</v>
       </c>
       <c r="Q6" t="n">
         <v>13</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44159</v>
+        <v>44592</v>
       </c>
       <c r="E7" t="n">
         <v>15</v>
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="K7" t="n">
-        <v>23000</v>
+        <v>12000</v>
       </c>
       <c r="L7" t="n">
-        <v>24000</v>
+        <v>13000</v>
       </c>
       <c r="M7" t="n">
-        <v>23500</v>
+        <v>12500</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>1808</v>
+        <v>962</v>
       </c>
       <c r="Q7" t="n">
         <v>13</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44616</v>
+        <v>44469</v>
       </c>
       <c r="E8" t="n">
         <v>15</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="K8" t="n">
-        <v>19000</v>
+        <v>13000</v>
       </c>
       <c r="L8" t="n">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="M8" t="n">
-        <v>19500</v>
+        <v>13500</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>1500</v>
+        <v>1038</v>
       </c>
       <c r="Q8" t="n">
         <v>13</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44379</v>
+        <v>44616</v>
       </c>
       <c r="E9" t="n">
         <v>15</v>
@@ -1008,13 +1008,13 @@
         <v>120</v>
       </c>
       <c r="K9" t="n">
-        <v>12000</v>
+        <v>19000</v>
       </c>
       <c r="L9" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="M9" t="n">
-        <v>12667</v>
+        <v>19500</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>974</v>
+        <v>1500</v>
       </c>
       <c r="Q9" t="n">
         <v>13</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44389</v>
+        <v>44320</v>
       </c>
       <c r="E10" t="n">
         <v>15</v>
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="K10" t="n">
-        <v>12000</v>
+        <v>19000</v>
       </c>
       <c r="L10" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="M10" t="n">
-        <v>12500</v>
+        <v>19500</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>962</v>
+        <v>1500</v>
       </c>
       <c r="Q10" t="n">
         <v>13</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44469</v>
+        <v>44764</v>
       </c>
       <c r="E11" t="n">
         <v>15</v>
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>140</v>
+        <v>200</v>
       </c>
       <c r="K11" t="n">
+        <v>12000</v>
+      </c>
+      <c r="L11" t="n">
         <v>13000</v>
       </c>
-      <c r="L11" t="n">
-        <v>14000</v>
-      </c>
       <c r="M11" t="n">
-        <v>13500</v>
+        <v>12500</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>1038</v>
+        <v>962</v>
       </c>
       <c r="Q11" t="n">
         <v>13</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44229</v>
+        <v>44159</v>
       </c>
       <c r="E12" t="n">
         <v>15</v>
@@ -1221,16 +1221,16 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="K12" t="n">
-        <v>44000</v>
+        <v>23000</v>
       </c>
       <c r="L12" t="n">
-        <v>45000</v>
+        <v>24000</v>
       </c>
       <c r="M12" t="n">
-        <v>44500</v>
+        <v>23500</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>3423</v>
+        <v>1808</v>
       </c>
       <c r="Q12" t="n">
         <v>13</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44397</v>
+        <v>44379</v>
       </c>
       <c r="E13" t="n">
         <v>15</v>
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="K13" t="n">
-        <v>12500</v>
+        <v>12000</v>
       </c>
       <c r="L13" t="n">
         <v>13000</v>
       </c>
       <c r="M13" t="n">
-        <v>12750</v>
+        <v>12667</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>981</v>
+        <v>974</v>
       </c>
       <c r="Q13" t="n">
         <v>13</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Jengibre.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Jengibre.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44229</v>
+        <v>44469</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="K2" t="n">
-        <v>44000</v>
+        <v>13000</v>
       </c>
       <c r="L2" t="n">
-        <v>45000</v>
+        <v>14000</v>
       </c>
       <c r="M2" t="n">
-        <v>44500</v>
+        <v>13500</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>3423</v>
+        <v>1038</v>
       </c>
       <c r="Q2" t="n">
         <v>13</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44397</v>
+        <v>44616</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="K3" t="n">
-        <v>12500</v>
+        <v>19000</v>
       </c>
       <c r="L3" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="M3" t="n">
-        <v>12750</v>
+        <v>19500</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>981</v>
+        <v>1500</v>
       </c>
       <c r="Q3" t="n">
         <v>13</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44406</v>
+        <v>44229</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="K4" t="n">
-        <v>17000</v>
+        <v>44000</v>
       </c>
       <c r="L4" t="n">
-        <v>18000</v>
+        <v>45000</v>
       </c>
       <c r="M4" t="n">
-        <v>17500</v>
+        <v>44500</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>1346</v>
+        <v>3423</v>
       </c>
       <c r="Q4" t="n">
         <v>13</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44580</v>
+        <v>44764</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="K5" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="L5" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="M5" t="n">
-        <v>11500</v>
+        <v>12500</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>885</v>
+        <v>962</v>
       </c>
       <c r="Q5" t="n">
         <v>13</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44592</v>
+        <v>44320</v>
       </c>
       <c r="E7" t="n">
         <v>15</v>
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="K7" t="n">
-        <v>12000</v>
+        <v>19000</v>
       </c>
       <c r="L7" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="M7" t="n">
-        <v>12500</v>
+        <v>19500</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>962</v>
+        <v>1500</v>
       </c>
       <c r="Q7" t="n">
         <v>13</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44469</v>
+        <v>44379</v>
       </c>
       <c r="E8" t="n">
         <v>15</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="K8" t="n">
+        <v>12000</v>
+      </c>
+      <c r="L8" t="n">
         <v>13000</v>
       </c>
-      <c r="L8" t="n">
-        <v>14000</v>
-      </c>
       <c r="M8" t="n">
-        <v>13500</v>
+        <v>12667</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>1038</v>
+        <v>974</v>
       </c>
       <c r="Q8" t="n">
         <v>13</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44616</v>
+        <v>44580</v>
       </c>
       <c r="E9" t="n">
         <v>15</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="K9" t="n">
-        <v>19000</v>
+        <v>11000</v>
       </c>
       <c r="L9" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="M9" t="n">
-        <v>19500</v>
+        <v>11500</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>1500</v>
+        <v>885</v>
       </c>
       <c r="Q9" t="n">
         <v>13</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44320</v>
+        <v>44397</v>
       </c>
       <c r="E10" t="n">
         <v>15</v>
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="K10" t="n">
-        <v>19000</v>
+        <v>12500</v>
       </c>
       <c r="L10" t="n">
-        <v>20000</v>
+        <v>13000</v>
       </c>
       <c r="M10" t="n">
-        <v>19500</v>
+        <v>12750</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>1500</v>
+        <v>981</v>
       </c>
       <c r="Q10" t="n">
         <v>13</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44764</v>
+        <v>44592</v>
       </c>
       <c r="E11" t="n">
         <v>15</v>
@@ -1149,7 +1149,7 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="K11" t="n">
         <v>12000</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44379</v>
+        <v>44406</v>
       </c>
       <c r="E13" t="n">
         <v>15</v>
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="K13" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="L13" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="M13" t="n">
-        <v>12667</v>
+        <v>17500</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>974</v>
+        <v>1346</v>
       </c>
       <c r="Q13" t="n">
         <v>13</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Jengibre.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Jengibre.xlsx
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44229</v>
+        <v>44764</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="K4" t="n">
-        <v>44000</v>
+        <v>12000</v>
       </c>
       <c r="L4" t="n">
-        <v>45000</v>
+        <v>13000</v>
       </c>
       <c r="M4" t="n">
-        <v>44500</v>
+        <v>12500</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>3423</v>
+        <v>962</v>
       </c>
       <c r="Q4" t="n">
         <v>13</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44764</v>
+        <v>44389</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -717,7 +717,7 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="K5" t="n">
         <v>12000</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44389</v>
+        <v>44320</v>
       </c>
       <c r="E6" t="n">
         <v>15</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="K6" t="n">
-        <v>12000</v>
+        <v>19000</v>
       </c>
       <c r="L6" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="M6" t="n">
-        <v>12500</v>
+        <v>19500</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>962</v>
+        <v>1500</v>
       </c>
       <c r="Q6" t="n">
         <v>13</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44320</v>
+        <v>44379</v>
       </c>
       <c r="E7" t="n">
         <v>15</v>
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="K7" t="n">
-        <v>19000</v>
+        <v>12000</v>
       </c>
       <c r="L7" t="n">
-        <v>20000</v>
+        <v>13000</v>
       </c>
       <c r="M7" t="n">
-        <v>19500</v>
+        <v>12667</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>1500</v>
+        <v>974</v>
       </c>
       <c r="Q7" t="n">
         <v>13</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44379</v>
+        <v>44580</v>
       </c>
       <c r="E8" t="n">
         <v>15</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="K8" t="n">
+        <v>11000</v>
+      </c>
+      <c r="L8" t="n">
         <v>12000</v>
       </c>
-      <c r="L8" t="n">
-        <v>13000</v>
-      </c>
       <c r="M8" t="n">
-        <v>12667</v>
+        <v>11500</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>974</v>
+        <v>885</v>
       </c>
       <c r="Q8" t="n">
         <v>13</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44580</v>
+        <v>44397</v>
       </c>
       <c r="E9" t="n">
         <v>15</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="K9" t="n">
-        <v>11000</v>
+        <v>12500</v>
       </c>
       <c r="L9" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="M9" t="n">
-        <v>11500</v>
+        <v>12750</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>885</v>
+        <v>981</v>
       </c>
       <c r="Q9" t="n">
         <v>13</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44397</v>
+        <v>44592</v>
       </c>
       <c r="E10" t="n">
         <v>15</v>
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="K10" t="n">
-        <v>12500</v>
+        <v>12000</v>
       </c>
       <c r="L10" t="n">
         <v>13000</v>
       </c>
       <c r="M10" t="n">
-        <v>12750</v>
+        <v>12500</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>981</v>
+        <v>962</v>
       </c>
       <c r="Q10" t="n">
         <v>13</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44592</v>
+        <v>44159</v>
       </c>
       <c r="E11" t="n">
         <v>15</v>
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="K11" t="n">
-        <v>12000</v>
+        <v>23000</v>
       </c>
       <c r="L11" t="n">
-        <v>13000</v>
+        <v>24000</v>
       </c>
       <c r="M11" t="n">
-        <v>12500</v>
+        <v>23500</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>962</v>
+        <v>1808</v>
       </c>
       <c r="Q11" t="n">
         <v>13</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44159</v>
+        <v>44406</v>
       </c>
       <c r="E12" t="n">
         <v>15</v>
@@ -1221,16 +1221,16 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>100</v>
+        <v>160</v>
       </c>
       <c r="K12" t="n">
-        <v>23000</v>
+        <v>17000</v>
       </c>
       <c r="L12" t="n">
-        <v>24000</v>
+        <v>18000</v>
       </c>
       <c r="M12" t="n">
-        <v>23500</v>
+        <v>17500</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>1808</v>
+        <v>1346</v>
       </c>
       <c r="Q12" t="n">
         <v>13</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44406</v>
+        <v>44832</v>
       </c>
       <c r="E13" t="n">
         <v>15</v>
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="K13" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="L13" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="M13" t="n">
-        <v>17500</v>
+        <v>13500</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>1346</v>
+        <v>1038</v>
       </c>
       <c r="Q13" t="n">
         <v>13</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Jengibre.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Jengibre.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44469</v>
+        <v>44320</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="K2" t="n">
-        <v>13000</v>
+        <v>19000</v>
       </c>
       <c r="L2" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="M2" t="n">
-        <v>13500</v>
+        <v>19500</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>1038</v>
+        <v>1500</v>
       </c>
       <c r="Q2" t="n">
         <v>13</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44616</v>
+        <v>44580</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="K3" t="n">
-        <v>19000</v>
+        <v>11000</v>
       </c>
       <c r="L3" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="M3" t="n">
-        <v>19500</v>
+        <v>11500</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>1500</v>
+        <v>885</v>
       </c>
       <c r="Q3" t="n">
         <v>13</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44389</v>
+        <v>44616</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -720,13 +720,13 @@
         <v>120</v>
       </c>
       <c r="K5" t="n">
-        <v>12000</v>
+        <v>19000</v>
       </c>
       <c r="L5" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="M5" t="n">
-        <v>12500</v>
+        <v>19500</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>962</v>
+        <v>1500</v>
       </c>
       <c r="Q5" t="n">
         <v>13</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44320</v>
+        <v>44397</v>
       </c>
       <c r="E6" t="n">
         <v>15</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="K6" t="n">
-        <v>19000</v>
+        <v>12500</v>
       </c>
       <c r="L6" t="n">
-        <v>20000</v>
+        <v>13000</v>
       </c>
       <c r="M6" t="n">
-        <v>19500</v>
+        <v>12750</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>1500</v>
+        <v>981</v>
       </c>
       <c r="Q6" t="n">
         <v>13</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44379</v>
+        <v>44159</v>
       </c>
       <c r="E7" t="n">
         <v>15</v>
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="K7" t="n">
-        <v>12000</v>
+        <v>23000</v>
       </c>
       <c r="L7" t="n">
-        <v>13000</v>
+        <v>24000</v>
       </c>
       <c r="M7" t="n">
-        <v>12667</v>
+        <v>23500</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>974</v>
+        <v>1808</v>
       </c>
       <c r="Q7" t="n">
         <v>13</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44580</v>
+        <v>44469</v>
       </c>
       <c r="E8" t="n">
         <v>15</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="K8" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="L8" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="M8" t="n">
-        <v>11500</v>
+        <v>13500</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>885</v>
+        <v>1038</v>
       </c>
       <c r="Q8" t="n">
         <v>13</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44397</v>
+        <v>44389</v>
       </c>
       <c r="E9" t="n">
         <v>15</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="K9" t="n">
-        <v>12500</v>
+        <v>12000</v>
       </c>
       <c r="L9" t="n">
         <v>13000</v>
       </c>
       <c r="M9" t="n">
-        <v>12750</v>
+        <v>12500</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>981</v>
+        <v>962</v>
       </c>
       <c r="Q9" t="n">
         <v>13</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44159</v>
+        <v>44379</v>
       </c>
       <c r="E11" t="n">
         <v>15</v>
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="K11" t="n">
-        <v>23000</v>
+        <v>12000</v>
       </c>
       <c r="L11" t="n">
-        <v>24000</v>
+        <v>13000</v>
       </c>
       <c r="M11" t="n">
-        <v>23500</v>
+        <v>12667</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>1808</v>
+        <v>974</v>
       </c>
       <c r="Q11" t="n">
         <v>13</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44406</v>
+        <v>44832</v>
       </c>
       <c r="E12" t="n">
         <v>15</v>
@@ -1221,16 +1221,16 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="K12" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="L12" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="M12" t="n">
-        <v>17500</v>
+        <v>13500</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>1346</v>
+        <v>1038</v>
       </c>
       <c r="Q12" t="n">
         <v>13</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44832</v>
+        <v>44406</v>
       </c>
       <c r="E13" t="n">
         <v>15</v>
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>100</v>
+        <v>160</v>
       </c>
       <c r="K13" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="L13" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="M13" t="n">
-        <v>13500</v>
+        <v>17500</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>1038</v>
+        <v>1346</v>
       </c>
       <c r="Q13" t="n">
         <v>13</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Jengibre.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Jengibre.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R13"/>
+  <dimension ref="A1:R14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44379</v>
+        <v>44855</v>
       </c>
       <c r="E11" t="n">
         <v>15</v>
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>120</v>
+        <v>500</v>
       </c>
       <c r="K11" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="L11" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="M11" t="n">
-        <v>12667</v>
+        <v>10000</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>974</v>
+        <v>769</v>
       </c>
       <c r="Q11" t="n">
         <v>13</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44832</v>
+        <v>44379</v>
       </c>
       <c r="E12" t="n">
         <v>15</v>
@@ -1221,16 +1221,16 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="K12" t="n">
+        <v>12000</v>
+      </c>
+      <c r="L12" t="n">
         <v>13000</v>
       </c>
-      <c r="L12" t="n">
-        <v>14000</v>
-      </c>
       <c r="M12" t="n">
-        <v>13500</v>
+        <v>12667</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>1038</v>
+        <v>974</v>
       </c>
       <c r="Q12" t="n">
         <v>13</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44406</v>
+        <v>44832</v>
       </c>
       <c r="E13" t="n">
         <v>15</v>
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="K13" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="L13" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="M13" t="n">
-        <v>17500</v>
+        <v>13500</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,12 +1315,84 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>1346</v>
+        <v>1038</v>
       </c>
       <c r="Q13" t="n">
         <v>13</v>
       </c>
       <c r="R13" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>1</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Agrícola del Norte S.A. de Arica</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="n">
+        <v>44406</v>
+      </c>
+      <c r="E14" t="n">
+        <v>15</v>
+      </c>
+      <c r="F14" t="n">
+        <v>100114007</v>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Jengibre</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J14" t="n">
+        <v>160</v>
+      </c>
+      <c r="K14" t="n">
+        <v>17000</v>
+      </c>
+      <c r="L14" t="n">
+        <v>18000</v>
+      </c>
+      <c r="M14" t="n">
+        <v>17500</v>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>$/caja 13 kilos</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>Perú</t>
+        </is>
+      </c>
+      <c r="P14" t="n">
+        <v>1346</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>13</v>
+      </c>
+      <c r="R14" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Jengibre.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Jengibre.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44320</v>
+        <v>44832</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="K2" t="n">
-        <v>19000</v>
+        <v>13000</v>
       </c>
       <c r="L2" t="n">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="M2" t="n">
-        <v>19500</v>
+        <v>13500</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>1500</v>
+        <v>1038</v>
       </c>
       <c r="Q2" t="n">
         <v>13</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44580</v>
+        <v>44616</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="K3" t="n">
-        <v>11000</v>
+        <v>19000</v>
       </c>
       <c r="L3" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="M3" t="n">
-        <v>11500</v>
+        <v>19500</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>885</v>
+        <v>1500</v>
       </c>
       <c r="Q3" t="n">
         <v>13</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44764</v>
+        <v>44469</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>200</v>
+        <v>140</v>
       </c>
       <c r="K4" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="L4" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="M4" t="n">
-        <v>12500</v>
+        <v>13500</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>962</v>
+        <v>1038</v>
       </c>
       <c r="Q4" t="n">
         <v>13</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44616</v>
+        <v>44379</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -720,13 +720,13 @@
         <v>120</v>
       </c>
       <c r="K5" t="n">
-        <v>19000</v>
+        <v>12000</v>
       </c>
       <c r="L5" t="n">
-        <v>20000</v>
+        <v>13000</v>
       </c>
       <c r="M5" t="n">
-        <v>19500</v>
+        <v>12667</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>1500</v>
+        <v>974</v>
       </c>
       <c r="Q5" t="n">
         <v>13</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44397</v>
+        <v>44580</v>
       </c>
       <c r="E6" t="n">
         <v>15</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="K6" t="n">
-        <v>12500</v>
+        <v>11000</v>
       </c>
       <c r="L6" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="M6" t="n">
-        <v>12750</v>
+        <v>11500</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>981</v>
+        <v>885</v>
       </c>
       <c r="Q6" t="n">
         <v>13</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44469</v>
+        <v>44320</v>
       </c>
       <c r="E8" t="n">
         <v>15</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="K8" t="n">
-        <v>13000</v>
+        <v>19000</v>
       </c>
       <c r="L8" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="M8" t="n">
-        <v>13500</v>
+        <v>19500</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>1038</v>
+        <v>1500</v>
       </c>
       <c r="Q8" t="n">
         <v>13</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44389</v>
+        <v>44855</v>
       </c>
       <c r="E9" t="n">
         <v>15</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>120</v>
+        <v>500</v>
       </c>
       <c r="K9" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="L9" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="M9" t="n">
-        <v>12500</v>
+        <v>10000</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>962</v>
+        <v>769</v>
       </c>
       <c r="Q9" t="n">
         <v>13</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44592</v>
+        <v>44389</v>
       </c>
       <c r="E10" t="n">
         <v>15</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44855</v>
+        <v>44764</v>
       </c>
       <c r="E11" t="n">
         <v>15</v>
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="K11" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="L11" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="M11" t="n">
-        <v>10000</v>
+        <v>12500</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>769</v>
+        <v>962</v>
       </c>
       <c r="Q11" t="n">
         <v>13</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44379</v>
+        <v>44397</v>
       </c>
       <c r="E12" t="n">
         <v>15</v>
@@ -1221,16 +1221,16 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="K12" t="n">
-        <v>12000</v>
+        <v>12500</v>
       </c>
       <c r="L12" t="n">
         <v>13000</v>
       </c>
       <c r="M12" t="n">
-        <v>12667</v>
+        <v>12750</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>974</v>
+        <v>981</v>
       </c>
       <c r="Q12" t="n">
         <v>13</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44832</v>
+        <v>44592</v>
       </c>
       <c r="E13" t="n">
         <v>15</v>
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="K13" t="n">
+        <v>12000</v>
+      </c>
+      <c r="L13" t="n">
         <v>13000</v>
       </c>
-      <c r="L13" t="n">
-        <v>14000</v>
-      </c>
       <c r="M13" t="n">
-        <v>13500</v>
+        <v>12500</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>1038</v>
+        <v>962</v>
       </c>
       <c r="Q13" t="n">
         <v>13</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Jengibre.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Jengibre.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R14"/>
+  <dimension ref="A1:R15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1398,6 +1398,78 @@
         </is>
       </c>
     </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>1</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Agrícola del Norte S.A. de Arica</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="n">
+        <v>44890</v>
+      </c>
+      <c r="E15" t="n">
+        <v>15</v>
+      </c>
+      <c r="F15" t="n">
+        <v>100114007</v>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Jengibre</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J15" t="n">
+        <v>300</v>
+      </c>
+      <c r="K15" t="n">
+        <v>14000</v>
+      </c>
+      <c r="L15" t="n">
+        <v>15000</v>
+      </c>
+      <c r="M15" t="n">
+        <v>14500</v>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>$/caja 13 kilos</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>Perú</t>
+        </is>
+      </c>
+      <c r="P15" t="n">
+        <v>1115</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>13</v>
+      </c>
+      <c r="R15" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Jengibre.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Jengibre.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R15"/>
+  <dimension ref="A1:R16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44389</v>
+        <v>44893</v>
       </c>
       <c r="E10" t="n">
         <v>15</v>
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>120</v>
+        <v>900</v>
       </c>
       <c r="K10" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="L10" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="M10" t="n">
-        <v>12500</v>
+        <v>13444</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>962</v>
+        <v>1034</v>
       </c>
       <c r="Q10" t="n">
         <v>13</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44764</v>
+        <v>44389</v>
       </c>
       <c r="E11" t="n">
         <v>15</v>
@@ -1149,7 +1149,7 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="K11" t="n">
         <v>12000</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44397</v>
+        <v>44764</v>
       </c>
       <c r="E12" t="n">
         <v>15</v>
@@ -1221,16 +1221,16 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>140</v>
+        <v>200</v>
       </c>
       <c r="K12" t="n">
-        <v>12500</v>
+        <v>12000</v>
       </c>
       <c r="L12" t="n">
         <v>13000</v>
       </c>
       <c r="M12" t="n">
-        <v>12750</v>
+        <v>12500</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>981</v>
+        <v>962</v>
       </c>
       <c r="Q12" t="n">
         <v>13</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44592</v>
+        <v>44397</v>
       </c>
       <c r="E13" t="n">
         <v>15</v>
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="K13" t="n">
-        <v>12000</v>
+        <v>12500</v>
       </c>
       <c r="L13" t="n">
         <v>13000</v>
       </c>
       <c r="M13" t="n">
-        <v>12500</v>
+        <v>12750</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>962</v>
+        <v>981</v>
       </c>
       <c r="Q13" t="n">
         <v>13</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44406</v>
+        <v>44592</v>
       </c>
       <c r="E14" t="n">
         <v>15</v>
@@ -1365,16 +1365,16 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="K14" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="L14" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="M14" t="n">
-        <v>17500</v>
+        <v>12500</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>1346</v>
+        <v>962</v>
       </c>
       <c r="Q14" t="n">
         <v>13</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44890</v>
+        <v>44406</v>
       </c>
       <c r="E15" t="n">
         <v>15</v>
@@ -1437,16 +1437,16 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>300</v>
+        <v>160</v>
       </c>
       <c r="K15" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="L15" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="M15" t="n">
-        <v>14500</v>
+        <v>17500</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1459,12 +1459,84 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>1115</v>
+        <v>1346</v>
       </c>
       <c r="Q15" t="n">
         <v>13</v>
       </c>
       <c r="R15" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>1</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Agrícola del Norte S.A. de Arica</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="n">
+        <v>44890</v>
+      </c>
+      <c r="E16" t="n">
+        <v>15</v>
+      </c>
+      <c r="F16" t="n">
+        <v>100114007</v>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Jengibre</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J16" t="n">
+        <v>300</v>
+      </c>
+      <c r="K16" t="n">
+        <v>14000</v>
+      </c>
+      <c r="L16" t="n">
+        <v>15000</v>
+      </c>
+      <c r="M16" t="n">
+        <v>14500</v>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>$/caja 13 kilos</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>Perú</t>
+        </is>
+      </c>
+      <c r="P16" t="n">
+        <v>1115</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>13</v>
+      </c>
+      <c r="R16" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Jengibre.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Jengibre.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44832</v>
+        <v>44890</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="K2" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="L2" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="M2" t="n">
-        <v>13500</v>
+        <v>14500</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>1038</v>
+        <v>1115</v>
       </c>
       <c r="Q2" t="n">
         <v>13</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44616</v>
+        <v>44379</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -576,13 +576,13 @@
         <v>120</v>
       </c>
       <c r="K3" t="n">
-        <v>19000</v>
+        <v>12000</v>
       </c>
       <c r="L3" t="n">
-        <v>20000</v>
+        <v>13000</v>
       </c>
       <c r="M3" t="n">
-        <v>19500</v>
+        <v>12667</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>1500</v>
+        <v>974</v>
       </c>
       <c r="Q3" t="n">
         <v>13</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44469</v>
+        <v>44580</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="K4" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="L4" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="M4" t="n">
-        <v>13500</v>
+        <v>11500</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>1038</v>
+        <v>885</v>
       </c>
       <c r="Q4" t="n">
         <v>13</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44379</v>
+        <v>44469</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="K5" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="L5" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="M5" t="n">
-        <v>12667</v>
+        <v>13500</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>974</v>
+        <v>1038</v>
       </c>
       <c r="Q5" t="n">
         <v>13</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44580</v>
+        <v>44616</v>
       </c>
       <c r="E6" t="n">
         <v>15</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="K6" t="n">
-        <v>11000</v>
+        <v>19000</v>
       </c>
       <c r="L6" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="M6" t="n">
-        <v>11500</v>
+        <v>19500</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>885</v>
+        <v>1500</v>
       </c>
       <c r="Q6" t="n">
         <v>13</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44159</v>
+        <v>44855</v>
       </c>
       <c r="E7" t="n">
         <v>15</v>
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="K7" t="n">
-        <v>23000</v>
+        <v>10000</v>
       </c>
       <c r="L7" t="n">
-        <v>24000</v>
+        <v>10000</v>
       </c>
       <c r="M7" t="n">
-        <v>23500</v>
+        <v>10000</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>1808</v>
+        <v>769</v>
       </c>
       <c r="Q7" t="n">
         <v>13</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44320</v>
+        <v>44406</v>
       </c>
       <c r="E8" t="n">
         <v>15</v>
@@ -936,13 +936,13 @@
         <v>160</v>
       </c>
       <c r="K8" t="n">
-        <v>19000</v>
+        <v>17000</v>
       </c>
       <c r="L8" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="M8" t="n">
-        <v>19500</v>
+        <v>17500</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>1500</v>
+        <v>1346</v>
       </c>
       <c r="Q8" t="n">
         <v>13</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44855</v>
+        <v>44389</v>
       </c>
       <c r="E9" t="n">
         <v>15</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>500</v>
+        <v>120</v>
       </c>
       <c r="K9" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="L9" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="M9" t="n">
-        <v>10000</v>
+        <v>12500</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>769</v>
+        <v>962</v>
       </c>
       <c r="Q9" t="n">
         <v>13</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44893</v>
+        <v>44832</v>
       </c>
       <c r="E10" t="n">
         <v>15</v>
@@ -1077,7 +1077,7 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>900</v>
+        <v>100</v>
       </c>
       <c r="K10" t="n">
         <v>13000</v>
@@ -1086,7 +1086,7 @@
         <v>14000</v>
       </c>
       <c r="M10" t="n">
-        <v>13444</v>
+        <v>13500</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>1034</v>
+        <v>1038</v>
       </c>
       <c r="Q10" t="n">
         <v>13</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44389</v>
+        <v>44764</v>
       </c>
       <c r="E11" t="n">
         <v>15</v>
@@ -1149,7 +1149,7 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="K11" t="n">
         <v>12000</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44764</v>
+        <v>44592</v>
       </c>
       <c r="E12" t="n">
         <v>15</v>
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="K12" t="n">
         <v>12000</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44397</v>
+        <v>44159</v>
       </c>
       <c r="E13" t="n">
         <v>15</v>
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="K13" t="n">
-        <v>12500</v>
+        <v>23000</v>
       </c>
       <c r="L13" t="n">
-        <v>13000</v>
+        <v>24000</v>
       </c>
       <c r="M13" t="n">
-        <v>12750</v>
+        <v>23500</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>981</v>
+        <v>1808</v>
       </c>
       <c r="Q13" t="n">
         <v>13</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44592</v>
+        <v>44320</v>
       </c>
       <c r="E14" t="n">
         <v>15</v>
@@ -1365,16 +1365,16 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="K14" t="n">
-        <v>12000</v>
+        <v>19000</v>
       </c>
       <c r="L14" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="M14" t="n">
-        <v>12500</v>
+        <v>19500</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>962</v>
+        <v>1500</v>
       </c>
       <c r="Q14" t="n">
         <v>13</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44406</v>
+        <v>44397</v>
       </c>
       <c r="E15" t="n">
         <v>15</v>
@@ -1437,16 +1437,16 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="K15" t="n">
-        <v>17000</v>
+        <v>12500</v>
       </c>
       <c r="L15" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="M15" t="n">
-        <v>17500</v>
+        <v>12750</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>1346</v>
+        <v>981</v>
       </c>
       <c r="Q15" t="n">
         <v>13</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44890</v>
+        <v>44893</v>
       </c>
       <c r="E16" t="n">
         <v>15</v>
@@ -1509,16 +1509,16 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>300</v>
+        <v>900</v>
       </c>
       <c r="K16" t="n">
+        <v>13000</v>
+      </c>
+      <c r="L16" t="n">
         <v>14000</v>
       </c>
-      <c r="L16" t="n">
-        <v>15000</v>
-      </c>
       <c r="M16" t="n">
-        <v>14500</v>
+        <v>13444</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>1115</v>
+        <v>1034</v>
       </c>
       <c r="Q16" t="n">
         <v>13</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Jengibre.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Jengibre.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44890</v>
+        <v>44379</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>300</v>
+        <v>120</v>
       </c>
       <c r="K2" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="L2" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="M2" t="n">
-        <v>14500</v>
+        <v>12667</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>1115</v>
+        <v>974</v>
       </c>
       <c r="Q2" t="n">
         <v>13</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44379</v>
+        <v>44320</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="K3" t="n">
-        <v>12000</v>
+        <v>19000</v>
       </c>
       <c r="L3" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="M3" t="n">
-        <v>12667</v>
+        <v>19500</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>974</v>
+        <v>1500</v>
       </c>
       <c r="Q3" t="n">
         <v>13</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44580</v>
+        <v>44616</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="K4" t="n">
-        <v>11000</v>
+        <v>19000</v>
       </c>
       <c r="L4" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="M4" t="n">
-        <v>11500</v>
+        <v>19500</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>885</v>
+        <v>1500</v>
       </c>
       <c r="Q4" t="n">
         <v>13</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44469</v>
+        <v>44389</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="K5" t="n">
+        <v>12000</v>
+      </c>
+      <c r="L5" t="n">
         <v>13000</v>
       </c>
-      <c r="L5" t="n">
-        <v>14000</v>
-      </c>
       <c r="M5" t="n">
-        <v>13500</v>
+        <v>12500</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>1038</v>
+        <v>962</v>
       </c>
       <c r="Q5" t="n">
         <v>13</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44616</v>
+        <v>44764</v>
       </c>
       <c r="E6" t="n">
         <v>15</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="K6" t="n">
-        <v>19000</v>
+        <v>12000</v>
       </c>
       <c r="L6" t="n">
-        <v>20000</v>
+        <v>13000</v>
       </c>
       <c r="M6" t="n">
-        <v>19500</v>
+        <v>12500</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>1500</v>
+        <v>962</v>
       </c>
       <c r="Q6" t="n">
         <v>13</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44406</v>
+        <v>44159</v>
       </c>
       <c r="E8" t="n">
         <v>15</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="K8" t="n">
-        <v>17000</v>
+        <v>23000</v>
       </c>
       <c r="L8" t="n">
-        <v>18000</v>
+        <v>24000</v>
       </c>
       <c r="M8" t="n">
-        <v>17500</v>
+        <v>23500</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>1346</v>
+        <v>1808</v>
       </c>
       <c r="Q8" t="n">
         <v>13</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44389</v>
+        <v>44469</v>
       </c>
       <c r="E9" t="n">
         <v>15</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="K9" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="L9" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="M9" t="n">
-        <v>12500</v>
+        <v>13500</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>962</v>
+        <v>1038</v>
       </c>
       <c r="Q9" t="n">
         <v>13</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44832</v>
+        <v>44893</v>
       </c>
       <c r="E10" t="n">
         <v>15</v>
@@ -1077,7 +1077,7 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>100</v>
+        <v>900</v>
       </c>
       <c r="K10" t="n">
         <v>13000</v>
@@ -1086,7 +1086,7 @@
         <v>14000</v>
       </c>
       <c r="M10" t="n">
-        <v>13500</v>
+        <v>13444</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>1038</v>
+        <v>1034</v>
       </c>
       <c r="Q10" t="n">
         <v>13</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44764</v>
+        <v>44397</v>
       </c>
       <c r="E11" t="n">
         <v>15</v>
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>200</v>
+        <v>140</v>
       </c>
       <c r="K11" t="n">
-        <v>12000</v>
+        <v>12500</v>
       </c>
       <c r="L11" t="n">
         <v>13000</v>
       </c>
       <c r="M11" t="n">
-        <v>12500</v>
+        <v>12750</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>962</v>
+        <v>981</v>
       </c>
       <c r="Q11" t="n">
         <v>13</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44592</v>
+        <v>44406</v>
       </c>
       <c r="E12" t="n">
         <v>15</v>
@@ -1221,16 +1221,16 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="K12" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="L12" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="M12" t="n">
-        <v>12500</v>
+        <v>17500</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>962</v>
+        <v>1346</v>
       </c>
       <c r="Q12" t="n">
         <v>13</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44159</v>
+        <v>44592</v>
       </c>
       <c r="E13" t="n">
         <v>15</v>
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="K13" t="n">
-        <v>23000</v>
+        <v>12000</v>
       </c>
       <c r="L13" t="n">
-        <v>24000</v>
+        <v>13000</v>
       </c>
       <c r="M13" t="n">
-        <v>23500</v>
+        <v>12500</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>1808</v>
+        <v>962</v>
       </c>
       <c r="Q13" t="n">
         <v>13</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44320</v>
+        <v>44832</v>
       </c>
       <c r="E14" t="n">
         <v>15</v>
@@ -1365,16 +1365,16 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="K14" t="n">
-        <v>19000</v>
+        <v>13000</v>
       </c>
       <c r="L14" t="n">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="M14" t="n">
-        <v>19500</v>
+        <v>13500</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>1500</v>
+        <v>1038</v>
       </c>
       <c r="Q14" t="n">
         <v>13</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44397</v>
+        <v>44890</v>
       </c>
       <c r="E15" t="n">
         <v>15</v>
@@ -1437,16 +1437,16 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>140</v>
+        <v>300</v>
       </c>
       <c r="K15" t="n">
-        <v>12500</v>
+        <v>14000</v>
       </c>
       <c r="L15" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="M15" t="n">
-        <v>12750</v>
+        <v>14500</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>981</v>
+        <v>1115</v>
       </c>
       <c r="Q15" t="n">
         <v>13</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44893</v>
+        <v>44580</v>
       </c>
       <c r="E16" t="n">
         <v>15</v>
@@ -1509,16 +1509,16 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>900</v>
+        <v>160</v>
       </c>
       <c r="K16" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="L16" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="M16" t="n">
-        <v>13444</v>
+        <v>11500</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>1034</v>
+        <v>885</v>
       </c>
       <c r="Q16" t="n">
         <v>13</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Jengibre.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Jengibre.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R16"/>
+  <dimension ref="A1:R17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44616</v>
+        <v>44910</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="K4" t="n">
-        <v>19000</v>
+        <v>14000</v>
       </c>
       <c r="L4" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="M4" t="n">
-        <v>19500</v>
+        <v>14500</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>1500</v>
+        <v>1115</v>
       </c>
       <c r="Q4" t="n">
         <v>13</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44389</v>
+        <v>44616</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -720,13 +720,13 @@
         <v>120</v>
       </c>
       <c r="K5" t="n">
-        <v>12000</v>
+        <v>19000</v>
       </c>
       <c r="L5" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="M5" t="n">
-        <v>12500</v>
+        <v>19500</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>962</v>
+        <v>1500</v>
       </c>
       <c r="Q5" t="n">
         <v>13</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44764</v>
+        <v>44389</v>
       </c>
       <c r="E6" t="n">
         <v>15</v>
@@ -789,7 +789,7 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="K6" t="n">
         <v>12000</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44855</v>
+        <v>44764</v>
       </c>
       <c r="E7" t="n">
         <v>15</v>
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="K7" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="L7" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="M7" t="n">
-        <v>10000</v>
+        <v>12500</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>769</v>
+        <v>962</v>
       </c>
       <c r="Q7" t="n">
         <v>13</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44159</v>
+        <v>44855</v>
       </c>
       <c r="E8" t="n">
         <v>15</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="K8" t="n">
-        <v>23000</v>
+        <v>10000</v>
       </c>
       <c r="L8" t="n">
-        <v>24000</v>
+        <v>10000</v>
       </c>
       <c r="M8" t="n">
-        <v>23500</v>
+        <v>10000</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>1808</v>
+        <v>769</v>
       </c>
       <c r="Q8" t="n">
         <v>13</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44469</v>
+        <v>44159</v>
       </c>
       <c r="E9" t="n">
         <v>15</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="K9" t="n">
-        <v>13000</v>
+        <v>23000</v>
       </c>
       <c r="L9" t="n">
-        <v>14000</v>
+        <v>24000</v>
       </c>
       <c r="M9" t="n">
-        <v>13500</v>
+        <v>23500</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>1038</v>
+        <v>1808</v>
       </c>
       <c r="Q9" t="n">
         <v>13</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44893</v>
+        <v>44469</v>
       </c>
       <c r="E10" t="n">
         <v>15</v>
@@ -1077,7 +1077,7 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>900</v>
+        <v>140</v>
       </c>
       <c r="K10" t="n">
         <v>13000</v>
@@ -1086,7 +1086,7 @@
         <v>14000</v>
       </c>
       <c r="M10" t="n">
-        <v>13444</v>
+        <v>13500</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>1034</v>
+        <v>1038</v>
       </c>
       <c r="Q10" t="n">
         <v>13</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44397</v>
+        <v>44893</v>
       </c>
       <c r="E11" t="n">
         <v>15</v>
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>140</v>
+        <v>900</v>
       </c>
       <c r="K11" t="n">
-        <v>12500</v>
+        <v>13000</v>
       </c>
       <c r="L11" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="M11" t="n">
-        <v>12750</v>
+        <v>13444</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>981</v>
+        <v>1034</v>
       </c>
       <c r="Q11" t="n">
         <v>13</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44406</v>
+        <v>44397</v>
       </c>
       <c r="E12" t="n">
         <v>15</v>
@@ -1221,16 +1221,16 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="K12" t="n">
-        <v>17000</v>
+        <v>12500</v>
       </c>
       <c r="L12" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="M12" t="n">
-        <v>17500</v>
+        <v>12750</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>1346</v>
+        <v>981</v>
       </c>
       <c r="Q12" t="n">
         <v>13</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44592</v>
+        <v>44406</v>
       </c>
       <c r="E13" t="n">
         <v>15</v>
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="K13" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="L13" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="M13" t="n">
-        <v>12500</v>
+        <v>17500</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>962</v>
+        <v>1346</v>
       </c>
       <c r="Q13" t="n">
         <v>13</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44832</v>
+        <v>44592</v>
       </c>
       <c r="E14" t="n">
         <v>15</v>
@@ -1365,16 +1365,16 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="K14" t="n">
+        <v>12000</v>
+      </c>
+      <c r="L14" t="n">
         <v>13000</v>
       </c>
-      <c r="L14" t="n">
-        <v>14000</v>
-      </c>
       <c r="M14" t="n">
-        <v>13500</v>
+        <v>12500</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>1038</v>
+        <v>962</v>
       </c>
       <c r="Q14" t="n">
         <v>13</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44890</v>
+        <v>44832</v>
       </c>
       <c r="E15" t="n">
         <v>15</v>
@@ -1437,16 +1437,16 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="K15" t="n">
+        <v>13000</v>
+      </c>
+      <c r="L15" t="n">
         <v>14000</v>
       </c>
-      <c r="L15" t="n">
-        <v>15000</v>
-      </c>
       <c r="M15" t="n">
-        <v>14500</v>
+        <v>13500</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>1115</v>
+        <v>1038</v>
       </c>
       <c r="Q15" t="n">
         <v>13</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44580</v>
+        <v>44890</v>
       </c>
       <c r="E16" t="n">
         <v>15</v>
@@ -1509,16 +1509,16 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>160</v>
+        <v>300</v>
       </c>
       <c r="K16" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="L16" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="M16" t="n">
-        <v>11500</v>
+        <v>14500</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1531,12 +1531,84 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>885</v>
+        <v>1115</v>
       </c>
       <c r="Q16" t="n">
         <v>13</v>
       </c>
       <c r="R16" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>1</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Agrícola del Norte S.A. de Arica</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="n">
+        <v>44580</v>
+      </c>
+      <c r="E17" t="n">
+        <v>15</v>
+      </c>
+      <c r="F17" t="n">
+        <v>100114007</v>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Jengibre</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J17" t="n">
+        <v>160</v>
+      </c>
+      <c r="K17" t="n">
+        <v>11000</v>
+      </c>
+      <c r="L17" t="n">
+        <v>12000</v>
+      </c>
+      <c r="M17" t="n">
+        <v>11500</v>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>$/caja 13 kilos</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>Perú</t>
+        </is>
+      </c>
+      <c r="P17" t="n">
+        <v>885</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>13</v>
+      </c>
+      <c r="R17" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Jengibre.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Jengibre.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R17"/>
+  <dimension ref="A1:R18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44389</v>
+        <v>44914</v>
       </c>
       <c r="E6" t="n">
         <v>15</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="K6" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="L6" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="M6" t="n">
-        <v>12500</v>
+        <v>14400</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>962</v>
+        <v>1108</v>
       </c>
       <c r="Q6" t="n">
         <v>13</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44764</v>
+        <v>44389</v>
       </c>
       <c r="E7" t="n">
         <v>15</v>
@@ -861,7 +861,7 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="K7" t="n">
         <v>12000</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44855</v>
+        <v>44764</v>
       </c>
       <c r="E8" t="n">
         <v>15</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="K8" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="L8" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="M8" t="n">
-        <v>10000</v>
+        <v>12500</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>769</v>
+        <v>962</v>
       </c>
       <c r="Q8" t="n">
         <v>13</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44159</v>
+        <v>44855</v>
       </c>
       <c r="E9" t="n">
         <v>15</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="K9" t="n">
-        <v>23000</v>
+        <v>10000</v>
       </c>
       <c r="L9" t="n">
-        <v>24000</v>
+        <v>10000</v>
       </c>
       <c r="M9" t="n">
-        <v>23500</v>
+        <v>10000</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>1808</v>
+        <v>769</v>
       </c>
       <c r="Q9" t="n">
         <v>13</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44469</v>
+        <v>44159</v>
       </c>
       <c r="E10" t="n">
         <v>15</v>
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="K10" t="n">
-        <v>13000</v>
+        <v>23000</v>
       </c>
       <c r="L10" t="n">
-        <v>14000</v>
+        <v>24000</v>
       </c>
       <c r="M10" t="n">
-        <v>13500</v>
+        <v>23500</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>1038</v>
+        <v>1808</v>
       </c>
       <c r="Q10" t="n">
         <v>13</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44893</v>
+        <v>44469</v>
       </c>
       <c r="E11" t="n">
         <v>15</v>
@@ -1149,7 +1149,7 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>900</v>
+        <v>140</v>
       </c>
       <c r="K11" t="n">
         <v>13000</v>
@@ -1158,7 +1158,7 @@
         <v>14000</v>
       </c>
       <c r="M11" t="n">
-        <v>13444</v>
+        <v>13500</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>1034</v>
+        <v>1038</v>
       </c>
       <c r="Q11" t="n">
         <v>13</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44397</v>
+        <v>44893</v>
       </c>
       <c r="E12" t="n">
         <v>15</v>
@@ -1221,16 +1221,16 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>140</v>
+        <v>900</v>
       </c>
       <c r="K12" t="n">
-        <v>12500</v>
+        <v>13000</v>
       </c>
       <c r="L12" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="M12" t="n">
-        <v>12750</v>
+        <v>13444</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>981</v>
+        <v>1034</v>
       </c>
       <c r="Q12" t="n">
         <v>13</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44406</v>
+        <v>44397</v>
       </c>
       <c r="E13" t="n">
         <v>15</v>
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="K13" t="n">
-        <v>17000</v>
+        <v>12500</v>
       </c>
       <c r="L13" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="M13" t="n">
-        <v>17500</v>
+        <v>12750</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>1346</v>
+        <v>981</v>
       </c>
       <c r="Q13" t="n">
         <v>13</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44592</v>
+        <v>44406</v>
       </c>
       <c r="E14" t="n">
         <v>15</v>
@@ -1365,16 +1365,16 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="K14" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="L14" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="M14" t="n">
-        <v>12500</v>
+        <v>17500</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>962</v>
+        <v>1346</v>
       </c>
       <c r="Q14" t="n">
         <v>13</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44832</v>
+        <v>44592</v>
       </c>
       <c r="E15" t="n">
         <v>15</v>
@@ -1437,16 +1437,16 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="K15" t="n">
+        <v>12000</v>
+      </c>
+      <c r="L15" t="n">
         <v>13000</v>
       </c>
-      <c r="L15" t="n">
-        <v>14000</v>
-      </c>
       <c r="M15" t="n">
-        <v>13500</v>
+        <v>12500</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>1038</v>
+        <v>962</v>
       </c>
       <c r="Q15" t="n">
         <v>13</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44890</v>
+        <v>44832</v>
       </c>
       <c r="E16" t="n">
         <v>15</v>
@@ -1509,16 +1509,16 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="K16" t="n">
+        <v>13000</v>
+      </c>
+      <c r="L16" t="n">
         <v>14000</v>
       </c>
-      <c r="L16" t="n">
-        <v>15000</v>
-      </c>
       <c r="M16" t="n">
-        <v>14500</v>
+        <v>13500</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>1115</v>
+        <v>1038</v>
       </c>
       <c r="Q16" t="n">
         <v>13</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44580</v>
+        <v>44890</v>
       </c>
       <c r="E17" t="n">
         <v>15</v>
@@ -1581,16 +1581,16 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>160</v>
+        <v>300</v>
       </c>
       <c r="K17" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="L17" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="M17" t="n">
-        <v>11500</v>
+        <v>14500</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1603,12 +1603,84 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>885</v>
+        <v>1115</v>
       </c>
       <c r="Q17" t="n">
         <v>13</v>
       </c>
       <c r="R17" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>1</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Agrícola del Norte S.A. de Arica</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="n">
+        <v>44580</v>
+      </c>
+      <c r="E18" t="n">
+        <v>15</v>
+      </c>
+      <c r="F18" t="n">
+        <v>100114007</v>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Jengibre</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J18" t="n">
+        <v>160</v>
+      </c>
+      <c r="K18" t="n">
+        <v>11000</v>
+      </c>
+      <c r="L18" t="n">
+        <v>12000</v>
+      </c>
+      <c r="M18" t="n">
+        <v>11500</v>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>$/caja 13 kilos</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>Perú</t>
+        </is>
+      </c>
+      <c r="P18" t="n">
+        <v>885</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>13</v>
+      </c>
+      <c r="R18" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Jengibre.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Jengibre.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R18"/>
+  <dimension ref="A1:R19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44832</v>
+        <v>44918</v>
       </c>
       <c r="E16" t="n">
         <v>15</v>
@@ -1505,20 +1505,20 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J16" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K16" t="n">
+        <v>12000</v>
+      </c>
+      <c r="L16" t="n">
         <v>13000</v>
       </c>
-      <c r="L16" t="n">
-        <v>14000</v>
-      </c>
       <c r="M16" t="n">
-        <v>13500</v>
+        <v>12750</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>1038</v>
+        <v>981</v>
       </c>
       <c r="Q16" t="n">
         <v>13</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44890</v>
+        <v>44832</v>
       </c>
       <c r="E17" t="n">
         <v>15</v>
@@ -1581,16 +1581,16 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="K17" t="n">
+        <v>13000</v>
+      </c>
+      <c r="L17" t="n">
         <v>14000</v>
       </c>
-      <c r="L17" t="n">
-        <v>15000</v>
-      </c>
       <c r="M17" t="n">
-        <v>14500</v>
+        <v>13500</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>1115</v>
+        <v>1038</v>
       </c>
       <c r="Q17" t="n">
         <v>13</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44580</v>
+        <v>44890</v>
       </c>
       <c r="E18" t="n">
         <v>15</v>
@@ -1653,16 +1653,16 @@
         </is>
       </c>
       <c r="J18" t="n">
-        <v>160</v>
+        <v>300</v>
       </c>
       <c r="K18" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="L18" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="M18" t="n">
-        <v>11500</v>
+        <v>14500</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1675,12 +1675,84 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>885</v>
+        <v>1115</v>
       </c>
       <c r="Q18" t="n">
         <v>13</v>
       </c>
       <c r="R18" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>1</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Agrícola del Norte S.A. de Arica</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="n">
+        <v>44580</v>
+      </c>
+      <c r="E19" t="n">
+        <v>15</v>
+      </c>
+      <c r="F19" t="n">
+        <v>100114007</v>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Jengibre</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J19" t="n">
+        <v>160</v>
+      </c>
+      <c r="K19" t="n">
+        <v>11000</v>
+      </c>
+      <c r="L19" t="n">
+        <v>12000</v>
+      </c>
+      <c r="M19" t="n">
+        <v>11500</v>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>$/caja 13 kilos</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>Perú</t>
+        </is>
+      </c>
+      <c r="P19" t="n">
+        <v>885</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>13</v>
+      </c>
+      <c r="R19" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Jengibre.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Jengibre.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44379</v>
+        <v>44910</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="K2" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="L2" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="M2" t="n">
-        <v>12667</v>
+        <v>14500</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>974</v>
+        <v>1115</v>
       </c>
       <c r="Q2" t="n">
         <v>13</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44320</v>
+        <v>44397</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="K3" t="n">
-        <v>19000</v>
+        <v>12500</v>
       </c>
       <c r="L3" t="n">
-        <v>20000</v>
+        <v>13000</v>
       </c>
       <c r="M3" t="n">
-        <v>19500</v>
+        <v>12750</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>1500</v>
+        <v>981</v>
       </c>
       <c r="Q3" t="n">
         <v>13</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44910</v>
+        <v>44320</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>50</v>
+        <v>160</v>
       </c>
       <c r="K4" t="n">
-        <v>14000</v>
+        <v>19000</v>
       </c>
       <c r="L4" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="M4" t="n">
-        <v>14500</v>
+        <v>19500</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>1115</v>
+        <v>1500</v>
       </c>
       <c r="Q4" t="n">
         <v>13</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44616</v>
+        <v>44855</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>120</v>
+        <v>500</v>
       </c>
       <c r="K5" t="n">
-        <v>19000</v>
+        <v>10000</v>
       </c>
       <c r="L5" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="M5" t="n">
-        <v>19500</v>
+        <v>10000</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>1500</v>
+        <v>769</v>
       </c>
       <c r="Q5" t="n">
         <v>13</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44914</v>
+        <v>44890</v>
       </c>
       <c r="E6" t="n">
         <v>15</v>
@@ -789,7 +789,7 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="K6" t="n">
         <v>14000</v>
@@ -798,7 +798,7 @@
         <v>15000</v>
       </c>
       <c r="M6" t="n">
-        <v>14400</v>
+        <v>14500</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>1108</v>
+        <v>1115</v>
       </c>
       <c r="Q6" t="n">
         <v>13</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44389</v>
+        <v>44379</v>
       </c>
       <c r="E7" t="n">
         <v>15</v>
@@ -870,7 +870,7 @@
         <v>13000</v>
       </c>
       <c r="M7" t="n">
-        <v>12500</v>
+        <v>12667</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>962</v>
+        <v>974</v>
       </c>
       <c r="Q7" t="n">
         <v>13</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44764</v>
+        <v>44389</v>
       </c>
       <c r="E8" t="n">
         <v>15</v>
@@ -933,7 +933,7 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="K8" t="n">
         <v>12000</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44855</v>
+        <v>44832</v>
       </c>
       <c r="E9" t="n">
         <v>15</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="K9" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="L9" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="M9" t="n">
-        <v>10000</v>
+        <v>13500</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>769</v>
+        <v>1038</v>
       </c>
       <c r="Q9" t="n">
         <v>13</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44159</v>
+        <v>44580</v>
       </c>
       <c r="E10" t="n">
         <v>15</v>
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>100</v>
+        <v>160</v>
       </c>
       <c r="K10" t="n">
-        <v>23000</v>
+        <v>11000</v>
       </c>
       <c r="L10" t="n">
-        <v>24000</v>
+        <v>12000</v>
       </c>
       <c r="M10" t="n">
-        <v>23500</v>
+        <v>11500</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>1808</v>
+        <v>885</v>
       </c>
       <c r="Q10" t="n">
         <v>13</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44469</v>
+        <v>44616</v>
       </c>
       <c r="E11" t="n">
         <v>15</v>
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="K11" t="n">
-        <v>13000</v>
+        <v>19000</v>
       </c>
       <c r="L11" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="M11" t="n">
-        <v>13500</v>
+        <v>19500</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>1038</v>
+        <v>1500</v>
       </c>
       <c r="Q11" t="n">
         <v>13</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44893</v>
+        <v>44764</v>
       </c>
       <c r="E12" t="n">
         <v>15</v>
@@ -1221,16 +1221,16 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>900</v>
+        <v>200</v>
       </c>
       <c r="K12" t="n">
+        <v>12000</v>
+      </c>
+      <c r="L12" t="n">
         <v>13000</v>
       </c>
-      <c r="L12" t="n">
-        <v>14000</v>
-      </c>
       <c r="M12" t="n">
-        <v>13444</v>
+        <v>12500</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>1034</v>
+        <v>962</v>
       </c>
       <c r="Q12" t="n">
         <v>13</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44397</v>
+        <v>44469</v>
       </c>
       <c r="E13" t="n">
         <v>15</v>
@@ -1296,13 +1296,13 @@
         <v>140</v>
       </c>
       <c r="K13" t="n">
-        <v>12500</v>
+        <v>13000</v>
       </c>
       <c r="L13" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="M13" t="n">
-        <v>12750</v>
+        <v>13500</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>981</v>
+        <v>1038</v>
       </c>
       <c r="Q13" t="n">
         <v>13</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44406</v>
+        <v>44914</v>
       </c>
       <c r="E14" t="n">
         <v>15</v>
@@ -1365,16 +1365,16 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="K14" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="L14" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="M14" t="n">
-        <v>17500</v>
+        <v>14400</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>1346</v>
+        <v>1108</v>
       </c>
       <c r="Q14" t="n">
         <v>13</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44592</v>
+        <v>44918</v>
       </c>
       <c r="E15" t="n">
         <v>15</v>
@@ -1433,11 +1433,11 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J15" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="K15" t="n">
         <v>12000</v>
@@ -1446,7 +1446,7 @@
         <v>13000</v>
       </c>
       <c r="M15" t="n">
-        <v>12500</v>
+        <v>12750</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>962</v>
+        <v>981</v>
       </c>
       <c r="Q15" t="n">
         <v>13</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44918</v>
+        <v>44406</v>
       </c>
       <c r="E16" t="n">
         <v>15</v>
@@ -1505,20 +1505,20 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J16" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="K16" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="L16" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="M16" t="n">
-        <v>12750</v>
+        <v>17500</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>981</v>
+        <v>1346</v>
       </c>
       <c r="Q16" t="n">
         <v>13</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44832</v>
+        <v>44159</v>
       </c>
       <c r="E17" t="n">
         <v>15</v>
@@ -1584,13 +1584,13 @@
         <v>100</v>
       </c>
       <c r="K17" t="n">
-        <v>13000</v>
+        <v>23000</v>
       </c>
       <c r="L17" t="n">
-        <v>14000</v>
+        <v>24000</v>
       </c>
       <c r="M17" t="n">
-        <v>13500</v>
+        <v>23500</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>1038</v>
+        <v>1808</v>
       </c>
       <c r="Q17" t="n">
         <v>13</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44890</v>
+        <v>44592</v>
       </c>
       <c r="E18" t="n">
         <v>15</v>
@@ -1653,16 +1653,16 @@
         </is>
       </c>
       <c r="J18" t="n">
-        <v>300</v>
+        <v>120</v>
       </c>
       <c r="K18" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="L18" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="M18" t="n">
-        <v>14500</v>
+        <v>12500</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1675,7 +1675,7 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>1115</v>
+        <v>962</v>
       </c>
       <c r="Q18" t="n">
         <v>13</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44580</v>
+        <v>44893</v>
       </c>
       <c r="E19" t="n">
         <v>15</v>
@@ -1725,16 +1725,16 @@
         </is>
       </c>
       <c r="J19" t="n">
-        <v>160</v>
+        <v>900</v>
       </c>
       <c r="K19" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="L19" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="M19" t="n">
-        <v>11500</v>
+        <v>13444</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>885</v>
+        <v>1034</v>
       </c>
       <c r="Q19" t="n">
         <v>13</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Jengibre.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Jengibre.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44910</v>
+        <v>44379</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>50</v>
+        <v>120</v>
       </c>
       <c r="K2" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="L2" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="M2" t="n">
-        <v>14500</v>
+        <v>12667</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>1115</v>
+        <v>974</v>
       </c>
       <c r="Q2" t="n">
         <v>13</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44397</v>
+        <v>44320</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="K3" t="n">
-        <v>12500</v>
+        <v>19000</v>
       </c>
       <c r="L3" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="M3" t="n">
-        <v>12750</v>
+        <v>19500</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>981</v>
+        <v>1500</v>
       </c>
       <c r="Q3" t="n">
         <v>13</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44320</v>
+        <v>44910</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>160</v>
+        <v>50</v>
       </c>
       <c r="K4" t="n">
-        <v>19000</v>
+        <v>14000</v>
       </c>
       <c r="L4" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="M4" t="n">
-        <v>19500</v>
+        <v>14500</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>1500</v>
+        <v>1115</v>
       </c>
       <c r="Q4" t="n">
         <v>13</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44855</v>
+        <v>44616</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>500</v>
+        <v>120</v>
       </c>
       <c r="K5" t="n">
-        <v>10000</v>
+        <v>19000</v>
       </c>
       <c r="L5" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="M5" t="n">
-        <v>10000</v>
+        <v>19500</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>769</v>
+        <v>1500</v>
       </c>
       <c r="Q5" t="n">
         <v>13</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44890</v>
+        <v>44914</v>
       </c>
       <c r="E6" t="n">
         <v>15</v>
@@ -789,7 +789,7 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="K6" t="n">
         <v>14000</v>
@@ -798,7 +798,7 @@
         <v>15000</v>
       </c>
       <c r="M6" t="n">
-        <v>14500</v>
+        <v>14400</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>1115</v>
+        <v>1108</v>
       </c>
       <c r="Q6" t="n">
         <v>13</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44379</v>
+        <v>44389</v>
       </c>
       <c r="E7" t="n">
         <v>15</v>
@@ -870,7 +870,7 @@
         <v>13000</v>
       </c>
       <c r="M7" t="n">
-        <v>12667</v>
+        <v>12500</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>974</v>
+        <v>962</v>
       </c>
       <c r="Q7" t="n">
         <v>13</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44389</v>
+        <v>44764</v>
       </c>
       <c r="E8" t="n">
         <v>15</v>
@@ -933,7 +933,7 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="K8" t="n">
         <v>12000</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44832</v>
+        <v>44855</v>
       </c>
       <c r="E9" t="n">
         <v>15</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="K9" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="L9" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="M9" t="n">
-        <v>13500</v>
+        <v>10000</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>1038</v>
+        <v>769</v>
       </c>
       <c r="Q9" t="n">
         <v>13</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44580</v>
+        <v>44159</v>
       </c>
       <c r="E10" t="n">
         <v>15</v>
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="K10" t="n">
-        <v>11000</v>
+        <v>23000</v>
       </c>
       <c r="L10" t="n">
-        <v>12000</v>
+        <v>24000</v>
       </c>
       <c r="M10" t="n">
-        <v>11500</v>
+        <v>23500</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>885</v>
+        <v>1808</v>
       </c>
       <c r="Q10" t="n">
         <v>13</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44616</v>
+        <v>44469</v>
       </c>
       <c r="E11" t="n">
         <v>15</v>
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="K11" t="n">
-        <v>19000</v>
+        <v>13000</v>
       </c>
       <c r="L11" t="n">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="M11" t="n">
-        <v>19500</v>
+        <v>13500</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>1500</v>
+        <v>1038</v>
       </c>
       <c r="Q11" t="n">
         <v>13</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44764</v>
+        <v>44893</v>
       </c>
       <c r="E12" t="n">
         <v>15</v>
@@ -1221,16 +1221,16 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>200</v>
+        <v>900</v>
       </c>
       <c r="K12" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="L12" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="M12" t="n">
-        <v>12500</v>
+        <v>13444</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>962</v>
+        <v>1034</v>
       </c>
       <c r="Q12" t="n">
         <v>13</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44469</v>
+        <v>44397</v>
       </c>
       <c r="E13" t="n">
         <v>15</v>
@@ -1296,13 +1296,13 @@
         <v>140</v>
       </c>
       <c r="K13" t="n">
+        <v>12500</v>
+      </c>
+      <c r="L13" t="n">
         <v>13000</v>
       </c>
-      <c r="L13" t="n">
-        <v>14000</v>
-      </c>
       <c r="M13" t="n">
-        <v>13500</v>
+        <v>12750</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>1038</v>
+        <v>981</v>
       </c>
       <c r="Q13" t="n">
         <v>13</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44914</v>
+        <v>44406</v>
       </c>
       <c r="E14" t="n">
         <v>15</v>
@@ -1365,16 +1365,16 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>100</v>
+        <v>160</v>
       </c>
       <c r="K14" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="L14" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="M14" t="n">
-        <v>14400</v>
+        <v>17500</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>1108</v>
+        <v>1346</v>
       </c>
       <c r="Q14" t="n">
         <v>13</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44918</v>
+        <v>44592</v>
       </c>
       <c r="E15" t="n">
         <v>15</v>
@@ -1433,11 +1433,11 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J15" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="K15" t="n">
         <v>12000</v>
@@ -1446,7 +1446,7 @@
         <v>13000</v>
       </c>
       <c r="M15" t="n">
-        <v>12750</v>
+        <v>12500</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>981</v>
+        <v>962</v>
       </c>
       <c r="Q15" t="n">
         <v>13</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44406</v>
+        <v>44918</v>
       </c>
       <c r="E16" t="n">
         <v>15</v>
@@ -1505,20 +1505,20 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J16" t="n">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="K16" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="L16" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="M16" t="n">
-        <v>17500</v>
+        <v>12750</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>1346</v>
+        <v>981</v>
       </c>
       <c r="Q16" t="n">
         <v>13</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44159</v>
+        <v>44832</v>
       </c>
       <c r="E17" t="n">
         <v>15</v>
@@ -1584,13 +1584,13 @@
         <v>100</v>
       </c>
       <c r="K17" t="n">
-        <v>23000</v>
+        <v>13000</v>
       </c>
       <c r="L17" t="n">
-        <v>24000</v>
+        <v>14000</v>
       </c>
       <c r="M17" t="n">
-        <v>23500</v>
+        <v>13500</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>1808</v>
+        <v>1038</v>
       </c>
       <c r="Q17" t="n">
         <v>13</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44592</v>
+        <v>44890</v>
       </c>
       <c r="E18" t="n">
         <v>15</v>
@@ -1653,16 +1653,16 @@
         </is>
       </c>
       <c r="J18" t="n">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="K18" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="L18" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="M18" t="n">
-        <v>12500</v>
+        <v>14500</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1675,7 +1675,7 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>962</v>
+        <v>1115</v>
       </c>
       <c r="Q18" t="n">
         <v>13</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44893</v>
+        <v>44580</v>
       </c>
       <c r="E19" t="n">
         <v>15</v>
@@ -1725,16 +1725,16 @@
         </is>
       </c>
       <c r="J19" t="n">
-        <v>900</v>
+        <v>160</v>
       </c>
       <c r="K19" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="L19" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="M19" t="n">
-        <v>13444</v>
+        <v>11500</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>1034</v>
+        <v>885</v>
       </c>
       <c r="Q19" t="n">
         <v>13</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Jengibre.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Jengibre.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R19"/>
+  <dimension ref="A1:R20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44592</v>
+        <v>44943</v>
       </c>
       <c r="E18" t="n">
         <v>15</v>
@@ -1649,20 +1649,20 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J18" t="n">
-        <v>120</v>
+        <v>350</v>
       </c>
       <c r="K18" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="L18" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="M18" t="n">
-        <v>12500</v>
+        <v>14429</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1675,7 +1675,7 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>962</v>
+        <v>1110</v>
       </c>
       <c r="Q18" t="n">
         <v>13</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44893</v>
+        <v>44592</v>
       </c>
       <c r="E19" t="n">
         <v>15</v>
@@ -1725,16 +1725,16 @@
         </is>
       </c>
       <c r="J19" t="n">
-        <v>900</v>
+        <v>120</v>
       </c>
       <c r="K19" t="n">
+        <v>12000</v>
+      </c>
+      <c r="L19" t="n">
         <v>13000</v>
       </c>
-      <c r="L19" t="n">
-        <v>14000</v>
-      </c>
       <c r="M19" t="n">
-        <v>13444</v>
+        <v>12500</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
@@ -1747,12 +1747,84 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>1034</v>
+        <v>962</v>
       </c>
       <c r="Q19" t="n">
         <v>13</v>
       </c>
       <c r="R19" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>1</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Agrícola del Norte S.A. de Arica</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="n">
+        <v>44893</v>
+      </c>
+      <c r="E20" t="n">
+        <v>15</v>
+      </c>
+      <c r="F20" t="n">
+        <v>100114007</v>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Jengibre</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J20" t="n">
+        <v>900</v>
+      </c>
+      <c r="K20" t="n">
+        <v>13000</v>
+      </c>
+      <c r="L20" t="n">
+        <v>14000</v>
+      </c>
+      <c r="M20" t="n">
+        <v>13444</v>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>$/caja 13 kilos</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>Perú</t>
+        </is>
+      </c>
+      <c r="P20" t="n">
+        <v>1034</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>13</v>
+      </c>
+      <c r="R20" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Jengibre.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Jengibre.xlsx
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44397</v>
+        <v>44918</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -569,14 +569,14 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J3" t="n">
-        <v>140</v>
+        <v>200</v>
       </c>
       <c r="K3" t="n">
-        <v>12500</v>
+        <v>12000</v>
       </c>
       <c r="L3" t="n">
         <v>13000</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44320</v>
+        <v>44943</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -641,20 +641,20 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J4" t="n">
-        <v>160</v>
+        <v>350</v>
       </c>
       <c r="K4" t="n">
-        <v>19000</v>
+        <v>14000</v>
       </c>
       <c r="L4" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="M4" t="n">
-        <v>19500</v>
+        <v>14429</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>1500</v>
+        <v>1110</v>
       </c>
       <c r="Q4" t="n">
         <v>13</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44855</v>
+        <v>44159</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="K5" t="n">
-        <v>10000</v>
+        <v>23000</v>
       </c>
       <c r="L5" t="n">
-        <v>10000</v>
+        <v>24000</v>
       </c>
       <c r="M5" t="n">
-        <v>10000</v>
+        <v>23500</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>769</v>
+        <v>1808</v>
       </c>
       <c r="Q5" t="n">
         <v>13</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44890</v>
+        <v>44893</v>
       </c>
       <c r="E6" t="n">
         <v>15</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>300</v>
+        <v>900</v>
       </c>
       <c r="K6" t="n">
+        <v>13000</v>
+      </c>
+      <c r="L6" t="n">
         <v>14000</v>
       </c>
-      <c r="L6" t="n">
-        <v>15000</v>
-      </c>
       <c r="M6" t="n">
-        <v>14500</v>
+        <v>13444</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>1115</v>
+        <v>1034</v>
       </c>
       <c r="Q6" t="n">
         <v>13</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44379</v>
+        <v>44406</v>
       </c>
       <c r="E7" t="n">
         <v>15</v>
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="K7" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="L7" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="M7" t="n">
-        <v>12667</v>
+        <v>17500</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>974</v>
+        <v>1346</v>
       </c>
       <c r="Q7" t="n">
         <v>13</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44389</v>
+        <v>44890</v>
       </c>
       <c r="E8" t="n">
         <v>15</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="K8" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="L8" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="M8" t="n">
-        <v>12500</v>
+        <v>14500</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>962</v>
+        <v>1115</v>
       </c>
       <c r="Q8" t="n">
         <v>13</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44832</v>
+        <v>44389</v>
       </c>
       <c r="E9" t="n">
         <v>15</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="K9" t="n">
+        <v>12000</v>
+      </c>
+      <c r="L9" t="n">
         <v>13000</v>
       </c>
-      <c r="L9" t="n">
-        <v>14000</v>
-      </c>
       <c r="M9" t="n">
-        <v>13500</v>
+        <v>12500</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>1038</v>
+        <v>962</v>
       </c>
       <c r="Q9" t="n">
         <v>13</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44580</v>
+        <v>44469</v>
       </c>
       <c r="E10" t="n">
         <v>15</v>
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="K10" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="L10" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="M10" t="n">
-        <v>11500</v>
+        <v>13500</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>885</v>
+        <v>1038</v>
       </c>
       <c r="Q10" t="n">
         <v>13</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44616</v>
+        <v>44580</v>
       </c>
       <c r="E11" t="n">
         <v>15</v>
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="K11" t="n">
-        <v>19000</v>
+        <v>11000</v>
       </c>
       <c r="L11" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="M11" t="n">
-        <v>19500</v>
+        <v>11500</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>1500</v>
+        <v>885</v>
       </c>
       <c r="Q11" t="n">
         <v>13</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44469</v>
+        <v>44397</v>
       </c>
       <c r="E13" t="n">
         <v>15</v>
@@ -1296,13 +1296,13 @@
         <v>140</v>
       </c>
       <c r="K13" t="n">
+        <v>12500</v>
+      </c>
+      <c r="L13" t="n">
         <v>13000</v>
       </c>
-      <c r="L13" t="n">
-        <v>14000</v>
-      </c>
       <c r="M13" t="n">
-        <v>13500</v>
+        <v>12750</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>1038</v>
+        <v>981</v>
       </c>
       <c r="Q13" t="n">
         <v>13</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44914</v>
+        <v>44379</v>
       </c>
       <c r="E14" t="n">
         <v>15</v>
@@ -1365,16 +1365,16 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="K14" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="L14" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="M14" t="n">
-        <v>14400</v>
+        <v>12667</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>1108</v>
+        <v>974</v>
       </c>
       <c r="Q14" t="n">
         <v>13</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44918</v>
+        <v>44914</v>
       </c>
       <c r="E15" t="n">
         <v>15</v>
@@ -1433,20 +1433,20 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J15" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K15" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="L15" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="M15" t="n">
-        <v>12750</v>
+        <v>14400</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>981</v>
+        <v>1108</v>
       </c>
       <c r="Q15" t="n">
         <v>13</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44406</v>
+        <v>44832</v>
       </c>
       <c r="E16" t="n">
         <v>15</v>
@@ -1509,16 +1509,16 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="K16" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="L16" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="M16" t="n">
-        <v>17500</v>
+        <v>13500</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>1346</v>
+        <v>1038</v>
       </c>
       <c r="Q16" t="n">
         <v>13</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44159</v>
+        <v>44855</v>
       </c>
       <c r="E17" t="n">
         <v>15</v>
@@ -1581,16 +1581,16 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="K17" t="n">
-        <v>23000</v>
+        <v>10000</v>
       </c>
       <c r="L17" t="n">
-        <v>24000</v>
+        <v>10000</v>
       </c>
       <c r="M17" t="n">
-        <v>23500</v>
+        <v>10000</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>1808</v>
+        <v>769</v>
       </c>
       <c r="Q17" t="n">
         <v>13</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44943</v>
+        <v>44616</v>
       </c>
       <c r="E18" t="n">
         <v>15</v>
@@ -1649,20 +1649,20 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J18" t="n">
-        <v>350</v>
+        <v>120</v>
       </c>
       <c r="K18" t="n">
-        <v>14000</v>
+        <v>19000</v>
       </c>
       <c r="L18" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="M18" t="n">
-        <v>14429</v>
+        <v>19500</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1675,7 +1675,7 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>1110</v>
+        <v>1500</v>
       </c>
       <c r="Q18" t="n">
         <v>13</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44592</v>
+        <v>44320</v>
       </c>
       <c r="E19" t="n">
         <v>15</v>
@@ -1725,16 +1725,16 @@
         </is>
       </c>
       <c r="J19" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="K19" t="n">
-        <v>12000</v>
+        <v>19000</v>
       </c>
       <c r="L19" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="M19" t="n">
-        <v>12500</v>
+        <v>19500</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>962</v>
+        <v>1500</v>
       </c>
       <c r="Q19" t="n">
         <v>13</v>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44893</v>
+        <v>44592</v>
       </c>
       <c r="E20" t="n">
         <v>15</v>
@@ -1797,16 +1797,16 @@
         </is>
       </c>
       <c r="J20" t="n">
-        <v>900</v>
+        <v>120</v>
       </c>
       <c r="K20" t="n">
+        <v>12000</v>
+      </c>
+      <c r="L20" t="n">
         <v>13000</v>
       </c>
-      <c r="L20" t="n">
-        <v>14000</v>
-      </c>
       <c r="M20" t="n">
-        <v>13444</v>
+        <v>12500</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
@@ -1819,7 +1819,7 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>1034</v>
+        <v>962</v>
       </c>
       <c r="Q20" t="n">
         <v>13</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Jengibre.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Jengibre.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R20"/>
+  <dimension ref="A1:R21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44918</v>
+        <v>44972</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -569,24 +569,24 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J3" t="n">
-        <v>200</v>
+        <v>350</v>
       </c>
       <c r="K3" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="L3" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="M3" t="n">
-        <v>12750</v>
+        <v>17429</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>$/caja 13 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
@@ -595,10 +595,10 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>981</v>
+        <v>1162</v>
       </c>
       <c r="Q3" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="R3" t="inlineStr">
         <is>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44943</v>
+        <v>44918</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>350</v>
+        <v>200</v>
       </c>
       <c r="K4" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="L4" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="M4" t="n">
-        <v>14429</v>
+        <v>12750</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>1110</v>
+        <v>981</v>
       </c>
       <c r="Q4" t="n">
         <v>13</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44159</v>
+        <v>44943</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -713,20 +713,20 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J5" t="n">
-        <v>100</v>
+        <v>350</v>
       </c>
       <c r="K5" t="n">
-        <v>23000</v>
+        <v>14000</v>
       </c>
       <c r="L5" t="n">
-        <v>24000</v>
+        <v>15000</v>
       </c>
       <c r="M5" t="n">
-        <v>23500</v>
+        <v>14429</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>1808</v>
+        <v>1110</v>
       </c>
       <c r="Q5" t="n">
         <v>13</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44893</v>
+        <v>44159</v>
       </c>
       <c r="E6" t="n">
         <v>15</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>900</v>
+        <v>100</v>
       </c>
       <c r="K6" t="n">
-        <v>13000</v>
+        <v>23000</v>
       </c>
       <c r="L6" t="n">
-        <v>14000</v>
+        <v>24000</v>
       </c>
       <c r="M6" t="n">
-        <v>13444</v>
+        <v>23500</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>1034</v>
+        <v>1808</v>
       </c>
       <c r="Q6" t="n">
         <v>13</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44406</v>
+        <v>44893</v>
       </c>
       <c r="E7" t="n">
         <v>15</v>
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>160</v>
+        <v>900</v>
       </c>
       <c r="K7" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="L7" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="M7" t="n">
-        <v>17500</v>
+        <v>13444</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>1346</v>
+        <v>1034</v>
       </c>
       <c r="Q7" t="n">
         <v>13</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44890</v>
+        <v>44406</v>
       </c>
       <c r="E8" t="n">
         <v>15</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>300</v>
+        <v>160</v>
       </c>
       <c r="K8" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="L8" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="M8" t="n">
-        <v>14500</v>
+        <v>17500</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>1115</v>
+        <v>1346</v>
       </c>
       <c r="Q8" t="n">
         <v>13</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44389</v>
+        <v>44890</v>
       </c>
       <c r="E9" t="n">
         <v>15</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="K9" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="L9" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="M9" t="n">
-        <v>12500</v>
+        <v>14500</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>962</v>
+        <v>1115</v>
       </c>
       <c r="Q9" t="n">
         <v>13</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44469</v>
+        <v>44389</v>
       </c>
       <c r="E10" t="n">
         <v>15</v>
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="K10" t="n">
+        <v>12000</v>
+      </c>
+      <c r="L10" t="n">
         <v>13000</v>
       </c>
-      <c r="L10" t="n">
-        <v>14000</v>
-      </c>
       <c r="M10" t="n">
-        <v>13500</v>
+        <v>12500</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>1038</v>
+        <v>962</v>
       </c>
       <c r="Q10" t="n">
         <v>13</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44580</v>
+        <v>44469</v>
       </c>
       <c r="E11" t="n">
         <v>15</v>
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="K11" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="L11" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="M11" t="n">
-        <v>11500</v>
+        <v>13500</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>885</v>
+        <v>1038</v>
       </c>
       <c r="Q11" t="n">
         <v>13</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44764</v>
+        <v>44580</v>
       </c>
       <c r="E12" t="n">
         <v>15</v>
@@ -1221,16 +1221,16 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="K12" t="n">
+        <v>11000</v>
+      </c>
+      <c r="L12" t="n">
         <v>12000</v>
       </c>
-      <c r="L12" t="n">
-        <v>13000</v>
-      </c>
       <c r="M12" t="n">
-        <v>12500</v>
+        <v>11500</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>962</v>
+        <v>885</v>
       </c>
       <c r="Q12" t="n">
         <v>13</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44397</v>
+        <v>44764</v>
       </c>
       <c r="E13" t="n">
         <v>15</v>
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>140</v>
+        <v>200</v>
       </c>
       <c r="K13" t="n">
-        <v>12500</v>
+        <v>12000</v>
       </c>
       <c r="L13" t="n">
         <v>13000</v>
       </c>
       <c r="M13" t="n">
-        <v>12750</v>
+        <v>12500</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>981</v>
+        <v>962</v>
       </c>
       <c r="Q13" t="n">
         <v>13</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44379</v>
+        <v>44397</v>
       </c>
       <c r="E14" t="n">
         <v>15</v>
@@ -1365,16 +1365,16 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="K14" t="n">
-        <v>12000</v>
+        <v>12500</v>
       </c>
       <c r="L14" t="n">
         <v>13000</v>
       </c>
       <c r="M14" t="n">
-        <v>12667</v>
+        <v>12750</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>974</v>
+        <v>981</v>
       </c>
       <c r="Q14" t="n">
         <v>13</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44914</v>
+        <v>44379</v>
       </c>
       <c r="E15" t="n">
         <v>15</v>
@@ -1437,16 +1437,16 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="K15" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="L15" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="M15" t="n">
-        <v>14400</v>
+        <v>12667</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>1108</v>
+        <v>974</v>
       </c>
       <c r="Q15" t="n">
         <v>13</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44832</v>
+        <v>44914</v>
       </c>
       <c r="E16" t="n">
         <v>15</v>
@@ -1512,13 +1512,13 @@
         <v>100</v>
       </c>
       <c r="K16" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="L16" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="M16" t="n">
-        <v>13500</v>
+        <v>14400</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>1038</v>
+        <v>1108</v>
       </c>
       <c r="Q16" t="n">
         <v>13</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44855</v>
+        <v>44832</v>
       </c>
       <c r="E17" t="n">
         <v>15</v>
@@ -1581,16 +1581,16 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="K17" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="L17" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="M17" t="n">
-        <v>10000</v>
+        <v>13500</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>769</v>
+        <v>1038</v>
       </c>
       <c r="Q17" t="n">
         <v>13</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44616</v>
+        <v>44855</v>
       </c>
       <c r="E18" t="n">
         <v>15</v>
@@ -1653,16 +1653,16 @@
         </is>
       </c>
       <c r="J18" t="n">
-        <v>120</v>
+        <v>500</v>
       </c>
       <c r="K18" t="n">
-        <v>19000</v>
+        <v>10000</v>
       </c>
       <c r="L18" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="M18" t="n">
-        <v>19500</v>
+        <v>10000</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1675,7 +1675,7 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>1500</v>
+        <v>769</v>
       </c>
       <c r="Q18" t="n">
         <v>13</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44320</v>
+        <v>44616</v>
       </c>
       <c r="E19" t="n">
         <v>15</v>
@@ -1725,7 +1725,7 @@
         </is>
       </c>
       <c r="J19" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="K19" t="n">
         <v>19000</v>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44592</v>
+        <v>44320</v>
       </c>
       <c r="E20" t="n">
         <v>15</v>
@@ -1797,16 +1797,16 @@
         </is>
       </c>
       <c r="J20" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="K20" t="n">
-        <v>12000</v>
+        <v>19000</v>
       </c>
       <c r="L20" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="M20" t="n">
-        <v>12500</v>
+        <v>19500</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
@@ -1819,12 +1819,84 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>962</v>
+        <v>1500</v>
       </c>
       <c r="Q20" t="n">
         <v>13</v>
       </c>
       <c r="R20" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>1</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Agrícola del Norte S.A. de Arica</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="n">
+        <v>44592</v>
+      </c>
+      <c r="E21" t="n">
+        <v>15</v>
+      </c>
+      <c r="F21" t="n">
+        <v>100114007</v>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Jengibre</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J21" t="n">
+        <v>120</v>
+      </c>
+      <c r="K21" t="n">
+        <v>12000</v>
+      </c>
+      <c r="L21" t="n">
+        <v>13000</v>
+      </c>
+      <c r="M21" t="n">
+        <v>12500</v>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>$/caja 13 kilos</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>Perú</t>
+        </is>
+      </c>
+      <c r="P21" t="n">
+        <v>962</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>13</v>
+      </c>
+      <c r="R21" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Jengibre.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Jengibre.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44910</v>
+        <v>44580</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>50</v>
+        <v>160</v>
       </c>
       <c r="K2" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="L2" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="M2" t="n">
-        <v>14500</v>
+        <v>11500</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>1115</v>
+        <v>885</v>
       </c>
       <c r="Q2" t="n">
         <v>13</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44972</v>
+        <v>44406</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -573,7 +573,7 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>350</v>
+        <v>160</v>
       </c>
       <c r="K3" t="n">
         <v>17000</v>
@@ -582,11 +582,11 @@
         <v>18000</v>
       </c>
       <c r="M3" t="n">
-        <v>17429</v>
+        <v>17500</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 13 kilos</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
@@ -595,10 +595,10 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>1162</v>
+        <v>1346</v>
       </c>
       <c r="Q3" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="R3" t="inlineStr">
         <is>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44943</v>
+        <v>44469</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -713,20 +713,20 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J5" t="n">
-        <v>350</v>
+        <v>140</v>
       </c>
       <c r="K5" t="n">
+        <v>13000</v>
+      </c>
+      <c r="L5" t="n">
         <v>14000</v>
       </c>
-      <c r="L5" t="n">
-        <v>15000</v>
-      </c>
       <c r="M5" t="n">
-        <v>14429</v>
+        <v>13500</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>1110</v>
+        <v>1038</v>
       </c>
       <c r="Q5" t="n">
         <v>13</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44159</v>
+        <v>44379</v>
       </c>
       <c r="E6" t="n">
         <v>15</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="K6" t="n">
-        <v>23000</v>
+        <v>12000</v>
       </c>
       <c r="L6" t="n">
-        <v>24000</v>
+        <v>13000</v>
       </c>
       <c r="M6" t="n">
-        <v>23500</v>
+        <v>12667</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>1808</v>
+        <v>974</v>
       </c>
       <c r="Q6" t="n">
         <v>13</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44893</v>
+        <v>44320</v>
       </c>
       <c r="E7" t="n">
         <v>15</v>
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>900</v>
+        <v>160</v>
       </c>
       <c r="K7" t="n">
-        <v>13000</v>
+        <v>19000</v>
       </c>
       <c r="L7" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="M7" t="n">
-        <v>13444</v>
+        <v>19500</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>1034</v>
+        <v>1500</v>
       </c>
       <c r="Q7" t="n">
         <v>13</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44406</v>
+        <v>44592</v>
       </c>
       <c r="E8" t="n">
         <v>15</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="K8" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="L8" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="M8" t="n">
-        <v>17500</v>
+        <v>12500</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>1346</v>
+        <v>962</v>
       </c>
       <c r="Q8" t="n">
         <v>13</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44890</v>
+        <v>44943</v>
       </c>
       <c r="E9" t="n">
         <v>15</v>
@@ -1001,11 +1001,11 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J9" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="K9" t="n">
         <v>14000</v>
@@ -1014,7 +1014,7 @@
         <v>15000</v>
       </c>
       <c r="M9" t="n">
-        <v>14500</v>
+        <v>14429</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>1115</v>
+        <v>1110</v>
       </c>
       <c r="Q9" t="n">
         <v>13</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44389</v>
+        <v>44890</v>
       </c>
       <c r="E10" t="n">
         <v>15</v>
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="K10" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="L10" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="M10" t="n">
-        <v>12500</v>
+        <v>14500</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>962</v>
+        <v>1115</v>
       </c>
       <c r="Q10" t="n">
         <v>13</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44469</v>
+        <v>44893</v>
       </c>
       <c r="E11" t="n">
         <v>15</v>
@@ -1149,7 +1149,7 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>140</v>
+        <v>900</v>
       </c>
       <c r="K11" t="n">
         <v>13000</v>
@@ -1158,7 +1158,7 @@
         <v>14000</v>
       </c>
       <c r="M11" t="n">
-        <v>13500</v>
+        <v>13444</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>1038</v>
+        <v>1034</v>
       </c>
       <c r="Q11" t="n">
         <v>13</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44580</v>
+        <v>44764</v>
       </c>
       <c r="E12" t="n">
         <v>15</v>
@@ -1221,16 +1221,16 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="K12" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="L12" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="M12" t="n">
-        <v>11500</v>
+        <v>12500</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>885</v>
+        <v>962</v>
       </c>
       <c r="Q12" t="n">
         <v>13</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44764</v>
+        <v>44159</v>
       </c>
       <c r="E13" t="n">
         <v>15</v>
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K13" t="n">
-        <v>12000</v>
+        <v>23000</v>
       </c>
       <c r="L13" t="n">
-        <v>13000</v>
+        <v>24000</v>
       </c>
       <c r="M13" t="n">
-        <v>12500</v>
+        <v>23500</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>962</v>
+        <v>1808</v>
       </c>
       <c r="Q13" t="n">
         <v>13</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44397</v>
+        <v>44914</v>
       </c>
       <c r="E14" t="n">
         <v>15</v>
@@ -1365,16 +1365,16 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="K14" t="n">
-        <v>12500</v>
+        <v>14000</v>
       </c>
       <c r="L14" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="M14" t="n">
-        <v>12750</v>
+        <v>14400</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>981</v>
+        <v>1108</v>
       </c>
       <c r="Q14" t="n">
         <v>13</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44379</v>
+        <v>44972</v>
       </c>
       <c r="E15" t="n">
         <v>15</v>
@@ -1437,20 +1437,20 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>120</v>
+        <v>350</v>
       </c>
       <c r="K15" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="L15" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="M15" t="n">
-        <v>12667</v>
+        <v>17429</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>$/caja 13 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
@@ -1459,10 +1459,10 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>974</v>
+        <v>1162</v>
       </c>
       <c r="Q15" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="R15" t="inlineStr">
         <is>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44914</v>
+        <v>44832</v>
       </c>
       <c r="E16" t="n">
         <v>15</v>
@@ -1512,13 +1512,13 @@
         <v>100</v>
       </c>
       <c r="K16" t="n">
+        <v>13000</v>
+      </c>
+      <c r="L16" t="n">
         <v>14000</v>
       </c>
-      <c r="L16" t="n">
-        <v>15000</v>
-      </c>
       <c r="M16" t="n">
-        <v>14400</v>
+        <v>13500</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>1108</v>
+        <v>1038</v>
       </c>
       <c r="Q16" t="n">
         <v>13</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44832</v>
+        <v>44397</v>
       </c>
       <c r="E17" t="n">
         <v>15</v>
@@ -1581,16 +1581,16 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="K17" t="n">
+        <v>12500</v>
+      </c>
+      <c r="L17" t="n">
         <v>13000</v>
       </c>
-      <c r="L17" t="n">
-        <v>14000</v>
-      </c>
       <c r="M17" t="n">
-        <v>13500</v>
+        <v>12750</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>1038</v>
+        <v>981</v>
       </c>
       <c r="Q17" t="n">
         <v>13</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44855</v>
+        <v>44616</v>
       </c>
       <c r="E18" t="n">
         <v>15</v>
@@ -1653,16 +1653,16 @@
         </is>
       </c>
       <c r="J18" t="n">
-        <v>500</v>
+        <v>120</v>
       </c>
       <c r="K18" t="n">
-        <v>10000</v>
+        <v>19000</v>
       </c>
       <c r="L18" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="M18" t="n">
-        <v>10000</v>
+        <v>19500</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1675,7 +1675,7 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>769</v>
+        <v>1500</v>
       </c>
       <c r="Q18" t="n">
         <v>13</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44616</v>
+        <v>44389</v>
       </c>
       <c r="E19" t="n">
         <v>15</v>
@@ -1728,13 +1728,13 @@
         <v>120</v>
       </c>
       <c r="K19" t="n">
-        <v>19000</v>
+        <v>12000</v>
       </c>
       <c r="L19" t="n">
-        <v>20000</v>
+        <v>13000</v>
       </c>
       <c r="M19" t="n">
-        <v>19500</v>
+        <v>12500</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>1500</v>
+        <v>962</v>
       </c>
       <c r="Q19" t="n">
         <v>13</v>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44320</v>
+        <v>44910</v>
       </c>
       <c r="E20" t="n">
         <v>15</v>
@@ -1797,16 +1797,16 @@
         </is>
       </c>
       <c r="J20" t="n">
-        <v>160</v>
+        <v>50</v>
       </c>
       <c r="K20" t="n">
-        <v>19000</v>
+        <v>14000</v>
       </c>
       <c r="L20" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="M20" t="n">
-        <v>19500</v>
+        <v>14500</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
@@ -1819,7 +1819,7 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>1500</v>
+        <v>1115</v>
       </c>
       <c r="Q20" t="n">
         <v>13</v>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44592</v>
+        <v>44855</v>
       </c>
       <c r="E21" t="n">
         <v>15</v>
@@ -1869,16 +1869,16 @@
         </is>
       </c>
       <c r="J21" t="n">
-        <v>120</v>
+        <v>500</v>
       </c>
       <c r="K21" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="L21" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="M21" t="n">
-        <v>12500</v>
+        <v>10000</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
@@ -1891,7 +1891,7 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>962</v>
+        <v>769</v>
       </c>
       <c r="Q21" t="n">
         <v>13</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Jengibre.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Jengibre.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R21"/>
+  <dimension ref="A1:R22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44616</v>
+        <v>44984</v>
       </c>
       <c r="E18" t="n">
         <v>15</v>
@@ -1653,16 +1653,16 @@
         </is>
       </c>
       <c r="J18" t="n">
-        <v>120</v>
+        <v>400</v>
       </c>
       <c r="K18" t="n">
-        <v>19000</v>
+        <v>16000</v>
       </c>
       <c r="L18" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="M18" t="n">
-        <v>19500</v>
+        <v>16500</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1675,7 +1675,7 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>1500</v>
+        <v>1269</v>
       </c>
       <c r="Q18" t="n">
         <v>13</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44389</v>
+        <v>44616</v>
       </c>
       <c r="E19" t="n">
         <v>15</v>
@@ -1728,13 +1728,13 @@
         <v>120</v>
       </c>
       <c r="K19" t="n">
-        <v>12000</v>
+        <v>19000</v>
       </c>
       <c r="L19" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="M19" t="n">
-        <v>12500</v>
+        <v>19500</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>962</v>
+        <v>1500</v>
       </c>
       <c r="Q19" t="n">
         <v>13</v>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44910</v>
+        <v>44389</v>
       </c>
       <c r="E20" t="n">
         <v>15</v>
@@ -1797,16 +1797,16 @@
         </is>
       </c>
       <c r="J20" t="n">
-        <v>50</v>
+        <v>120</v>
       </c>
       <c r="K20" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="L20" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="M20" t="n">
-        <v>14500</v>
+        <v>12500</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
@@ -1819,7 +1819,7 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>1115</v>
+        <v>962</v>
       </c>
       <c r="Q20" t="n">
         <v>13</v>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44855</v>
+        <v>44910</v>
       </c>
       <c r="E21" t="n">
         <v>15</v>
@@ -1869,16 +1869,16 @@
         </is>
       </c>
       <c r="J21" t="n">
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="K21" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="L21" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="M21" t="n">
-        <v>10000</v>
+        <v>14500</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
@@ -1891,12 +1891,84 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>769</v>
+        <v>1115</v>
       </c>
       <c r="Q21" t="n">
         <v>13</v>
       </c>
       <c r="R21" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>1</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Agrícola del Norte S.A. de Arica</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="n">
+        <v>44855</v>
+      </c>
+      <c r="E22" t="n">
+        <v>15</v>
+      </c>
+      <c r="F22" t="n">
+        <v>100114007</v>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Jengibre</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J22" t="n">
+        <v>500</v>
+      </c>
+      <c r="K22" t="n">
+        <v>10000</v>
+      </c>
+      <c r="L22" t="n">
+        <v>10000</v>
+      </c>
+      <c r="M22" t="n">
+        <v>10000</v>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>$/caja 13 kilos</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>Perú</t>
+        </is>
+      </c>
+      <c r="P22" t="n">
+        <v>769</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>13</v>
+      </c>
+      <c r="R22" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Jengibre.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Jengibre.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R22"/>
+  <dimension ref="A1:R23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44984</v>
+        <v>44988</v>
       </c>
       <c r="E18" t="n">
         <v>15</v>
@@ -1653,16 +1653,16 @@
         </is>
       </c>
       <c r="J18" t="n">
-        <v>400</v>
+        <v>750</v>
       </c>
       <c r="K18" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="L18" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="M18" t="n">
-        <v>16500</v>
+        <v>17400</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1675,7 +1675,7 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>1269</v>
+        <v>1338</v>
       </c>
       <c r="Q18" t="n">
         <v>13</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44616</v>
+        <v>44984</v>
       </c>
       <c r="E19" t="n">
         <v>15</v>
@@ -1725,16 +1725,16 @@
         </is>
       </c>
       <c r="J19" t="n">
-        <v>120</v>
+        <v>400</v>
       </c>
       <c r="K19" t="n">
-        <v>19000</v>
+        <v>16000</v>
       </c>
       <c r="L19" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="M19" t="n">
-        <v>19500</v>
+        <v>16500</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>1500</v>
+        <v>1269</v>
       </c>
       <c r="Q19" t="n">
         <v>13</v>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44389</v>
+        <v>44616</v>
       </c>
       <c r="E20" t="n">
         <v>15</v>
@@ -1800,13 +1800,13 @@
         <v>120</v>
       </c>
       <c r="K20" t="n">
-        <v>12000</v>
+        <v>19000</v>
       </c>
       <c r="L20" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="M20" t="n">
-        <v>12500</v>
+        <v>19500</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
@@ -1819,7 +1819,7 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>962</v>
+        <v>1500</v>
       </c>
       <c r="Q20" t="n">
         <v>13</v>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44910</v>
+        <v>44389</v>
       </c>
       <c r="E21" t="n">
         <v>15</v>
@@ -1869,16 +1869,16 @@
         </is>
       </c>
       <c r="J21" t="n">
-        <v>50</v>
+        <v>120</v>
       </c>
       <c r="K21" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="L21" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="M21" t="n">
-        <v>14500</v>
+        <v>12500</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
@@ -1891,7 +1891,7 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>1115</v>
+        <v>962</v>
       </c>
       <c r="Q21" t="n">
         <v>13</v>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44855</v>
+        <v>44910</v>
       </c>
       <c r="E22" t="n">
         <v>15</v>
@@ -1941,16 +1941,16 @@
         </is>
       </c>
       <c r="J22" t="n">
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="K22" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="L22" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="M22" t="n">
-        <v>10000</v>
+        <v>14500</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
@@ -1963,12 +1963,84 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>769</v>
+        <v>1115</v>
       </c>
       <c r="Q22" t="n">
         <v>13</v>
       </c>
       <c r="R22" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>1</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Agrícola del Norte S.A. de Arica</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="n">
+        <v>44855</v>
+      </c>
+      <c r="E23" t="n">
+        <v>15</v>
+      </c>
+      <c r="F23" t="n">
+        <v>100114007</v>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Jengibre</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J23" t="n">
+        <v>500</v>
+      </c>
+      <c r="K23" t="n">
+        <v>10000</v>
+      </c>
+      <c r="L23" t="n">
+        <v>10000</v>
+      </c>
+      <c r="M23" t="n">
+        <v>10000</v>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>$/caja 13 kilos</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>Perú</t>
+        </is>
+      </c>
+      <c r="P23" t="n">
+        <v>769</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>13</v>
+      </c>
+      <c r="R23" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Jengibre.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Jengibre.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44580</v>
+        <v>44910</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>160</v>
+        <v>50</v>
       </c>
       <c r="K2" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="L2" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="M2" t="n">
-        <v>11500</v>
+        <v>14500</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>885</v>
+        <v>1115</v>
       </c>
       <c r="Q2" t="n">
         <v>13</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44406</v>
+        <v>44972</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -573,7 +573,7 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>160</v>
+        <v>350</v>
       </c>
       <c r="K3" t="n">
         <v>17000</v>
@@ -582,11 +582,11 @@
         <v>18000</v>
       </c>
       <c r="M3" t="n">
-        <v>17500</v>
+        <v>17429</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>$/caja 13 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
@@ -595,10 +595,10 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>1346</v>
+        <v>1162</v>
       </c>
       <c r="Q3" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="R3" t="inlineStr">
         <is>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44918</v>
+        <v>44914</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -641,20 +641,20 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J4" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K4" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="L4" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="M4" t="n">
-        <v>12750</v>
+        <v>14400</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>981</v>
+        <v>1108</v>
       </c>
       <c r="Q4" t="n">
         <v>13</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44469</v>
+        <v>44389</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="K5" t="n">
+        <v>12000</v>
+      </c>
+      <c r="L5" t="n">
         <v>13000</v>
       </c>
-      <c r="L5" t="n">
-        <v>14000</v>
-      </c>
       <c r="M5" t="n">
-        <v>13500</v>
+        <v>12500</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>1038</v>
+        <v>962</v>
       </c>
       <c r="Q5" t="n">
         <v>13</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44379</v>
+        <v>44943</v>
       </c>
       <c r="E6" t="n">
         <v>15</v>
@@ -785,20 +785,20 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J6" t="n">
-        <v>120</v>
+        <v>350</v>
       </c>
       <c r="K6" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="L6" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="M6" t="n">
-        <v>12667</v>
+        <v>14429</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>974</v>
+        <v>1110</v>
       </c>
       <c r="Q6" t="n">
         <v>13</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44320</v>
+        <v>44988</v>
       </c>
       <c r="E7" t="n">
         <v>15</v>
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>160</v>
+        <v>750</v>
       </c>
       <c r="K7" t="n">
-        <v>19000</v>
+        <v>17000</v>
       </c>
       <c r="L7" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="M7" t="n">
-        <v>19500</v>
+        <v>17400</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>1500</v>
+        <v>1338</v>
       </c>
       <c r="Q7" t="n">
         <v>13</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44592</v>
+        <v>44890</v>
       </c>
       <c r="E8" t="n">
         <v>15</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="K8" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="L8" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="M8" t="n">
-        <v>12500</v>
+        <v>14500</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>962</v>
+        <v>1115</v>
       </c>
       <c r="Q8" t="n">
         <v>13</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44943</v>
+        <v>44893</v>
       </c>
       <c r="E9" t="n">
         <v>15</v>
@@ -1001,20 +1001,20 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J9" t="n">
-        <v>350</v>
+        <v>900</v>
       </c>
       <c r="K9" t="n">
+        <v>13000</v>
+      </c>
+      <c r="L9" t="n">
         <v>14000</v>
       </c>
-      <c r="L9" t="n">
-        <v>15000</v>
-      </c>
       <c r="M9" t="n">
-        <v>14429</v>
+        <v>13444</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>1110</v>
+        <v>1034</v>
       </c>
       <c r="Q9" t="n">
         <v>13</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44890</v>
+        <v>44918</v>
       </c>
       <c r="E10" t="n">
         <v>15</v>
@@ -1073,20 +1073,20 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J10" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K10" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="L10" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="M10" t="n">
-        <v>14500</v>
+        <v>12750</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>1115</v>
+        <v>981</v>
       </c>
       <c r="Q10" t="n">
         <v>13</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44893</v>
+        <v>44855</v>
       </c>
       <c r="E11" t="n">
         <v>15</v>
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>900</v>
+        <v>500</v>
       </c>
       <c r="K11" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="L11" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="M11" t="n">
-        <v>13444</v>
+        <v>10000</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>1034</v>
+        <v>769</v>
       </c>
       <c r="Q11" t="n">
         <v>13</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44764</v>
+        <v>44397</v>
       </c>
       <c r="E12" t="n">
         <v>15</v>
@@ -1221,16 +1221,16 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>200</v>
+        <v>140</v>
       </c>
       <c r="K12" t="n">
-        <v>12000</v>
+        <v>12500</v>
       </c>
       <c r="L12" t="n">
         <v>13000</v>
       </c>
       <c r="M12" t="n">
-        <v>12500</v>
+        <v>12750</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>962</v>
+        <v>981</v>
       </c>
       <c r="Q12" t="n">
         <v>13</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44159</v>
+        <v>44469</v>
       </c>
       <c r="E13" t="n">
         <v>15</v>
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="K13" t="n">
-        <v>23000</v>
+        <v>13000</v>
       </c>
       <c r="L13" t="n">
-        <v>24000</v>
+        <v>14000</v>
       </c>
       <c r="M13" t="n">
-        <v>23500</v>
+        <v>13500</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>1808</v>
+        <v>1038</v>
       </c>
       <c r="Q13" t="n">
         <v>13</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44914</v>
+        <v>44320</v>
       </c>
       <c r="E14" t="n">
         <v>15</v>
@@ -1365,16 +1365,16 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>100</v>
+        <v>160</v>
       </c>
       <c r="K14" t="n">
-        <v>14000</v>
+        <v>19000</v>
       </c>
       <c r="L14" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="M14" t="n">
-        <v>14400</v>
+        <v>19500</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>1108</v>
+        <v>1500</v>
       </c>
       <c r="Q14" t="n">
         <v>13</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44972</v>
+        <v>44616</v>
       </c>
       <c r="E15" t="n">
         <v>15</v>
@@ -1437,20 +1437,20 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>350</v>
+        <v>120</v>
       </c>
       <c r="K15" t="n">
-        <v>17000</v>
+        <v>19000</v>
       </c>
       <c r="L15" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="M15" t="n">
-        <v>17429</v>
+        <v>19500</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 13 kilos</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
@@ -1459,10 +1459,10 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>1162</v>
+        <v>1500</v>
       </c>
       <c r="Q15" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="R15" t="inlineStr">
         <is>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44832</v>
+        <v>44984</v>
       </c>
       <c r="E16" t="n">
         <v>15</v>
@@ -1509,16 +1509,16 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="K16" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="L16" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="M16" t="n">
-        <v>13500</v>
+        <v>16500</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>1038</v>
+        <v>1269</v>
       </c>
       <c r="Q16" t="n">
         <v>13</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44397</v>
+        <v>44379</v>
       </c>
       <c r="E17" t="n">
         <v>15</v>
@@ -1581,16 +1581,16 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="K17" t="n">
-        <v>12500</v>
+        <v>12000</v>
       </c>
       <c r="L17" t="n">
         <v>13000</v>
       </c>
       <c r="M17" t="n">
-        <v>12750</v>
+        <v>12667</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>981</v>
+        <v>974</v>
       </c>
       <c r="Q17" t="n">
         <v>13</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44988</v>
+        <v>44406</v>
       </c>
       <c r="E18" t="n">
         <v>15</v>
@@ -1653,7 +1653,7 @@
         </is>
       </c>
       <c r="J18" t="n">
-        <v>750</v>
+        <v>160</v>
       </c>
       <c r="K18" t="n">
         <v>17000</v>
@@ -1662,7 +1662,7 @@
         <v>18000</v>
       </c>
       <c r="M18" t="n">
-        <v>17400</v>
+        <v>17500</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1675,7 +1675,7 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>1338</v>
+        <v>1346</v>
       </c>
       <c r="Q18" t="n">
         <v>13</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44984</v>
+        <v>44764</v>
       </c>
       <c r="E19" t="n">
         <v>15</v>
@@ -1725,16 +1725,16 @@
         </is>
       </c>
       <c r="J19" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="K19" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="L19" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="M19" t="n">
-        <v>16500</v>
+        <v>12500</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>1269</v>
+        <v>962</v>
       </c>
       <c r="Q19" t="n">
         <v>13</v>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44616</v>
+        <v>44832</v>
       </c>
       <c r="E20" t="n">
         <v>15</v>
@@ -1797,16 +1797,16 @@
         </is>
       </c>
       <c r="J20" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="K20" t="n">
-        <v>19000</v>
+        <v>13000</v>
       </c>
       <c r="L20" t="n">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="M20" t="n">
-        <v>19500</v>
+        <v>13500</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
@@ -1819,7 +1819,7 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>1500</v>
+        <v>1038</v>
       </c>
       <c r="Q20" t="n">
         <v>13</v>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44389</v>
+        <v>44159</v>
       </c>
       <c r="E21" t="n">
         <v>15</v>
@@ -1869,16 +1869,16 @@
         </is>
       </c>
       <c r="J21" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="K21" t="n">
-        <v>12000</v>
+        <v>23000</v>
       </c>
       <c r="L21" t="n">
-        <v>13000</v>
+        <v>24000</v>
       </c>
       <c r="M21" t="n">
-        <v>12500</v>
+        <v>23500</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
@@ -1891,7 +1891,7 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>962</v>
+        <v>1808</v>
       </c>
       <c r="Q21" t="n">
         <v>13</v>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44910</v>
+        <v>44592</v>
       </c>
       <c r="E22" t="n">
         <v>15</v>
@@ -1941,16 +1941,16 @@
         </is>
       </c>
       <c r="J22" t="n">
-        <v>50</v>
+        <v>120</v>
       </c>
       <c r="K22" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="L22" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="M22" t="n">
-        <v>14500</v>
+        <v>12500</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
@@ -1963,7 +1963,7 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>1115</v>
+        <v>962</v>
       </c>
       <c r="Q22" t="n">
         <v>13</v>
@@ -1989,7 +1989,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44855</v>
+        <v>44580</v>
       </c>
       <c r="E23" t="n">
         <v>15</v>
@@ -2013,16 +2013,16 @@
         </is>
       </c>
       <c r="J23" t="n">
-        <v>500</v>
+        <v>160</v>
       </c>
       <c r="K23" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="L23" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M23" t="n">
-        <v>10000</v>
+        <v>11500</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
@@ -2035,7 +2035,7 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>769</v>
+        <v>885</v>
       </c>
       <c r="Q23" t="n">
         <v>13</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Jengibre.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Jengibre.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44910</v>
+        <v>44320</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>50</v>
+        <v>160</v>
       </c>
       <c r="K2" t="n">
-        <v>14000</v>
+        <v>19000</v>
       </c>
       <c r="L2" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="M2" t="n">
-        <v>14500</v>
+        <v>19500</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>1115</v>
+        <v>1500</v>
       </c>
       <c r="Q2" t="n">
         <v>13</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44972</v>
+        <v>44893</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -573,20 +573,20 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>350</v>
+        <v>900</v>
       </c>
       <c r="K3" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="L3" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="M3" t="n">
-        <v>17429</v>
+        <v>13444</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 13 kilos</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
@@ -595,10 +595,10 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>1162</v>
+        <v>1034</v>
       </c>
       <c r="Q3" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="R3" t="inlineStr">
         <is>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44914</v>
+        <v>44592</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="K4" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="L4" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="M4" t="n">
-        <v>14400</v>
+        <v>12500</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>1108</v>
+        <v>962</v>
       </c>
       <c r="Q4" t="n">
         <v>13</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44389</v>
+        <v>44159</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="K5" t="n">
-        <v>12000</v>
+        <v>23000</v>
       </c>
       <c r="L5" t="n">
-        <v>13000</v>
+        <v>24000</v>
       </c>
       <c r="M5" t="n">
-        <v>12500</v>
+        <v>23500</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>962</v>
+        <v>1808</v>
       </c>
       <c r="Q5" t="n">
         <v>13</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44943</v>
+        <v>44406</v>
       </c>
       <c r="E6" t="n">
         <v>15</v>
@@ -785,20 +785,20 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J6" t="n">
-        <v>350</v>
+        <v>160</v>
       </c>
       <c r="K6" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="L6" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="M6" t="n">
-        <v>14429</v>
+        <v>17500</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>1110</v>
+        <v>1346</v>
       </c>
       <c r="Q6" t="n">
         <v>13</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44988</v>
+        <v>44918</v>
       </c>
       <c r="E7" t="n">
         <v>15</v>
@@ -857,20 +857,20 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J7" t="n">
-        <v>750</v>
+        <v>200</v>
       </c>
       <c r="K7" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="L7" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="M7" t="n">
-        <v>17400</v>
+        <v>12750</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>1338</v>
+        <v>981</v>
       </c>
       <c r="Q7" t="n">
         <v>13</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44890</v>
+        <v>44580</v>
       </c>
       <c r="E8" t="n">
         <v>15</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>300</v>
+        <v>160</v>
       </c>
       <c r="K8" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="L8" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="M8" t="n">
-        <v>14500</v>
+        <v>11500</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>1115</v>
+        <v>885</v>
       </c>
       <c r="Q8" t="n">
         <v>13</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44893</v>
+        <v>44890</v>
       </c>
       <c r="E9" t="n">
         <v>15</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>900</v>
+        <v>300</v>
       </c>
       <c r="K9" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="L9" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="M9" t="n">
-        <v>13444</v>
+        <v>14500</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>1034</v>
+        <v>1115</v>
       </c>
       <c r="Q9" t="n">
         <v>13</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44918</v>
+        <v>44914</v>
       </c>
       <c r="E10" t="n">
         <v>15</v>
@@ -1073,20 +1073,20 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J10" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K10" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="L10" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="M10" t="n">
-        <v>12750</v>
+        <v>14400</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>981</v>
+        <v>1108</v>
       </c>
       <c r="Q10" t="n">
         <v>13</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44855</v>
+        <v>44469</v>
       </c>
       <c r="E11" t="n">
         <v>15</v>
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>500</v>
+        <v>140</v>
       </c>
       <c r="K11" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="L11" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="M11" t="n">
-        <v>10000</v>
+        <v>13500</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>769</v>
+        <v>1038</v>
       </c>
       <c r="Q11" t="n">
         <v>13</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44397</v>
+        <v>44379</v>
       </c>
       <c r="E12" t="n">
         <v>15</v>
@@ -1221,16 +1221,16 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="K12" t="n">
-        <v>12500</v>
+        <v>12000</v>
       </c>
       <c r="L12" t="n">
         <v>13000</v>
       </c>
       <c r="M12" t="n">
-        <v>12750</v>
+        <v>12667</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>981</v>
+        <v>974</v>
       </c>
       <c r="Q12" t="n">
         <v>13</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44469</v>
+        <v>44984</v>
       </c>
       <c r="E13" t="n">
         <v>15</v>
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>140</v>
+        <v>400</v>
       </c>
       <c r="K13" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="L13" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="M13" t="n">
-        <v>13500</v>
+        <v>16500</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>1038</v>
+        <v>1269</v>
       </c>
       <c r="Q13" t="n">
         <v>13</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44320</v>
+        <v>44397</v>
       </c>
       <c r="E14" t="n">
         <v>15</v>
@@ -1365,16 +1365,16 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="K14" t="n">
-        <v>19000</v>
+        <v>12500</v>
       </c>
       <c r="L14" t="n">
-        <v>20000</v>
+        <v>13000</v>
       </c>
       <c r="M14" t="n">
-        <v>19500</v>
+        <v>12750</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>1500</v>
+        <v>981</v>
       </c>
       <c r="Q14" t="n">
         <v>13</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44984</v>
+        <v>44855</v>
       </c>
       <c r="E16" t="n">
         <v>15</v>
@@ -1509,16 +1509,16 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K16" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="L16" t="n">
-        <v>17000</v>
+        <v>10000</v>
       </c>
       <c r="M16" t="n">
-        <v>16500</v>
+        <v>10000</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>1269</v>
+        <v>769</v>
       </c>
       <c r="Q16" t="n">
         <v>13</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44379</v>
+        <v>44943</v>
       </c>
       <c r="E17" t="n">
         <v>15</v>
@@ -1577,20 +1577,20 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J17" t="n">
-        <v>120</v>
+        <v>350</v>
       </c>
       <c r="K17" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="L17" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="M17" t="n">
-        <v>12667</v>
+        <v>14429</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>974</v>
+        <v>1110</v>
       </c>
       <c r="Q17" t="n">
         <v>13</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44406</v>
+        <v>44389</v>
       </c>
       <c r="E18" t="n">
         <v>15</v>
@@ -1653,16 +1653,16 @@
         </is>
       </c>
       <c r="J18" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="K18" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="L18" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="M18" t="n">
-        <v>17500</v>
+        <v>12500</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1675,7 +1675,7 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>1346</v>
+        <v>962</v>
       </c>
       <c r="Q18" t="n">
         <v>13</v>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44159</v>
+        <v>44910</v>
       </c>
       <c r="E21" t="n">
         <v>15</v>
@@ -1869,16 +1869,16 @@
         </is>
       </c>
       <c r="J21" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="K21" t="n">
-        <v>23000</v>
+        <v>14000</v>
       </c>
       <c r="L21" t="n">
-        <v>24000</v>
+        <v>15000</v>
       </c>
       <c r="M21" t="n">
-        <v>23500</v>
+        <v>14500</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
@@ -1891,7 +1891,7 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>1808</v>
+        <v>1115</v>
       </c>
       <c r="Q21" t="n">
         <v>13</v>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44592</v>
+        <v>44972</v>
       </c>
       <c r="E22" t="n">
         <v>15</v>
@@ -1941,20 +1941,20 @@
         </is>
       </c>
       <c r="J22" t="n">
-        <v>120</v>
+        <v>350</v>
       </c>
       <c r="K22" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="L22" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="M22" t="n">
-        <v>12500</v>
+        <v>17429</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>$/caja 13 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
@@ -1963,10 +1963,10 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>962</v>
+        <v>1162</v>
       </c>
       <c r="Q22" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="R22" t="inlineStr">
         <is>
@@ -1989,7 +1989,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44580</v>
+        <v>44988</v>
       </c>
       <c r="E23" t="n">
         <v>15</v>
@@ -2013,16 +2013,16 @@
         </is>
       </c>
       <c r="J23" t="n">
-        <v>160</v>
+        <v>750</v>
       </c>
       <c r="K23" t="n">
-        <v>11000</v>
+        <v>17000</v>
       </c>
       <c r="L23" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="M23" t="n">
-        <v>11500</v>
+        <v>17400</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
@@ -2035,7 +2035,7 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>885</v>
+        <v>1338</v>
       </c>
       <c r="Q23" t="n">
         <v>13</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Jengibre.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Jengibre.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44320</v>
+        <v>44943</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -497,20 +497,20 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J2" t="n">
-        <v>160</v>
+        <v>350</v>
       </c>
       <c r="K2" t="n">
-        <v>19000</v>
+        <v>14000</v>
       </c>
       <c r="L2" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="M2" t="n">
-        <v>19500</v>
+        <v>14429</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>1500</v>
+        <v>1110</v>
       </c>
       <c r="Q2" t="n">
         <v>13</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44893</v>
+        <v>44764</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>900</v>
+        <v>200</v>
       </c>
       <c r="K3" t="n">
+        <v>12000</v>
+      </c>
+      <c r="L3" t="n">
         <v>13000</v>
       </c>
-      <c r="L3" t="n">
-        <v>14000</v>
-      </c>
       <c r="M3" t="n">
-        <v>13444</v>
+        <v>12500</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>1034</v>
+        <v>962</v>
       </c>
       <c r="Q3" t="n">
         <v>13</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44592</v>
+        <v>44890</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="K4" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="L4" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="M4" t="n">
-        <v>12500</v>
+        <v>14500</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>962</v>
+        <v>1115</v>
       </c>
       <c r="Q4" t="n">
         <v>13</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44159</v>
+        <v>44379</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="K5" t="n">
-        <v>23000</v>
+        <v>12000</v>
       </c>
       <c r="L5" t="n">
-        <v>24000</v>
+        <v>13000</v>
       </c>
       <c r="M5" t="n">
-        <v>23500</v>
+        <v>12667</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>1808</v>
+        <v>974</v>
       </c>
       <c r="Q5" t="n">
         <v>13</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44406</v>
+        <v>44389</v>
       </c>
       <c r="E6" t="n">
         <v>15</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="K6" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="L6" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="M6" t="n">
-        <v>17500</v>
+        <v>12500</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>1346</v>
+        <v>962</v>
       </c>
       <c r="Q6" t="n">
         <v>13</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44918</v>
+        <v>44972</v>
       </c>
       <c r="E7" t="n">
         <v>15</v>
@@ -857,24 +857,24 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J7" t="n">
-        <v>200</v>
+        <v>350</v>
       </c>
       <c r="K7" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="L7" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="M7" t="n">
-        <v>12750</v>
+        <v>17429</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>$/caja 13 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
@@ -883,10 +883,10 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>981</v>
+        <v>1162</v>
       </c>
       <c r="Q7" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="R7" t="inlineStr">
         <is>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44580</v>
+        <v>44914</v>
       </c>
       <c r="E8" t="n">
         <v>15</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="K8" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="L8" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="M8" t="n">
-        <v>11500</v>
+        <v>14400</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>885</v>
+        <v>1108</v>
       </c>
       <c r="Q8" t="n">
         <v>13</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44890</v>
+        <v>44406</v>
       </c>
       <c r="E9" t="n">
         <v>15</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>300</v>
+        <v>160</v>
       </c>
       <c r="K9" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="L9" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="M9" t="n">
-        <v>14500</v>
+        <v>17500</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>1115</v>
+        <v>1346</v>
       </c>
       <c r="Q9" t="n">
         <v>13</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44914</v>
+        <v>44832</v>
       </c>
       <c r="E10" t="n">
         <v>15</v>
@@ -1080,13 +1080,13 @@
         <v>100</v>
       </c>
       <c r="K10" t="n">
+        <v>13000</v>
+      </c>
+      <c r="L10" t="n">
         <v>14000</v>
       </c>
-      <c r="L10" t="n">
-        <v>15000</v>
-      </c>
       <c r="M10" t="n">
-        <v>14400</v>
+        <v>13500</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>1108</v>
+        <v>1038</v>
       </c>
       <c r="Q10" t="n">
         <v>13</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44469</v>
+        <v>44893</v>
       </c>
       <c r="E11" t="n">
         <v>15</v>
@@ -1149,7 +1149,7 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>140</v>
+        <v>900</v>
       </c>
       <c r="K11" t="n">
         <v>13000</v>
@@ -1158,7 +1158,7 @@
         <v>14000</v>
       </c>
       <c r="M11" t="n">
-        <v>13500</v>
+        <v>13444</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>1038</v>
+        <v>1034</v>
       </c>
       <c r="Q11" t="n">
         <v>13</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44379</v>
+        <v>44592</v>
       </c>
       <c r="E12" t="n">
         <v>15</v>
@@ -1230,7 +1230,7 @@
         <v>13000</v>
       </c>
       <c r="M12" t="n">
-        <v>12667</v>
+        <v>12500</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>974</v>
+        <v>962</v>
       </c>
       <c r="Q12" t="n">
         <v>13</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44984</v>
+        <v>44159</v>
       </c>
       <c r="E13" t="n">
         <v>15</v>
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="K13" t="n">
-        <v>16000</v>
+        <v>23000</v>
       </c>
       <c r="L13" t="n">
-        <v>17000</v>
+        <v>24000</v>
       </c>
       <c r="M13" t="n">
-        <v>16500</v>
+        <v>23500</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>1269</v>
+        <v>1808</v>
       </c>
       <c r="Q13" t="n">
         <v>13</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44397</v>
+        <v>44320</v>
       </c>
       <c r="E14" t="n">
         <v>15</v>
@@ -1365,16 +1365,16 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="K14" t="n">
-        <v>12500</v>
+        <v>19000</v>
       </c>
       <c r="L14" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="M14" t="n">
-        <v>12750</v>
+        <v>19500</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>981</v>
+        <v>1500</v>
       </c>
       <c r="Q14" t="n">
         <v>13</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44616</v>
+        <v>44580</v>
       </c>
       <c r="E15" t="n">
         <v>15</v>
@@ -1437,16 +1437,16 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="K15" t="n">
-        <v>19000</v>
+        <v>11000</v>
       </c>
       <c r="L15" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="M15" t="n">
-        <v>19500</v>
+        <v>11500</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>1500</v>
+        <v>885</v>
       </c>
       <c r="Q15" t="n">
         <v>13</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44855</v>
+        <v>44984</v>
       </c>
       <c r="E16" t="n">
         <v>15</v>
@@ -1509,16 +1509,16 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K16" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="L16" t="n">
-        <v>10000</v>
+        <v>17000</v>
       </c>
       <c r="M16" t="n">
-        <v>10000</v>
+        <v>16500</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>769</v>
+        <v>1269</v>
       </c>
       <c r="Q16" t="n">
         <v>13</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44943</v>
+        <v>44616</v>
       </c>
       <c r="E17" t="n">
         <v>15</v>
@@ -1577,20 +1577,20 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J17" t="n">
-        <v>350</v>
+        <v>120</v>
       </c>
       <c r="K17" t="n">
-        <v>14000</v>
+        <v>19000</v>
       </c>
       <c r="L17" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="M17" t="n">
-        <v>14429</v>
+        <v>19500</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>1110</v>
+        <v>1500</v>
       </c>
       <c r="Q17" t="n">
         <v>13</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44389</v>
+        <v>44469</v>
       </c>
       <c r="E18" t="n">
         <v>15</v>
@@ -1653,16 +1653,16 @@
         </is>
       </c>
       <c r="J18" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="K18" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="L18" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="M18" t="n">
-        <v>12500</v>
+        <v>13500</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1675,7 +1675,7 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>962</v>
+        <v>1038</v>
       </c>
       <c r="Q18" t="n">
         <v>13</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44764</v>
+        <v>44397</v>
       </c>
       <c r="E19" t="n">
         <v>15</v>
@@ -1725,16 +1725,16 @@
         </is>
       </c>
       <c r="J19" t="n">
-        <v>200</v>
+        <v>140</v>
       </c>
       <c r="K19" t="n">
-        <v>12000</v>
+        <v>12500</v>
       </c>
       <c r="L19" t="n">
         <v>13000</v>
       </c>
       <c r="M19" t="n">
-        <v>12500</v>
+        <v>12750</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>962</v>
+        <v>981</v>
       </c>
       <c r="Q19" t="n">
         <v>13</v>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44832</v>
+        <v>44988</v>
       </c>
       <c r="E20" t="n">
         <v>15</v>
@@ -1797,16 +1797,16 @@
         </is>
       </c>
       <c r="J20" t="n">
-        <v>100</v>
+        <v>750</v>
       </c>
       <c r="K20" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="L20" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="M20" t="n">
-        <v>13500</v>
+        <v>17400</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
@@ -1819,7 +1819,7 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>1038</v>
+        <v>1338</v>
       </c>
       <c r="Q20" t="n">
         <v>13</v>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44972</v>
+        <v>44855</v>
       </c>
       <c r="E22" t="n">
         <v>15</v>
@@ -1941,20 +1941,20 @@
         </is>
       </c>
       <c r="J22" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="K22" t="n">
-        <v>17000</v>
+        <v>10000</v>
       </c>
       <c r="L22" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="M22" t="n">
-        <v>17429</v>
+        <v>10000</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 13 kilos</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
@@ -1963,10 +1963,10 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>1162</v>
+        <v>769</v>
       </c>
       <c r="Q22" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="R22" t="inlineStr">
         <is>
@@ -1989,7 +1989,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44988</v>
+        <v>44918</v>
       </c>
       <c r="E23" t="n">
         <v>15</v>
@@ -2009,20 +2009,20 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J23" t="n">
-        <v>750</v>
+        <v>200</v>
       </c>
       <c r="K23" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="L23" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="M23" t="n">
-        <v>17400</v>
+        <v>12750</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
@@ -2035,7 +2035,7 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>1338</v>
+        <v>981</v>
       </c>
       <c r="Q23" t="n">
         <v>13</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Jengibre.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Jengibre.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R23"/>
+  <dimension ref="A1:R24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44389</v>
+        <v>45028</v>
       </c>
       <c r="E6" t="n">
         <v>15</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="K6" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="L6" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="M6" t="n">
-        <v>12500</v>
+        <v>14500</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>962</v>
+        <v>1115</v>
       </c>
       <c r="Q6" t="n">
         <v>13</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44972</v>
+        <v>44389</v>
       </c>
       <c r="E7" t="n">
         <v>15</v>
@@ -861,20 +861,20 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>350</v>
+        <v>120</v>
       </c>
       <c r="K7" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="L7" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="M7" t="n">
-        <v>17429</v>
+        <v>12500</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 13 kilos</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
@@ -883,10 +883,10 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>1162</v>
+        <v>962</v>
       </c>
       <c r="Q7" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="R7" t="inlineStr">
         <is>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44914</v>
+        <v>44972</v>
       </c>
       <c r="E8" t="n">
         <v>15</v>
@@ -933,20 +933,20 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>100</v>
+        <v>350</v>
       </c>
       <c r="K8" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="L8" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="M8" t="n">
-        <v>14400</v>
+        <v>17429</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>$/caja 13 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
@@ -955,10 +955,10 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>1108</v>
+        <v>1162</v>
       </c>
       <c r="Q8" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="R8" t="inlineStr">
         <is>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44406</v>
+        <v>44914</v>
       </c>
       <c r="E9" t="n">
         <v>15</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="K9" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="L9" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="M9" t="n">
-        <v>17500</v>
+        <v>14400</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>1346</v>
+        <v>1108</v>
       </c>
       <c r="Q9" t="n">
         <v>13</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44832</v>
+        <v>44406</v>
       </c>
       <c r="E10" t="n">
         <v>15</v>
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>100</v>
+        <v>160</v>
       </c>
       <c r="K10" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="L10" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="M10" t="n">
-        <v>13500</v>
+        <v>17500</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>1038</v>
+        <v>1346</v>
       </c>
       <c r="Q10" t="n">
         <v>13</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44893</v>
+        <v>44832</v>
       </c>
       <c r="E11" t="n">
         <v>15</v>
@@ -1149,7 +1149,7 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>900</v>
+        <v>100</v>
       </c>
       <c r="K11" t="n">
         <v>13000</v>
@@ -1158,7 +1158,7 @@
         <v>14000</v>
       </c>
       <c r="M11" t="n">
-        <v>13444</v>
+        <v>13500</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>1034</v>
+        <v>1038</v>
       </c>
       <c r="Q11" t="n">
         <v>13</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44592</v>
+        <v>44893</v>
       </c>
       <c r="E12" t="n">
         <v>15</v>
@@ -1221,16 +1221,16 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>120</v>
+        <v>900</v>
       </c>
       <c r="K12" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="L12" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="M12" t="n">
-        <v>12500</v>
+        <v>13444</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>962</v>
+        <v>1034</v>
       </c>
       <c r="Q12" t="n">
         <v>13</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44159</v>
+        <v>44592</v>
       </c>
       <c r="E13" t="n">
         <v>15</v>
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="K13" t="n">
-        <v>23000</v>
+        <v>12000</v>
       </c>
       <c r="L13" t="n">
-        <v>24000</v>
+        <v>13000</v>
       </c>
       <c r="M13" t="n">
-        <v>23500</v>
+        <v>12500</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>1808</v>
+        <v>962</v>
       </c>
       <c r="Q13" t="n">
         <v>13</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44320</v>
+        <v>44159</v>
       </c>
       <c r="E14" t="n">
         <v>15</v>
@@ -1365,16 +1365,16 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="K14" t="n">
-        <v>19000</v>
+        <v>23000</v>
       </c>
       <c r="L14" t="n">
-        <v>20000</v>
+        <v>24000</v>
       </c>
       <c r="M14" t="n">
-        <v>19500</v>
+        <v>23500</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>1500</v>
+        <v>1808</v>
       </c>
       <c r="Q14" t="n">
         <v>13</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44580</v>
+        <v>44320</v>
       </c>
       <c r="E15" t="n">
         <v>15</v>
@@ -1440,13 +1440,13 @@
         <v>160</v>
       </c>
       <c r="K15" t="n">
-        <v>11000</v>
+        <v>19000</v>
       </c>
       <c r="L15" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="M15" t="n">
-        <v>11500</v>
+        <v>19500</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>885</v>
+        <v>1500</v>
       </c>
       <c r="Q15" t="n">
         <v>13</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44984</v>
+        <v>44580</v>
       </c>
       <c r="E16" t="n">
         <v>15</v>
@@ -1509,16 +1509,16 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>400</v>
+        <v>160</v>
       </c>
       <c r="K16" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="L16" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="M16" t="n">
-        <v>16500</v>
+        <v>11500</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>1269</v>
+        <v>885</v>
       </c>
       <c r="Q16" t="n">
         <v>13</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44616</v>
+        <v>44984</v>
       </c>
       <c r="E17" t="n">
         <v>15</v>
@@ -1581,16 +1581,16 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>120</v>
+        <v>400</v>
       </c>
       <c r="K17" t="n">
-        <v>19000</v>
+        <v>16000</v>
       </c>
       <c r="L17" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="M17" t="n">
-        <v>19500</v>
+        <v>16500</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>1500</v>
+        <v>1269</v>
       </c>
       <c r="Q17" t="n">
         <v>13</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44469</v>
+        <v>44616</v>
       </c>
       <c r="E18" t="n">
         <v>15</v>
@@ -1653,16 +1653,16 @@
         </is>
       </c>
       <c r="J18" t="n">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="K18" t="n">
-        <v>13000</v>
+        <v>19000</v>
       </c>
       <c r="L18" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="M18" t="n">
-        <v>13500</v>
+        <v>19500</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1675,7 +1675,7 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>1038</v>
+        <v>1500</v>
       </c>
       <c r="Q18" t="n">
         <v>13</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44397</v>
+        <v>44469</v>
       </c>
       <c r="E19" t="n">
         <v>15</v>
@@ -1728,13 +1728,13 @@
         <v>140</v>
       </c>
       <c r="K19" t="n">
-        <v>12500</v>
+        <v>13000</v>
       </c>
       <c r="L19" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="M19" t="n">
-        <v>12750</v>
+        <v>13500</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>981</v>
+        <v>1038</v>
       </c>
       <c r="Q19" t="n">
         <v>13</v>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44988</v>
+        <v>44397</v>
       </c>
       <c r="E20" t="n">
         <v>15</v>
@@ -1797,16 +1797,16 @@
         </is>
       </c>
       <c r="J20" t="n">
-        <v>750</v>
+        <v>140</v>
       </c>
       <c r="K20" t="n">
-        <v>17000</v>
+        <v>12500</v>
       </c>
       <c r="L20" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="M20" t="n">
-        <v>17400</v>
+        <v>12750</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
@@ -1819,7 +1819,7 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>1338</v>
+        <v>981</v>
       </c>
       <c r="Q20" t="n">
         <v>13</v>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44910</v>
+        <v>44988</v>
       </c>
       <c r="E21" t="n">
         <v>15</v>
@@ -1869,16 +1869,16 @@
         </is>
       </c>
       <c r="J21" t="n">
-        <v>50</v>
+        <v>750</v>
       </c>
       <c r="K21" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="L21" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="M21" t="n">
-        <v>14500</v>
+        <v>17400</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
@@ -1891,7 +1891,7 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>1115</v>
+        <v>1338</v>
       </c>
       <c r="Q21" t="n">
         <v>13</v>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44855</v>
+        <v>44910</v>
       </c>
       <c r="E22" t="n">
         <v>15</v>
@@ -1941,16 +1941,16 @@
         </is>
       </c>
       <c r="J22" t="n">
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="K22" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="L22" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="M22" t="n">
-        <v>10000</v>
+        <v>14500</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
@@ -1963,7 +1963,7 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>769</v>
+        <v>1115</v>
       </c>
       <c r="Q22" t="n">
         <v>13</v>
@@ -1989,7 +1989,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44918</v>
+        <v>44855</v>
       </c>
       <c r="E23" t="n">
         <v>15</v>
@@ -2009,20 +2009,20 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J23" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="K23" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="L23" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="M23" t="n">
-        <v>12750</v>
+        <v>10000</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
@@ -2035,12 +2035,84 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>981</v>
+        <v>769</v>
       </c>
       <c r="Q23" t="n">
         <v>13</v>
       </c>
       <c r="R23" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>1</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Agrícola del Norte S.A. de Arica</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="n">
+        <v>44918</v>
+      </c>
+      <c r="E24" t="n">
+        <v>15</v>
+      </c>
+      <c r="F24" t="n">
+        <v>100114007</v>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Jengibre</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J24" t="n">
+        <v>200</v>
+      </c>
+      <c r="K24" t="n">
+        <v>12000</v>
+      </c>
+      <c r="L24" t="n">
+        <v>13000</v>
+      </c>
+      <c r="M24" t="n">
+        <v>12750</v>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>$/caja 13 kilos</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>Perú</t>
+        </is>
+      </c>
+      <c r="P24" t="n">
+        <v>981</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>13</v>
+      </c>
+      <c r="R24" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Jengibre.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Jengibre.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44943</v>
+        <v>44855</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -497,20 +497,20 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J2" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="K2" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="L2" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="M2" t="n">
-        <v>14429</v>
+        <v>10000</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>1110</v>
+        <v>769</v>
       </c>
       <c r="Q2" t="n">
         <v>13</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44764</v>
+        <v>45028</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K3" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="L3" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="M3" t="n">
-        <v>12500</v>
+        <v>14500</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>962</v>
+        <v>1115</v>
       </c>
       <c r="Q3" t="n">
         <v>13</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44890</v>
+        <v>44910</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -645,7 +645,7 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="K4" t="n">
         <v>14000</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44379</v>
+        <v>44320</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="K5" t="n">
-        <v>12000</v>
+        <v>19000</v>
       </c>
       <c r="L5" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="M5" t="n">
-        <v>12667</v>
+        <v>19500</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>974</v>
+        <v>1500</v>
       </c>
       <c r="Q5" t="n">
         <v>13</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>45028</v>
+        <v>44764</v>
       </c>
       <c r="E6" t="n">
         <v>15</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K6" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="L6" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="M6" t="n">
-        <v>14500</v>
+        <v>12500</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>1115</v>
+        <v>962</v>
       </c>
       <c r="Q6" t="n">
         <v>13</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44389</v>
+        <v>44914</v>
       </c>
       <c r="E7" t="n">
         <v>15</v>
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="K7" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="L7" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="M7" t="n">
-        <v>12500</v>
+        <v>14400</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>962</v>
+        <v>1108</v>
       </c>
       <c r="Q7" t="n">
         <v>13</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44972</v>
+        <v>44379</v>
       </c>
       <c r="E8" t="n">
         <v>15</v>
@@ -933,20 +933,20 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>350</v>
+        <v>120</v>
       </c>
       <c r="K8" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="L8" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="M8" t="n">
-        <v>17429</v>
+        <v>12667</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 13 kilos</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
@@ -955,10 +955,10 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>1162</v>
+        <v>974</v>
       </c>
       <c r="Q8" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="R8" t="inlineStr">
         <is>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44914</v>
+        <v>44580</v>
       </c>
       <c r="E9" t="n">
         <v>15</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>100</v>
+        <v>160</v>
       </c>
       <c r="K9" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="L9" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="M9" t="n">
-        <v>14400</v>
+        <v>11500</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>1108</v>
+        <v>885</v>
       </c>
       <c r="Q9" t="n">
         <v>13</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44406</v>
+        <v>44469</v>
       </c>
       <c r="E10" t="n">
         <v>15</v>
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="K10" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="L10" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="M10" t="n">
-        <v>17500</v>
+        <v>13500</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>1346</v>
+        <v>1038</v>
       </c>
       <c r="Q10" t="n">
         <v>13</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44832</v>
+        <v>44406</v>
       </c>
       <c r="E11" t="n">
         <v>15</v>
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>100</v>
+        <v>160</v>
       </c>
       <c r="K11" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="L11" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="M11" t="n">
-        <v>13500</v>
+        <v>17500</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>1038</v>
+        <v>1346</v>
       </c>
       <c r="Q11" t="n">
         <v>13</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44893</v>
+        <v>44918</v>
       </c>
       <c r="E12" t="n">
         <v>15</v>
@@ -1217,20 +1217,20 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J12" t="n">
-        <v>900</v>
+        <v>200</v>
       </c>
       <c r="K12" t="n">
+        <v>12000</v>
+      </c>
+      <c r="L12" t="n">
         <v>13000</v>
       </c>
-      <c r="L12" t="n">
-        <v>14000</v>
-      </c>
       <c r="M12" t="n">
-        <v>13444</v>
+        <v>12750</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>1034</v>
+        <v>981</v>
       </c>
       <c r="Q12" t="n">
         <v>13</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44592</v>
+        <v>44984</v>
       </c>
       <c r="E13" t="n">
         <v>15</v>
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>120</v>
+        <v>400</v>
       </c>
       <c r="K13" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="L13" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="M13" t="n">
-        <v>12500</v>
+        <v>16500</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>962</v>
+        <v>1269</v>
       </c>
       <c r="Q13" t="n">
         <v>13</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44159</v>
+        <v>44397</v>
       </c>
       <c r="E14" t="n">
         <v>15</v>
@@ -1365,16 +1365,16 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="K14" t="n">
-        <v>23000</v>
+        <v>12500</v>
       </c>
       <c r="L14" t="n">
-        <v>24000</v>
+        <v>13000</v>
       </c>
       <c r="M14" t="n">
-        <v>23500</v>
+        <v>12750</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>1808</v>
+        <v>981</v>
       </c>
       <c r="Q14" t="n">
         <v>13</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44320</v>
+        <v>44890</v>
       </c>
       <c r="E15" t="n">
         <v>15</v>
@@ -1437,16 +1437,16 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>160</v>
+        <v>300</v>
       </c>
       <c r="K15" t="n">
-        <v>19000</v>
+        <v>14000</v>
       </c>
       <c r="L15" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="M15" t="n">
-        <v>19500</v>
+        <v>14500</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>1500</v>
+        <v>1115</v>
       </c>
       <c r="Q15" t="n">
         <v>13</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44580</v>
+        <v>44159</v>
       </c>
       <c r="E16" t="n">
         <v>15</v>
@@ -1509,16 +1509,16 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="K16" t="n">
-        <v>11000</v>
+        <v>23000</v>
       </c>
       <c r="L16" t="n">
-        <v>12000</v>
+        <v>24000</v>
       </c>
       <c r="M16" t="n">
-        <v>11500</v>
+        <v>23500</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>885</v>
+        <v>1808</v>
       </c>
       <c r="Q16" t="n">
         <v>13</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44984</v>
+        <v>44972</v>
       </c>
       <c r="E17" t="n">
         <v>15</v>
@@ -1581,20 +1581,20 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="K17" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="L17" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="M17" t="n">
-        <v>16500</v>
+        <v>17429</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>$/caja 13 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
@@ -1603,10 +1603,10 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>1269</v>
+        <v>1162</v>
       </c>
       <c r="Q17" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="R17" t="inlineStr">
         <is>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44616</v>
+        <v>44943</v>
       </c>
       <c r="E18" t="n">
         <v>15</v>
@@ -1649,20 +1649,20 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J18" t="n">
-        <v>120</v>
+        <v>350</v>
       </c>
       <c r="K18" t="n">
-        <v>19000</v>
+        <v>14000</v>
       </c>
       <c r="L18" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="M18" t="n">
-        <v>19500</v>
+        <v>14429</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1675,7 +1675,7 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>1500</v>
+        <v>1110</v>
       </c>
       <c r="Q18" t="n">
         <v>13</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44469</v>
+        <v>44389</v>
       </c>
       <c r="E19" t="n">
         <v>15</v>
@@ -1725,16 +1725,16 @@
         </is>
       </c>
       <c r="J19" t="n">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="K19" t="n">
+        <v>12000</v>
+      </c>
+      <c r="L19" t="n">
         <v>13000</v>
       </c>
-      <c r="L19" t="n">
-        <v>14000</v>
-      </c>
       <c r="M19" t="n">
-        <v>13500</v>
+        <v>12500</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>1038</v>
+        <v>962</v>
       </c>
       <c r="Q19" t="n">
         <v>13</v>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44397</v>
+        <v>44988</v>
       </c>
       <c r="E20" t="n">
         <v>15</v>
@@ -1797,16 +1797,16 @@
         </is>
       </c>
       <c r="J20" t="n">
-        <v>140</v>
+        <v>750</v>
       </c>
       <c r="K20" t="n">
-        <v>12500</v>
+        <v>17000</v>
       </c>
       <c r="L20" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="M20" t="n">
-        <v>12750</v>
+        <v>17400</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
@@ -1819,7 +1819,7 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>981</v>
+        <v>1338</v>
       </c>
       <c r="Q20" t="n">
         <v>13</v>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44988</v>
+        <v>44616</v>
       </c>
       <c r="E21" t="n">
         <v>15</v>
@@ -1869,16 +1869,16 @@
         </is>
       </c>
       <c r="J21" t="n">
-        <v>750</v>
+        <v>120</v>
       </c>
       <c r="K21" t="n">
-        <v>17000</v>
+        <v>19000</v>
       </c>
       <c r="L21" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="M21" t="n">
-        <v>17400</v>
+        <v>19500</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
@@ -1891,7 +1891,7 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>1338</v>
+        <v>1500</v>
       </c>
       <c r="Q21" t="n">
         <v>13</v>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44910</v>
+        <v>44592</v>
       </c>
       <c r="E22" t="n">
         <v>15</v>
@@ -1941,16 +1941,16 @@
         </is>
       </c>
       <c r="J22" t="n">
-        <v>50</v>
+        <v>120</v>
       </c>
       <c r="K22" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="L22" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="M22" t="n">
-        <v>14500</v>
+        <v>12500</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
@@ -1963,7 +1963,7 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>1115</v>
+        <v>962</v>
       </c>
       <c r="Q22" t="n">
         <v>13</v>
@@ -1989,7 +1989,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44855</v>
+        <v>44832</v>
       </c>
       <c r="E23" t="n">
         <v>15</v>
@@ -2013,16 +2013,16 @@
         </is>
       </c>
       <c r="J23" t="n">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="K23" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="L23" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="M23" t="n">
-        <v>10000</v>
+        <v>13500</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
@@ -2035,7 +2035,7 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>769</v>
+        <v>1038</v>
       </c>
       <c r="Q23" t="n">
         <v>13</v>
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44918</v>
+        <v>44893</v>
       </c>
       <c r="E24" t="n">
         <v>15</v>
@@ -2081,20 +2081,20 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J24" t="n">
-        <v>200</v>
+        <v>900</v>
       </c>
       <c r="K24" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="L24" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="M24" t="n">
-        <v>12750</v>
+        <v>13444</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
@@ -2107,7 +2107,7 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>981</v>
+        <v>1034</v>
       </c>
       <c r="Q24" t="n">
         <v>13</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Jengibre.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Jengibre.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R24"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44159</v>
+        <v>45049</v>
       </c>
       <c r="E16" t="n">
         <v>15</v>
@@ -1509,16 +1509,16 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="K16" t="n">
-        <v>23000</v>
+        <v>13000</v>
       </c>
       <c r="L16" t="n">
-        <v>24000</v>
+        <v>14000</v>
       </c>
       <c r="M16" t="n">
-        <v>23500</v>
+        <v>13500</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>1808</v>
+        <v>1038</v>
       </c>
       <c r="Q16" t="n">
         <v>13</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44972</v>
+        <v>44159</v>
       </c>
       <c r="E17" t="n">
         <v>15</v>
@@ -1581,20 +1581,20 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>350</v>
+        <v>100</v>
       </c>
       <c r="K17" t="n">
-        <v>17000</v>
+        <v>23000</v>
       </c>
       <c r="L17" t="n">
-        <v>18000</v>
+        <v>24000</v>
       </c>
       <c r="M17" t="n">
-        <v>17429</v>
+        <v>23500</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 13 kilos</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
@@ -1603,10 +1603,10 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>1162</v>
+        <v>1808</v>
       </c>
       <c r="Q17" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="R17" t="inlineStr">
         <is>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44943</v>
+        <v>44972</v>
       </c>
       <c r="E18" t="n">
         <v>15</v>
@@ -1649,24 +1649,24 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J18" t="n">
         <v>350</v>
       </c>
       <c r="K18" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="L18" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="M18" t="n">
-        <v>14429</v>
+        <v>17429</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>$/caja 13 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
@@ -1675,10 +1675,10 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>1110</v>
+        <v>1162</v>
       </c>
       <c r="Q18" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="R18" t="inlineStr">
         <is>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44389</v>
+        <v>44943</v>
       </c>
       <c r="E19" t="n">
         <v>15</v>
@@ -1721,20 +1721,20 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J19" t="n">
-        <v>120</v>
+        <v>350</v>
       </c>
       <c r="K19" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="L19" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="M19" t="n">
-        <v>12500</v>
+        <v>14429</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>962</v>
+        <v>1110</v>
       </c>
       <c r="Q19" t="n">
         <v>13</v>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44988</v>
+        <v>44389</v>
       </c>
       <c r="E20" t="n">
         <v>15</v>
@@ -1797,16 +1797,16 @@
         </is>
       </c>
       <c r="J20" t="n">
-        <v>750</v>
+        <v>120</v>
       </c>
       <c r="K20" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="L20" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="M20" t="n">
-        <v>17400</v>
+        <v>12500</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
@@ -1819,7 +1819,7 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>1338</v>
+        <v>962</v>
       </c>
       <c r="Q20" t="n">
         <v>13</v>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44616</v>
+        <v>44988</v>
       </c>
       <c r="E21" t="n">
         <v>15</v>
@@ -1869,16 +1869,16 @@
         </is>
       </c>
       <c r="J21" t="n">
-        <v>120</v>
+        <v>750</v>
       </c>
       <c r="K21" t="n">
-        <v>19000</v>
+        <v>17000</v>
       </c>
       <c r="L21" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="M21" t="n">
-        <v>19500</v>
+        <v>17400</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
@@ -1891,7 +1891,7 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>1500</v>
+        <v>1338</v>
       </c>
       <c r="Q21" t="n">
         <v>13</v>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44592</v>
+        <v>44616</v>
       </c>
       <c r="E22" t="n">
         <v>15</v>
@@ -1944,13 +1944,13 @@
         <v>120</v>
       </c>
       <c r="K22" t="n">
-        <v>12000</v>
+        <v>19000</v>
       </c>
       <c r="L22" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="M22" t="n">
-        <v>12500</v>
+        <v>19500</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
@@ -1963,7 +1963,7 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>962</v>
+        <v>1500</v>
       </c>
       <c r="Q22" t="n">
         <v>13</v>
@@ -1989,7 +1989,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44832</v>
+        <v>44592</v>
       </c>
       <c r="E23" t="n">
         <v>15</v>
@@ -2013,16 +2013,16 @@
         </is>
       </c>
       <c r="J23" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="K23" t="n">
+        <v>12000</v>
+      </c>
+      <c r="L23" t="n">
         <v>13000</v>
       </c>
-      <c r="L23" t="n">
-        <v>14000</v>
-      </c>
       <c r="M23" t="n">
-        <v>13500</v>
+        <v>12500</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
@@ -2035,7 +2035,7 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>1038</v>
+        <v>962</v>
       </c>
       <c r="Q23" t="n">
         <v>13</v>
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44893</v>
+        <v>44832</v>
       </c>
       <c r="E24" t="n">
         <v>15</v>
@@ -2085,7 +2085,7 @@
         </is>
       </c>
       <c r="J24" t="n">
-        <v>900</v>
+        <v>100</v>
       </c>
       <c r="K24" t="n">
         <v>13000</v>
@@ -2094,25 +2094,97 @@
         <v>14000</v>
       </c>
       <c r="M24" t="n">
+        <v>13500</v>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>$/caja 13 kilos</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>Perú</t>
+        </is>
+      </c>
+      <c r="P24" t="n">
+        <v>1038</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>13</v>
+      </c>
+      <c r="R24" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>1</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Agrícola del Norte S.A. de Arica</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="n">
+        <v>44893</v>
+      </c>
+      <c r="E25" t="n">
+        <v>15</v>
+      </c>
+      <c r="F25" t="n">
+        <v>100114007</v>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Jengibre</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J25" t="n">
+        <v>900</v>
+      </c>
+      <c r="K25" t="n">
+        <v>13000</v>
+      </c>
+      <c r="L25" t="n">
+        <v>14000</v>
+      </c>
+      <c r="M25" t="n">
         <v>13444</v>
       </c>
-      <c r="N24" t="inlineStr">
-        <is>
-          <t>$/caja 13 kilos</t>
-        </is>
-      </c>
-      <c r="O24" t="inlineStr">
-        <is>
-          <t>Perú</t>
-        </is>
-      </c>
-      <c r="P24" t="n">
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>$/caja 13 kilos</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>Perú</t>
+        </is>
+      </c>
+      <c r="P25" t="n">
         <v>1034</v>
       </c>
-      <c r="Q24" t="n">
-        <v>13</v>
-      </c>
-      <c r="R24" t="inlineStr">
+      <c r="Q25" t="n">
+        <v>13</v>
+      </c>
+      <c r="R25" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Jengibre.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Jengibre.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44855</v>
+        <v>44616</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>500</v>
+        <v>120</v>
       </c>
       <c r="K2" t="n">
-        <v>10000</v>
+        <v>19000</v>
       </c>
       <c r="L2" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="M2" t="n">
-        <v>10000</v>
+        <v>19500</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>769</v>
+        <v>1500</v>
       </c>
       <c r="Q2" t="n">
         <v>13</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>45028</v>
+        <v>44855</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="K3" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="L3" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="M3" t="n">
-        <v>14500</v>
+        <v>10000</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>1115</v>
+        <v>769</v>
       </c>
       <c r="Q3" t="n">
         <v>13</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44910</v>
+        <v>44984</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>50</v>
+        <v>400</v>
       </c>
       <c r="K4" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="L4" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="M4" t="n">
-        <v>14500</v>
+        <v>16500</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>1115</v>
+        <v>1269</v>
       </c>
       <c r="Q4" t="n">
         <v>13</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44320</v>
+        <v>44592</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="K5" t="n">
-        <v>19000</v>
+        <v>12000</v>
       </c>
       <c r="L5" t="n">
-        <v>20000</v>
+        <v>13000</v>
       </c>
       <c r="M5" t="n">
-        <v>19500</v>
+        <v>12500</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>1500</v>
+        <v>962</v>
       </c>
       <c r="Q5" t="n">
         <v>13</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44764</v>
+        <v>44890</v>
       </c>
       <c r="E6" t="n">
         <v>15</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K6" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="L6" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="M6" t="n">
-        <v>12500</v>
+        <v>14500</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>962</v>
+        <v>1115</v>
       </c>
       <c r="Q6" t="n">
         <v>13</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44914</v>
+        <v>44397</v>
       </c>
       <c r="E7" t="n">
         <v>15</v>
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="K7" t="n">
-        <v>14000</v>
+        <v>12500</v>
       </c>
       <c r="L7" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="M7" t="n">
-        <v>14400</v>
+        <v>12750</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>1108</v>
+        <v>981</v>
       </c>
       <c r="Q7" t="n">
         <v>13</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44379</v>
+        <v>44918</v>
       </c>
       <c r="E8" t="n">
         <v>15</v>
@@ -929,11 +929,11 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J8" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="K8" t="n">
         <v>12000</v>
@@ -942,7 +942,7 @@
         <v>13000</v>
       </c>
       <c r="M8" t="n">
-        <v>12667</v>
+        <v>12750</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>974</v>
+        <v>981</v>
       </c>
       <c r="Q8" t="n">
         <v>13</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44580</v>
+        <v>45049</v>
       </c>
       <c r="E9" t="n">
         <v>15</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>160</v>
+        <v>300</v>
       </c>
       <c r="K9" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="L9" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="M9" t="n">
-        <v>11500</v>
+        <v>13500</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>885</v>
+        <v>1038</v>
       </c>
       <c r="Q9" t="n">
         <v>13</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44469</v>
+        <v>44379</v>
       </c>
       <c r="E10" t="n">
         <v>15</v>
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="K10" t="n">
+        <v>12000</v>
+      </c>
+      <c r="L10" t="n">
         <v>13000</v>
       </c>
-      <c r="L10" t="n">
-        <v>14000</v>
-      </c>
       <c r="M10" t="n">
-        <v>13500</v>
+        <v>12667</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>1038</v>
+        <v>974</v>
       </c>
       <c r="Q10" t="n">
         <v>13</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44406</v>
+        <v>44159</v>
       </c>
       <c r="E11" t="n">
         <v>15</v>
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="K11" t="n">
-        <v>17000</v>
+        <v>23000</v>
       </c>
       <c r="L11" t="n">
-        <v>18000</v>
+        <v>24000</v>
       </c>
       <c r="M11" t="n">
-        <v>17500</v>
+        <v>23500</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>1346</v>
+        <v>1808</v>
       </c>
       <c r="Q11" t="n">
         <v>13</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44918</v>
+        <v>44943</v>
       </c>
       <c r="E12" t="n">
         <v>15</v>
@@ -1221,16 +1221,16 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>200</v>
+        <v>350</v>
       </c>
       <c r="K12" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="L12" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="M12" t="n">
-        <v>12750</v>
+        <v>14429</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>981</v>
+        <v>1110</v>
       </c>
       <c r="Q12" t="n">
         <v>13</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44984</v>
+        <v>44764</v>
       </c>
       <c r="E13" t="n">
         <v>15</v>
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="K13" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="L13" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="M13" t="n">
-        <v>16500</v>
+        <v>12500</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>1269</v>
+        <v>962</v>
       </c>
       <c r="Q13" t="n">
         <v>13</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44397</v>
+        <v>44320</v>
       </c>
       <c r="E14" t="n">
         <v>15</v>
@@ -1365,16 +1365,16 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="K14" t="n">
-        <v>12500</v>
+        <v>19000</v>
       </c>
       <c r="L14" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="M14" t="n">
-        <v>12750</v>
+        <v>19500</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>981</v>
+        <v>1500</v>
       </c>
       <c r="Q14" t="n">
         <v>13</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44890</v>
+        <v>44893</v>
       </c>
       <c r="E15" t="n">
         <v>15</v>
@@ -1437,16 +1437,16 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>300</v>
+        <v>900</v>
       </c>
       <c r="K15" t="n">
+        <v>13000</v>
+      </c>
+      <c r="L15" t="n">
         <v>14000</v>
       </c>
-      <c r="L15" t="n">
-        <v>15000</v>
-      </c>
       <c r="M15" t="n">
-        <v>14500</v>
+        <v>13444</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>1115</v>
+        <v>1034</v>
       </c>
       <c r="Q15" t="n">
         <v>13</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>45049</v>
+        <v>44406</v>
       </c>
       <c r="E16" t="n">
         <v>15</v>
@@ -1509,16 +1509,16 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>300</v>
+        <v>160</v>
       </c>
       <c r="K16" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="L16" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="M16" t="n">
-        <v>13500</v>
+        <v>17500</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>1038</v>
+        <v>1346</v>
       </c>
       <c r="Q16" t="n">
         <v>13</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44159</v>
+        <v>44389</v>
       </c>
       <c r="E17" t="n">
         <v>15</v>
@@ -1581,16 +1581,16 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="K17" t="n">
-        <v>23000</v>
+        <v>12000</v>
       </c>
       <c r="L17" t="n">
-        <v>24000</v>
+        <v>13000</v>
       </c>
       <c r="M17" t="n">
-        <v>23500</v>
+        <v>12500</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>1808</v>
+        <v>962</v>
       </c>
       <c r="Q17" t="n">
         <v>13</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44943</v>
+        <v>44832</v>
       </c>
       <c r="E19" t="n">
         <v>15</v>
@@ -1721,20 +1721,20 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J19" t="n">
-        <v>350</v>
+        <v>100</v>
       </c>
       <c r="K19" t="n">
+        <v>13000</v>
+      </c>
+      <c r="L19" t="n">
         <v>14000</v>
       </c>
-      <c r="L19" t="n">
-        <v>15000</v>
-      </c>
       <c r="M19" t="n">
-        <v>14429</v>
+        <v>13500</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>1110</v>
+        <v>1038</v>
       </c>
       <c r="Q19" t="n">
         <v>13</v>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44389</v>
+        <v>45028</v>
       </c>
       <c r="E20" t="n">
         <v>15</v>
@@ -1797,16 +1797,16 @@
         </is>
       </c>
       <c r="J20" t="n">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="K20" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="L20" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="M20" t="n">
-        <v>12500</v>
+        <v>14500</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
@@ -1819,7 +1819,7 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>962</v>
+        <v>1115</v>
       </c>
       <c r="Q20" t="n">
         <v>13</v>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44988</v>
+        <v>44580</v>
       </c>
       <c r="E21" t="n">
         <v>15</v>
@@ -1869,16 +1869,16 @@
         </is>
       </c>
       <c r="J21" t="n">
-        <v>750</v>
+        <v>160</v>
       </c>
       <c r="K21" t="n">
-        <v>17000</v>
+        <v>11000</v>
       </c>
       <c r="L21" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="M21" t="n">
-        <v>17400</v>
+        <v>11500</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
@@ -1891,7 +1891,7 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>1338</v>
+        <v>885</v>
       </c>
       <c r="Q21" t="n">
         <v>13</v>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44616</v>
+        <v>44914</v>
       </c>
       <c r="E22" t="n">
         <v>15</v>
@@ -1941,16 +1941,16 @@
         </is>
       </c>
       <c r="J22" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="K22" t="n">
-        <v>19000</v>
+        <v>14000</v>
       </c>
       <c r="L22" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="M22" t="n">
-        <v>19500</v>
+        <v>14400</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
@@ -1963,7 +1963,7 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>1500</v>
+        <v>1108</v>
       </c>
       <c r="Q22" t="n">
         <v>13</v>
@@ -1989,7 +1989,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44592</v>
+        <v>44469</v>
       </c>
       <c r="E23" t="n">
         <v>15</v>
@@ -2013,16 +2013,16 @@
         </is>
       </c>
       <c r="J23" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="K23" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="L23" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="M23" t="n">
-        <v>12500</v>
+        <v>13500</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
@@ -2035,7 +2035,7 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>962</v>
+        <v>1038</v>
       </c>
       <c r="Q23" t="n">
         <v>13</v>
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44832</v>
+        <v>44988</v>
       </c>
       <c r="E24" t="n">
         <v>15</v>
@@ -2085,16 +2085,16 @@
         </is>
       </c>
       <c r="J24" t="n">
-        <v>100</v>
+        <v>750</v>
       </c>
       <c r="K24" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="L24" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="M24" t="n">
-        <v>13500</v>
+        <v>17400</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
@@ -2107,7 +2107,7 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>1038</v>
+        <v>1338</v>
       </c>
       <c r="Q24" t="n">
         <v>13</v>
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44893</v>
+        <v>44910</v>
       </c>
       <c r="E25" t="n">
         <v>15</v>
@@ -2157,16 +2157,16 @@
         </is>
       </c>
       <c r="J25" t="n">
-        <v>900</v>
+        <v>50</v>
       </c>
       <c r="K25" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="L25" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="M25" t="n">
-        <v>13444</v>
+        <v>14500</v>
       </c>
       <c r="N25" t="inlineStr">
         <is>
@@ -2179,7 +2179,7 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>1034</v>
+        <v>1115</v>
       </c>
       <c r="Q25" t="n">
         <v>13</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Jengibre.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Jengibre.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44616</v>
+        <v>44389</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -504,13 +504,13 @@
         <v>120</v>
       </c>
       <c r="K2" t="n">
-        <v>19000</v>
+        <v>12000</v>
       </c>
       <c r="L2" t="n">
-        <v>20000</v>
+        <v>13000</v>
       </c>
       <c r="M2" t="n">
-        <v>19500</v>
+        <v>12500</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>1500</v>
+        <v>962</v>
       </c>
       <c r="Q2" t="n">
         <v>13</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44855</v>
+        <v>44406</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>500</v>
+        <v>160</v>
       </c>
       <c r="K3" t="n">
-        <v>10000</v>
+        <v>17000</v>
       </c>
       <c r="L3" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="M3" t="n">
-        <v>10000</v>
+        <v>17500</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>769</v>
+        <v>1346</v>
       </c>
       <c r="Q3" t="n">
         <v>13</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44984</v>
+        <v>44832</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="K4" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="L4" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="M4" t="n">
-        <v>16500</v>
+        <v>13500</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>1269</v>
+        <v>1038</v>
       </c>
       <c r="Q4" t="n">
         <v>13</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44592</v>
+        <v>44943</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -713,20 +713,20 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J5" t="n">
-        <v>120</v>
+        <v>350</v>
       </c>
       <c r="K5" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="L5" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="M5" t="n">
-        <v>12500</v>
+        <v>14429</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>962</v>
+        <v>1110</v>
       </c>
       <c r="Q5" t="n">
         <v>13</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44890</v>
+        <v>45028</v>
       </c>
       <c r="E6" t="n">
         <v>15</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44397</v>
+        <v>44893</v>
       </c>
       <c r="E7" t="n">
         <v>15</v>
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>140</v>
+        <v>900</v>
       </c>
       <c r="K7" t="n">
-        <v>12500</v>
+        <v>13000</v>
       </c>
       <c r="L7" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="M7" t="n">
-        <v>12750</v>
+        <v>13444</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>981</v>
+        <v>1034</v>
       </c>
       <c r="Q7" t="n">
         <v>13</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44918</v>
+        <v>44320</v>
       </c>
       <c r="E8" t="n">
         <v>15</v>
@@ -929,20 +929,20 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J8" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="K8" t="n">
-        <v>12000</v>
+        <v>19000</v>
       </c>
       <c r="L8" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="M8" t="n">
-        <v>12750</v>
+        <v>19500</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>981</v>
+        <v>1500</v>
       </c>
       <c r="Q8" t="n">
         <v>13</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44379</v>
+        <v>44855</v>
       </c>
       <c r="E10" t="n">
         <v>15</v>
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>120</v>
+        <v>500</v>
       </c>
       <c r="K10" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="L10" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="M10" t="n">
-        <v>12667</v>
+        <v>10000</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>974</v>
+        <v>769</v>
       </c>
       <c r="Q10" t="n">
         <v>13</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44159</v>
+        <v>44988</v>
       </c>
       <c r="E11" t="n">
         <v>15</v>
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>100</v>
+        <v>750</v>
       </c>
       <c r="K11" t="n">
-        <v>23000</v>
+        <v>17000</v>
       </c>
       <c r="L11" t="n">
-        <v>24000</v>
+        <v>18000</v>
       </c>
       <c r="M11" t="n">
-        <v>23500</v>
+        <v>17400</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>1808</v>
+        <v>1338</v>
       </c>
       <c r="Q11" t="n">
         <v>13</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44943</v>
+        <v>44984</v>
       </c>
       <c r="E12" t="n">
         <v>15</v>
@@ -1217,20 +1217,20 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J12" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="K12" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="L12" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="M12" t="n">
-        <v>14429</v>
+        <v>16500</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>1110</v>
+        <v>1269</v>
       </c>
       <c r="Q12" t="n">
         <v>13</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44764</v>
+        <v>44616</v>
       </c>
       <c r="E13" t="n">
         <v>15</v>
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="K13" t="n">
-        <v>12000</v>
+        <v>19000</v>
       </c>
       <c r="L13" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="M13" t="n">
-        <v>12500</v>
+        <v>19500</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>962</v>
+        <v>1500</v>
       </c>
       <c r="Q13" t="n">
         <v>13</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44320</v>
+        <v>44918</v>
       </c>
       <c r="E14" t="n">
         <v>15</v>
@@ -1361,20 +1361,20 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J14" t="n">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="K14" t="n">
-        <v>19000</v>
+        <v>12000</v>
       </c>
       <c r="L14" t="n">
-        <v>20000</v>
+        <v>13000</v>
       </c>
       <c r="M14" t="n">
-        <v>19500</v>
+        <v>12750</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>1500</v>
+        <v>981</v>
       </c>
       <c r="Q14" t="n">
         <v>13</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44893</v>
+        <v>44914</v>
       </c>
       <c r="E15" t="n">
         <v>15</v>
@@ -1437,16 +1437,16 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>900</v>
+        <v>100</v>
       </c>
       <c r="K15" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="L15" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="M15" t="n">
-        <v>13444</v>
+        <v>14400</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>1034</v>
+        <v>1108</v>
       </c>
       <c r="Q15" t="n">
         <v>13</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44406</v>
+        <v>44159</v>
       </c>
       <c r="E16" t="n">
         <v>15</v>
@@ -1509,16 +1509,16 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="K16" t="n">
-        <v>17000</v>
+        <v>23000</v>
       </c>
       <c r="L16" t="n">
-        <v>18000</v>
+        <v>24000</v>
       </c>
       <c r="M16" t="n">
-        <v>17500</v>
+        <v>23500</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>1346</v>
+        <v>1808</v>
       </c>
       <c r="Q16" t="n">
         <v>13</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44389</v>
+        <v>44972</v>
       </c>
       <c r="E17" t="n">
         <v>15</v>
@@ -1581,20 +1581,20 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>120</v>
+        <v>350</v>
       </c>
       <c r="K17" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="L17" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="M17" t="n">
-        <v>12500</v>
+        <v>17429</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>$/caja 13 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
@@ -1603,10 +1603,10 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>962</v>
+        <v>1162</v>
       </c>
       <c r="Q17" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="R17" t="inlineStr">
         <is>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44972</v>
+        <v>44580</v>
       </c>
       <c r="E18" t="n">
         <v>15</v>
@@ -1653,20 +1653,20 @@
         </is>
       </c>
       <c r="J18" t="n">
-        <v>350</v>
+        <v>160</v>
       </c>
       <c r="K18" t="n">
-        <v>17000</v>
+        <v>11000</v>
       </c>
       <c r="L18" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="M18" t="n">
-        <v>17429</v>
+        <v>11500</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 13 kilos</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
@@ -1675,10 +1675,10 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>1162</v>
+        <v>885</v>
       </c>
       <c r="Q18" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="R18" t="inlineStr">
         <is>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44832</v>
+        <v>44890</v>
       </c>
       <c r="E19" t="n">
         <v>15</v>
@@ -1725,16 +1725,16 @@
         </is>
       </c>
       <c r="J19" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="K19" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="L19" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="M19" t="n">
-        <v>13500</v>
+        <v>14500</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>1038</v>
+        <v>1115</v>
       </c>
       <c r="Q19" t="n">
         <v>13</v>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>45028</v>
+        <v>44910</v>
       </c>
       <c r="E20" t="n">
         <v>15</v>
@@ -1797,7 +1797,7 @@
         </is>
       </c>
       <c r="J20" t="n">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="K20" t="n">
         <v>14000</v>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44580</v>
+        <v>44469</v>
       </c>
       <c r="E21" t="n">
         <v>15</v>
@@ -1869,16 +1869,16 @@
         </is>
       </c>
       <c r="J21" t="n">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="K21" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="L21" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="M21" t="n">
-        <v>11500</v>
+        <v>13500</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
@@ -1891,7 +1891,7 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>885</v>
+        <v>1038</v>
       </c>
       <c r="Q21" t="n">
         <v>13</v>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44914</v>
+        <v>44764</v>
       </c>
       <c r="E22" t="n">
         <v>15</v>
@@ -1941,16 +1941,16 @@
         </is>
       </c>
       <c r="J22" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K22" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="L22" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="M22" t="n">
-        <v>14400</v>
+        <v>12500</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
@@ -1963,7 +1963,7 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>1108</v>
+        <v>962</v>
       </c>
       <c r="Q22" t="n">
         <v>13</v>
@@ -1989,7 +1989,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44469</v>
+        <v>44379</v>
       </c>
       <c r="E23" t="n">
         <v>15</v>
@@ -2013,16 +2013,16 @@
         </is>
       </c>
       <c r="J23" t="n">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="K23" t="n">
+        <v>12000</v>
+      </c>
+      <c r="L23" t="n">
         <v>13000</v>
       </c>
-      <c r="L23" t="n">
-        <v>14000</v>
-      </c>
       <c r="M23" t="n">
-        <v>13500</v>
+        <v>12667</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
@@ -2035,7 +2035,7 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>1038</v>
+        <v>974</v>
       </c>
       <c r="Q23" t="n">
         <v>13</v>
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44988</v>
+        <v>44397</v>
       </c>
       <c r="E24" t="n">
         <v>15</v>
@@ -2085,16 +2085,16 @@
         </is>
       </c>
       <c r="J24" t="n">
-        <v>750</v>
+        <v>140</v>
       </c>
       <c r="K24" t="n">
-        <v>17000</v>
+        <v>12500</v>
       </c>
       <c r="L24" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="M24" t="n">
-        <v>17400</v>
+        <v>12750</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
@@ -2107,7 +2107,7 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>1338</v>
+        <v>981</v>
       </c>
       <c r="Q24" t="n">
         <v>13</v>
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44910</v>
+        <v>44592</v>
       </c>
       <c r="E25" t="n">
         <v>15</v>
@@ -2157,16 +2157,16 @@
         </is>
       </c>
       <c r="J25" t="n">
-        <v>50</v>
+        <v>120</v>
       </c>
       <c r="K25" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="L25" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="M25" t="n">
-        <v>14500</v>
+        <v>12500</v>
       </c>
       <c r="N25" t="inlineStr">
         <is>
@@ -2179,7 +2179,7 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>1115</v>
+        <v>962</v>
       </c>
       <c r="Q25" t="n">
         <v>13</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Jengibre.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Jengibre.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44389</v>
+        <v>44988</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>120</v>
+        <v>750</v>
       </c>
       <c r="K2" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="L2" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="M2" t="n">
-        <v>12500</v>
+        <v>17400</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>962</v>
+        <v>1338</v>
       </c>
       <c r="Q2" t="n">
         <v>13</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44406</v>
+        <v>44984</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>160</v>
+        <v>400</v>
       </c>
       <c r="K3" t="n">
+        <v>16000</v>
+      </c>
+      <c r="L3" t="n">
         <v>17000</v>
       </c>
-      <c r="L3" t="n">
-        <v>18000</v>
-      </c>
       <c r="M3" t="n">
-        <v>17500</v>
+        <v>16500</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>1346</v>
+        <v>1269</v>
       </c>
       <c r="Q3" t="n">
         <v>13</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44832</v>
+        <v>44469</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -645,7 +645,7 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="K4" t="n">
         <v>13000</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44943</v>
+        <v>44389</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -713,20 +713,20 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J5" t="n">
-        <v>350</v>
+        <v>120</v>
       </c>
       <c r="K5" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="L5" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="M5" t="n">
-        <v>14429</v>
+        <v>12500</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>1110</v>
+        <v>962</v>
       </c>
       <c r="Q5" t="n">
         <v>13</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>45028</v>
+        <v>44592</v>
       </c>
       <c r="E6" t="n">
         <v>15</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>300</v>
+        <v>120</v>
       </c>
       <c r="K6" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="L6" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="M6" t="n">
-        <v>14500</v>
+        <v>12500</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>1115</v>
+        <v>962</v>
       </c>
       <c r="Q6" t="n">
         <v>13</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44893</v>
+        <v>44580</v>
       </c>
       <c r="E7" t="n">
         <v>15</v>
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>900</v>
+        <v>160</v>
       </c>
       <c r="K7" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="L7" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="M7" t="n">
-        <v>13444</v>
+        <v>11500</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>1034</v>
+        <v>885</v>
       </c>
       <c r="Q7" t="n">
         <v>13</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44320</v>
+        <v>44910</v>
       </c>
       <c r="E8" t="n">
         <v>15</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>160</v>
+        <v>50</v>
       </c>
       <c r="K8" t="n">
-        <v>19000</v>
+        <v>14000</v>
       </c>
       <c r="L8" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="M8" t="n">
-        <v>19500</v>
+        <v>14500</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>1500</v>
+        <v>1115</v>
       </c>
       <c r="Q8" t="n">
         <v>13</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>45049</v>
+        <v>44972</v>
       </c>
       <c r="E9" t="n">
         <v>15</v>
@@ -1005,20 +1005,20 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="K9" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="L9" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="M9" t="n">
-        <v>13500</v>
+        <v>17429</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>$/caja 13 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
@@ -1027,10 +1027,10 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>1038</v>
+        <v>1162</v>
       </c>
       <c r="Q9" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="R9" t="inlineStr">
         <is>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44855</v>
+        <v>44918</v>
       </c>
       <c r="E10" t="n">
         <v>15</v>
@@ -1073,20 +1073,20 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J10" t="n">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="K10" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="L10" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="M10" t="n">
-        <v>10000</v>
+        <v>12750</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>769</v>
+        <v>981</v>
       </c>
       <c r="Q10" t="n">
         <v>13</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44988</v>
+        <v>44914</v>
       </c>
       <c r="E11" t="n">
         <v>15</v>
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>750</v>
+        <v>100</v>
       </c>
       <c r="K11" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="L11" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="M11" t="n">
-        <v>17400</v>
+        <v>14400</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>1338</v>
+        <v>1108</v>
       </c>
       <c r="Q11" t="n">
         <v>13</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44984</v>
+        <v>44320</v>
       </c>
       <c r="E12" t="n">
         <v>15</v>
@@ -1221,16 +1221,16 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>400</v>
+        <v>160</v>
       </c>
       <c r="K12" t="n">
-        <v>16000</v>
+        <v>19000</v>
       </c>
       <c r="L12" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="M12" t="n">
-        <v>16500</v>
+        <v>19500</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>1269</v>
+        <v>1500</v>
       </c>
       <c r="Q12" t="n">
         <v>13</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44616</v>
+        <v>44159</v>
       </c>
       <c r="E13" t="n">
         <v>15</v>
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="K13" t="n">
-        <v>19000</v>
+        <v>23000</v>
       </c>
       <c r="L13" t="n">
-        <v>20000</v>
+        <v>24000</v>
       </c>
       <c r="M13" t="n">
-        <v>19500</v>
+        <v>23500</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>1500</v>
+        <v>1808</v>
       </c>
       <c r="Q13" t="n">
         <v>13</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44918</v>
+        <v>45049</v>
       </c>
       <c r="E14" t="n">
         <v>15</v>
@@ -1361,20 +1361,20 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J14" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K14" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="L14" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="M14" t="n">
-        <v>12750</v>
+        <v>13500</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>981</v>
+        <v>1038</v>
       </c>
       <c r="Q14" t="n">
         <v>13</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44914</v>
+        <v>44397</v>
       </c>
       <c r="E15" t="n">
         <v>15</v>
@@ -1437,16 +1437,16 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="K15" t="n">
-        <v>14000</v>
+        <v>12500</v>
       </c>
       <c r="L15" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="M15" t="n">
-        <v>14400</v>
+        <v>12750</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>1108</v>
+        <v>981</v>
       </c>
       <c r="Q15" t="n">
         <v>13</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44159</v>
+        <v>45028</v>
       </c>
       <c r="E16" t="n">
         <v>15</v>
@@ -1509,16 +1509,16 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="K16" t="n">
-        <v>23000</v>
+        <v>14000</v>
       </c>
       <c r="L16" t="n">
-        <v>24000</v>
+        <v>15000</v>
       </c>
       <c r="M16" t="n">
-        <v>23500</v>
+        <v>14500</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>1808</v>
+        <v>1115</v>
       </c>
       <c r="Q16" t="n">
         <v>13</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44972</v>
+        <v>44855</v>
       </c>
       <c r="E17" t="n">
         <v>15</v>
@@ -1581,20 +1581,20 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="K17" t="n">
-        <v>17000</v>
+        <v>10000</v>
       </c>
       <c r="L17" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="M17" t="n">
-        <v>17429</v>
+        <v>10000</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 13 kilos</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
@@ -1603,10 +1603,10 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>1162</v>
+        <v>769</v>
       </c>
       <c r="Q17" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="R17" t="inlineStr">
         <is>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44580</v>
+        <v>44616</v>
       </c>
       <c r="E18" t="n">
         <v>15</v>
@@ -1653,16 +1653,16 @@
         </is>
       </c>
       <c r="J18" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="K18" t="n">
-        <v>11000</v>
+        <v>19000</v>
       </c>
       <c r="L18" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="M18" t="n">
-        <v>11500</v>
+        <v>19500</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1675,7 +1675,7 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>885</v>
+        <v>1500</v>
       </c>
       <c r="Q18" t="n">
         <v>13</v>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44910</v>
+        <v>44943</v>
       </c>
       <c r="E20" t="n">
         <v>15</v>
@@ -1793,11 +1793,11 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J20" t="n">
-        <v>50</v>
+        <v>350</v>
       </c>
       <c r="K20" t="n">
         <v>14000</v>
@@ -1806,7 +1806,7 @@
         <v>15000</v>
       </c>
       <c r="M20" t="n">
-        <v>14500</v>
+        <v>14429</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
@@ -1819,7 +1819,7 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>1115</v>
+        <v>1110</v>
       </c>
       <c r="Q20" t="n">
         <v>13</v>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44469</v>
+        <v>44406</v>
       </c>
       <c r="E21" t="n">
         <v>15</v>
@@ -1869,16 +1869,16 @@
         </is>
       </c>
       <c r="J21" t="n">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="K21" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="L21" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="M21" t="n">
-        <v>13500</v>
+        <v>17500</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
@@ -1891,7 +1891,7 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>1038</v>
+        <v>1346</v>
       </c>
       <c r="Q21" t="n">
         <v>13</v>
@@ -1989,7 +1989,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44379</v>
+        <v>44832</v>
       </c>
       <c r="E23" t="n">
         <v>15</v>
@@ -2013,16 +2013,16 @@
         </is>
       </c>
       <c r="J23" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="K23" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="L23" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="M23" t="n">
-        <v>12667</v>
+        <v>13500</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
@@ -2035,7 +2035,7 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>974</v>
+        <v>1038</v>
       </c>
       <c r="Q23" t="n">
         <v>13</v>
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44397</v>
+        <v>44893</v>
       </c>
       <c r="E24" t="n">
         <v>15</v>
@@ -2085,16 +2085,16 @@
         </is>
       </c>
       <c r="J24" t="n">
-        <v>140</v>
+        <v>900</v>
       </c>
       <c r="K24" t="n">
-        <v>12500</v>
+        <v>13000</v>
       </c>
       <c r="L24" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="M24" t="n">
-        <v>12750</v>
+        <v>13444</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
@@ -2107,7 +2107,7 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>981</v>
+        <v>1034</v>
       </c>
       <c r="Q24" t="n">
         <v>13</v>
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44592</v>
+        <v>44379</v>
       </c>
       <c r="E25" t="n">
         <v>15</v>
@@ -2166,7 +2166,7 @@
         <v>13000</v>
       </c>
       <c r="M25" t="n">
-        <v>12500</v>
+        <v>12667</v>
       </c>
       <c r="N25" t="inlineStr">
         <is>
@@ -2179,7 +2179,7 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>962</v>
+        <v>974</v>
       </c>
       <c r="Q25" t="n">
         <v>13</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Jengibre.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Jengibre.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44988</v>
+        <v>44389</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>750</v>
+        <v>120</v>
       </c>
       <c r="K2" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="L2" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="M2" t="n">
-        <v>17400</v>
+        <v>12500</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>1338</v>
+        <v>962</v>
       </c>
       <c r="Q2" t="n">
         <v>13</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44984</v>
+        <v>44406</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>400</v>
+        <v>160</v>
       </c>
       <c r="K3" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="L3" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="M3" t="n">
-        <v>16500</v>
+        <v>17500</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>1269</v>
+        <v>1346</v>
       </c>
       <c r="Q3" t="n">
         <v>13</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44469</v>
+        <v>44832</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -645,7 +645,7 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="K4" t="n">
         <v>13000</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44389</v>
+        <v>44943</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -713,20 +713,20 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J5" t="n">
-        <v>120</v>
+        <v>350</v>
       </c>
       <c r="K5" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="L5" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="M5" t="n">
-        <v>12500</v>
+        <v>14429</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>962</v>
+        <v>1110</v>
       </c>
       <c r="Q5" t="n">
         <v>13</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44592</v>
+        <v>45028</v>
       </c>
       <c r="E6" t="n">
         <v>15</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="K6" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="L6" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="M6" t="n">
-        <v>12500</v>
+        <v>14500</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>962</v>
+        <v>1115</v>
       </c>
       <c r="Q6" t="n">
         <v>13</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44580</v>
+        <v>44893</v>
       </c>
       <c r="E7" t="n">
         <v>15</v>
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>160</v>
+        <v>900</v>
       </c>
       <c r="K7" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="L7" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="M7" t="n">
-        <v>11500</v>
+        <v>13444</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>885</v>
+        <v>1034</v>
       </c>
       <c r="Q7" t="n">
         <v>13</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44910</v>
+        <v>44320</v>
       </c>
       <c r="E8" t="n">
         <v>15</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>50</v>
+        <v>160</v>
       </c>
       <c r="K8" t="n">
-        <v>14000</v>
+        <v>19000</v>
       </c>
       <c r="L8" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="M8" t="n">
-        <v>14500</v>
+        <v>19500</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>1115</v>
+        <v>1500</v>
       </c>
       <c r="Q8" t="n">
         <v>13</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44972</v>
+        <v>45049</v>
       </c>
       <c r="E9" t="n">
         <v>15</v>
@@ -1005,20 +1005,20 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="K9" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="L9" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="M9" t="n">
-        <v>17429</v>
+        <v>13500</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 13 kilos</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
@@ -1027,10 +1027,10 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>1162</v>
+        <v>1038</v>
       </c>
       <c r="Q9" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="R9" t="inlineStr">
         <is>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44918</v>
+        <v>44855</v>
       </c>
       <c r="E10" t="n">
         <v>15</v>
@@ -1073,20 +1073,20 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J10" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="K10" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="L10" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="M10" t="n">
-        <v>12750</v>
+        <v>10000</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>981</v>
+        <v>769</v>
       </c>
       <c r="Q10" t="n">
         <v>13</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44914</v>
+        <v>44988</v>
       </c>
       <c r="E11" t="n">
         <v>15</v>
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>100</v>
+        <v>750</v>
       </c>
       <c r="K11" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="L11" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="M11" t="n">
-        <v>14400</v>
+        <v>17400</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>1108</v>
+        <v>1338</v>
       </c>
       <c r="Q11" t="n">
         <v>13</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44320</v>
+        <v>44984</v>
       </c>
       <c r="E12" t="n">
         <v>15</v>
@@ -1221,16 +1221,16 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>160</v>
+        <v>400</v>
       </c>
       <c r="K12" t="n">
-        <v>19000</v>
+        <v>16000</v>
       </c>
       <c r="L12" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="M12" t="n">
-        <v>19500</v>
+        <v>16500</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>1500</v>
+        <v>1269</v>
       </c>
       <c r="Q12" t="n">
         <v>13</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44159</v>
+        <v>44616</v>
       </c>
       <c r="E13" t="n">
         <v>15</v>
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="K13" t="n">
-        <v>23000</v>
+        <v>19000</v>
       </c>
       <c r="L13" t="n">
-        <v>24000</v>
+        <v>20000</v>
       </c>
       <c r="M13" t="n">
-        <v>23500</v>
+        <v>19500</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>1808</v>
+        <v>1500</v>
       </c>
       <c r="Q13" t="n">
         <v>13</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>45049</v>
+        <v>44918</v>
       </c>
       <c r="E14" t="n">
         <v>15</v>
@@ -1361,20 +1361,20 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J14" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K14" t="n">
+        <v>12000</v>
+      </c>
+      <c r="L14" t="n">
         <v>13000</v>
       </c>
-      <c r="L14" t="n">
-        <v>14000</v>
-      </c>
       <c r="M14" t="n">
-        <v>13500</v>
+        <v>12750</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>1038</v>
+        <v>981</v>
       </c>
       <c r="Q14" t="n">
         <v>13</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44397</v>
+        <v>44914</v>
       </c>
       <c r="E15" t="n">
         <v>15</v>
@@ -1437,16 +1437,16 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="K15" t="n">
-        <v>12500</v>
+        <v>14000</v>
       </c>
       <c r="L15" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="M15" t="n">
-        <v>12750</v>
+        <v>14400</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>981</v>
+        <v>1108</v>
       </c>
       <c r="Q15" t="n">
         <v>13</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>45028</v>
+        <v>44159</v>
       </c>
       <c r="E16" t="n">
         <v>15</v>
@@ -1509,16 +1509,16 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="K16" t="n">
-        <v>14000</v>
+        <v>23000</v>
       </c>
       <c r="L16" t="n">
-        <v>15000</v>
+        <v>24000</v>
       </c>
       <c r="M16" t="n">
-        <v>14500</v>
+        <v>23500</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>1115</v>
+        <v>1808</v>
       </c>
       <c r="Q16" t="n">
         <v>13</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44855</v>
+        <v>44972</v>
       </c>
       <c r="E17" t="n">
         <v>15</v>
@@ -1581,20 +1581,20 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="K17" t="n">
-        <v>10000</v>
+        <v>17000</v>
       </c>
       <c r="L17" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="M17" t="n">
-        <v>10000</v>
+        <v>17429</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>$/caja 13 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
@@ -1603,10 +1603,10 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>769</v>
+        <v>1162</v>
       </c>
       <c r="Q17" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="R17" t="inlineStr">
         <is>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44616</v>
+        <v>44580</v>
       </c>
       <c r="E18" t="n">
         <v>15</v>
@@ -1653,16 +1653,16 @@
         </is>
       </c>
       <c r="J18" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="K18" t="n">
-        <v>19000</v>
+        <v>11000</v>
       </c>
       <c r="L18" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="M18" t="n">
-        <v>19500</v>
+        <v>11500</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1675,7 +1675,7 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>1500</v>
+        <v>885</v>
       </c>
       <c r="Q18" t="n">
         <v>13</v>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44943</v>
+        <v>44910</v>
       </c>
       <c r="E20" t="n">
         <v>15</v>
@@ -1793,11 +1793,11 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J20" t="n">
-        <v>350</v>
+        <v>50</v>
       </c>
       <c r="K20" t="n">
         <v>14000</v>
@@ -1806,7 +1806,7 @@
         <v>15000</v>
       </c>
       <c r="M20" t="n">
-        <v>14429</v>
+        <v>14500</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
@@ -1819,7 +1819,7 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>1110</v>
+        <v>1115</v>
       </c>
       <c r="Q20" t="n">
         <v>13</v>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44406</v>
+        <v>44469</v>
       </c>
       <c r="E21" t="n">
         <v>15</v>
@@ -1869,16 +1869,16 @@
         </is>
       </c>
       <c r="J21" t="n">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="K21" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="L21" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="M21" t="n">
-        <v>17500</v>
+        <v>13500</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
@@ -1891,7 +1891,7 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>1346</v>
+        <v>1038</v>
       </c>
       <c r="Q21" t="n">
         <v>13</v>
@@ -1989,7 +1989,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44832</v>
+        <v>44379</v>
       </c>
       <c r="E23" t="n">
         <v>15</v>
@@ -2013,16 +2013,16 @@
         </is>
       </c>
       <c r="J23" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="K23" t="n">
+        <v>12000</v>
+      </c>
+      <c r="L23" t="n">
         <v>13000</v>
       </c>
-      <c r="L23" t="n">
-        <v>14000</v>
-      </c>
       <c r="M23" t="n">
-        <v>13500</v>
+        <v>12667</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
@@ -2035,7 +2035,7 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>1038</v>
+        <v>974</v>
       </c>
       <c r="Q23" t="n">
         <v>13</v>
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44893</v>
+        <v>44397</v>
       </c>
       <c r="E24" t="n">
         <v>15</v>
@@ -2085,16 +2085,16 @@
         </is>
       </c>
       <c r="J24" t="n">
-        <v>900</v>
+        <v>140</v>
       </c>
       <c r="K24" t="n">
+        <v>12500</v>
+      </c>
+      <c r="L24" t="n">
         <v>13000</v>
       </c>
-      <c r="L24" t="n">
-        <v>14000</v>
-      </c>
       <c r="M24" t="n">
-        <v>13444</v>
+        <v>12750</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
@@ -2107,7 +2107,7 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>1034</v>
+        <v>981</v>
       </c>
       <c r="Q24" t="n">
         <v>13</v>
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44379</v>
+        <v>44592</v>
       </c>
       <c r="E25" t="n">
         <v>15</v>
@@ -2166,7 +2166,7 @@
         <v>13000</v>
       </c>
       <c r="M25" t="n">
-        <v>12667</v>
+        <v>12500</v>
       </c>
       <c r="N25" t="inlineStr">
         <is>
@@ -2179,7 +2179,7 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>974</v>
+        <v>962</v>
       </c>
       <c r="Q25" t="n">
         <v>13</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Jengibre.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Jengibre.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:R26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44469</v>
+        <v>45092</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -645,7 +645,7 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>140</v>
+        <v>600</v>
       </c>
       <c r="K4" t="n">
         <v>13000</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44389</v>
+        <v>44469</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="K5" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="L5" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="M5" t="n">
-        <v>12500</v>
+        <v>13500</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>962</v>
+        <v>1038</v>
       </c>
       <c r="Q5" t="n">
         <v>13</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44592</v>
+        <v>44389</v>
       </c>
       <c r="E6" t="n">
         <v>15</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44580</v>
+        <v>44592</v>
       </c>
       <c r="E7" t="n">
         <v>15</v>
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="K7" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="L7" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="M7" t="n">
-        <v>11500</v>
+        <v>12500</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>885</v>
+        <v>962</v>
       </c>
       <c r="Q7" t="n">
         <v>13</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44910</v>
+        <v>44580</v>
       </c>
       <c r="E8" t="n">
         <v>15</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>50</v>
+        <v>160</v>
       </c>
       <c r="K8" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="L8" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="M8" t="n">
-        <v>14500</v>
+        <v>11500</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>1115</v>
+        <v>885</v>
       </c>
       <c r="Q8" t="n">
         <v>13</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44972</v>
+        <v>44910</v>
       </c>
       <c r="E9" t="n">
         <v>15</v>
@@ -1005,20 +1005,20 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>350</v>
+        <v>50</v>
       </c>
       <c r="K9" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="L9" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="M9" t="n">
-        <v>17429</v>
+        <v>14500</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 13 kilos</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
@@ -1027,10 +1027,10 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>1162</v>
+        <v>1115</v>
       </c>
       <c r="Q9" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="R9" t="inlineStr">
         <is>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44918</v>
+        <v>44972</v>
       </c>
       <c r="E10" t="n">
         <v>15</v>
@@ -1073,24 +1073,24 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J10" t="n">
-        <v>200</v>
+        <v>350</v>
       </c>
       <c r="K10" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="L10" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="M10" t="n">
-        <v>12750</v>
+        <v>17429</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>$/caja 13 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
@@ -1099,10 +1099,10 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>981</v>
+        <v>1162</v>
       </c>
       <c r="Q10" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="R10" t="inlineStr">
         <is>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44914</v>
+        <v>44918</v>
       </c>
       <c r="E11" t="n">
         <v>15</v>
@@ -1145,20 +1145,20 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J11" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K11" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="L11" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="M11" t="n">
-        <v>14400</v>
+        <v>12750</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>1108</v>
+        <v>981</v>
       </c>
       <c r="Q11" t="n">
         <v>13</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44320</v>
+        <v>44914</v>
       </c>
       <c r="E12" t="n">
         <v>15</v>
@@ -1221,16 +1221,16 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="K12" t="n">
-        <v>19000</v>
+        <v>14000</v>
       </c>
       <c r="L12" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="M12" t="n">
-        <v>19500</v>
+        <v>14400</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>1500</v>
+        <v>1108</v>
       </c>
       <c r="Q12" t="n">
         <v>13</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44159</v>
+        <v>44320</v>
       </c>
       <c r="E13" t="n">
         <v>15</v>
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>100</v>
+        <v>160</v>
       </c>
       <c r="K13" t="n">
-        <v>23000</v>
+        <v>19000</v>
       </c>
       <c r="L13" t="n">
-        <v>24000</v>
+        <v>20000</v>
       </c>
       <c r="M13" t="n">
-        <v>23500</v>
+        <v>19500</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>1808</v>
+        <v>1500</v>
       </c>
       <c r="Q13" t="n">
         <v>13</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>45049</v>
+        <v>44159</v>
       </c>
       <c r="E14" t="n">
         <v>15</v>
@@ -1365,16 +1365,16 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="K14" t="n">
-        <v>13000</v>
+        <v>23000</v>
       </c>
       <c r="L14" t="n">
-        <v>14000</v>
+        <v>24000</v>
       </c>
       <c r="M14" t="n">
-        <v>13500</v>
+        <v>23500</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>1038</v>
+        <v>1808</v>
       </c>
       <c r="Q14" t="n">
         <v>13</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44397</v>
+        <v>45049</v>
       </c>
       <c r="E15" t="n">
         <v>15</v>
@@ -1437,16 +1437,16 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>140</v>
+        <v>300</v>
       </c>
       <c r="K15" t="n">
-        <v>12500</v>
+        <v>13000</v>
       </c>
       <c r="L15" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="M15" t="n">
-        <v>12750</v>
+        <v>13500</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>981</v>
+        <v>1038</v>
       </c>
       <c r="Q15" t="n">
         <v>13</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>45028</v>
+        <v>44397</v>
       </c>
       <c r="E16" t="n">
         <v>15</v>
@@ -1509,16 +1509,16 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>300</v>
+        <v>140</v>
       </c>
       <c r="K16" t="n">
-        <v>14000</v>
+        <v>12500</v>
       </c>
       <c r="L16" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="M16" t="n">
-        <v>14500</v>
+        <v>12750</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>1115</v>
+        <v>981</v>
       </c>
       <c r="Q16" t="n">
         <v>13</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44855</v>
+        <v>45028</v>
       </c>
       <c r="E17" t="n">
         <v>15</v>
@@ -1581,16 +1581,16 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="K17" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="L17" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="M17" t="n">
-        <v>10000</v>
+        <v>14500</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>769</v>
+        <v>1115</v>
       </c>
       <c r="Q17" t="n">
         <v>13</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44616</v>
+        <v>44855</v>
       </c>
       <c r="E18" t="n">
         <v>15</v>
@@ -1653,16 +1653,16 @@
         </is>
       </c>
       <c r="J18" t="n">
-        <v>120</v>
+        <v>500</v>
       </c>
       <c r="K18" t="n">
-        <v>19000</v>
+        <v>10000</v>
       </c>
       <c r="L18" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="M18" t="n">
-        <v>19500</v>
+        <v>10000</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1675,7 +1675,7 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>1500</v>
+        <v>769</v>
       </c>
       <c r="Q18" t="n">
         <v>13</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44890</v>
+        <v>44616</v>
       </c>
       <c r="E19" t="n">
         <v>15</v>
@@ -1725,16 +1725,16 @@
         </is>
       </c>
       <c r="J19" t="n">
-        <v>300</v>
+        <v>120</v>
       </c>
       <c r="K19" t="n">
-        <v>14000</v>
+        <v>19000</v>
       </c>
       <c r="L19" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="M19" t="n">
-        <v>14500</v>
+        <v>19500</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>1115</v>
+        <v>1500</v>
       </c>
       <c r="Q19" t="n">
         <v>13</v>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44943</v>
+        <v>44890</v>
       </c>
       <c r="E20" t="n">
         <v>15</v>
@@ -1793,11 +1793,11 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J20" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="K20" t="n">
         <v>14000</v>
@@ -1806,7 +1806,7 @@
         <v>15000</v>
       </c>
       <c r="M20" t="n">
-        <v>14429</v>
+        <v>14500</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
@@ -1819,7 +1819,7 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>1110</v>
+        <v>1115</v>
       </c>
       <c r="Q20" t="n">
         <v>13</v>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44406</v>
+        <v>44943</v>
       </c>
       <c r="E21" t="n">
         <v>15</v>
@@ -1865,20 +1865,20 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J21" t="n">
-        <v>160</v>
+        <v>350</v>
       </c>
       <c r="K21" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="L21" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="M21" t="n">
-        <v>17500</v>
+        <v>14429</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
@@ -1891,7 +1891,7 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>1346</v>
+        <v>1110</v>
       </c>
       <c r="Q21" t="n">
         <v>13</v>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44764</v>
+        <v>44406</v>
       </c>
       <c r="E22" t="n">
         <v>15</v>
@@ -1941,16 +1941,16 @@
         </is>
       </c>
       <c r="J22" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="K22" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="L22" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="M22" t="n">
-        <v>12500</v>
+        <v>17500</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
@@ -1963,7 +1963,7 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>962</v>
+        <v>1346</v>
       </c>
       <c r="Q22" t="n">
         <v>13</v>
@@ -1989,7 +1989,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44832</v>
+        <v>44764</v>
       </c>
       <c r="E23" t="n">
         <v>15</v>
@@ -2013,16 +2013,16 @@
         </is>
       </c>
       <c r="J23" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K23" t="n">
+        <v>12000</v>
+      </c>
+      <c r="L23" t="n">
         <v>13000</v>
       </c>
-      <c r="L23" t="n">
-        <v>14000</v>
-      </c>
       <c r="M23" t="n">
-        <v>13500</v>
+        <v>12500</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
@@ -2035,7 +2035,7 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>1038</v>
+        <v>962</v>
       </c>
       <c r="Q23" t="n">
         <v>13</v>
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44893</v>
+        <v>44832</v>
       </c>
       <c r="E24" t="n">
         <v>15</v>
@@ -2085,7 +2085,7 @@
         </is>
       </c>
       <c r="J24" t="n">
-        <v>900</v>
+        <v>100</v>
       </c>
       <c r="K24" t="n">
         <v>13000</v>
@@ -2094,7 +2094,7 @@
         <v>14000</v>
       </c>
       <c r="M24" t="n">
-        <v>13444</v>
+        <v>13500</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
@@ -2107,7 +2107,7 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>1034</v>
+        <v>1038</v>
       </c>
       <c r="Q24" t="n">
         <v>13</v>
@@ -2133,58 +2133,130 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
+        <v>44893</v>
+      </c>
+      <c r="E25" t="n">
+        <v>15</v>
+      </c>
+      <c r="F25" t="n">
+        <v>100114007</v>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Jengibre</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J25" t="n">
+        <v>900</v>
+      </c>
+      <c r="K25" t="n">
+        <v>13000</v>
+      </c>
+      <c r="L25" t="n">
+        <v>14000</v>
+      </c>
+      <c r="M25" t="n">
+        <v>13444</v>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>$/caja 13 kilos</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>Perú</t>
+        </is>
+      </c>
+      <c r="P25" t="n">
+        <v>1034</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>13</v>
+      </c>
+      <c r="R25" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>1</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Agrícola del Norte S.A. de Arica</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="n">
         <v>44379</v>
       </c>
-      <c r="E25" t="n">
-        <v>15</v>
-      </c>
-      <c r="F25" t="n">
-        <v>100114007</v>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>Jengibre</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>Sin especificar</t>
-        </is>
-      </c>
-      <c r="I25" t="inlineStr">
+      <c r="E26" t="n">
+        <v>15</v>
+      </c>
+      <c r="F26" t="n">
+        <v>100114007</v>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Jengibre</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
         <is>
           <t>Primera</t>
         </is>
       </c>
-      <c r="J25" t="n">
+      <c r="J26" t="n">
         <v>120</v>
       </c>
-      <c r="K25" t="n">
+      <c r="K26" t="n">
         <v>12000</v>
       </c>
-      <c r="L25" t="n">
+      <c r="L26" t="n">
         <v>13000</v>
       </c>
-      <c r="M25" t="n">
+      <c r="M26" t="n">
         <v>12667</v>
       </c>
-      <c r="N25" t="inlineStr">
-        <is>
-          <t>$/caja 13 kilos</t>
-        </is>
-      </c>
-      <c r="O25" t="inlineStr">
-        <is>
-          <t>Perú</t>
-        </is>
-      </c>
-      <c r="P25" t="n">
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>$/caja 13 kilos</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>Perú</t>
+        </is>
+      </c>
+      <c r="P26" t="n">
         <v>974</v>
       </c>
-      <c r="Q25" t="n">
-        <v>13</v>
-      </c>
-      <c r="R25" t="inlineStr">
+      <c r="Q26" t="n">
+        <v>13</v>
+      </c>
+      <c r="R26" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Jengibre.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Jengibre.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R26"/>
+  <dimension ref="A1:R27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>45028</v>
+        <v>45096</v>
       </c>
       <c r="E17" t="n">
         <v>15</v>
@@ -1581,7 +1581,7 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>300</v>
+        <v>750</v>
       </c>
       <c r="K17" t="n">
         <v>14000</v>
@@ -1590,7 +1590,7 @@
         <v>15000</v>
       </c>
       <c r="M17" t="n">
-        <v>14500</v>
+        <v>14600</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>1115</v>
+        <v>1123</v>
       </c>
       <c r="Q17" t="n">
         <v>13</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44855</v>
+        <v>45028</v>
       </c>
       <c r="E18" t="n">
         <v>15</v>
@@ -1653,16 +1653,16 @@
         </is>
       </c>
       <c r="J18" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="K18" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="L18" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="M18" t="n">
-        <v>10000</v>
+        <v>14500</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1675,7 +1675,7 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>769</v>
+        <v>1115</v>
       </c>
       <c r="Q18" t="n">
         <v>13</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44616</v>
+        <v>44855</v>
       </c>
       <c r="E19" t="n">
         <v>15</v>
@@ -1725,16 +1725,16 @@
         </is>
       </c>
       <c r="J19" t="n">
-        <v>120</v>
+        <v>500</v>
       </c>
       <c r="K19" t="n">
-        <v>19000</v>
+        <v>10000</v>
       </c>
       <c r="L19" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="M19" t="n">
-        <v>19500</v>
+        <v>10000</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>1500</v>
+        <v>769</v>
       </c>
       <c r="Q19" t="n">
         <v>13</v>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44890</v>
+        <v>44616</v>
       </c>
       <c r="E20" t="n">
         <v>15</v>
@@ -1797,16 +1797,16 @@
         </is>
       </c>
       <c r="J20" t="n">
-        <v>300</v>
+        <v>120</v>
       </c>
       <c r="K20" t="n">
-        <v>14000</v>
+        <v>19000</v>
       </c>
       <c r="L20" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="M20" t="n">
-        <v>14500</v>
+        <v>19500</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
@@ -1819,7 +1819,7 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>1115</v>
+        <v>1500</v>
       </c>
       <c r="Q20" t="n">
         <v>13</v>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44943</v>
+        <v>44890</v>
       </c>
       <c r="E21" t="n">
         <v>15</v>
@@ -1865,11 +1865,11 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J21" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="K21" t="n">
         <v>14000</v>
@@ -1878,7 +1878,7 @@
         <v>15000</v>
       </c>
       <c r="M21" t="n">
-        <v>14429</v>
+        <v>14500</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
@@ -1891,7 +1891,7 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>1110</v>
+        <v>1115</v>
       </c>
       <c r="Q21" t="n">
         <v>13</v>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44406</v>
+        <v>44943</v>
       </c>
       <c r="E22" t="n">
         <v>15</v>
@@ -1937,20 +1937,20 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J22" t="n">
-        <v>160</v>
+        <v>350</v>
       </c>
       <c r="K22" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="L22" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="M22" t="n">
-        <v>17500</v>
+        <v>14429</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
@@ -1963,7 +1963,7 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>1346</v>
+        <v>1110</v>
       </c>
       <c r="Q22" t="n">
         <v>13</v>
@@ -1989,7 +1989,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44764</v>
+        <v>44406</v>
       </c>
       <c r="E23" t="n">
         <v>15</v>
@@ -2013,16 +2013,16 @@
         </is>
       </c>
       <c r="J23" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="K23" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="L23" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="M23" t="n">
-        <v>12500</v>
+        <v>17500</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
@@ -2035,7 +2035,7 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>962</v>
+        <v>1346</v>
       </c>
       <c r="Q23" t="n">
         <v>13</v>
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44832</v>
+        <v>44764</v>
       </c>
       <c r="E24" t="n">
         <v>15</v>
@@ -2085,16 +2085,16 @@
         </is>
       </c>
       <c r="J24" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K24" t="n">
+        <v>12000</v>
+      </c>
+      <c r="L24" t="n">
         <v>13000</v>
       </c>
-      <c r="L24" t="n">
-        <v>14000</v>
-      </c>
       <c r="M24" t="n">
-        <v>13500</v>
+        <v>12500</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
@@ -2107,7 +2107,7 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>1038</v>
+        <v>962</v>
       </c>
       <c r="Q24" t="n">
         <v>13</v>
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44893</v>
+        <v>44832</v>
       </c>
       <c r="E25" t="n">
         <v>15</v>
@@ -2157,7 +2157,7 @@
         </is>
       </c>
       <c r="J25" t="n">
-        <v>900</v>
+        <v>100</v>
       </c>
       <c r="K25" t="n">
         <v>13000</v>
@@ -2166,7 +2166,7 @@
         <v>14000</v>
       </c>
       <c r="M25" t="n">
-        <v>13444</v>
+        <v>13500</v>
       </c>
       <c r="N25" t="inlineStr">
         <is>
@@ -2179,7 +2179,7 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>1034</v>
+        <v>1038</v>
       </c>
       <c r="Q25" t="n">
         <v>13</v>
@@ -2205,58 +2205,130 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
+        <v>44893</v>
+      </c>
+      <c r="E26" t="n">
+        <v>15</v>
+      </c>
+      <c r="F26" t="n">
+        <v>100114007</v>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Jengibre</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J26" t="n">
+        <v>900</v>
+      </c>
+      <c r="K26" t="n">
+        <v>13000</v>
+      </c>
+      <c r="L26" t="n">
+        <v>14000</v>
+      </c>
+      <c r="M26" t="n">
+        <v>13444</v>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>$/caja 13 kilos</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>Perú</t>
+        </is>
+      </c>
+      <c r="P26" t="n">
+        <v>1034</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>13</v>
+      </c>
+      <c r="R26" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>1</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Agrícola del Norte S.A. de Arica</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="n">
         <v>44379</v>
       </c>
-      <c r="E26" t="n">
-        <v>15</v>
-      </c>
-      <c r="F26" t="n">
-        <v>100114007</v>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>Jengibre</t>
-        </is>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>Sin especificar</t>
-        </is>
-      </c>
-      <c r="I26" t="inlineStr">
+      <c r="E27" t="n">
+        <v>15</v>
+      </c>
+      <c r="F27" t="n">
+        <v>100114007</v>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Jengibre</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
         <is>
           <t>Primera</t>
         </is>
       </c>
-      <c r="J26" t="n">
+      <c r="J27" t="n">
         <v>120</v>
       </c>
-      <c r="K26" t="n">
+      <c r="K27" t="n">
         <v>12000</v>
       </c>
-      <c r="L26" t="n">
+      <c r="L27" t="n">
         <v>13000</v>
       </c>
-      <c r="M26" t="n">
+      <c r="M27" t="n">
         <v>12667</v>
       </c>
-      <c r="N26" t="inlineStr">
-        <is>
-          <t>$/caja 13 kilos</t>
-        </is>
-      </c>
-      <c r="O26" t="inlineStr">
-        <is>
-          <t>Perú</t>
-        </is>
-      </c>
-      <c r="P26" t="n">
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>$/caja 13 kilos</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>Perú</t>
+        </is>
+      </c>
+      <c r="P27" t="n">
         <v>974</v>
       </c>
-      <c r="Q26" t="n">
-        <v>13</v>
-      </c>
-      <c r="R26" t="inlineStr">
+      <c r="Q27" t="n">
+        <v>13</v>
+      </c>
+      <c r="R27" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Jengibre.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Jengibre.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44988</v>
+        <v>44855</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>750</v>
+        <v>500</v>
       </c>
       <c r="K2" t="n">
-        <v>17000</v>
+        <v>10000</v>
       </c>
       <c r="L2" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="M2" t="n">
-        <v>17400</v>
+        <v>10000</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>1338</v>
+        <v>769</v>
       </c>
       <c r="Q2" t="n">
         <v>13</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44984</v>
+        <v>44320</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>400</v>
+        <v>160</v>
       </c>
       <c r="K3" t="n">
-        <v>16000</v>
+        <v>19000</v>
       </c>
       <c r="L3" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="M3" t="n">
-        <v>16500</v>
+        <v>19500</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>1269</v>
+        <v>1500</v>
       </c>
       <c r="Q3" t="n">
         <v>13</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>45092</v>
+        <v>44893</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -645,7 +645,7 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="K4" t="n">
         <v>13000</v>
@@ -654,7 +654,7 @@
         <v>14000</v>
       </c>
       <c r="M4" t="n">
-        <v>13500</v>
+        <v>13444</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>1038</v>
+        <v>1034</v>
       </c>
       <c r="Q4" t="n">
         <v>13</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44469</v>
+        <v>44379</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="K5" t="n">
+        <v>12000</v>
+      </c>
+      <c r="L5" t="n">
         <v>13000</v>
       </c>
-      <c r="L5" t="n">
-        <v>14000</v>
-      </c>
       <c r="M5" t="n">
-        <v>13500</v>
+        <v>12667</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>1038</v>
+        <v>974</v>
       </c>
       <c r="Q5" t="n">
         <v>13</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44389</v>
+        <v>44469</v>
       </c>
       <c r="E6" t="n">
         <v>15</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="K6" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="L6" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="M6" t="n">
-        <v>12500</v>
+        <v>13500</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>962</v>
+        <v>1038</v>
       </c>
       <c r="Q6" t="n">
         <v>13</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44592</v>
+        <v>45049</v>
       </c>
       <c r="E7" t="n">
         <v>15</v>
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="K7" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="L7" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="M7" t="n">
-        <v>12500</v>
+        <v>13500</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>962</v>
+        <v>1038</v>
       </c>
       <c r="Q7" t="n">
         <v>13</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44580</v>
+        <v>45092</v>
       </c>
       <c r="E8" t="n">
         <v>15</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>160</v>
+        <v>600</v>
       </c>
       <c r="K8" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="L8" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="M8" t="n">
-        <v>11500</v>
+        <v>13500</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>885</v>
+        <v>1038</v>
       </c>
       <c r="Q8" t="n">
         <v>13</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44910</v>
+        <v>44406</v>
       </c>
       <c r="E9" t="n">
         <v>15</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>50</v>
+        <v>160</v>
       </c>
       <c r="K9" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="L9" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="M9" t="n">
-        <v>14500</v>
+        <v>17500</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>1115</v>
+        <v>1346</v>
       </c>
       <c r="Q9" t="n">
         <v>13</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44972</v>
+        <v>44984</v>
       </c>
       <c r="E10" t="n">
         <v>15</v>
@@ -1077,20 +1077,20 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="K10" t="n">
+        <v>16000</v>
+      </c>
+      <c r="L10" t="n">
         <v>17000</v>
       </c>
-      <c r="L10" t="n">
-        <v>18000</v>
-      </c>
       <c r="M10" t="n">
-        <v>17429</v>
+        <v>16500</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 13 kilos</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
@@ -1099,10 +1099,10 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>1162</v>
+        <v>1269</v>
       </c>
       <c r="Q10" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="R10" t="inlineStr">
         <is>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44320</v>
+        <v>44159</v>
       </c>
       <c r="E13" t="n">
         <v>15</v>
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="K13" t="n">
-        <v>19000</v>
+        <v>23000</v>
       </c>
       <c r="L13" t="n">
-        <v>20000</v>
+        <v>24000</v>
       </c>
       <c r="M13" t="n">
-        <v>19500</v>
+        <v>23500</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>1500</v>
+        <v>1808</v>
       </c>
       <c r="Q13" t="n">
         <v>13</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44159</v>
+        <v>45028</v>
       </c>
       <c r="E14" t="n">
         <v>15</v>
@@ -1365,16 +1365,16 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="K14" t="n">
-        <v>23000</v>
+        <v>14000</v>
       </c>
       <c r="L14" t="n">
-        <v>24000</v>
+        <v>15000</v>
       </c>
       <c r="M14" t="n">
-        <v>23500</v>
+        <v>14500</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>1808</v>
+        <v>1115</v>
       </c>
       <c r="Q14" t="n">
         <v>13</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>45049</v>
+        <v>44592</v>
       </c>
       <c r="E15" t="n">
         <v>15</v>
@@ -1437,16 +1437,16 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>300</v>
+        <v>120</v>
       </c>
       <c r="K15" t="n">
+        <v>12000</v>
+      </c>
+      <c r="L15" t="n">
         <v>13000</v>
       </c>
-      <c r="L15" t="n">
-        <v>14000</v>
-      </c>
       <c r="M15" t="n">
-        <v>13500</v>
+        <v>12500</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>1038</v>
+        <v>962</v>
       </c>
       <c r="Q15" t="n">
         <v>13</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44397</v>
+        <v>45096</v>
       </c>
       <c r="E16" t="n">
         <v>15</v>
@@ -1509,16 +1509,16 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>140</v>
+        <v>750</v>
       </c>
       <c r="K16" t="n">
-        <v>12500</v>
+        <v>14000</v>
       </c>
       <c r="L16" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="M16" t="n">
-        <v>12750</v>
+        <v>14600</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>981</v>
+        <v>1123</v>
       </c>
       <c r="Q16" t="n">
         <v>13</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>45096</v>
+        <v>44764</v>
       </c>
       <c r="E17" t="n">
         <v>15</v>
@@ -1581,16 +1581,16 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>750</v>
+        <v>200</v>
       </c>
       <c r="K17" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="L17" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="M17" t="n">
-        <v>14600</v>
+        <v>12500</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>1123</v>
+        <v>962</v>
       </c>
       <c r="Q17" t="n">
         <v>13</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>45028</v>
+        <v>44988</v>
       </c>
       <c r="E18" t="n">
         <v>15</v>
@@ -1653,16 +1653,16 @@
         </is>
       </c>
       <c r="J18" t="n">
-        <v>300</v>
+        <v>750</v>
       </c>
       <c r="K18" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="L18" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="M18" t="n">
-        <v>14500</v>
+        <v>17400</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1675,7 +1675,7 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>1115</v>
+        <v>1338</v>
       </c>
       <c r="Q18" t="n">
         <v>13</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44855</v>
+        <v>44397</v>
       </c>
       <c r="E19" t="n">
         <v>15</v>
@@ -1725,16 +1725,16 @@
         </is>
       </c>
       <c r="J19" t="n">
-        <v>500</v>
+        <v>140</v>
       </c>
       <c r="K19" t="n">
-        <v>10000</v>
+        <v>12500</v>
       </c>
       <c r="L19" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="M19" t="n">
-        <v>10000</v>
+        <v>12750</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>769</v>
+        <v>981</v>
       </c>
       <c r="Q19" t="n">
         <v>13</v>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44616</v>
+        <v>44890</v>
       </c>
       <c r="E20" t="n">
         <v>15</v>
@@ -1797,16 +1797,16 @@
         </is>
       </c>
       <c r="J20" t="n">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="K20" t="n">
-        <v>19000</v>
+        <v>14000</v>
       </c>
       <c r="L20" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="M20" t="n">
-        <v>19500</v>
+        <v>14500</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
@@ -1819,7 +1819,7 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>1500</v>
+        <v>1115</v>
       </c>
       <c r="Q20" t="n">
         <v>13</v>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44890</v>
+        <v>44943</v>
       </c>
       <c r="E21" t="n">
         <v>15</v>
@@ -1865,11 +1865,11 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J21" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="K21" t="n">
         <v>14000</v>
@@ -1878,7 +1878,7 @@
         <v>15000</v>
       </c>
       <c r="M21" t="n">
-        <v>14500</v>
+        <v>14429</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
@@ -1891,7 +1891,7 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>1115</v>
+        <v>1110</v>
       </c>
       <c r="Q21" t="n">
         <v>13</v>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44943</v>
+        <v>44389</v>
       </c>
       <c r="E22" t="n">
         <v>15</v>
@@ -1937,20 +1937,20 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J22" t="n">
-        <v>350</v>
+        <v>120</v>
       </c>
       <c r="K22" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="L22" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="M22" t="n">
-        <v>14429</v>
+        <v>12500</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
@@ -1963,7 +1963,7 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>1110</v>
+        <v>962</v>
       </c>
       <c r="Q22" t="n">
         <v>13</v>
@@ -1989,7 +1989,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44406</v>
+        <v>44580</v>
       </c>
       <c r="E23" t="n">
         <v>15</v>
@@ -2016,13 +2016,13 @@
         <v>160</v>
       </c>
       <c r="K23" t="n">
-        <v>17000</v>
+        <v>11000</v>
       </c>
       <c r="L23" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="M23" t="n">
-        <v>17500</v>
+        <v>11500</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
@@ -2035,7 +2035,7 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>1346</v>
+        <v>885</v>
       </c>
       <c r="Q23" t="n">
         <v>13</v>
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44764</v>
+        <v>44910</v>
       </c>
       <c r="E24" t="n">
         <v>15</v>
@@ -2085,16 +2085,16 @@
         </is>
       </c>
       <c r="J24" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="K24" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="L24" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="M24" t="n">
-        <v>12500</v>
+        <v>14500</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
@@ -2107,7 +2107,7 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>962</v>
+        <v>1115</v>
       </c>
       <c r="Q24" t="n">
         <v>13</v>
@@ -2205,7 +2205,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44893</v>
+        <v>44972</v>
       </c>
       <c r="E26" t="n">
         <v>15</v>
@@ -2229,20 +2229,20 @@
         </is>
       </c>
       <c r="J26" t="n">
-        <v>900</v>
+        <v>350</v>
       </c>
       <c r="K26" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="L26" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="M26" t="n">
-        <v>13444</v>
+        <v>17429</v>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>$/caja 13 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
@@ -2251,10 +2251,10 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>1034</v>
+        <v>1162</v>
       </c>
       <c r="Q26" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="R26" t="inlineStr">
         <is>
@@ -2277,7 +2277,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44379</v>
+        <v>44616</v>
       </c>
       <c r="E27" t="n">
         <v>15</v>
@@ -2304,13 +2304,13 @@
         <v>120</v>
       </c>
       <c r="K27" t="n">
-        <v>12000</v>
+        <v>19000</v>
       </c>
       <c r="L27" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="M27" t="n">
-        <v>12667</v>
+        <v>19500</v>
       </c>
       <c r="N27" t="inlineStr">
         <is>
@@ -2323,7 +2323,7 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>974</v>
+        <v>1500</v>
       </c>
       <c r="Q27" t="n">
         <v>13</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Jengibre.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Jengibre.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R27"/>
+  <dimension ref="A1:R28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44159</v>
+        <v>45100</v>
       </c>
       <c r="E13" t="n">
         <v>15</v>
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K13" t="n">
-        <v>23000</v>
+        <v>15000</v>
       </c>
       <c r="L13" t="n">
-        <v>24000</v>
+        <v>16000</v>
       </c>
       <c r="M13" t="n">
-        <v>23500</v>
+        <v>15500</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>1808</v>
+        <v>1192</v>
       </c>
       <c r="Q13" t="n">
         <v>13</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>45028</v>
+        <v>44159</v>
       </c>
       <c r="E14" t="n">
         <v>15</v>
@@ -1365,16 +1365,16 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="K14" t="n">
-        <v>14000</v>
+        <v>23000</v>
       </c>
       <c r="L14" t="n">
-        <v>15000</v>
+        <v>24000</v>
       </c>
       <c r="M14" t="n">
-        <v>14500</v>
+        <v>23500</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>1115</v>
+        <v>1808</v>
       </c>
       <c r="Q14" t="n">
         <v>13</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44592</v>
+        <v>45028</v>
       </c>
       <c r="E15" t="n">
         <v>15</v>
@@ -1437,16 +1437,16 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="K15" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="L15" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="M15" t="n">
-        <v>12500</v>
+        <v>14500</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>962</v>
+        <v>1115</v>
       </c>
       <c r="Q15" t="n">
         <v>13</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>45096</v>
+        <v>44592</v>
       </c>
       <c r="E16" t="n">
         <v>15</v>
@@ -1509,16 +1509,16 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>750</v>
+        <v>120</v>
       </c>
       <c r="K16" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="L16" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="M16" t="n">
-        <v>14600</v>
+        <v>12500</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>1123</v>
+        <v>962</v>
       </c>
       <c r="Q16" t="n">
         <v>13</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44764</v>
+        <v>45096</v>
       </c>
       <c r="E17" t="n">
         <v>15</v>
@@ -1581,16 +1581,16 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>200</v>
+        <v>750</v>
       </c>
       <c r="K17" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="L17" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="M17" t="n">
-        <v>12500</v>
+        <v>14600</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>962</v>
+        <v>1123</v>
       </c>
       <c r="Q17" t="n">
         <v>13</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44988</v>
+        <v>44764</v>
       </c>
       <c r="E18" t="n">
         <v>15</v>
@@ -1653,16 +1653,16 @@
         </is>
       </c>
       <c r="J18" t="n">
-        <v>750</v>
+        <v>200</v>
       </c>
       <c r="K18" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="L18" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="M18" t="n">
-        <v>17400</v>
+        <v>12500</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1675,7 +1675,7 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>1338</v>
+        <v>962</v>
       </c>
       <c r="Q18" t="n">
         <v>13</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44397</v>
+        <v>44988</v>
       </c>
       <c r="E19" t="n">
         <v>15</v>
@@ -1725,16 +1725,16 @@
         </is>
       </c>
       <c r="J19" t="n">
-        <v>140</v>
+        <v>750</v>
       </c>
       <c r="K19" t="n">
-        <v>12500</v>
+        <v>17000</v>
       </c>
       <c r="L19" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="M19" t="n">
-        <v>12750</v>
+        <v>17400</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>981</v>
+        <v>1338</v>
       </c>
       <c r="Q19" t="n">
         <v>13</v>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44890</v>
+        <v>44397</v>
       </c>
       <c r="E20" t="n">
         <v>15</v>
@@ -1797,16 +1797,16 @@
         </is>
       </c>
       <c r="J20" t="n">
-        <v>300</v>
+        <v>140</v>
       </c>
       <c r="K20" t="n">
-        <v>14000</v>
+        <v>12500</v>
       </c>
       <c r="L20" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="M20" t="n">
-        <v>14500</v>
+        <v>12750</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
@@ -1819,7 +1819,7 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>1115</v>
+        <v>981</v>
       </c>
       <c r="Q20" t="n">
         <v>13</v>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44943</v>
+        <v>44890</v>
       </c>
       <c r="E21" t="n">
         <v>15</v>
@@ -1865,11 +1865,11 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J21" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="K21" t="n">
         <v>14000</v>
@@ -1878,7 +1878,7 @@
         <v>15000</v>
       </c>
       <c r="M21" t="n">
-        <v>14429</v>
+        <v>14500</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
@@ -1891,7 +1891,7 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>1110</v>
+        <v>1115</v>
       </c>
       <c r="Q21" t="n">
         <v>13</v>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44389</v>
+        <v>44943</v>
       </c>
       <c r="E22" t="n">
         <v>15</v>
@@ -1937,20 +1937,20 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J22" t="n">
-        <v>120</v>
+        <v>350</v>
       </c>
       <c r="K22" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="L22" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="M22" t="n">
-        <v>12500</v>
+        <v>14429</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
@@ -1963,7 +1963,7 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>962</v>
+        <v>1110</v>
       </c>
       <c r="Q22" t="n">
         <v>13</v>
@@ -1989,7 +1989,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44580</v>
+        <v>44389</v>
       </c>
       <c r="E23" t="n">
         <v>15</v>
@@ -2013,16 +2013,16 @@
         </is>
       </c>
       <c r="J23" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="K23" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="L23" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="M23" t="n">
-        <v>11500</v>
+        <v>12500</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
@@ -2035,7 +2035,7 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>885</v>
+        <v>962</v>
       </c>
       <c r="Q23" t="n">
         <v>13</v>
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44910</v>
+        <v>44580</v>
       </c>
       <c r="E24" t="n">
         <v>15</v>
@@ -2085,16 +2085,16 @@
         </is>
       </c>
       <c r="J24" t="n">
-        <v>50</v>
+        <v>160</v>
       </c>
       <c r="K24" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="L24" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="M24" t="n">
-        <v>14500</v>
+        <v>11500</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
@@ -2107,7 +2107,7 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>1115</v>
+        <v>885</v>
       </c>
       <c r="Q24" t="n">
         <v>13</v>
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44832</v>
+        <v>44910</v>
       </c>
       <c r="E25" t="n">
         <v>15</v>
@@ -2157,16 +2157,16 @@
         </is>
       </c>
       <c r="J25" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="K25" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="L25" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="M25" t="n">
-        <v>13500</v>
+        <v>14500</v>
       </c>
       <c r="N25" t="inlineStr">
         <is>
@@ -2179,7 +2179,7 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>1038</v>
+        <v>1115</v>
       </c>
       <c r="Q25" t="n">
         <v>13</v>
@@ -2205,7 +2205,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44972</v>
+        <v>44832</v>
       </c>
       <c r="E26" t="n">
         <v>15</v>
@@ -2229,20 +2229,20 @@
         </is>
       </c>
       <c r="J26" t="n">
-        <v>350</v>
+        <v>100</v>
       </c>
       <c r="K26" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="L26" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="M26" t="n">
-        <v>17429</v>
+        <v>13500</v>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 13 kilos</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
@@ -2251,10 +2251,10 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>1162</v>
+        <v>1038</v>
       </c>
       <c r="Q26" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="R26" t="inlineStr">
         <is>
@@ -2277,58 +2277,130 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
+        <v>44972</v>
+      </c>
+      <c r="E27" t="n">
+        <v>15</v>
+      </c>
+      <c r="F27" t="n">
+        <v>100114007</v>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Jengibre</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J27" t="n">
+        <v>350</v>
+      </c>
+      <c r="K27" t="n">
+        <v>17000</v>
+      </c>
+      <c r="L27" t="n">
+        <v>18000</v>
+      </c>
+      <c r="M27" t="n">
+        <v>17429</v>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>Perú</t>
+        </is>
+      </c>
+      <c r="P27" t="n">
+        <v>1162</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>15</v>
+      </c>
+      <c r="R27" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>1</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Agrícola del Norte S.A. de Arica</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="n">
         <v>44616</v>
       </c>
-      <c r="E27" t="n">
-        <v>15</v>
-      </c>
-      <c r="F27" t="n">
-        <v>100114007</v>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>Jengibre</t>
-        </is>
-      </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>Sin especificar</t>
-        </is>
-      </c>
-      <c r="I27" t="inlineStr">
+      <c r="E28" t="n">
+        <v>15</v>
+      </c>
+      <c r="F28" t="n">
+        <v>100114007</v>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>Jengibre</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
         <is>
           <t>Primera</t>
         </is>
       </c>
-      <c r="J27" t="n">
+      <c r="J28" t="n">
         <v>120</v>
       </c>
-      <c r="K27" t="n">
+      <c r="K28" t="n">
         <v>19000</v>
       </c>
-      <c r="L27" t="n">
+      <c r="L28" t="n">
         <v>20000</v>
       </c>
-      <c r="M27" t="n">
+      <c r="M28" t="n">
         <v>19500</v>
       </c>
-      <c r="N27" t="inlineStr">
-        <is>
-          <t>$/caja 13 kilos</t>
-        </is>
-      </c>
-      <c r="O27" t="inlineStr">
-        <is>
-          <t>Perú</t>
-        </is>
-      </c>
-      <c r="P27" t="n">
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>$/caja 13 kilos</t>
+        </is>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>Perú</t>
+        </is>
+      </c>
+      <c r="P28" t="n">
         <v>1500</v>
       </c>
-      <c r="Q27" t="n">
-        <v>13</v>
-      </c>
-      <c r="R27" t="inlineStr">
+      <c r="Q28" t="n">
+        <v>13</v>
+      </c>
+      <c r="R28" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Jengibre.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Jengibre.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44855</v>
+        <v>45028</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="K2" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="L2" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="M2" t="n">
-        <v>10000</v>
+        <v>14500</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>769</v>
+        <v>1115</v>
       </c>
       <c r="Q2" t="n">
         <v>13</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44320</v>
+        <v>44943</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -569,20 +569,20 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J3" t="n">
-        <v>160</v>
+        <v>350</v>
       </c>
       <c r="K3" t="n">
-        <v>19000</v>
+        <v>14000</v>
       </c>
       <c r="L3" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="M3" t="n">
-        <v>19500</v>
+        <v>14429</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>1500</v>
+        <v>1110</v>
       </c>
       <c r="Q3" t="n">
         <v>13</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44893</v>
+        <v>44616</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>900</v>
+        <v>120</v>
       </c>
       <c r="K4" t="n">
-        <v>13000</v>
+        <v>19000</v>
       </c>
       <c r="L4" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="M4" t="n">
-        <v>13444</v>
+        <v>19500</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>1034</v>
+        <v>1500</v>
       </c>
       <c r="Q4" t="n">
         <v>13</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44379</v>
+        <v>44580</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="K5" t="n">
+        <v>11000</v>
+      </c>
+      <c r="L5" t="n">
         <v>12000</v>
       </c>
-      <c r="L5" t="n">
-        <v>13000</v>
-      </c>
       <c r="M5" t="n">
-        <v>12667</v>
+        <v>11500</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>974</v>
+        <v>885</v>
       </c>
       <c r="Q5" t="n">
         <v>13</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44469</v>
+        <v>44984</v>
       </c>
       <c r="E6" t="n">
         <v>15</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>140</v>
+        <v>400</v>
       </c>
       <c r="K6" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="L6" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="M6" t="n">
-        <v>13500</v>
+        <v>16500</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>1038</v>
+        <v>1269</v>
       </c>
       <c r="Q6" t="n">
         <v>13</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>45049</v>
+        <v>45100</v>
       </c>
       <c r="E7" t="n">
         <v>15</v>
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K7" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="L7" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="M7" t="n">
-        <v>13500</v>
+        <v>15500</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>1038</v>
+        <v>1192</v>
       </c>
       <c r="Q7" t="n">
         <v>13</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>45092</v>
+        <v>44988</v>
       </c>
       <c r="E8" t="n">
         <v>15</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>600</v>
+        <v>750</v>
       </c>
       <c r="K8" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="L8" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="M8" t="n">
-        <v>13500</v>
+        <v>17400</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>1038</v>
+        <v>1338</v>
       </c>
       <c r="Q8" t="n">
         <v>13</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44406</v>
+        <v>44893</v>
       </c>
       <c r="E9" t="n">
         <v>15</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>160</v>
+        <v>900</v>
       </c>
       <c r="K9" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="L9" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="M9" t="n">
-        <v>17500</v>
+        <v>13444</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>1346</v>
+        <v>1034</v>
       </c>
       <c r="Q9" t="n">
         <v>13</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44984</v>
+        <v>44592</v>
       </c>
       <c r="E10" t="n">
         <v>15</v>
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>400</v>
+        <v>120</v>
       </c>
       <c r="K10" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="L10" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="M10" t="n">
-        <v>16500</v>
+        <v>12500</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>1269</v>
+        <v>962</v>
       </c>
       <c r="Q10" t="n">
         <v>13</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44918</v>
+        <v>44406</v>
       </c>
       <c r="E11" t="n">
         <v>15</v>
@@ -1145,20 +1145,20 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J11" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="K11" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="L11" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="M11" t="n">
-        <v>12750</v>
+        <v>17500</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>981</v>
+        <v>1346</v>
       </c>
       <c r="Q11" t="n">
         <v>13</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44914</v>
+        <v>44389</v>
       </c>
       <c r="E12" t="n">
         <v>15</v>
@@ -1221,16 +1221,16 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="K12" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="L12" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="M12" t="n">
-        <v>14400</v>
+        <v>12500</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>1108</v>
+        <v>962</v>
       </c>
       <c r="Q12" t="n">
         <v>13</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>45100</v>
+        <v>44469</v>
       </c>
       <c r="E13" t="n">
         <v>15</v>
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>200</v>
+        <v>140</v>
       </c>
       <c r="K13" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="L13" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="M13" t="n">
-        <v>15500</v>
+        <v>13500</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>1192</v>
+        <v>1038</v>
       </c>
       <c r="Q13" t="n">
         <v>13</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44159</v>
+        <v>44764</v>
       </c>
       <c r="E14" t="n">
         <v>15</v>
@@ -1365,16 +1365,16 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K14" t="n">
-        <v>23000</v>
+        <v>12000</v>
       </c>
       <c r="L14" t="n">
-        <v>24000</v>
+        <v>13000</v>
       </c>
       <c r="M14" t="n">
-        <v>23500</v>
+        <v>12500</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>1808</v>
+        <v>962</v>
       </c>
       <c r="Q14" t="n">
         <v>13</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>45028</v>
+        <v>44914</v>
       </c>
       <c r="E15" t="n">
         <v>15</v>
@@ -1437,7 +1437,7 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="K15" t="n">
         <v>14000</v>
@@ -1446,7 +1446,7 @@
         <v>15000</v>
       </c>
       <c r="M15" t="n">
-        <v>14500</v>
+        <v>14400</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>1115</v>
+        <v>1108</v>
       </c>
       <c r="Q15" t="n">
         <v>13</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44592</v>
+        <v>44159</v>
       </c>
       <c r="E16" t="n">
         <v>15</v>
@@ -1509,16 +1509,16 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="K16" t="n">
-        <v>12000</v>
+        <v>23000</v>
       </c>
       <c r="L16" t="n">
-        <v>13000</v>
+        <v>24000</v>
       </c>
       <c r="M16" t="n">
-        <v>12500</v>
+        <v>23500</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>962</v>
+        <v>1808</v>
       </c>
       <c r="Q16" t="n">
         <v>13</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>45096</v>
+        <v>44379</v>
       </c>
       <c r="E17" t="n">
         <v>15</v>
@@ -1581,16 +1581,16 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>750</v>
+        <v>120</v>
       </c>
       <c r="K17" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="L17" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="M17" t="n">
-        <v>14600</v>
+        <v>12667</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>1123</v>
+        <v>974</v>
       </c>
       <c r="Q17" t="n">
         <v>13</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44764</v>
+        <v>45092</v>
       </c>
       <c r="E18" t="n">
         <v>15</v>
@@ -1653,16 +1653,16 @@
         </is>
       </c>
       <c r="J18" t="n">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="K18" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="L18" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="M18" t="n">
-        <v>12500</v>
+        <v>13500</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1675,7 +1675,7 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>962</v>
+        <v>1038</v>
       </c>
       <c r="Q18" t="n">
         <v>13</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44988</v>
+        <v>44832</v>
       </c>
       <c r="E19" t="n">
         <v>15</v>
@@ -1725,16 +1725,16 @@
         </is>
       </c>
       <c r="J19" t="n">
-        <v>750</v>
+        <v>100</v>
       </c>
       <c r="K19" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="L19" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="M19" t="n">
-        <v>17400</v>
+        <v>13500</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>1338</v>
+        <v>1038</v>
       </c>
       <c r="Q19" t="n">
         <v>13</v>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44397</v>
+        <v>44320</v>
       </c>
       <c r="E20" t="n">
         <v>15</v>
@@ -1797,16 +1797,16 @@
         </is>
       </c>
       <c r="J20" t="n">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="K20" t="n">
-        <v>12500</v>
+        <v>19000</v>
       </c>
       <c r="L20" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="M20" t="n">
-        <v>12750</v>
+        <v>19500</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
@@ -1819,7 +1819,7 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>981</v>
+        <v>1500</v>
       </c>
       <c r="Q20" t="n">
         <v>13</v>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44890</v>
+        <v>44910</v>
       </c>
       <c r="E21" t="n">
         <v>15</v>
@@ -1869,7 +1869,7 @@
         </is>
       </c>
       <c r="J21" t="n">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="K21" t="n">
         <v>14000</v>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44943</v>
+        <v>44397</v>
       </c>
       <c r="E22" t="n">
         <v>15</v>
@@ -1937,20 +1937,20 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J22" t="n">
-        <v>350</v>
+        <v>140</v>
       </c>
       <c r="K22" t="n">
-        <v>14000</v>
+        <v>12500</v>
       </c>
       <c r="L22" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="M22" t="n">
-        <v>14429</v>
+        <v>12750</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
@@ -1963,7 +1963,7 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>1110</v>
+        <v>981</v>
       </c>
       <c r="Q22" t="n">
         <v>13</v>
@@ -1989,7 +1989,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44389</v>
+        <v>44890</v>
       </c>
       <c r="E23" t="n">
         <v>15</v>
@@ -2013,16 +2013,16 @@
         </is>
       </c>
       <c r="J23" t="n">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="K23" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="L23" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="M23" t="n">
-        <v>12500</v>
+        <v>14500</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
@@ -2035,7 +2035,7 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>962</v>
+        <v>1115</v>
       </c>
       <c r="Q23" t="n">
         <v>13</v>
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44580</v>
+        <v>44972</v>
       </c>
       <c r="E24" t="n">
         <v>15</v>
@@ -2085,20 +2085,20 @@
         </is>
       </c>
       <c r="J24" t="n">
-        <v>160</v>
+        <v>350</v>
       </c>
       <c r="K24" t="n">
-        <v>11000</v>
+        <v>17000</v>
       </c>
       <c r="L24" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="M24" t="n">
-        <v>11500</v>
+        <v>17429</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>$/caja 13 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
@@ -2107,10 +2107,10 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>885</v>
+        <v>1162</v>
       </c>
       <c r="Q24" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="R24" t="inlineStr">
         <is>
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44910</v>
+        <v>44855</v>
       </c>
       <c r="E25" t="n">
         <v>15</v>
@@ -2157,16 +2157,16 @@
         </is>
       </c>
       <c r="J25" t="n">
-        <v>50</v>
+        <v>500</v>
       </c>
       <c r="K25" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="L25" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="M25" t="n">
-        <v>14500</v>
+        <v>10000</v>
       </c>
       <c r="N25" t="inlineStr">
         <is>
@@ -2179,7 +2179,7 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>1115</v>
+        <v>769</v>
       </c>
       <c r="Q25" t="n">
         <v>13</v>
@@ -2205,7 +2205,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44832</v>
+        <v>44918</v>
       </c>
       <c r="E26" t="n">
         <v>15</v>
@@ -2225,20 +2225,20 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J26" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K26" t="n">
+        <v>12000</v>
+      </c>
+      <c r="L26" t="n">
         <v>13000</v>
       </c>
-      <c r="L26" t="n">
-        <v>14000</v>
-      </c>
       <c r="M26" t="n">
-        <v>13500</v>
+        <v>12750</v>
       </c>
       <c r="N26" t="inlineStr">
         <is>
@@ -2251,7 +2251,7 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>1038</v>
+        <v>981</v>
       </c>
       <c r="Q26" t="n">
         <v>13</v>
@@ -2277,7 +2277,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44972</v>
+        <v>45096</v>
       </c>
       <c r="E27" t="n">
         <v>15</v>
@@ -2301,20 +2301,20 @@
         </is>
       </c>
       <c r="J27" t="n">
-        <v>350</v>
+        <v>750</v>
       </c>
       <c r="K27" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="L27" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="M27" t="n">
-        <v>17429</v>
+        <v>14600</v>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 13 kilos</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
@@ -2323,10 +2323,10 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>1162</v>
+        <v>1123</v>
       </c>
       <c r="Q27" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="R27" t="inlineStr">
         <is>
@@ -2349,7 +2349,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44616</v>
+        <v>45049</v>
       </c>
       <c r="E28" t="n">
         <v>15</v>
@@ -2373,16 +2373,16 @@
         </is>
       </c>
       <c r="J28" t="n">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="K28" t="n">
-        <v>19000</v>
+        <v>13000</v>
       </c>
       <c r="L28" t="n">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="M28" t="n">
-        <v>19500</v>
+        <v>13500</v>
       </c>
       <c r="N28" t="inlineStr">
         <is>
@@ -2395,7 +2395,7 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>1500</v>
+        <v>1038</v>
       </c>
       <c r="Q28" t="n">
         <v>13</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Jengibre.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Jengibre.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>45028</v>
+        <v>45096</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>300</v>
+        <v>750</v>
       </c>
       <c r="K2" t="n">
         <v>14000</v>
@@ -510,7 +510,7 @@
         <v>15000</v>
       </c>
       <c r="M2" t="n">
-        <v>14500</v>
+        <v>14600</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>1115</v>
+        <v>1123</v>
       </c>
       <c r="Q2" t="n">
         <v>13</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44943</v>
+        <v>44855</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -569,20 +569,20 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J3" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="K3" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="L3" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="M3" t="n">
-        <v>14429</v>
+        <v>10000</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>1110</v>
+        <v>769</v>
       </c>
       <c r="Q3" t="n">
         <v>13</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44616</v>
+        <v>44893</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>120</v>
+        <v>900</v>
       </c>
       <c r="K4" t="n">
-        <v>19000</v>
+        <v>13000</v>
       </c>
       <c r="L4" t="n">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="M4" t="n">
-        <v>19500</v>
+        <v>13444</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>1500</v>
+        <v>1034</v>
       </c>
       <c r="Q4" t="n">
         <v>13</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44580</v>
+        <v>45028</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>160</v>
+        <v>300</v>
       </c>
       <c r="K5" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="L5" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="M5" t="n">
-        <v>11500</v>
+        <v>14500</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>885</v>
+        <v>1115</v>
       </c>
       <c r="Q5" t="n">
         <v>13</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44984</v>
+        <v>44764</v>
       </c>
       <c r="E6" t="n">
         <v>15</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="K6" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="L6" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="M6" t="n">
-        <v>16500</v>
+        <v>12500</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>1269</v>
+        <v>962</v>
       </c>
       <c r="Q6" t="n">
         <v>13</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>45100</v>
+        <v>44616</v>
       </c>
       <c r="E7" t="n">
         <v>15</v>
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="K7" t="n">
-        <v>15000</v>
+        <v>19000</v>
       </c>
       <c r="L7" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="M7" t="n">
-        <v>15500</v>
+        <v>19500</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>1192</v>
+        <v>1500</v>
       </c>
       <c r="Q7" t="n">
         <v>13</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44988</v>
+        <v>45100</v>
       </c>
       <c r="E8" t="n">
         <v>15</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>750</v>
+        <v>200</v>
       </c>
       <c r="K8" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="L8" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="M8" t="n">
-        <v>17400</v>
+        <v>15500</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>1338</v>
+        <v>1192</v>
       </c>
       <c r="Q8" t="n">
         <v>13</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44893</v>
+        <v>44890</v>
       </c>
       <c r="E9" t="n">
         <v>15</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>900</v>
+        <v>300</v>
       </c>
       <c r="K9" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="L9" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="M9" t="n">
-        <v>13444</v>
+        <v>14500</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>1034</v>
+        <v>1115</v>
       </c>
       <c r="Q9" t="n">
         <v>13</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44592</v>
+        <v>44943</v>
       </c>
       <c r="E10" t="n">
         <v>15</v>
@@ -1073,20 +1073,20 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J10" t="n">
-        <v>120</v>
+        <v>350</v>
       </c>
       <c r="K10" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="L10" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="M10" t="n">
-        <v>12500</v>
+        <v>14429</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>962</v>
+        <v>1110</v>
       </c>
       <c r="Q10" t="n">
         <v>13</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44406</v>
+        <v>44397</v>
       </c>
       <c r="E11" t="n">
         <v>15</v>
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="K11" t="n">
-        <v>17000</v>
+        <v>12500</v>
       </c>
       <c r="L11" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="M11" t="n">
-        <v>17500</v>
+        <v>12750</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>1346</v>
+        <v>981</v>
       </c>
       <c r="Q11" t="n">
         <v>13</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44389</v>
+        <v>44984</v>
       </c>
       <c r="E12" t="n">
         <v>15</v>
@@ -1221,16 +1221,16 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>120</v>
+        <v>400</v>
       </c>
       <c r="K12" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="L12" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="M12" t="n">
-        <v>12500</v>
+        <v>16500</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>962</v>
+        <v>1269</v>
       </c>
       <c r="Q12" t="n">
         <v>13</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44764</v>
+        <v>44918</v>
       </c>
       <c r="E14" t="n">
         <v>15</v>
@@ -1361,7 +1361,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J14" t="n">
@@ -1374,7 +1374,7 @@
         <v>13000</v>
       </c>
       <c r="M14" t="n">
-        <v>12500</v>
+        <v>12750</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>962</v>
+        <v>981</v>
       </c>
       <c r="Q14" t="n">
         <v>13</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44914</v>
+        <v>44832</v>
       </c>
       <c r="E15" t="n">
         <v>15</v>
@@ -1440,13 +1440,13 @@
         <v>100</v>
       </c>
       <c r="K15" t="n">
+        <v>13000</v>
+      </c>
+      <c r="L15" t="n">
         <v>14000</v>
       </c>
-      <c r="L15" t="n">
-        <v>15000</v>
-      </c>
       <c r="M15" t="n">
-        <v>14400</v>
+        <v>13500</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>1108</v>
+        <v>1038</v>
       </c>
       <c r="Q15" t="n">
         <v>13</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44159</v>
+        <v>44914</v>
       </c>
       <c r="E16" t="n">
         <v>15</v>
@@ -1512,13 +1512,13 @@
         <v>100</v>
       </c>
       <c r="K16" t="n">
-        <v>23000</v>
+        <v>14000</v>
       </c>
       <c r="L16" t="n">
-        <v>24000</v>
+        <v>15000</v>
       </c>
       <c r="M16" t="n">
-        <v>23500</v>
+        <v>14400</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>1808</v>
+        <v>1108</v>
       </c>
       <c r="Q16" t="n">
         <v>13</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44379</v>
+        <v>44592</v>
       </c>
       <c r="E17" t="n">
         <v>15</v>
@@ -1590,7 +1590,7 @@
         <v>13000</v>
       </c>
       <c r="M17" t="n">
-        <v>12667</v>
+        <v>12500</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>974</v>
+        <v>962</v>
       </c>
       <c r="Q17" t="n">
         <v>13</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>45092</v>
+        <v>44159</v>
       </c>
       <c r="E18" t="n">
         <v>15</v>
@@ -1653,16 +1653,16 @@
         </is>
       </c>
       <c r="J18" t="n">
-        <v>600</v>
+        <v>100</v>
       </c>
       <c r="K18" t="n">
-        <v>13000</v>
+        <v>23000</v>
       </c>
       <c r="L18" t="n">
-        <v>14000</v>
+        <v>24000</v>
       </c>
       <c r="M18" t="n">
-        <v>13500</v>
+        <v>23500</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1675,7 +1675,7 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>1038</v>
+        <v>1808</v>
       </c>
       <c r="Q18" t="n">
         <v>13</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44832</v>
+        <v>44972</v>
       </c>
       <c r="E19" t="n">
         <v>15</v>
@@ -1725,20 +1725,20 @@
         </is>
       </c>
       <c r="J19" t="n">
-        <v>100</v>
+        <v>350</v>
       </c>
       <c r="K19" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="L19" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="M19" t="n">
-        <v>13500</v>
+        <v>17429</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>$/caja 13 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
@@ -1747,10 +1747,10 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>1038</v>
+        <v>1162</v>
       </c>
       <c r="Q19" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="R19" t="inlineStr">
         <is>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44320</v>
+        <v>44580</v>
       </c>
       <c r="E20" t="n">
         <v>15</v>
@@ -1800,13 +1800,13 @@
         <v>160</v>
       </c>
       <c r="K20" t="n">
-        <v>19000</v>
+        <v>11000</v>
       </c>
       <c r="L20" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="M20" t="n">
-        <v>19500</v>
+        <v>11500</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
@@ -1819,7 +1819,7 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>1500</v>
+        <v>885</v>
       </c>
       <c r="Q20" t="n">
         <v>13</v>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44910</v>
+        <v>45092</v>
       </c>
       <c r="E21" t="n">
         <v>15</v>
@@ -1869,16 +1869,16 @@
         </is>
       </c>
       <c r="J21" t="n">
-        <v>50</v>
+        <v>600</v>
       </c>
       <c r="K21" t="n">
+        <v>13000</v>
+      </c>
+      <c r="L21" t="n">
         <v>14000</v>
       </c>
-      <c r="L21" t="n">
-        <v>15000</v>
-      </c>
       <c r="M21" t="n">
-        <v>14500</v>
+        <v>13500</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
@@ -1891,7 +1891,7 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>1115</v>
+        <v>1038</v>
       </c>
       <c r="Q21" t="n">
         <v>13</v>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44397</v>
+        <v>44910</v>
       </c>
       <c r="E22" t="n">
         <v>15</v>
@@ -1941,16 +1941,16 @@
         </is>
       </c>
       <c r="J22" t="n">
-        <v>140</v>
+        <v>50</v>
       </c>
       <c r="K22" t="n">
-        <v>12500</v>
+        <v>14000</v>
       </c>
       <c r="L22" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="M22" t="n">
-        <v>12750</v>
+        <v>14500</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
@@ -1963,7 +1963,7 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>981</v>
+        <v>1115</v>
       </c>
       <c r="Q22" t="n">
         <v>13</v>
@@ -1989,7 +1989,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44890</v>
+        <v>44389</v>
       </c>
       <c r="E23" t="n">
         <v>15</v>
@@ -2013,16 +2013,16 @@
         </is>
       </c>
       <c r="J23" t="n">
-        <v>300</v>
+        <v>120</v>
       </c>
       <c r="K23" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="L23" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="M23" t="n">
-        <v>14500</v>
+        <v>12500</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
@@ -2035,7 +2035,7 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>1115</v>
+        <v>962</v>
       </c>
       <c r="Q23" t="n">
         <v>13</v>
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44972</v>
+        <v>44988</v>
       </c>
       <c r="E24" t="n">
         <v>15</v>
@@ -2085,7 +2085,7 @@
         </is>
       </c>
       <c r="J24" t="n">
-        <v>350</v>
+        <v>750</v>
       </c>
       <c r="K24" t="n">
         <v>17000</v>
@@ -2094,11 +2094,11 @@
         <v>18000</v>
       </c>
       <c r="M24" t="n">
-        <v>17429</v>
+        <v>17400</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 13 kilos</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
@@ -2107,10 +2107,10 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>1162</v>
+        <v>1338</v>
       </c>
       <c r="Q24" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="R24" t="inlineStr">
         <is>
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44855</v>
+        <v>44406</v>
       </c>
       <c r="E25" t="n">
         <v>15</v>
@@ -2157,16 +2157,16 @@
         </is>
       </c>
       <c r="J25" t="n">
-        <v>500</v>
+        <v>160</v>
       </c>
       <c r="K25" t="n">
-        <v>10000</v>
+        <v>17000</v>
       </c>
       <c r="L25" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="M25" t="n">
-        <v>10000</v>
+        <v>17500</v>
       </c>
       <c r="N25" t="inlineStr">
         <is>
@@ -2179,7 +2179,7 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>769</v>
+        <v>1346</v>
       </c>
       <c r="Q25" t="n">
         <v>13</v>
@@ -2205,7 +2205,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44918</v>
+        <v>45049</v>
       </c>
       <c r="E26" t="n">
         <v>15</v>
@@ -2225,20 +2225,20 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J26" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K26" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="L26" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="M26" t="n">
-        <v>12750</v>
+        <v>13500</v>
       </c>
       <c r="N26" t="inlineStr">
         <is>
@@ -2251,7 +2251,7 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>981</v>
+        <v>1038</v>
       </c>
       <c r="Q26" t="n">
         <v>13</v>
@@ -2277,7 +2277,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>45096</v>
+        <v>44320</v>
       </c>
       <c r="E27" t="n">
         <v>15</v>
@@ -2301,16 +2301,16 @@
         </is>
       </c>
       <c r="J27" t="n">
-        <v>750</v>
+        <v>160</v>
       </c>
       <c r="K27" t="n">
-        <v>14000</v>
+        <v>19000</v>
       </c>
       <c r="L27" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="M27" t="n">
-        <v>14600</v>
+        <v>19500</v>
       </c>
       <c r="N27" t="inlineStr">
         <is>
@@ -2323,7 +2323,7 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>1123</v>
+        <v>1500</v>
       </c>
       <c r="Q27" t="n">
         <v>13</v>
@@ -2349,7 +2349,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>45049</v>
+        <v>44379</v>
       </c>
       <c r="E28" t="n">
         <v>15</v>
@@ -2373,16 +2373,16 @@
         </is>
       </c>
       <c r="J28" t="n">
-        <v>300</v>
+        <v>120</v>
       </c>
       <c r="K28" t="n">
+        <v>12000</v>
+      </c>
+      <c r="L28" t="n">
         <v>13000</v>
       </c>
-      <c r="L28" t="n">
-        <v>14000</v>
-      </c>
       <c r="M28" t="n">
-        <v>13500</v>
+        <v>12667</v>
       </c>
       <c r="N28" t="inlineStr">
         <is>
@@ -2395,7 +2395,7 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>1038</v>
+        <v>974</v>
       </c>
       <c r="Q28" t="n">
         <v>13</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Jengibre.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Jengibre.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>45096</v>
+        <v>44320</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>750</v>
+        <v>160</v>
       </c>
       <c r="K2" t="n">
-        <v>14000</v>
+        <v>19000</v>
       </c>
       <c r="L2" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="M2" t="n">
-        <v>14600</v>
+        <v>19500</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>1123</v>
+        <v>1500</v>
       </c>
       <c r="Q2" t="n">
         <v>13</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44855</v>
+        <v>44389</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>500</v>
+        <v>120</v>
       </c>
       <c r="K3" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="L3" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="M3" t="n">
-        <v>10000</v>
+        <v>12500</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>769</v>
+        <v>962</v>
       </c>
       <c r="Q3" t="n">
         <v>13</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44893</v>
+        <v>44918</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -641,20 +641,20 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J4" t="n">
-        <v>900</v>
+        <v>200</v>
       </c>
       <c r="K4" t="n">
+        <v>12000</v>
+      </c>
+      <c r="L4" t="n">
         <v>13000</v>
       </c>
-      <c r="L4" t="n">
-        <v>14000</v>
-      </c>
       <c r="M4" t="n">
-        <v>13444</v>
+        <v>12750</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>1034</v>
+        <v>981</v>
       </c>
       <c r="Q4" t="n">
         <v>13</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>45028</v>
+        <v>44764</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K5" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="L5" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="M5" t="n">
-        <v>14500</v>
+        <v>12500</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>1115</v>
+        <v>962</v>
       </c>
       <c r="Q5" t="n">
         <v>13</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44764</v>
+        <v>44988</v>
       </c>
       <c r="E6" t="n">
         <v>15</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>200</v>
+        <v>750</v>
       </c>
       <c r="K6" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="L6" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="M6" t="n">
-        <v>12500</v>
+        <v>17400</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>962</v>
+        <v>1338</v>
       </c>
       <c r="Q6" t="n">
         <v>13</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44616</v>
+        <v>44379</v>
       </c>
       <c r="E7" t="n">
         <v>15</v>
@@ -864,13 +864,13 @@
         <v>120</v>
       </c>
       <c r="K7" t="n">
-        <v>19000</v>
+        <v>12000</v>
       </c>
       <c r="L7" t="n">
-        <v>20000</v>
+        <v>13000</v>
       </c>
       <c r="M7" t="n">
-        <v>19500</v>
+        <v>12667</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>1500</v>
+        <v>974</v>
       </c>
       <c r="Q7" t="n">
         <v>13</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>45100</v>
+        <v>45092</v>
       </c>
       <c r="E8" t="n">
         <v>15</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="K8" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="L8" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="M8" t="n">
-        <v>15500</v>
+        <v>13500</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>1192</v>
+        <v>1038</v>
       </c>
       <c r="Q8" t="n">
         <v>13</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44890</v>
+        <v>45049</v>
       </c>
       <c r="E9" t="n">
         <v>15</v>
@@ -1008,13 +1008,13 @@
         <v>300</v>
       </c>
       <c r="K9" t="n">
+        <v>13000</v>
+      </c>
+      <c r="L9" t="n">
         <v>14000</v>
       </c>
-      <c r="L9" t="n">
-        <v>15000</v>
-      </c>
       <c r="M9" t="n">
-        <v>14500</v>
+        <v>13500</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>1115</v>
+        <v>1038</v>
       </c>
       <c r="Q9" t="n">
         <v>13</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44943</v>
+        <v>44592</v>
       </c>
       <c r="E10" t="n">
         <v>15</v>
@@ -1073,20 +1073,20 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J10" t="n">
-        <v>350</v>
+        <v>120</v>
       </c>
       <c r="K10" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="L10" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="M10" t="n">
-        <v>14429</v>
+        <v>12500</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>1110</v>
+        <v>962</v>
       </c>
       <c r="Q10" t="n">
         <v>13</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44397</v>
+        <v>44893</v>
       </c>
       <c r="E11" t="n">
         <v>15</v>
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>140</v>
+        <v>900</v>
       </c>
       <c r="K11" t="n">
-        <v>12500</v>
+        <v>13000</v>
       </c>
       <c r="L11" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="M11" t="n">
-        <v>12750</v>
+        <v>13444</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>981</v>
+        <v>1034</v>
       </c>
       <c r="Q11" t="n">
         <v>13</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44984</v>
+        <v>44914</v>
       </c>
       <c r="E12" t="n">
         <v>15</v>
@@ -1221,16 +1221,16 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="K12" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="L12" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="M12" t="n">
-        <v>16500</v>
+        <v>14400</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>1269</v>
+        <v>1108</v>
       </c>
       <c r="Q12" t="n">
         <v>13</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44469</v>
+        <v>44943</v>
       </c>
       <c r="E13" t="n">
         <v>15</v>
@@ -1289,20 +1289,20 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J13" t="n">
-        <v>140</v>
+        <v>350</v>
       </c>
       <c r="K13" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="L13" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="M13" t="n">
-        <v>13500</v>
+        <v>14429</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>1038</v>
+        <v>1110</v>
       </c>
       <c r="Q13" t="n">
         <v>13</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44918</v>
+        <v>45096</v>
       </c>
       <c r="E14" t="n">
         <v>15</v>
@@ -1361,20 +1361,20 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J14" t="n">
-        <v>200</v>
+        <v>750</v>
       </c>
       <c r="K14" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="L14" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="M14" t="n">
-        <v>12750</v>
+        <v>14600</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>981</v>
+        <v>1123</v>
       </c>
       <c r="Q14" t="n">
         <v>13</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44832</v>
+        <v>44855</v>
       </c>
       <c r="E15" t="n">
         <v>15</v>
@@ -1437,16 +1437,16 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="K15" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="L15" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="M15" t="n">
-        <v>13500</v>
+        <v>10000</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>1038</v>
+        <v>769</v>
       </c>
       <c r="Q15" t="n">
         <v>13</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44914</v>
+        <v>44832</v>
       </c>
       <c r="E16" t="n">
         <v>15</v>
@@ -1512,13 +1512,13 @@
         <v>100</v>
       </c>
       <c r="K16" t="n">
+        <v>13000</v>
+      </c>
+      <c r="L16" t="n">
         <v>14000</v>
       </c>
-      <c r="L16" t="n">
-        <v>15000</v>
-      </c>
       <c r="M16" t="n">
-        <v>14400</v>
+        <v>13500</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>1108</v>
+        <v>1038</v>
       </c>
       <c r="Q16" t="n">
         <v>13</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44592</v>
+        <v>44406</v>
       </c>
       <c r="E17" t="n">
         <v>15</v>
@@ -1581,16 +1581,16 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="K17" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="L17" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="M17" t="n">
-        <v>12500</v>
+        <v>17500</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>962</v>
+        <v>1346</v>
       </c>
       <c r="Q17" t="n">
         <v>13</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44159</v>
+        <v>44984</v>
       </c>
       <c r="E18" t="n">
         <v>15</v>
@@ -1653,16 +1653,16 @@
         </is>
       </c>
       <c r="J18" t="n">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="K18" t="n">
-        <v>23000</v>
+        <v>16000</v>
       </c>
       <c r="L18" t="n">
-        <v>24000</v>
+        <v>17000</v>
       </c>
       <c r="M18" t="n">
-        <v>23500</v>
+        <v>16500</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1675,7 +1675,7 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>1808</v>
+        <v>1269</v>
       </c>
       <c r="Q18" t="n">
         <v>13</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44972</v>
+        <v>44890</v>
       </c>
       <c r="E19" t="n">
         <v>15</v>
@@ -1725,20 +1725,20 @@
         </is>
       </c>
       <c r="J19" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="K19" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="L19" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="M19" t="n">
-        <v>17429</v>
+        <v>14500</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 13 kilos</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
@@ -1747,10 +1747,10 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>1162</v>
+        <v>1115</v>
       </c>
       <c r="Q19" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="R19" t="inlineStr">
         <is>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44580</v>
+        <v>45028</v>
       </c>
       <c r="E20" t="n">
         <v>15</v>
@@ -1797,16 +1797,16 @@
         </is>
       </c>
       <c r="J20" t="n">
-        <v>160</v>
+        <v>300</v>
       </c>
       <c r="K20" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="L20" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="M20" t="n">
-        <v>11500</v>
+        <v>14500</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
@@ -1819,7 +1819,7 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>885</v>
+        <v>1115</v>
       </c>
       <c r="Q20" t="n">
         <v>13</v>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>45092</v>
+        <v>44580</v>
       </c>
       <c r="E21" t="n">
         <v>15</v>
@@ -1869,16 +1869,16 @@
         </is>
       </c>
       <c r="J21" t="n">
-        <v>600</v>
+        <v>160</v>
       </c>
       <c r="K21" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="L21" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="M21" t="n">
-        <v>13500</v>
+        <v>11500</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
@@ -1891,7 +1891,7 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>1038</v>
+        <v>885</v>
       </c>
       <c r="Q21" t="n">
         <v>13</v>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44910</v>
+        <v>45100</v>
       </c>
       <c r="E22" t="n">
         <v>15</v>
@@ -1941,16 +1941,16 @@
         </is>
       </c>
       <c r="J22" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="K22" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="L22" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="M22" t="n">
-        <v>14500</v>
+        <v>15500</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
@@ -1963,7 +1963,7 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>1115</v>
+        <v>1192</v>
       </c>
       <c r="Q22" t="n">
         <v>13</v>
@@ -1989,7 +1989,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44389</v>
+        <v>44972</v>
       </c>
       <c r="E23" t="n">
         <v>15</v>
@@ -2013,20 +2013,20 @@
         </is>
       </c>
       <c r="J23" t="n">
-        <v>120</v>
+        <v>350</v>
       </c>
       <c r="K23" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="L23" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="M23" t="n">
-        <v>12500</v>
+        <v>17429</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>$/caja 13 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
@@ -2035,10 +2035,10 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>962</v>
+        <v>1162</v>
       </c>
       <c r="Q23" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="R23" t="inlineStr">
         <is>
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44988</v>
+        <v>44469</v>
       </c>
       <c r="E24" t="n">
         <v>15</v>
@@ -2085,16 +2085,16 @@
         </is>
       </c>
       <c r="J24" t="n">
-        <v>750</v>
+        <v>140</v>
       </c>
       <c r="K24" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="L24" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="M24" t="n">
-        <v>17400</v>
+        <v>13500</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
@@ -2107,7 +2107,7 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>1338</v>
+        <v>1038</v>
       </c>
       <c r="Q24" t="n">
         <v>13</v>
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44406</v>
+        <v>44910</v>
       </c>
       <c r="E25" t="n">
         <v>15</v>
@@ -2157,16 +2157,16 @@
         </is>
       </c>
       <c r="J25" t="n">
-        <v>160</v>
+        <v>50</v>
       </c>
       <c r="K25" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="L25" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="M25" t="n">
-        <v>17500</v>
+        <v>14500</v>
       </c>
       <c r="N25" t="inlineStr">
         <is>
@@ -2179,7 +2179,7 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>1346</v>
+        <v>1115</v>
       </c>
       <c r="Q25" t="n">
         <v>13</v>
@@ -2205,7 +2205,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>45049</v>
+        <v>44159</v>
       </c>
       <c r="E26" t="n">
         <v>15</v>
@@ -2229,16 +2229,16 @@
         </is>
       </c>
       <c r="J26" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="K26" t="n">
-        <v>13000</v>
+        <v>23000</v>
       </c>
       <c r="L26" t="n">
-        <v>14000</v>
+        <v>24000</v>
       </c>
       <c r="M26" t="n">
-        <v>13500</v>
+        <v>23500</v>
       </c>
       <c r="N26" t="inlineStr">
         <is>
@@ -2251,7 +2251,7 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>1038</v>
+        <v>1808</v>
       </c>
       <c r="Q26" t="n">
         <v>13</v>
@@ -2277,7 +2277,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44320</v>
+        <v>44397</v>
       </c>
       <c r="E27" t="n">
         <v>15</v>
@@ -2301,16 +2301,16 @@
         </is>
       </c>
       <c r="J27" t="n">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="K27" t="n">
-        <v>19000</v>
+        <v>12500</v>
       </c>
       <c r="L27" t="n">
-        <v>20000</v>
+        <v>13000</v>
       </c>
       <c r="M27" t="n">
-        <v>19500</v>
+        <v>12750</v>
       </c>
       <c r="N27" t="inlineStr">
         <is>
@@ -2323,7 +2323,7 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>1500</v>
+        <v>981</v>
       </c>
       <c r="Q27" t="n">
         <v>13</v>
@@ -2349,7 +2349,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44379</v>
+        <v>44616</v>
       </c>
       <c r="E28" t="n">
         <v>15</v>
@@ -2376,13 +2376,13 @@
         <v>120</v>
       </c>
       <c r="K28" t="n">
-        <v>12000</v>
+        <v>19000</v>
       </c>
       <c r="L28" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="M28" t="n">
-        <v>12667</v>
+        <v>19500</v>
       </c>
       <c r="N28" t="inlineStr">
         <is>
@@ -2395,7 +2395,7 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>974</v>
+        <v>1500</v>
       </c>
       <c r="Q28" t="n">
         <v>13</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Jengibre.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Jengibre.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44320</v>
+        <v>45096</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>160</v>
+        <v>750</v>
       </c>
       <c r="K2" t="n">
-        <v>19000</v>
+        <v>14000</v>
       </c>
       <c r="L2" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="M2" t="n">
-        <v>19500</v>
+        <v>14600</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>1500</v>
+        <v>1123</v>
       </c>
       <c r="Q2" t="n">
         <v>13</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44389</v>
+        <v>44855</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>120</v>
+        <v>500</v>
       </c>
       <c r="K3" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="L3" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="M3" t="n">
-        <v>12500</v>
+        <v>10000</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>962</v>
+        <v>769</v>
       </c>
       <c r="Q3" t="n">
         <v>13</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44918</v>
+        <v>44893</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -641,20 +641,20 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J4" t="n">
-        <v>200</v>
+        <v>900</v>
       </c>
       <c r="K4" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="L4" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="M4" t="n">
-        <v>12750</v>
+        <v>13444</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>981</v>
+        <v>1034</v>
       </c>
       <c r="Q4" t="n">
         <v>13</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44764</v>
+        <v>45028</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K5" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="L5" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="M5" t="n">
-        <v>12500</v>
+        <v>14500</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>962</v>
+        <v>1115</v>
       </c>
       <c r="Q5" t="n">
         <v>13</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44988</v>
+        <v>44764</v>
       </c>
       <c r="E6" t="n">
         <v>15</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>750</v>
+        <v>200</v>
       </c>
       <c r="K6" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="L6" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="M6" t="n">
-        <v>17400</v>
+        <v>12500</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>1338</v>
+        <v>962</v>
       </c>
       <c r="Q6" t="n">
         <v>13</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44379</v>
+        <v>44616</v>
       </c>
       <c r="E7" t="n">
         <v>15</v>
@@ -864,13 +864,13 @@
         <v>120</v>
       </c>
       <c r="K7" t="n">
-        <v>12000</v>
+        <v>19000</v>
       </c>
       <c r="L7" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="M7" t="n">
-        <v>12667</v>
+        <v>19500</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>974</v>
+        <v>1500</v>
       </c>
       <c r="Q7" t="n">
         <v>13</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>45092</v>
+        <v>45100</v>
       </c>
       <c r="E8" t="n">
         <v>15</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="K8" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="L8" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="M8" t="n">
-        <v>13500</v>
+        <v>15500</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>1038</v>
+        <v>1192</v>
       </c>
       <c r="Q8" t="n">
         <v>13</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>45049</v>
+        <v>44890</v>
       </c>
       <c r="E9" t="n">
         <v>15</v>
@@ -1008,13 +1008,13 @@
         <v>300</v>
       </c>
       <c r="K9" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="L9" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="M9" t="n">
-        <v>13500</v>
+        <v>14500</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>1038</v>
+        <v>1115</v>
       </c>
       <c r="Q9" t="n">
         <v>13</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44592</v>
+        <v>44943</v>
       </c>
       <c r="E10" t="n">
         <v>15</v>
@@ -1073,20 +1073,20 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J10" t="n">
-        <v>120</v>
+        <v>350</v>
       </c>
       <c r="K10" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="L10" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="M10" t="n">
-        <v>12500</v>
+        <v>14429</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>962</v>
+        <v>1110</v>
       </c>
       <c r="Q10" t="n">
         <v>13</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44893</v>
+        <v>44397</v>
       </c>
       <c r="E11" t="n">
         <v>15</v>
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>900</v>
+        <v>140</v>
       </c>
       <c r="K11" t="n">
+        <v>12500</v>
+      </c>
+      <c r="L11" t="n">
         <v>13000</v>
       </c>
-      <c r="L11" t="n">
-        <v>14000</v>
-      </c>
       <c r="M11" t="n">
-        <v>13444</v>
+        <v>12750</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>1034</v>
+        <v>981</v>
       </c>
       <c r="Q11" t="n">
         <v>13</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44914</v>
+        <v>44984</v>
       </c>
       <c r="E12" t="n">
         <v>15</v>
@@ -1221,16 +1221,16 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="K12" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="L12" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="M12" t="n">
-        <v>14400</v>
+        <v>16500</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>1108</v>
+        <v>1269</v>
       </c>
       <c r="Q12" t="n">
         <v>13</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44943</v>
+        <v>44469</v>
       </c>
       <c r="E13" t="n">
         <v>15</v>
@@ -1289,20 +1289,20 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J13" t="n">
-        <v>350</v>
+        <v>140</v>
       </c>
       <c r="K13" t="n">
+        <v>13000</v>
+      </c>
+      <c r="L13" t="n">
         <v>14000</v>
       </c>
-      <c r="L13" t="n">
-        <v>15000</v>
-      </c>
       <c r="M13" t="n">
-        <v>14429</v>
+        <v>13500</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>1110</v>
+        <v>1038</v>
       </c>
       <c r="Q13" t="n">
         <v>13</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>45096</v>
+        <v>44918</v>
       </c>
       <c r="E14" t="n">
         <v>15</v>
@@ -1361,20 +1361,20 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J14" t="n">
-        <v>750</v>
+        <v>200</v>
       </c>
       <c r="K14" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="L14" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="M14" t="n">
-        <v>14600</v>
+        <v>12750</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>1123</v>
+        <v>981</v>
       </c>
       <c r="Q14" t="n">
         <v>13</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44855</v>
+        <v>44832</v>
       </c>
       <c r="E15" t="n">
         <v>15</v>
@@ -1437,16 +1437,16 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="K15" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="L15" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="M15" t="n">
-        <v>10000</v>
+        <v>13500</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>769</v>
+        <v>1038</v>
       </c>
       <c r="Q15" t="n">
         <v>13</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44832</v>
+        <v>44914</v>
       </c>
       <c r="E16" t="n">
         <v>15</v>
@@ -1512,13 +1512,13 @@
         <v>100</v>
       </c>
       <c r="K16" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="L16" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="M16" t="n">
-        <v>13500</v>
+        <v>14400</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>1038</v>
+        <v>1108</v>
       </c>
       <c r="Q16" t="n">
         <v>13</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44406</v>
+        <v>44592</v>
       </c>
       <c r="E17" t="n">
         <v>15</v>
@@ -1581,16 +1581,16 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="K17" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="L17" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="M17" t="n">
-        <v>17500</v>
+        <v>12500</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>1346</v>
+        <v>962</v>
       </c>
       <c r="Q17" t="n">
         <v>13</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44984</v>
+        <v>44159</v>
       </c>
       <c r="E18" t="n">
         <v>15</v>
@@ -1653,16 +1653,16 @@
         </is>
       </c>
       <c r="J18" t="n">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="K18" t="n">
-        <v>16000</v>
+        <v>23000</v>
       </c>
       <c r="L18" t="n">
-        <v>17000</v>
+        <v>24000</v>
       </c>
       <c r="M18" t="n">
-        <v>16500</v>
+        <v>23500</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1675,7 +1675,7 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>1269</v>
+        <v>1808</v>
       </c>
       <c r="Q18" t="n">
         <v>13</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44890</v>
+        <v>44972</v>
       </c>
       <c r="E19" t="n">
         <v>15</v>
@@ -1725,20 +1725,20 @@
         </is>
       </c>
       <c r="J19" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="K19" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="L19" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="M19" t="n">
-        <v>14500</v>
+        <v>17429</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>$/caja 13 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
@@ -1747,10 +1747,10 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>1115</v>
+        <v>1162</v>
       </c>
       <c r="Q19" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="R19" t="inlineStr">
         <is>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>45028</v>
+        <v>44580</v>
       </c>
       <c r="E20" t="n">
         <v>15</v>
@@ -1797,16 +1797,16 @@
         </is>
       </c>
       <c r="J20" t="n">
-        <v>300</v>
+        <v>160</v>
       </c>
       <c r="K20" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="L20" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="M20" t="n">
-        <v>14500</v>
+        <v>11500</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
@@ -1819,7 +1819,7 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>1115</v>
+        <v>885</v>
       </c>
       <c r="Q20" t="n">
         <v>13</v>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44580</v>
+        <v>45092</v>
       </c>
       <c r="E21" t="n">
         <v>15</v>
@@ -1869,16 +1869,16 @@
         </is>
       </c>
       <c r="J21" t="n">
-        <v>160</v>
+        <v>600</v>
       </c>
       <c r="K21" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="L21" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="M21" t="n">
-        <v>11500</v>
+        <v>13500</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
@@ -1891,7 +1891,7 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>885</v>
+        <v>1038</v>
       </c>
       <c r="Q21" t="n">
         <v>13</v>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>45100</v>
+        <v>44910</v>
       </c>
       <c r="E22" t="n">
         <v>15</v>
@@ -1941,16 +1941,16 @@
         </is>
       </c>
       <c r="J22" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="K22" t="n">
+        <v>14000</v>
+      </c>
+      <c r="L22" t="n">
         <v>15000</v>
       </c>
-      <c r="L22" t="n">
-        <v>16000</v>
-      </c>
       <c r="M22" t="n">
-        <v>15500</v>
+        <v>14500</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
@@ -1963,7 +1963,7 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>1192</v>
+        <v>1115</v>
       </c>
       <c r="Q22" t="n">
         <v>13</v>
@@ -1989,7 +1989,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44972</v>
+        <v>44389</v>
       </c>
       <c r="E23" t="n">
         <v>15</v>
@@ -2013,20 +2013,20 @@
         </is>
       </c>
       <c r="J23" t="n">
-        <v>350</v>
+        <v>120</v>
       </c>
       <c r="K23" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="L23" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="M23" t="n">
-        <v>17429</v>
+        <v>12500</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 13 kilos</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
@@ -2035,10 +2035,10 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>1162</v>
+        <v>962</v>
       </c>
       <c r="Q23" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="R23" t="inlineStr">
         <is>
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44469</v>
+        <v>44988</v>
       </c>
       <c r="E24" t="n">
         <v>15</v>
@@ -2085,16 +2085,16 @@
         </is>
       </c>
       <c r="J24" t="n">
-        <v>140</v>
+        <v>750</v>
       </c>
       <c r="K24" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="L24" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="M24" t="n">
-        <v>13500</v>
+        <v>17400</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
@@ -2107,7 +2107,7 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>1038</v>
+        <v>1338</v>
       </c>
       <c r="Q24" t="n">
         <v>13</v>
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44910</v>
+        <v>44406</v>
       </c>
       <c r="E25" t="n">
         <v>15</v>
@@ -2157,16 +2157,16 @@
         </is>
       </c>
       <c r="J25" t="n">
-        <v>50</v>
+        <v>160</v>
       </c>
       <c r="K25" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="L25" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="M25" t="n">
-        <v>14500</v>
+        <v>17500</v>
       </c>
       <c r="N25" t="inlineStr">
         <is>
@@ -2179,7 +2179,7 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>1115</v>
+        <v>1346</v>
       </c>
       <c r="Q25" t="n">
         <v>13</v>
@@ -2205,7 +2205,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44159</v>
+        <v>45049</v>
       </c>
       <c r="E26" t="n">
         <v>15</v>
@@ -2229,16 +2229,16 @@
         </is>
       </c>
       <c r="J26" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="K26" t="n">
-        <v>23000</v>
+        <v>13000</v>
       </c>
       <c r="L26" t="n">
-        <v>24000</v>
+        <v>14000</v>
       </c>
       <c r="M26" t="n">
-        <v>23500</v>
+        <v>13500</v>
       </c>
       <c r="N26" t="inlineStr">
         <is>
@@ -2251,7 +2251,7 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>1808</v>
+        <v>1038</v>
       </c>
       <c r="Q26" t="n">
         <v>13</v>
@@ -2277,7 +2277,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44397</v>
+        <v>44320</v>
       </c>
       <c r="E27" t="n">
         <v>15</v>
@@ -2301,16 +2301,16 @@
         </is>
       </c>
       <c r="J27" t="n">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="K27" t="n">
-        <v>12500</v>
+        <v>19000</v>
       </c>
       <c r="L27" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="M27" t="n">
-        <v>12750</v>
+        <v>19500</v>
       </c>
       <c r="N27" t="inlineStr">
         <is>
@@ -2323,7 +2323,7 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>981</v>
+        <v>1500</v>
       </c>
       <c r="Q27" t="n">
         <v>13</v>
@@ -2349,7 +2349,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44616</v>
+        <v>44379</v>
       </c>
       <c r="E28" t="n">
         <v>15</v>
@@ -2376,13 +2376,13 @@
         <v>120</v>
       </c>
       <c r="K28" t="n">
-        <v>19000</v>
+        <v>12000</v>
       </c>
       <c r="L28" t="n">
-        <v>20000</v>
+        <v>13000</v>
       </c>
       <c r="M28" t="n">
-        <v>19500</v>
+        <v>12667</v>
       </c>
       <c r="N28" t="inlineStr">
         <is>
@@ -2395,7 +2395,7 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>1500</v>
+        <v>974</v>
       </c>
       <c r="Q28" t="n">
         <v>13</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Jengibre.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Jengibre.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R28"/>
+  <dimension ref="A1:R29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>45096</v>
+        <v>44320</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>750</v>
+        <v>160</v>
       </c>
       <c r="K2" t="n">
-        <v>14000</v>
+        <v>19000</v>
       </c>
       <c r="L2" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="M2" t="n">
-        <v>14600</v>
+        <v>19500</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>1123</v>
+        <v>1500</v>
       </c>
       <c r="Q2" t="n">
         <v>13</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44855</v>
+        <v>44389</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>500</v>
+        <v>120</v>
       </c>
       <c r="K3" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="L3" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="M3" t="n">
-        <v>10000</v>
+        <v>12500</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>769</v>
+        <v>962</v>
       </c>
       <c r="Q3" t="n">
         <v>13</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44893</v>
+        <v>44918</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -641,20 +641,20 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J4" t="n">
-        <v>900</v>
+        <v>200</v>
       </c>
       <c r="K4" t="n">
+        <v>12000</v>
+      </c>
+      <c r="L4" t="n">
         <v>13000</v>
       </c>
-      <c r="L4" t="n">
-        <v>14000</v>
-      </c>
       <c r="M4" t="n">
-        <v>13444</v>
+        <v>12750</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>1034</v>
+        <v>981</v>
       </c>
       <c r="Q4" t="n">
         <v>13</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>45028</v>
+        <v>44764</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K5" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="L5" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="M5" t="n">
-        <v>14500</v>
+        <v>12500</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>1115</v>
+        <v>962</v>
       </c>
       <c r="Q5" t="n">
         <v>13</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44764</v>
+        <v>44988</v>
       </c>
       <c r="E6" t="n">
         <v>15</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>200</v>
+        <v>750</v>
       </c>
       <c r="K6" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="L6" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="M6" t="n">
-        <v>12500</v>
+        <v>17400</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>962</v>
+        <v>1338</v>
       </c>
       <c r="Q6" t="n">
         <v>13</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44616</v>
+        <v>44379</v>
       </c>
       <c r="E7" t="n">
         <v>15</v>
@@ -864,13 +864,13 @@
         <v>120</v>
       </c>
       <c r="K7" t="n">
-        <v>19000</v>
+        <v>12000</v>
       </c>
       <c r="L7" t="n">
-        <v>20000</v>
+        <v>13000</v>
       </c>
       <c r="M7" t="n">
-        <v>19500</v>
+        <v>12667</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>1500</v>
+        <v>974</v>
       </c>
       <c r="Q7" t="n">
         <v>13</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>45100</v>
+        <v>45092</v>
       </c>
       <c r="E8" t="n">
         <v>15</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="K8" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="L8" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="M8" t="n">
-        <v>15500</v>
+        <v>13500</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>1192</v>
+        <v>1038</v>
       </c>
       <c r="Q8" t="n">
         <v>13</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44890</v>
+        <v>45049</v>
       </c>
       <c r="E9" t="n">
         <v>15</v>
@@ -1008,13 +1008,13 @@
         <v>300</v>
       </c>
       <c r="K9" t="n">
+        <v>13000</v>
+      </c>
+      <c r="L9" t="n">
         <v>14000</v>
       </c>
-      <c r="L9" t="n">
-        <v>15000</v>
-      </c>
       <c r="M9" t="n">
-        <v>14500</v>
+        <v>13500</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>1115</v>
+        <v>1038</v>
       </c>
       <c r="Q9" t="n">
         <v>13</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44943</v>
+        <v>44592</v>
       </c>
       <c r="E10" t="n">
         <v>15</v>
@@ -1073,20 +1073,20 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J10" t="n">
-        <v>350</v>
+        <v>120</v>
       </c>
       <c r="K10" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="L10" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="M10" t="n">
-        <v>14429</v>
+        <v>12500</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>1110</v>
+        <v>962</v>
       </c>
       <c r="Q10" t="n">
         <v>13</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44397</v>
+        <v>44893</v>
       </c>
       <c r="E11" t="n">
         <v>15</v>
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>140</v>
+        <v>900</v>
       </c>
       <c r="K11" t="n">
-        <v>12500</v>
+        <v>13000</v>
       </c>
       <c r="L11" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="M11" t="n">
-        <v>12750</v>
+        <v>13444</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>981</v>
+        <v>1034</v>
       </c>
       <c r="Q11" t="n">
         <v>13</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44984</v>
+        <v>44914</v>
       </c>
       <c r="E12" t="n">
         <v>15</v>
@@ -1221,16 +1221,16 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="K12" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="L12" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="M12" t="n">
-        <v>16500</v>
+        <v>14400</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>1269</v>
+        <v>1108</v>
       </c>
       <c r="Q12" t="n">
         <v>13</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44469</v>
+        <v>44943</v>
       </c>
       <c r="E13" t="n">
         <v>15</v>
@@ -1289,20 +1289,20 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J13" t="n">
-        <v>140</v>
+        <v>350</v>
       </c>
       <c r="K13" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="L13" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="M13" t="n">
-        <v>13500</v>
+        <v>14429</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>1038</v>
+        <v>1110</v>
       </c>
       <c r="Q13" t="n">
         <v>13</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44918</v>
+        <v>45096</v>
       </c>
       <c r="E14" t="n">
         <v>15</v>
@@ -1361,20 +1361,20 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J14" t="n">
-        <v>200</v>
+        <v>750</v>
       </c>
       <c r="K14" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="L14" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="M14" t="n">
-        <v>12750</v>
+        <v>14600</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>981</v>
+        <v>1123</v>
       </c>
       <c r="Q14" t="n">
         <v>13</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44832</v>
+        <v>44855</v>
       </c>
       <c r="E15" t="n">
         <v>15</v>
@@ -1437,16 +1437,16 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="K15" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="L15" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="M15" t="n">
-        <v>13500</v>
+        <v>10000</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>1038</v>
+        <v>769</v>
       </c>
       <c r="Q15" t="n">
         <v>13</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44914</v>
+        <v>44832</v>
       </c>
       <c r="E16" t="n">
         <v>15</v>
@@ -1512,13 +1512,13 @@
         <v>100</v>
       </c>
       <c r="K16" t="n">
+        <v>13000</v>
+      </c>
+      <c r="L16" t="n">
         <v>14000</v>
       </c>
-      <c r="L16" t="n">
-        <v>15000</v>
-      </c>
       <c r="M16" t="n">
-        <v>14400</v>
+        <v>13500</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>1108</v>
+        <v>1038</v>
       </c>
       <c r="Q16" t="n">
         <v>13</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44592</v>
+        <v>44406</v>
       </c>
       <c r="E17" t="n">
         <v>15</v>
@@ -1581,16 +1581,16 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="K17" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="L17" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="M17" t="n">
-        <v>12500</v>
+        <v>17500</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>962</v>
+        <v>1346</v>
       </c>
       <c r="Q17" t="n">
         <v>13</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44159</v>
+        <v>44984</v>
       </c>
       <c r="E18" t="n">
         <v>15</v>
@@ -1653,16 +1653,16 @@
         </is>
       </c>
       <c r="J18" t="n">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="K18" t="n">
-        <v>23000</v>
+        <v>16000</v>
       </c>
       <c r="L18" t="n">
-        <v>24000</v>
+        <v>17000</v>
       </c>
       <c r="M18" t="n">
-        <v>23500</v>
+        <v>16500</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1675,7 +1675,7 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>1808</v>
+        <v>1269</v>
       </c>
       <c r="Q18" t="n">
         <v>13</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44972</v>
+        <v>44890</v>
       </c>
       <c r="E19" t="n">
         <v>15</v>
@@ -1725,20 +1725,20 @@
         </is>
       </c>
       <c r="J19" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="K19" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="L19" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="M19" t="n">
-        <v>17429</v>
+        <v>14500</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 13 kilos</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
@@ -1747,10 +1747,10 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>1162</v>
+        <v>1115</v>
       </c>
       <c r="Q19" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="R19" t="inlineStr">
         <is>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44580</v>
+        <v>45028</v>
       </c>
       <c r="E20" t="n">
         <v>15</v>
@@ -1797,16 +1797,16 @@
         </is>
       </c>
       <c r="J20" t="n">
-        <v>160</v>
+        <v>300</v>
       </c>
       <c r="K20" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="L20" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="M20" t="n">
-        <v>11500</v>
+        <v>14500</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
@@ -1819,7 +1819,7 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>885</v>
+        <v>1115</v>
       </c>
       <c r="Q20" t="n">
         <v>13</v>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>45092</v>
+        <v>44580</v>
       </c>
       <c r="E21" t="n">
         <v>15</v>
@@ -1869,16 +1869,16 @@
         </is>
       </c>
       <c r="J21" t="n">
-        <v>600</v>
+        <v>160</v>
       </c>
       <c r="K21" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="L21" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="M21" t="n">
-        <v>13500</v>
+        <v>11500</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
@@ -1891,7 +1891,7 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>1038</v>
+        <v>885</v>
       </c>
       <c r="Q21" t="n">
         <v>13</v>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44910</v>
+        <v>45100</v>
       </c>
       <c r="E22" t="n">
         <v>15</v>
@@ -1941,16 +1941,16 @@
         </is>
       </c>
       <c r="J22" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="K22" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="L22" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="M22" t="n">
-        <v>14500</v>
+        <v>15500</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
@@ -1963,7 +1963,7 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>1115</v>
+        <v>1192</v>
       </c>
       <c r="Q22" t="n">
         <v>13</v>
@@ -1989,7 +1989,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44389</v>
+        <v>44972</v>
       </c>
       <c r="E23" t="n">
         <v>15</v>
@@ -2013,20 +2013,20 @@
         </is>
       </c>
       <c r="J23" t="n">
-        <v>120</v>
+        <v>350</v>
       </c>
       <c r="K23" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="L23" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="M23" t="n">
-        <v>12500</v>
+        <v>17429</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>$/caja 13 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
@@ -2035,10 +2035,10 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>962</v>
+        <v>1162</v>
       </c>
       <c r="Q23" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="R23" t="inlineStr">
         <is>
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44988</v>
+        <v>44469</v>
       </c>
       <c r="E24" t="n">
         <v>15</v>
@@ -2085,16 +2085,16 @@
         </is>
       </c>
       <c r="J24" t="n">
-        <v>750</v>
+        <v>140</v>
       </c>
       <c r="K24" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="L24" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="M24" t="n">
-        <v>17400</v>
+        <v>13500</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
@@ -2107,7 +2107,7 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>1338</v>
+        <v>1038</v>
       </c>
       <c r="Q24" t="n">
         <v>13</v>
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44406</v>
+        <v>44910</v>
       </c>
       <c r="E25" t="n">
         <v>15</v>
@@ -2157,16 +2157,16 @@
         </is>
       </c>
       <c r="J25" t="n">
-        <v>160</v>
+        <v>50</v>
       </c>
       <c r="K25" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="L25" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="M25" t="n">
-        <v>17500</v>
+        <v>14500</v>
       </c>
       <c r="N25" t="inlineStr">
         <is>
@@ -2179,7 +2179,7 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>1346</v>
+        <v>1115</v>
       </c>
       <c r="Q25" t="n">
         <v>13</v>
@@ -2205,7 +2205,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>45049</v>
+        <v>44159</v>
       </c>
       <c r="E26" t="n">
         <v>15</v>
@@ -2229,16 +2229,16 @@
         </is>
       </c>
       <c r="J26" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="K26" t="n">
-        <v>13000</v>
+        <v>23000</v>
       </c>
       <c r="L26" t="n">
-        <v>14000</v>
+        <v>24000</v>
       </c>
       <c r="M26" t="n">
-        <v>13500</v>
+        <v>23500</v>
       </c>
       <c r="N26" t="inlineStr">
         <is>
@@ -2251,7 +2251,7 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>1038</v>
+        <v>1808</v>
       </c>
       <c r="Q26" t="n">
         <v>13</v>
@@ -2277,7 +2277,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44320</v>
+        <v>45140</v>
       </c>
       <c r="E27" t="n">
         <v>15</v>
@@ -2301,16 +2301,16 @@
         </is>
       </c>
       <c r="J27" t="n">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="K27" t="n">
-        <v>19000</v>
+        <v>16000</v>
       </c>
       <c r="L27" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="M27" t="n">
-        <v>19500</v>
+        <v>16500</v>
       </c>
       <c r="N27" t="inlineStr">
         <is>
@@ -2323,7 +2323,7 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>1500</v>
+        <v>1269</v>
       </c>
       <c r="Q27" t="n">
         <v>13</v>
@@ -2349,7 +2349,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44379</v>
+        <v>44397</v>
       </c>
       <c r="E28" t="n">
         <v>15</v>
@@ -2373,16 +2373,16 @@
         </is>
       </c>
       <c r="J28" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="K28" t="n">
-        <v>12000</v>
+        <v>12500</v>
       </c>
       <c r="L28" t="n">
         <v>13000</v>
       </c>
       <c r="M28" t="n">
-        <v>12667</v>
+        <v>12750</v>
       </c>
       <c r="N28" t="inlineStr">
         <is>
@@ -2395,12 +2395,84 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>974</v>
+        <v>981</v>
       </c>
       <c r="Q28" t="n">
         <v>13</v>
       </c>
       <c r="R28" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>1</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Agrícola del Norte S.A. de Arica</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="n">
+        <v>44616</v>
+      </c>
+      <c r="E29" t="n">
+        <v>15</v>
+      </c>
+      <c r="F29" t="n">
+        <v>100114007</v>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>Jengibre</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J29" t="n">
+        <v>120</v>
+      </c>
+      <c r="K29" t="n">
+        <v>19000</v>
+      </c>
+      <c r="L29" t="n">
+        <v>20000</v>
+      </c>
+      <c r="M29" t="n">
+        <v>19500</v>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>$/caja 13 kilos</t>
+        </is>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>Perú</t>
+        </is>
+      </c>
+      <c r="P29" t="n">
+        <v>1500</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>13</v>
+      </c>
+      <c r="R29" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Jengibre.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Jengibre.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R29"/>
+  <dimension ref="A1:R30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44832</v>
+        <v>45141</v>
       </c>
       <c r="E16" t="n">
         <v>15</v>
@@ -1509,16 +1509,16 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="K16" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="L16" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="M16" t="n">
-        <v>13500</v>
+        <v>16550</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>1038</v>
+        <v>1273</v>
       </c>
       <c r="Q16" t="n">
         <v>13</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44406</v>
+        <v>44832</v>
       </c>
       <c r="E17" t="n">
         <v>15</v>
@@ -1581,16 +1581,16 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="K17" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="L17" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="M17" t="n">
-        <v>17500</v>
+        <v>13500</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>1346</v>
+        <v>1038</v>
       </c>
       <c r="Q17" t="n">
         <v>13</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44984</v>
+        <v>44406</v>
       </c>
       <c r="E18" t="n">
         <v>15</v>
@@ -1653,16 +1653,16 @@
         </is>
       </c>
       <c r="J18" t="n">
-        <v>400</v>
+        <v>160</v>
       </c>
       <c r="K18" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="L18" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="M18" t="n">
-        <v>16500</v>
+        <v>17500</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1675,7 +1675,7 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>1269</v>
+        <v>1346</v>
       </c>
       <c r="Q18" t="n">
         <v>13</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44890</v>
+        <v>44984</v>
       </c>
       <c r="E19" t="n">
         <v>15</v>
@@ -1725,16 +1725,16 @@
         </is>
       </c>
       <c r="J19" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K19" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="L19" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="M19" t="n">
-        <v>14500</v>
+        <v>16500</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>1115</v>
+        <v>1269</v>
       </c>
       <c r="Q19" t="n">
         <v>13</v>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>45028</v>
+        <v>44890</v>
       </c>
       <c r="E20" t="n">
         <v>15</v>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44580</v>
+        <v>45028</v>
       </c>
       <c r="E21" t="n">
         <v>15</v>
@@ -1869,16 +1869,16 @@
         </is>
       </c>
       <c r="J21" t="n">
-        <v>160</v>
+        <v>300</v>
       </c>
       <c r="K21" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="L21" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="M21" t="n">
-        <v>11500</v>
+        <v>14500</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
@@ -1891,7 +1891,7 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>885</v>
+        <v>1115</v>
       </c>
       <c r="Q21" t="n">
         <v>13</v>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>45100</v>
+        <v>44580</v>
       </c>
       <c r="E22" t="n">
         <v>15</v>
@@ -1941,16 +1941,16 @@
         </is>
       </c>
       <c r="J22" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="K22" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="L22" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="M22" t="n">
-        <v>15500</v>
+        <v>11500</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
@@ -1963,7 +1963,7 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>1192</v>
+        <v>885</v>
       </c>
       <c r="Q22" t="n">
         <v>13</v>
@@ -1989,7 +1989,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44972</v>
+        <v>45100</v>
       </c>
       <c r="E23" t="n">
         <v>15</v>
@@ -2013,20 +2013,20 @@
         </is>
       </c>
       <c r="J23" t="n">
-        <v>350</v>
+        <v>200</v>
       </c>
       <c r="K23" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="L23" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="M23" t="n">
-        <v>17429</v>
+        <v>15500</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 13 kilos</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
@@ -2035,10 +2035,10 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>1162</v>
+        <v>1192</v>
       </c>
       <c r="Q23" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="R23" t="inlineStr">
         <is>
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44469</v>
+        <v>44972</v>
       </c>
       <c r="E24" t="n">
         <v>15</v>
@@ -2085,20 +2085,20 @@
         </is>
       </c>
       <c r="J24" t="n">
-        <v>140</v>
+        <v>350</v>
       </c>
       <c r="K24" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="L24" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="M24" t="n">
-        <v>13500</v>
+        <v>17429</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>$/caja 13 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
@@ -2107,10 +2107,10 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>1038</v>
+        <v>1162</v>
       </c>
       <c r="Q24" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="R24" t="inlineStr">
         <is>
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44910</v>
+        <v>44469</v>
       </c>
       <c r="E25" t="n">
         <v>15</v>
@@ -2157,16 +2157,16 @@
         </is>
       </c>
       <c r="J25" t="n">
-        <v>50</v>
+        <v>140</v>
       </c>
       <c r="K25" t="n">
+        <v>13000</v>
+      </c>
+      <c r="L25" t="n">
         <v>14000</v>
       </c>
-      <c r="L25" t="n">
-        <v>15000</v>
-      </c>
       <c r="M25" t="n">
-        <v>14500</v>
+        <v>13500</v>
       </c>
       <c r="N25" t="inlineStr">
         <is>
@@ -2179,7 +2179,7 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>1115</v>
+        <v>1038</v>
       </c>
       <c r="Q25" t="n">
         <v>13</v>
@@ -2205,7 +2205,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44159</v>
+        <v>44910</v>
       </c>
       <c r="E26" t="n">
         <v>15</v>
@@ -2229,16 +2229,16 @@
         </is>
       </c>
       <c r="J26" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="K26" t="n">
-        <v>23000</v>
+        <v>14000</v>
       </c>
       <c r="L26" t="n">
-        <v>24000</v>
+        <v>15000</v>
       </c>
       <c r="M26" t="n">
-        <v>23500</v>
+        <v>14500</v>
       </c>
       <c r="N26" t="inlineStr">
         <is>
@@ -2251,7 +2251,7 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>1808</v>
+        <v>1115</v>
       </c>
       <c r="Q26" t="n">
         <v>13</v>
@@ -2277,7 +2277,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>45140</v>
+        <v>44159</v>
       </c>
       <c r="E27" t="n">
         <v>15</v>
@@ -2301,16 +2301,16 @@
         </is>
       </c>
       <c r="J27" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K27" t="n">
-        <v>16000</v>
+        <v>23000</v>
       </c>
       <c r="L27" t="n">
-        <v>17000</v>
+        <v>24000</v>
       </c>
       <c r="M27" t="n">
-        <v>16500</v>
+        <v>23500</v>
       </c>
       <c r="N27" t="inlineStr">
         <is>
@@ -2323,7 +2323,7 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>1269</v>
+        <v>1808</v>
       </c>
       <c r="Q27" t="n">
         <v>13</v>
@@ -2349,7 +2349,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44397</v>
+        <v>45140</v>
       </c>
       <c r="E28" t="n">
         <v>15</v>
@@ -2373,16 +2373,16 @@
         </is>
       </c>
       <c r="J28" t="n">
-        <v>140</v>
+        <v>200</v>
       </c>
       <c r="K28" t="n">
-        <v>12500</v>
+        <v>16000</v>
       </c>
       <c r="L28" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="M28" t="n">
-        <v>12750</v>
+        <v>16500</v>
       </c>
       <c r="N28" t="inlineStr">
         <is>
@@ -2395,7 +2395,7 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>981</v>
+        <v>1269</v>
       </c>
       <c r="Q28" t="n">
         <v>13</v>
@@ -2421,58 +2421,130 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
+        <v>44397</v>
+      </c>
+      <c r="E29" t="n">
+        <v>15</v>
+      </c>
+      <c r="F29" t="n">
+        <v>100114007</v>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>Jengibre</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J29" t="n">
+        <v>140</v>
+      </c>
+      <c r="K29" t="n">
+        <v>12500</v>
+      </c>
+      <c r="L29" t="n">
+        <v>13000</v>
+      </c>
+      <c r="M29" t="n">
+        <v>12750</v>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>$/caja 13 kilos</t>
+        </is>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>Perú</t>
+        </is>
+      </c>
+      <c r="P29" t="n">
+        <v>981</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>13</v>
+      </c>
+      <c r="R29" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>1</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Agrícola del Norte S.A. de Arica</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="n">
         <v>44616</v>
       </c>
-      <c r="E29" t="n">
-        <v>15</v>
-      </c>
-      <c r="F29" t="n">
-        <v>100114007</v>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>Jengibre</t>
-        </is>
-      </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>Sin especificar</t>
-        </is>
-      </c>
-      <c r="I29" t="inlineStr">
-        <is>
-          <t>Primera</t>
-        </is>
-      </c>
-      <c r="J29" t="n">
+      <c r="E30" t="n">
+        <v>15</v>
+      </c>
+      <c r="F30" t="n">
+        <v>100114007</v>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>Jengibre</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J30" t="n">
         <v>120</v>
       </c>
-      <c r="K29" t="n">
+      <c r="K30" t="n">
         <v>19000</v>
       </c>
-      <c r="L29" t="n">
+      <c r="L30" t="n">
         <v>20000</v>
       </c>
-      <c r="M29" t="n">
+      <c r="M30" t="n">
         <v>19500</v>
       </c>
-      <c r="N29" t="inlineStr">
-        <is>
-          <t>$/caja 13 kilos</t>
-        </is>
-      </c>
-      <c r="O29" t="inlineStr">
-        <is>
-          <t>Perú</t>
-        </is>
-      </c>
-      <c r="P29" t="n">
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>$/caja 13 kilos</t>
+        </is>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>Perú</t>
+        </is>
+      </c>
+      <c r="P30" t="n">
         <v>1500</v>
       </c>
-      <c r="Q29" t="n">
-        <v>13</v>
-      </c>
-      <c r="R29" t="inlineStr">
+      <c r="Q30" t="n">
+        <v>13</v>
+      </c>
+      <c r="R30" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Jengibre.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Jengibre.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R30"/>
+  <dimension ref="A1:R31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44469</v>
+        <v>45154</v>
       </c>
       <c r="E25" t="n">
         <v>15</v>
@@ -2157,16 +2157,16 @@
         </is>
       </c>
       <c r="J25" t="n">
-        <v>140</v>
+        <v>250</v>
       </c>
       <c r="K25" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="L25" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="M25" t="n">
-        <v>13500</v>
+        <v>17500</v>
       </c>
       <c r="N25" t="inlineStr">
         <is>
@@ -2179,7 +2179,7 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>1038</v>
+        <v>1346</v>
       </c>
       <c r="Q25" t="n">
         <v>13</v>
@@ -2205,7 +2205,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44910</v>
+        <v>44469</v>
       </c>
       <c r="E26" t="n">
         <v>15</v>
@@ -2229,16 +2229,16 @@
         </is>
       </c>
       <c r="J26" t="n">
-        <v>50</v>
+        <v>140</v>
       </c>
       <c r="K26" t="n">
+        <v>13000</v>
+      </c>
+      <c r="L26" t="n">
         <v>14000</v>
       </c>
-      <c r="L26" t="n">
-        <v>15000</v>
-      </c>
       <c r="M26" t="n">
-        <v>14500</v>
+        <v>13500</v>
       </c>
       <c r="N26" t="inlineStr">
         <is>
@@ -2251,7 +2251,7 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>1115</v>
+        <v>1038</v>
       </c>
       <c r="Q26" t="n">
         <v>13</v>
@@ -2277,7 +2277,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44159</v>
+        <v>44910</v>
       </c>
       <c r="E27" t="n">
         <v>15</v>
@@ -2301,16 +2301,16 @@
         </is>
       </c>
       <c r="J27" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="K27" t="n">
-        <v>23000</v>
+        <v>14000</v>
       </c>
       <c r="L27" t="n">
-        <v>24000</v>
+        <v>15000</v>
       </c>
       <c r="M27" t="n">
-        <v>23500</v>
+        <v>14500</v>
       </c>
       <c r="N27" t="inlineStr">
         <is>
@@ -2323,7 +2323,7 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>1808</v>
+        <v>1115</v>
       </c>
       <c r="Q27" t="n">
         <v>13</v>
@@ -2349,7 +2349,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>45140</v>
+        <v>44159</v>
       </c>
       <c r="E28" t="n">
         <v>15</v>
@@ -2373,16 +2373,16 @@
         </is>
       </c>
       <c r="J28" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K28" t="n">
-        <v>16000</v>
+        <v>23000</v>
       </c>
       <c r="L28" t="n">
-        <v>17000</v>
+        <v>24000</v>
       </c>
       <c r="M28" t="n">
-        <v>16500</v>
+        <v>23500</v>
       </c>
       <c r="N28" t="inlineStr">
         <is>
@@ -2395,7 +2395,7 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>1269</v>
+        <v>1808</v>
       </c>
       <c r="Q28" t="n">
         <v>13</v>
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44397</v>
+        <v>45140</v>
       </c>
       <c r="E29" t="n">
         <v>15</v>
@@ -2445,16 +2445,16 @@
         </is>
       </c>
       <c r="J29" t="n">
-        <v>140</v>
+        <v>200</v>
       </c>
       <c r="K29" t="n">
-        <v>12500</v>
+        <v>16000</v>
       </c>
       <c r="L29" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="M29" t="n">
-        <v>12750</v>
+        <v>16500</v>
       </c>
       <c r="N29" t="inlineStr">
         <is>
@@ -2467,7 +2467,7 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>981</v>
+        <v>1269</v>
       </c>
       <c r="Q29" t="n">
         <v>13</v>
@@ -2493,58 +2493,130 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
+        <v>44397</v>
+      </c>
+      <c r="E30" t="n">
+        <v>15</v>
+      </c>
+      <c r="F30" t="n">
+        <v>100114007</v>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>Jengibre</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J30" t="n">
+        <v>140</v>
+      </c>
+      <c r="K30" t="n">
+        <v>12500</v>
+      </c>
+      <c r="L30" t="n">
+        <v>13000</v>
+      </c>
+      <c r="M30" t="n">
+        <v>12750</v>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>$/caja 13 kilos</t>
+        </is>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>Perú</t>
+        </is>
+      </c>
+      <c r="P30" t="n">
+        <v>981</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>13</v>
+      </c>
+      <c r="R30" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>1</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Agrícola del Norte S.A. de Arica</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="D31" s="2" t="n">
         <v>44616</v>
       </c>
-      <c r="E30" t="n">
-        <v>15</v>
-      </c>
-      <c r="F30" t="n">
-        <v>100114007</v>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>Jengibre</t>
-        </is>
-      </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>Sin especificar</t>
-        </is>
-      </c>
-      <c r="I30" t="inlineStr">
-        <is>
-          <t>Primera</t>
-        </is>
-      </c>
-      <c r="J30" t="n">
+      <c r="E31" t="n">
+        <v>15</v>
+      </c>
+      <c r="F31" t="n">
+        <v>100114007</v>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>Jengibre</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J31" t="n">
         <v>120</v>
       </c>
-      <c r="K30" t="n">
+      <c r="K31" t="n">
         <v>19000</v>
       </c>
-      <c r="L30" t="n">
+      <c r="L31" t="n">
         <v>20000</v>
       </c>
-      <c r="M30" t="n">
+      <c r="M31" t="n">
         <v>19500</v>
       </c>
-      <c r="N30" t="inlineStr">
-        <is>
-          <t>$/caja 13 kilos</t>
-        </is>
-      </c>
-      <c r="O30" t="inlineStr">
-        <is>
-          <t>Perú</t>
-        </is>
-      </c>
-      <c r="P30" t="n">
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>$/caja 13 kilos</t>
+        </is>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>Perú</t>
+        </is>
+      </c>
+      <c r="P31" t="n">
         <v>1500</v>
       </c>
-      <c r="Q30" t="n">
-        <v>13</v>
-      </c>
-      <c r="R30" t="inlineStr">
+      <c r="Q31" t="n">
+        <v>13</v>
+      </c>
+      <c r="R31" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Jengibre.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Jengibre.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R31"/>
+  <dimension ref="A1:R32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44320</v>
+        <v>44389</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="K2" t="n">
-        <v>19000</v>
+        <v>12000</v>
       </c>
       <c r="L2" t="n">
-        <v>20000</v>
+        <v>13000</v>
       </c>
       <c r="M2" t="n">
-        <v>19500</v>
+        <v>12500</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>1500</v>
+        <v>962</v>
       </c>
       <c r="Q2" t="n">
         <v>13</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44389</v>
+        <v>45096</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>120</v>
+        <v>750</v>
       </c>
       <c r="K3" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="L3" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="M3" t="n">
-        <v>12500</v>
+        <v>14600</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>962</v>
+        <v>1123</v>
       </c>
       <c r="Q3" t="n">
         <v>13</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44918</v>
+        <v>44972</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -641,24 +641,24 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J4" t="n">
-        <v>200</v>
+        <v>350</v>
       </c>
       <c r="K4" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="L4" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="M4" t="n">
-        <v>12750</v>
+        <v>17429</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>$/caja 13 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
@@ -667,10 +667,10 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>981</v>
+        <v>1162</v>
       </c>
       <c r="Q4" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="R4" t="inlineStr">
         <is>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44764</v>
+        <v>44943</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -713,20 +713,20 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J5" t="n">
-        <v>200</v>
+        <v>350</v>
       </c>
       <c r="K5" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="L5" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="M5" t="n">
-        <v>12500</v>
+        <v>14429</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>962</v>
+        <v>1110</v>
       </c>
       <c r="Q5" t="n">
         <v>13</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44988</v>
+        <v>45155</v>
       </c>
       <c r="E6" t="n">
         <v>15</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>750</v>
+        <v>300</v>
       </c>
       <c r="K6" t="n">
+        <v>16000</v>
+      </c>
+      <c r="L6" t="n">
         <v>17000</v>
       </c>
-      <c r="L6" t="n">
-        <v>18000</v>
-      </c>
       <c r="M6" t="n">
-        <v>17400</v>
+        <v>16500</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>1338</v>
+        <v>1269</v>
       </c>
       <c r="Q6" t="n">
         <v>13</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44379</v>
+        <v>44918</v>
       </c>
       <c r="E7" t="n">
         <v>15</v>
@@ -857,11 +857,11 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J7" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="K7" t="n">
         <v>12000</v>
@@ -870,7 +870,7 @@
         <v>13000</v>
       </c>
       <c r="M7" t="n">
-        <v>12667</v>
+        <v>12750</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>974</v>
+        <v>981</v>
       </c>
       <c r="Q7" t="n">
         <v>13</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>45092</v>
+        <v>44616</v>
       </c>
       <c r="E8" t="n">
         <v>15</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>600</v>
+        <v>120</v>
       </c>
       <c r="K8" t="n">
-        <v>13000</v>
+        <v>19000</v>
       </c>
       <c r="L8" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="M8" t="n">
-        <v>13500</v>
+        <v>19500</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>1038</v>
+        <v>1500</v>
       </c>
       <c r="Q8" t="n">
         <v>13</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>45049</v>
+        <v>45028</v>
       </c>
       <c r="E9" t="n">
         <v>15</v>
@@ -1008,13 +1008,13 @@
         <v>300</v>
       </c>
       <c r="K9" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="L9" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="M9" t="n">
-        <v>13500</v>
+        <v>14500</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>1038</v>
+        <v>1115</v>
       </c>
       <c r="Q9" t="n">
         <v>13</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44592</v>
+        <v>44469</v>
       </c>
       <c r="E10" t="n">
         <v>15</v>
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="K10" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="L10" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="M10" t="n">
-        <v>12500</v>
+        <v>13500</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>962</v>
+        <v>1038</v>
       </c>
       <c r="Q10" t="n">
         <v>13</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44893</v>
+        <v>44379</v>
       </c>
       <c r="E11" t="n">
         <v>15</v>
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>900</v>
+        <v>120</v>
       </c>
       <c r="K11" t="n">
+        <v>12000</v>
+      </c>
+      <c r="L11" t="n">
         <v>13000</v>
       </c>
-      <c r="L11" t="n">
-        <v>14000</v>
-      </c>
       <c r="M11" t="n">
-        <v>13444</v>
+        <v>12667</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>1034</v>
+        <v>974</v>
       </c>
       <c r="Q11" t="n">
         <v>13</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44914</v>
+        <v>45154</v>
       </c>
       <c r="E12" t="n">
         <v>15</v>
@@ -1221,16 +1221,16 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="K12" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="L12" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="M12" t="n">
-        <v>14400</v>
+        <v>17500</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>1108</v>
+        <v>1346</v>
       </c>
       <c r="Q12" t="n">
         <v>13</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44943</v>
+        <v>44406</v>
       </c>
       <c r="E13" t="n">
         <v>15</v>
@@ -1289,20 +1289,20 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J13" t="n">
-        <v>350</v>
+        <v>160</v>
       </c>
       <c r="K13" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="L13" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="M13" t="n">
-        <v>14429</v>
+        <v>17500</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>1110</v>
+        <v>1346</v>
       </c>
       <c r="Q13" t="n">
         <v>13</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>45096</v>
+        <v>44832</v>
       </c>
       <c r="E14" t="n">
         <v>15</v>
@@ -1365,16 +1365,16 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>750</v>
+        <v>100</v>
       </c>
       <c r="K14" t="n">
+        <v>13000</v>
+      </c>
+      <c r="L14" t="n">
         <v>14000</v>
       </c>
-      <c r="L14" t="n">
-        <v>15000</v>
-      </c>
       <c r="M14" t="n">
-        <v>14600</v>
+        <v>13500</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>1123</v>
+        <v>1038</v>
       </c>
       <c r="Q14" t="n">
         <v>13</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>45141</v>
+        <v>44592</v>
       </c>
       <c r="E16" t="n">
         <v>15</v>
@@ -1509,16 +1509,16 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>400</v>
+        <v>120</v>
       </c>
       <c r="K16" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="L16" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="M16" t="n">
-        <v>16550</v>
+        <v>12500</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>1273</v>
+        <v>962</v>
       </c>
       <c r="Q16" t="n">
         <v>13</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44832</v>
+        <v>44988</v>
       </c>
       <c r="E17" t="n">
         <v>15</v>
@@ -1581,16 +1581,16 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>100</v>
+        <v>750</v>
       </c>
       <c r="K17" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="L17" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="M17" t="n">
-        <v>13500</v>
+        <v>17400</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>1038</v>
+        <v>1338</v>
       </c>
       <c r="Q17" t="n">
         <v>13</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44406</v>
+        <v>45049</v>
       </c>
       <c r="E18" t="n">
         <v>15</v>
@@ -1653,16 +1653,16 @@
         </is>
       </c>
       <c r="J18" t="n">
-        <v>160</v>
+        <v>300</v>
       </c>
       <c r="K18" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="L18" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="M18" t="n">
-        <v>17500</v>
+        <v>13500</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1675,7 +1675,7 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>1346</v>
+        <v>1038</v>
       </c>
       <c r="Q18" t="n">
         <v>13</v>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44890</v>
+        <v>44580</v>
       </c>
       <c r="E20" t="n">
         <v>15</v>
@@ -1797,16 +1797,16 @@
         </is>
       </c>
       <c r="J20" t="n">
-        <v>300</v>
+        <v>160</v>
       </c>
       <c r="K20" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="L20" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="M20" t="n">
-        <v>14500</v>
+        <v>11500</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
@@ -1819,7 +1819,7 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>1115</v>
+        <v>885</v>
       </c>
       <c r="Q20" t="n">
         <v>13</v>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>45028</v>
+        <v>44159</v>
       </c>
       <c r="E21" t="n">
         <v>15</v>
@@ -1869,16 +1869,16 @@
         </is>
       </c>
       <c r="J21" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="K21" t="n">
-        <v>14000</v>
+        <v>23000</v>
       </c>
       <c r="L21" t="n">
-        <v>15000</v>
+        <v>24000</v>
       </c>
       <c r="M21" t="n">
-        <v>14500</v>
+        <v>23500</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
@@ -1891,7 +1891,7 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>1115</v>
+        <v>1808</v>
       </c>
       <c r="Q21" t="n">
         <v>13</v>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44580</v>
+        <v>44914</v>
       </c>
       <c r="E22" t="n">
         <v>15</v>
@@ -1941,16 +1941,16 @@
         </is>
       </c>
       <c r="J22" t="n">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="K22" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="L22" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="M22" t="n">
-        <v>11500</v>
+        <v>14400</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
@@ -1963,7 +1963,7 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>885</v>
+        <v>1108</v>
       </c>
       <c r="Q22" t="n">
         <v>13</v>
@@ -1989,7 +1989,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>45100</v>
+        <v>44910</v>
       </c>
       <c r="E23" t="n">
         <v>15</v>
@@ -2013,16 +2013,16 @@
         </is>
       </c>
       <c r="J23" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="K23" t="n">
+        <v>14000</v>
+      </c>
+      <c r="L23" t="n">
         <v>15000</v>
       </c>
-      <c r="L23" t="n">
-        <v>16000</v>
-      </c>
       <c r="M23" t="n">
-        <v>15500</v>
+        <v>14500</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
@@ -2035,7 +2035,7 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>1192</v>
+        <v>1115</v>
       </c>
       <c r="Q23" t="n">
         <v>13</v>
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44972</v>
+        <v>45100</v>
       </c>
       <c r="E24" t="n">
         <v>15</v>
@@ -2085,20 +2085,20 @@
         </is>
       </c>
       <c r="J24" t="n">
-        <v>350</v>
+        <v>200</v>
       </c>
       <c r="K24" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="L24" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="M24" t="n">
-        <v>17429</v>
+        <v>15500</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 13 kilos</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
@@ -2107,10 +2107,10 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>1162</v>
+        <v>1192</v>
       </c>
       <c r="Q24" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="R24" t="inlineStr">
         <is>
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>45154</v>
+        <v>44764</v>
       </c>
       <c r="E25" t="n">
         <v>15</v>
@@ -2157,16 +2157,16 @@
         </is>
       </c>
       <c r="J25" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="K25" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="L25" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="M25" t="n">
-        <v>17500</v>
+        <v>12500</v>
       </c>
       <c r="N25" t="inlineStr">
         <is>
@@ -2179,7 +2179,7 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>1346</v>
+        <v>962</v>
       </c>
       <c r="Q25" t="n">
         <v>13</v>
@@ -2205,7 +2205,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44469</v>
+        <v>45140</v>
       </c>
       <c r="E26" t="n">
         <v>15</v>
@@ -2229,16 +2229,16 @@
         </is>
       </c>
       <c r="J26" t="n">
-        <v>140</v>
+        <v>200</v>
       </c>
       <c r="K26" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="L26" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="M26" t="n">
-        <v>13500</v>
+        <v>16500</v>
       </c>
       <c r="N26" t="inlineStr">
         <is>
@@ -2251,7 +2251,7 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>1038</v>
+        <v>1269</v>
       </c>
       <c r="Q26" t="n">
         <v>13</v>
@@ -2277,7 +2277,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44910</v>
+        <v>45092</v>
       </c>
       <c r="E27" t="n">
         <v>15</v>
@@ -2301,16 +2301,16 @@
         </is>
       </c>
       <c r="J27" t="n">
-        <v>50</v>
+        <v>600</v>
       </c>
       <c r="K27" t="n">
+        <v>13000</v>
+      </c>
+      <c r="L27" t="n">
         <v>14000</v>
       </c>
-      <c r="L27" t="n">
-        <v>15000</v>
-      </c>
       <c r="M27" t="n">
-        <v>14500</v>
+        <v>13500</v>
       </c>
       <c r="N27" t="inlineStr">
         <is>
@@ -2323,7 +2323,7 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>1115</v>
+        <v>1038</v>
       </c>
       <c r="Q27" t="n">
         <v>13</v>
@@ -2349,7 +2349,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44159</v>
+        <v>44320</v>
       </c>
       <c r="E28" t="n">
         <v>15</v>
@@ -2373,16 +2373,16 @@
         </is>
       </c>
       <c r="J28" t="n">
-        <v>100</v>
+        <v>160</v>
       </c>
       <c r="K28" t="n">
-        <v>23000</v>
+        <v>19000</v>
       </c>
       <c r="L28" t="n">
-        <v>24000</v>
+        <v>20000</v>
       </c>
       <c r="M28" t="n">
-        <v>23500</v>
+        <v>19500</v>
       </c>
       <c r="N28" t="inlineStr">
         <is>
@@ -2395,7 +2395,7 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>1808</v>
+        <v>1500</v>
       </c>
       <c r="Q28" t="n">
         <v>13</v>
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>45140</v>
+        <v>45141</v>
       </c>
       <c r="E29" t="n">
         <v>15</v>
@@ -2445,7 +2445,7 @@
         </is>
       </c>
       <c r="J29" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="K29" t="n">
         <v>16000</v>
@@ -2454,7 +2454,7 @@
         <v>17000</v>
       </c>
       <c r="M29" t="n">
-        <v>16500</v>
+        <v>16550</v>
       </c>
       <c r="N29" t="inlineStr">
         <is>
@@ -2467,7 +2467,7 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>1269</v>
+        <v>1273</v>
       </c>
       <c r="Q29" t="n">
         <v>13</v>
@@ -2565,7 +2565,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44616</v>
+        <v>44893</v>
       </c>
       <c r="E31" t="n">
         <v>15</v>
@@ -2589,16 +2589,16 @@
         </is>
       </c>
       <c r="J31" t="n">
-        <v>120</v>
+        <v>900</v>
       </c>
       <c r="K31" t="n">
-        <v>19000</v>
+        <v>13000</v>
       </c>
       <c r="L31" t="n">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="M31" t="n">
-        <v>19500</v>
+        <v>13444</v>
       </c>
       <c r="N31" t="inlineStr">
         <is>
@@ -2611,12 +2611,84 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>1500</v>
+        <v>1034</v>
       </c>
       <c r="Q31" t="n">
         <v>13</v>
       </c>
       <c r="R31" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>1</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Agrícola del Norte S.A. de Arica</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="n">
+        <v>44890</v>
+      </c>
+      <c r="E32" t="n">
+        <v>15</v>
+      </c>
+      <c r="F32" t="n">
+        <v>100114007</v>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>Jengibre</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J32" t="n">
+        <v>300</v>
+      </c>
+      <c r="K32" t="n">
+        <v>14000</v>
+      </c>
+      <c r="L32" t="n">
+        <v>15000</v>
+      </c>
+      <c r="M32" t="n">
+        <v>14500</v>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>$/caja 13 kilos</t>
+        </is>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>Perú</t>
+        </is>
+      </c>
+      <c r="P32" t="n">
+        <v>1115</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>13</v>
+      </c>
+      <c r="R32" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Jengibre.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Jengibre.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44389</v>
+        <v>44320</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="K2" t="n">
-        <v>12000</v>
+        <v>19000</v>
       </c>
       <c r="L2" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="M2" t="n">
-        <v>12500</v>
+        <v>19500</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>962</v>
+        <v>1500</v>
       </c>
       <c r="Q2" t="n">
         <v>13</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>45096</v>
+        <v>44389</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>750</v>
+        <v>120</v>
       </c>
       <c r="K3" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="L3" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="M3" t="n">
-        <v>14600</v>
+        <v>12500</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>1123</v>
+        <v>962</v>
       </c>
       <c r="Q3" t="n">
         <v>13</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44972</v>
+        <v>44918</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -641,24 +641,24 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J4" t="n">
-        <v>350</v>
+        <v>200</v>
       </c>
       <c r="K4" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="L4" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="M4" t="n">
-        <v>17429</v>
+        <v>12750</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 13 kilos</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
@@ -667,10 +667,10 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>1162</v>
+        <v>981</v>
       </c>
       <c r="Q4" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="R4" t="inlineStr">
         <is>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44943</v>
+        <v>44764</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -713,20 +713,20 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J5" t="n">
-        <v>350</v>
+        <v>200</v>
       </c>
       <c r="K5" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="L5" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="M5" t="n">
-        <v>14429</v>
+        <v>12500</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>1110</v>
+        <v>962</v>
       </c>
       <c r="Q5" t="n">
         <v>13</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>45155</v>
+        <v>44988</v>
       </c>
       <c r="E6" t="n">
         <v>15</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>300</v>
+        <v>750</v>
       </c>
       <c r="K6" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="L6" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="M6" t="n">
-        <v>16500</v>
+        <v>17400</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>1269</v>
+        <v>1338</v>
       </c>
       <c r="Q6" t="n">
         <v>13</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44918</v>
+        <v>44379</v>
       </c>
       <c r="E7" t="n">
         <v>15</v>
@@ -857,11 +857,11 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J7" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="K7" t="n">
         <v>12000</v>
@@ -870,7 +870,7 @@
         <v>13000</v>
       </c>
       <c r="M7" t="n">
-        <v>12750</v>
+        <v>12667</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>981</v>
+        <v>974</v>
       </c>
       <c r="Q7" t="n">
         <v>13</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44616</v>
+        <v>45092</v>
       </c>
       <c r="E8" t="n">
         <v>15</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>120</v>
+        <v>600</v>
       </c>
       <c r="K8" t="n">
-        <v>19000</v>
+        <v>13000</v>
       </c>
       <c r="L8" t="n">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="M8" t="n">
-        <v>19500</v>
+        <v>13500</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>1500</v>
+        <v>1038</v>
       </c>
       <c r="Q8" t="n">
         <v>13</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>45028</v>
+        <v>45049</v>
       </c>
       <c r="E9" t="n">
         <v>15</v>
@@ -1008,13 +1008,13 @@
         <v>300</v>
       </c>
       <c r="K9" t="n">
+        <v>13000</v>
+      </c>
+      <c r="L9" t="n">
         <v>14000</v>
       </c>
-      <c r="L9" t="n">
-        <v>15000</v>
-      </c>
       <c r="M9" t="n">
-        <v>14500</v>
+        <v>13500</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>1115</v>
+        <v>1038</v>
       </c>
       <c r="Q9" t="n">
         <v>13</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44469</v>
+        <v>44592</v>
       </c>
       <c r="E10" t="n">
         <v>15</v>
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="K10" t="n">
+        <v>12000</v>
+      </c>
+      <c r="L10" t="n">
         <v>13000</v>
       </c>
-      <c r="L10" t="n">
-        <v>14000</v>
-      </c>
       <c r="M10" t="n">
-        <v>13500</v>
+        <v>12500</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>1038</v>
+        <v>962</v>
       </c>
       <c r="Q10" t="n">
         <v>13</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44379</v>
+        <v>44893</v>
       </c>
       <c r="E11" t="n">
         <v>15</v>
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>120</v>
+        <v>900</v>
       </c>
       <c r="K11" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="L11" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="M11" t="n">
-        <v>12667</v>
+        <v>13444</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>974</v>
+        <v>1034</v>
       </c>
       <c r="Q11" t="n">
         <v>13</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>45154</v>
+        <v>44914</v>
       </c>
       <c r="E12" t="n">
         <v>15</v>
@@ -1221,16 +1221,16 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="K12" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="L12" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="M12" t="n">
-        <v>17500</v>
+        <v>14400</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>1346</v>
+        <v>1108</v>
       </c>
       <c r="Q12" t="n">
         <v>13</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44406</v>
+        <v>44943</v>
       </c>
       <c r="E13" t="n">
         <v>15</v>
@@ -1289,20 +1289,20 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J13" t="n">
-        <v>160</v>
+        <v>350</v>
       </c>
       <c r="K13" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="L13" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="M13" t="n">
-        <v>17500</v>
+        <v>14429</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>1346</v>
+        <v>1110</v>
       </c>
       <c r="Q13" t="n">
         <v>13</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44832</v>
+        <v>45096</v>
       </c>
       <c r="E14" t="n">
         <v>15</v>
@@ -1365,16 +1365,16 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>100</v>
+        <v>750</v>
       </c>
       <c r="K14" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="L14" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="M14" t="n">
-        <v>13500</v>
+        <v>14600</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>1038</v>
+        <v>1123</v>
       </c>
       <c r="Q14" t="n">
         <v>13</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44592</v>
+        <v>45155</v>
       </c>
       <c r="E16" t="n">
         <v>15</v>
@@ -1509,16 +1509,16 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="K16" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="L16" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="M16" t="n">
-        <v>12500</v>
+        <v>16500</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>962</v>
+        <v>1269</v>
       </c>
       <c r="Q16" t="n">
         <v>13</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44988</v>
+        <v>45141</v>
       </c>
       <c r="E17" t="n">
         <v>15</v>
@@ -1581,16 +1581,16 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>750</v>
+        <v>400</v>
       </c>
       <c r="K17" t="n">
+        <v>16000</v>
+      </c>
+      <c r="L17" t="n">
         <v>17000</v>
       </c>
-      <c r="L17" t="n">
-        <v>18000</v>
-      </c>
       <c r="M17" t="n">
-        <v>17400</v>
+        <v>16550</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>1338</v>
+        <v>1273</v>
       </c>
       <c r="Q17" t="n">
         <v>13</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>45049</v>
+        <v>44832</v>
       </c>
       <c r="E18" t="n">
         <v>15</v>
@@ -1653,7 +1653,7 @@
         </is>
       </c>
       <c r="J18" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="K18" t="n">
         <v>13000</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44984</v>
+        <v>44406</v>
       </c>
       <c r="E19" t="n">
         <v>15</v>
@@ -1725,16 +1725,16 @@
         </is>
       </c>
       <c r="J19" t="n">
-        <v>400</v>
+        <v>160</v>
       </c>
       <c r="K19" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="L19" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="M19" t="n">
-        <v>16500</v>
+        <v>17500</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>1269</v>
+        <v>1346</v>
       </c>
       <c r="Q19" t="n">
         <v>13</v>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44580</v>
+        <v>44984</v>
       </c>
       <c r="E20" t="n">
         <v>15</v>
@@ -1797,16 +1797,16 @@
         </is>
       </c>
       <c r="J20" t="n">
-        <v>160</v>
+        <v>400</v>
       </c>
       <c r="K20" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="L20" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="M20" t="n">
-        <v>11500</v>
+        <v>16500</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
@@ -1819,7 +1819,7 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>885</v>
+        <v>1269</v>
       </c>
       <c r="Q20" t="n">
         <v>13</v>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44159</v>
+        <v>44890</v>
       </c>
       <c r="E21" t="n">
         <v>15</v>
@@ -1869,16 +1869,16 @@
         </is>
       </c>
       <c r="J21" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="K21" t="n">
-        <v>23000</v>
+        <v>14000</v>
       </c>
       <c r="L21" t="n">
-        <v>24000</v>
+        <v>15000</v>
       </c>
       <c r="M21" t="n">
-        <v>23500</v>
+        <v>14500</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
@@ -1891,7 +1891,7 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>1808</v>
+        <v>1115</v>
       </c>
       <c r="Q21" t="n">
         <v>13</v>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44914</v>
+        <v>45028</v>
       </c>
       <c r="E22" t="n">
         <v>15</v>
@@ -1941,7 +1941,7 @@
         </is>
       </c>
       <c r="J22" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="K22" t="n">
         <v>14000</v>
@@ -1950,7 +1950,7 @@
         <v>15000</v>
       </c>
       <c r="M22" t="n">
-        <v>14400</v>
+        <v>14500</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
@@ -1963,7 +1963,7 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>1108</v>
+        <v>1115</v>
       </c>
       <c r="Q22" t="n">
         <v>13</v>
@@ -1989,7 +1989,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44910</v>
+        <v>44580</v>
       </c>
       <c r="E23" t="n">
         <v>15</v>
@@ -2013,16 +2013,16 @@
         </is>
       </c>
       <c r="J23" t="n">
-        <v>50</v>
+        <v>160</v>
       </c>
       <c r="K23" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="L23" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="M23" t="n">
-        <v>14500</v>
+        <v>11500</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
@@ -2035,7 +2035,7 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>1115</v>
+        <v>885</v>
       </c>
       <c r="Q23" t="n">
         <v>13</v>
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44764</v>
+        <v>44972</v>
       </c>
       <c r="E25" t="n">
         <v>15</v>
@@ -2157,20 +2157,20 @@
         </is>
       </c>
       <c r="J25" t="n">
-        <v>200</v>
+        <v>350</v>
       </c>
       <c r="K25" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="L25" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="M25" t="n">
-        <v>12500</v>
+        <v>17429</v>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>$/caja 13 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
@@ -2179,10 +2179,10 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>962</v>
+        <v>1162</v>
       </c>
       <c r="Q25" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="R25" t="inlineStr">
         <is>
@@ -2205,7 +2205,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>45140</v>
+        <v>45154</v>
       </c>
       <c r="E26" t="n">
         <v>15</v>
@@ -2229,16 +2229,16 @@
         </is>
       </c>
       <c r="J26" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="K26" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="L26" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="M26" t="n">
-        <v>16500</v>
+        <v>17500</v>
       </c>
       <c r="N26" t="inlineStr">
         <is>
@@ -2251,7 +2251,7 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>1269</v>
+        <v>1346</v>
       </c>
       <c r="Q26" t="n">
         <v>13</v>
@@ -2277,7 +2277,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>45092</v>
+        <v>44469</v>
       </c>
       <c r="E27" t="n">
         <v>15</v>
@@ -2301,7 +2301,7 @@
         </is>
       </c>
       <c r="J27" t="n">
-        <v>600</v>
+        <v>140</v>
       </c>
       <c r="K27" t="n">
         <v>13000</v>
@@ -2349,7 +2349,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44320</v>
+        <v>44910</v>
       </c>
       <c r="E28" t="n">
         <v>15</v>
@@ -2373,16 +2373,16 @@
         </is>
       </c>
       <c r="J28" t="n">
-        <v>160</v>
+        <v>50</v>
       </c>
       <c r="K28" t="n">
-        <v>19000</v>
+        <v>14000</v>
       </c>
       <c r="L28" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="M28" t="n">
-        <v>19500</v>
+        <v>14500</v>
       </c>
       <c r="N28" t="inlineStr">
         <is>
@@ -2395,7 +2395,7 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>1500</v>
+        <v>1115</v>
       </c>
       <c r="Q28" t="n">
         <v>13</v>
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>45141</v>
+        <v>44159</v>
       </c>
       <c r="E29" t="n">
         <v>15</v>
@@ -2445,16 +2445,16 @@
         </is>
       </c>
       <c r="J29" t="n">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="K29" t="n">
-        <v>16000</v>
+        <v>23000</v>
       </c>
       <c r="L29" t="n">
-        <v>17000</v>
+        <v>24000</v>
       </c>
       <c r="M29" t="n">
-        <v>16550</v>
+        <v>23500</v>
       </c>
       <c r="N29" t="inlineStr">
         <is>
@@ -2467,7 +2467,7 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>1273</v>
+        <v>1808</v>
       </c>
       <c r="Q29" t="n">
         <v>13</v>
@@ -2493,7 +2493,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44397</v>
+        <v>45140</v>
       </c>
       <c r="E30" t="n">
         <v>15</v>
@@ -2517,16 +2517,16 @@
         </is>
       </c>
       <c r="J30" t="n">
-        <v>140</v>
+        <v>200</v>
       </c>
       <c r="K30" t="n">
-        <v>12500</v>
+        <v>16000</v>
       </c>
       <c r="L30" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="M30" t="n">
-        <v>12750</v>
+        <v>16500</v>
       </c>
       <c r="N30" t="inlineStr">
         <is>
@@ -2539,7 +2539,7 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>981</v>
+        <v>1269</v>
       </c>
       <c r="Q30" t="n">
         <v>13</v>
@@ -2565,7 +2565,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44893</v>
+        <v>44397</v>
       </c>
       <c r="E31" t="n">
         <v>15</v>
@@ -2589,16 +2589,16 @@
         </is>
       </c>
       <c r="J31" t="n">
-        <v>900</v>
+        <v>140</v>
       </c>
       <c r="K31" t="n">
+        <v>12500</v>
+      </c>
+      <c r="L31" t="n">
         <v>13000</v>
       </c>
-      <c r="L31" t="n">
-        <v>14000</v>
-      </c>
       <c r="M31" t="n">
-        <v>13444</v>
+        <v>12750</v>
       </c>
       <c r="N31" t="inlineStr">
         <is>
@@ -2611,7 +2611,7 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>1034</v>
+        <v>981</v>
       </c>
       <c r="Q31" t="n">
         <v>13</v>
@@ -2637,7 +2637,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44890</v>
+        <v>44616</v>
       </c>
       <c r="E32" t="n">
         <v>15</v>
@@ -2661,16 +2661,16 @@
         </is>
       </c>
       <c r="J32" t="n">
-        <v>300</v>
+        <v>120</v>
       </c>
       <c r="K32" t="n">
-        <v>14000</v>
+        <v>19000</v>
       </c>
       <c r="L32" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="M32" t="n">
-        <v>14500</v>
+        <v>19500</v>
       </c>
       <c r="N32" t="inlineStr">
         <is>
@@ -2683,7 +2683,7 @@
         </is>
       </c>
       <c r="P32" t="n">
-        <v>1115</v>
+        <v>1500</v>
       </c>
       <c r="Q32" t="n">
         <v>13</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Jengibre.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Jengibre.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44320</v>
+        <v>44389</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="K2" t="n">
-        <v>19000</v>
+        <v>12000</v>
       </c>
       <c r="L2" t="n">
-        <v>20000</v>
+        <v>13000</v>
       </c>
       <c r="M2" t="n">
-        <v>19500</v>
+        <v>12500</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>1500</v>
+        <v>962</v>
       </c>
       <c r="Q2" t="n">
         <v>13</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44389</v>
+        <v>45096</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>120</v>
+        <v>750</v>
       </c>
       <c r="K3" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="L3" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="M3" t="n">
-        <v>12500</v>
+        <v>14600</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>962</v>
+        <v>1123</v>
       </c>
       <c r="Q3" t="n">
         <v>13</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44918</v>
+        <v>44972</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -641,24 +641,24 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J4" t="n">
-        <v>200</v>
+        <v>350</v>
       </c>
       <c r="K4" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="L4" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="M4" t="n">
-        <v>12750</v>
+        <v>17429</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>$/caja 13 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
@@ -667,10 +667,10 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>981</v>
+        <v>1162</v>
       </c>
       <c r="Q4" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="R4" t="inlineStr">
         <is>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44764</v>
+        <v>44943</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -713,20 +713,20 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J5" t="n">
-        <v>200</v>
+        <v>350</v>
       </c>
       <c r="K5" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="L5" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="M5" t="n">
-        <v>12500</v>
+        <v>14429</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>962</v>
+        <v>1110</v>
       </c>
       <c r="Q5" t="n">
         <v>13</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44988</v>
+        <v>45155</v>
       </c>
       <c r="E6" t="n">
         <v>15</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>750</v>
+        <v>300</v>
       </c>
       <c r="K6" t="n">
+        <v>16000</v>
+      </c>
+      <c r="L6" t="n">
         <v>17000</v>
       </c>
-      <c r="L6" t="n">
-        <v>18000</v>
-      </c>
       <c r="M6" t="n">
-        <v>17400</v>
+        <v>16500</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>1338</v>
+        <v>1269</v>
       </c>
       <c r="Q6" t="n">
         <v>13</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44379</v>
+        <v>44918</v>
       </c>
       <c r="E7" t="n">
         <v>15</v>
@@ -857,11 +857,11 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J7" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="K7" t="n">
         <v>12000</v>
@@ -870,7 +870,7 @@
         <v>13000</v>
       </c>
       <c r="M7" t="n">
-        <v>12667</v>
+        <v>12750</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>974</v>
+        <v>981</v>
       </c>
       <c r="Q7" t="n">
         <v>13</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>45092</v>
+        <v>44616</v>
       </c>
       <c r="E8" t="n">
         <v>15</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>600</v>
+        <v>120</v>
       </c>
       <c r="K8" t="n">
-        <v>13000</v>
+        <v>19000</v>
       </c>
       <c r="L8" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="M8" t="n">
-        <v>13500</v>
+        <v>19500</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>1038</v>
+        <v>1500</v>
       </c>
       <c r="Q8" t="n">
         <v>13</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>45049</v>
+        <v>45028</v>
       </c>
       <c r="E9" t="n">
         <v>15</v>
@@ -1008,13 +1008,13 @@
         <v>300</v>
       </c>
       <c r="K9" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="L9" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="M9" t="n">
-        <v>13500</v>
+        <v>14500</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>1038</v>
+        <v>1115</v>
       </c>
       <c r="Q9" t="n">
         <v>13</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44592</v>
+        <v>44469</v>
       </c>
       <c r="E10" t="n">
         <v>15</v>
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="K10" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="L10" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="M10" t="n">
-        <v>12500</v>
+        <v>13500</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>962</v>
+        <v>1038</v>
       </c>
       <c r="Q10" t="n">
         <v>13</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44893</v>
+        <v>44379</v>
       </c>
       <c r="E11" t="n">
         <v>15</v>
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>900</v>
+        <v>120</v>
       </c>
       <c r="K11" t="n">
+        <v>12000</v>
+      </c>
+      <c r="L11" t="n">
         <v>13000</v>
       </c>
-      <c r="L11" t="n">
-        <v>14000</v>
-      </c>
       <c r="M11" t="n">
-        <v>13444</v>
+        <v>12667</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>1034</v>
+        <v>974</v>
       </c>
       <c r="Q11" t="n">
         <v>13</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44914</v>
+        <v>45154</v>
       </c>
       <c r="E12" t="n">
         <v>15</v>
@@ -1221,16 +1221,16 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="K12" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="L12" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="M12" t="n">
-        <v>14400</v>
+        <v>17500</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>1108</v>
+        <v>1346</v>
       </c>
       <c r="Q12" t="n">
         <v>13</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44943</v>
+        <v>44406</v>
       </c>
       <c r="E13" t="n">
         <v>15</v>
@@ -1289,20 +1289,20 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J13" t="n">
-        <v>350</v>
+        <v>160</v>
       </c>
       <c r="K13" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="L13" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="M13" t="n">
-        <v>14429</v>
+        <v>17500</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>1110</v>
+        <v>1346</v>
       </c>
       <c r="Q13" t="n">
         <v>13</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>45096</v>
+        <v>44832</v>
       </c>
       <c r="E14" t="n">
         <v>15</v>
@@ -1365,16 +1365,16 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>750</v>
+        <v>100</v>
       </c>
       <c r="K14" t="n">
+        <v>13000</v>
+      </c>
+      <c r="L14" t="n">
         <v>14000</v>
       </c>
-      <c r="L14" t="n">
-        <v>15000</v>
-      </c>
       <c r="M14" t="n">
-        <v>14600</v>
+        <v>13500</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>1123</v>
+        <v>1038</v>
       </c>
       <c r="Q14" t="n">
         <v>13</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>45155</v>
+        <v>44592</v>
       </c>
       <c r="E16" t="n">
         <v>15</v>
@@ -1509,16 +1509,16 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>300</v>
+        <v>120</v>
       </c>
       <c r="K16" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="L16" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="M16" t="n">
-        <v>16500</v>
+        <v>12500</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>1269</v>
+        <v>962</v>
       </c>
       <c r="Q16" t="n">
         <v>13</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>45141</v>
+        <v>44988</v>
       </c>
       <c r="E17" t="n">
         <v>15</v>
@@ -1581,16 +1581,16 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>400</v>
+        <v>750</v>
       </c>
       <c r="K17" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="L17" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="M17" t="n">
-        <v>16550</v>
+        <v>17400</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>1273</v>
+        <v>1338</v>
       </c>
       <c r="Q17" t="n">
         <v>13</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44832</v>
+        <v>45049</v>
       </c>
       <c r="E18" t="n">
         <v>15</v>
@@ -1653,7 +1653,7 @@
         </is>
       </c>
       <c r="J18" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="K18" t="n">
         <v>13000</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44406</v>
+        <v>44984</v>
       </c>
       <c r="E19" t="n">
         <v>15</v>
@@ -1725,16 +1725,16 @@
         </is>
       </c>
       <c r="J19" t="n">
-        <v>160</v>
+        <v>400</v>
       </c>
       <c r="K19" t="n">
+        <v>16000</v>
+      </c>
+      <c r="L19" t="n">
         <v>17000</v>
       </c>
-      <c r="L19" t="n">
-        <v>18000</v>
-      </c>
       <c r="M19" t="n">
-        <v>17500</v>
+        <v>16500</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>1346</v>
+        <v>1269</v>
       </c>
       <c r="Q19" t="n">
         <v>13</v>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44984</v>
+        <v>44580</v>
       </c>
       <c r="E20" t="n">
         <v>15</v>
@@ -1797,16 +1797,16 @@
         </is>
       </c>
       <c r="J20" t="n">
-        <v>400</v>
+        <v>160</v>
       </c>
       <c r="K20" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="L20" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="M20" t="n">
-        <v>16500</v>
+        <v>11500</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
@@ -1819,7 +1819,7 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>1269</v>
+        <v>885</v>
       </c>
       <c r="Q20" t="n">
         <v>13</v>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44890</v>
+        <v>44159</v>
       </c>
       <c r="E21" t="n">
         <v>15</v>
@@ -1869,16 +1869,16 @@
         </is>
       </c>
       <c r="J21" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="K21" t="n">
-        <v>14000</v>
+        <v>23000</v>
       </c>
       <c r="L21" t="n">
-        <v>15000</v>
+        <v>24000</v>
       </c>
       <c r="M21" t="n">
-        <v>14500</v>
+        <v>23500</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
@@ -1891,7 +1891,7 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>1115</v>
+        <v>1808</v>
       </c>
       <c r="Q21" t="n">
         <v>13</v>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>45028</v>
+        <v>44914</v>
       </c>
       <c r="E22" t="n">
         <v>15</v>
@@ -1941,7 +1941,7 @@
         </is>
       </c>
       <c r="J22" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="K22" t="n">
         <v>14000</v>
@@ -1950,7 +1950,7 @@
         <v>15000</v>
       </c>
       <c r="M22" t="n">
-        <v>14500</v>
+        <v>14400</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
@@ -1963,7 +1963,7 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>1115</v>
+        <v>1108</v>
       </c>
       <c r="Q22" t="n">
         <v>13</v>
@@ -1989,7 +1989,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44580</v>
+        <v>44910</v>
       </c>
       <c r="E23" t="n">
         <v>15</v>
@@ -2013,16 +2013,16 @@
         </is>
       </c>
       <c r="J23" t="n">
-        <v>160</v>
+        <v>50</v>
       </c>
       <c r="K23" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="L23" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="M23" t="n">
-        <v>11500</v>
+        <v>14500</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
@@ -2035,7 +2035,7 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>885</v>
+        <v>1115</v>
       </c>
       <c r="Q23" t="n">
         <v>13</v>
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44972</v>
+        <v>44764</v>
       </c>
       <c r="E25" t="n">
         <v>15</v>
@@ -2157,20 +2157,20 @@
         </is>
       </c>
       <c r="J25" t="n">
-        <v>350</v>
+        <v>200</v>
       </c>
       <c r="K25" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="L25" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="M25" t="n">
-        <v>17429</v>
+        <v>12500</v>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 13 kilos</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
@@ -2179,10 +2179,10 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>1162</v>
+        <v>962</v>
       </c>
       <c r="Q25" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="R25" t="inlineStr">
         <is>
@@ -2205,7 +2205,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>45154</v>
+        <v>45140</v>
       </c>
       <c r="E26" t="n">
         <v>15</v>
@@ -2229,16 +2229,16 @@
         </is>
       </c>
       <c r="J26" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="K26" t="n">
+        <v>16000</v>
+      </c>
+      <c r="L26" t="n">
         <v>17000</v>
       </c>
-      <c r="L26" t="n">
-        <v>18000</v>
-      </c>
       <c r="M26" t="n">
-        <v>17500</v>
+        <v>16500</v>
       </c>
       <c r="N26" t="inlineStr">
         <is>
@@ -2251,7 +2251,7 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>1346</v>
+        <v>1269</v>
       </c>
       <c r="Q26" t="n">
         <v>13</v>
@@ -2277,7 +2277,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44469</v>
+        <v>45092</v>
       </c>
       <c r="E27" t="n">
         <v>15</v>
@@ -2301,7 +2301,7 @@
         </is>
       </c>
       <c r="J27" t="n">
-        <v>140</v>
+        <v>600</v>
       </c>
       <c r="K27" t="n">
         <v>13000</v>
@@ -2349,7 +2349,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44910</v>
+        <v>44320</v>
       </c>
       <c r="E28" t="n">
         <v>15</v>
@@ -2373,16 +2373,16 @@
         </is>
       </c>
       <c r="J28" t="n">
-        <v>50</v>
+        <v>160</v>
       </c>
       <c r="K28" t="n">
-        <v>14000</v>
+        <v>19000</v>
       </c>
       <c r="L28" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="M28" t="n">
-        <v>14500</v>
+        <v>19500</v>
       </c>
       <c r="N28" t="inlineStr">
         <is>
@@ -2395,7 +2395,7 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>1115</v>
+        <v>1500</v>
       </c>
       <c r="Q28" t="n">
         <v>13</v>
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44159</v>
+        <v>45141</v>
       </c>
       <c r="E29" t="n">
         <v>15</v>
@@ -2445,16 +2445,16 @@
         </is>
       </c>
       <c r="J29" t="n">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="K29" t="n">
-        <v>23000</v>
+        <v>16000</v>
       </c>
       <c r="L29" t="n">
-        <v>24000</v>
+        <v>17000</v>
       </c>
       <c r="M29" t="n">
-        <v>23500</v>
+        <v>16550</v>
       </c>
       <c r="N29" t="inlineStr">
         <is>
@@ -2467,7 +2467,7 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>1808</v>
+        <v>1273</v>
       </c>
       <c r="Q29" t="n">
         <v>13</v>
@@ -2493,7 +2493,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>45140</v>
+        <v>44397</v>
       </c>
       <c r="E30" t="n">
         <v>15</v>
@@ -2517,16 +2517,16 @@
         </is>
       </c>
       <c r="J30" t="n">
-        <v>200</v>
+        <v>140</v>
       </c>
       <c r="K30" t="n">
-        <v>16000</v>
+        <v>12500</v>
       </c>
       <c r="L30" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="M30" t="n">
-        <v>16500</v>
+        <v>12750</v>
       </c>
       <c r="N30" t="inlineStr">
         <is>
@@ -2539,7 +2539,7 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>1269</v>
+        <v>981</v>
       </c>
       <c r="Q30" t="n">
         <v>13</v>
@@ -2565,7 +2565,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44397</v>
+        <v>44893</v>
       </c>
       <c r="E31" t="n">
         <v>15</v>
@@ -2589,16 +2589,16 @@
         </is>
       </c>
       <c r="J31" t="n">
-        <v>140</v>
+        <v>900</v>
       </c>
       <c r="K31" t="n">
-        <v>12500</v>
+        <v>13000</v>
       </c>
       <c r="L31" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="M31" t="n">
-        <v>12750</v>
+        <v>13444</v>
       </c>
       <c r="N31" t="inlineStr">
         <is>
@@ -2611,7 +2611,7 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>981</v>
+        <v>1034</v>
       </c>
       <c r="Q31" t="n">
         <v>13</v>
@@ -2637,7 +2637,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44616</v>
+        <v>44890</v>
       </c>
       <c r="E32" t="n">
         <v>15</v>
@@ -2661,16 +2661,16 @@
         </is>
       </c>
       <c r="J32" t="n">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="K32" t="n">
-        <v>19000</v>
+        <v>14000</v>
       </c>
       <c r="L32" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="M32" t="n">
-        <v>19500</v>
+        <v>14500</v>
       </c>
       <c r="N32" t="inlineStr">
         <is>
@@ -2683,7 +2683,7 @@
         </is>
       </c>
       <c r="P32" t="n">
-        <v>1500</v>
+        <v>1115</v>
       </c>
       <c r="Q32" t="n">
         <v>13</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Jengibre.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Jengibre.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44389</v>
+        <v>44832</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="K2" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="L2" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="M2" t="n">
-        <v>12500</v>
+        <v>13500</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>962</v>
+        <v>1038</v>
       </c>
       <c r="Q2" t="n">
         <v>13</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>45096</v>
+        <v>45141</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>750</v>
+        <v>400</v>
       </c>
       <c r="K3" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="L3" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="M3" t="n">
-        <v>14600</v>
+        <v>16550</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>1123</v>
+        <v>1273</v>
       </c>
       <c r="Q3" t="n">
         <v>13</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44972</v>
+        <v>44469</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -645,20 +645,20 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>350</v>
+        <v>140</v>
       </c>
       <c r="K4" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="L4" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="M4" t="n">
-        <v>17429</v>
+        <v>13500</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 13 kilos</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
@@ -667,10 +667,10 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>1162</v>
+        <v>1038</v>
       </c>
       <c r="Q4" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="R4" t="inlineStr">
         <is>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44943</v>
+        <v>44320</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -713,20 +713,20 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J5" t="n">
-        <v>350</v>
+        <v>160</v>
       </c>
       <c r="K5" t="n">
-        <v>14000</v>
+        <v>19000</v>
       </c>
       <c r="L5" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="M5" t="n">
-        <v>14429</v>
+        <v>19500</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>1110</v>
+        <v>1500</v>
       </c>
       <c r="Q5" t="n">
         <v>13</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44918</v>
+        <v>45154</v>
       </c>
       <c r="E7" t="n">
         <v>15</v>
@@ -857,20 +857,20 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J7" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="K7" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="L7" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="M7" t="n">
-        <v>12750</v>
+        <v>17500</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>981</v>
+        <v>1346</v>
       </c>
       <c r="Q7" t="n">
         <v>13</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44616</v>
+        <v>44159</v>
       </c>
       <c r="E8" t="n">
         <v>15</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="K8" t="n">
-        <v>19000</v>
+        <v>23000</v>
       </c>
       <c r="L8" t="n">
-        <v>20000</v>
+        <v>24000</v>
       </c>
       <c r="M8" t="n">
-        <v>19500</v>
+        <v>23500</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>1500</v>
+        <v>1808</v>
       </c>
       <c r="Q8" t="n">
         <v>13</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>45028</v>
+        <v>45049</v>
       </c>
       <c r="E9" t="n">
         <v>15</v>
@@ -1008,13 +1008,13 @@
         <v>300</v>
       </c>
       <c r="K9" t="n">
+        <v>13000</v>
+      </c>
+      <c r="L9" t="n">
         <v>14000</v>
       </c>
-      <c r="L9" t="n">
-        <v>15000</v>
-      </c>
       <c r="M9" t="n">
-        <v>14500</v>
+        <v>13500</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>1115</v>
+        <v>1038</v>
       </c>
       <c r="Q9" t="n">
         <v>13</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44469</v>
+        <v>44984</v>
       </c>
       <c r="E10" t="n">
         <v>15</v>
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>140</v>
+        <v>400</v>
       </c>
       <c r="K10" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="L10" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="M10" t="n">
-        <v>13500</v>
+        <v>16500</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>1038</v>
+        <v>1269</v>
       </c>
       <c r="Q10" t="n">
         <v>13</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44379</v>
+        <v>44406</v>
       </c>
       <c r="E11" t="n">
         <v>15</v>
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="K11" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="L11" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="M11" t="n">
-        <v>12667</v>
+        <v>17500</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>974</v>
+        <v>1346</v>
       </c>
       <c r="Q11" t="n">
         <v>13</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>45154</v>
+        <v>44910</v>
       </c>
       <c r="E12" t="n">
         <v>15</v>
@@ -1221,16 +1221,16 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>250</v>
+        <v>50</v>
       </c>
       <c r="K12" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="L12" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="M12" t="n">
-        <v>17500</v>
+        <v>14500</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>1346</v>
+        <v>1115</v>
       </c>
       <c r="Q12" t="n">
         <v>13</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44406</v>
+        <v>44397</v>
       </c>
       <c r="E13" t="n">
         <v>15</v>
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="K13" t="n">
-        <v>17000</v>
+        <v>12500</v>
       </c>
       <c r="L13" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="M13" t="n">
-        <v>17500</v>
+        <v>12750</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>1346</v>
+        <v>981</v>
       </c>
       <c r="Q13" t="n">
         <v>13</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44832</v>
+        <v>44379</v>
       </c>
       <c r="E14" t="n">
         <v>15</v>
@@ -1365,16 +1365,16 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="K14" t="n">
+        <v>12000</v>
+      </c>
+      <c r="L14" t="n">
         <v>13000</v>
       </c>
-      <c r="L14" t="n">
-        <v>14000</v>
-      </c>
       <c r="M14" t="n">
-        <v>13500</v>
+        <v>12667</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>1038</v>
+        <v>974</v>
       </c>
       <c r="Q14" t="n">
         <v>13</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44855</v>
+        <v>44389</v>
       </c>
       <c r="E15" t="n">
         <v>15</v>
@@ -1437,16 +1437,16 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>500</v>
+        <v>120</v>
       </c>
       <c r="K15" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="L15" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="M15" t="n">
-        <v>10000</v>
+        <v>12500</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>769</v>
+        <v>962</v>
       </c>
       <c r="Q15" t="n">
         <v>13</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44592</v>
+        <v>44890</v>
       </c>
       <c r="E16" t="n">
         <v>15</v>
@@ -1509,16 +1509,16 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="K16" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="L16" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="M16" t="n">
-        <v>12500</v>
+        <v>14500</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>962</v>
+        <v>1115</v>
       </c>
       <c r="Q16" t="n">
         <v>13</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44988</v>
+        <v>44580</v>
       </c>
       <c r="E17" t="n">
         <v>15</v>
@@ -1581,16 +1581,16 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>750</v>
+        <v>160</v>
       </c>
       <c r="K17" t="n">
-        <v>17000</v>
+        <v>11000</v>
       </c>
       <c r="L17" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="M17" t="n">
-        <v>17400</v>
+        <v>11500</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>1338</v>
+        <v>885</v>
       </c>
       <c r="Q17" t="n">
         <v>13</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>45049</v>
+        <v>45100</v>
       </c>
       <c r="E18" t="n">
         <v>15</v>
@@ -1653,16 +1653,16 @@
         </is>
       </c>
       <c r="J18" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K18" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="L18" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="M18" t="n">
-        <v>13500</v>
+        <v>15500</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1675,7 +1675,7 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>1038</v>
+        <v>1192</v>
       </c>
       <c r="Q18" t="n">
         <v>13</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44984</v>
+        <v>45028</v>
       </c>
       <c r="E19" t="n">
         <v>15</v>
@@ -1725,16 +1725,16 @@
         </is>
       </c>
       <c r="J19" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K19" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="L19" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="M19" t="n">
-        <v>16500</v>
+        <v>14500</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>1269</v>
+        <v>1115</v>
       </c>
       <c r="Q19" t="n">
         <v>13</v>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44580</v>
+        <v>44893</v>
       </c>
       <c r="E20" t="n">
         <v>15</v>
@@ -1797,16 +1797,16 @@
         </is>
       </c>
       <c r="J20" t="n">
-        <v>160</v>
+        <v>900</v>
       </c>
       <c r="K20" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="L20" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="M20" t="n">
-        <v>11500</v>
+        <v>13444</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
@@ -1819,7 +1819,7 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>885</v>
+        <v>1034</v>
       </c>
       <c r="Q20" t="n">
         <v>13</v>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44159</v>
+        <v>44764</v>
       </c>
       <c r="E21" t="n">
         <v>15</v>
@@ -1869,16 +1869,16 @@
         </is>
       </c>
       <c r="J21" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K21" t="n">
-        <v>23000</v>
+        <v>12000</v>
       </c>
       <c r="L21" t="n">
-        <v>24000</v>
+        <v>13000</v>
       </c>
       <c r="M21" t="n">
-        <v>23500</v>
+        <v>12500</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
@@ -1891,7 +1891,7 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>1808</v>
+        <v>962</v>
       </c>
       <c r="Q21" t="n">
         <v>13</v>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44914</v>
+        <v>44972</v>
       </c>
       <c r="E22" t="n">
         <v>15</v>
@@ -1941,20 +1941,20 @@
         </is>
       </c>
       <c r="J22" t="n">
-        <v>100</v>
+        <v>350</v>
       </c>
       <c r="K22" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="L22" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="M22" t="n">
-        <v>14400</v>
+        <v>17429</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>$/caja 13 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
@@ -1963,10 +1963,10 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>1108</v>
+        <v>1162</v>
       </c>
       <c r="Q22" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="R22" t="inlineStr">
         <is>
@@ -1989,7 +1989,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44910</v>
+        <v>45092</v>
       </c>
       <c r="E23" t="n">
         <v>15</v>
@@ -2013,16 +2013,16 @@
         </is>
       </c>
       <c r="J23" t="n">
-        <v>50</v>
+        <v>600</v>
       </c>
       <c r="K23" t="n">
+        <v>13000</v>
+      </c>
+      <c r="L23" t="n">
         <v>14000</v>
       </c>
-      <c r="L23" t="n">
-        <v>15000</v>
-      </c>
       <c r="M23" t="n">
-        <v>14500</v>
+        <v>13500</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
@@ -2035,7 +2035,7 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>1115</v>
+        <v>1038</v>
       </c>
       <c r="Q23" t="n">
         <v>13</v>
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>45100</v>
+        <v>44943</v>
       </c>
       <c r="E24" t="n">
         <v>15</v>
@@ -2081,20 +2081,20 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J24" t="n">
-        <v>200</v>
+        <v>350</v>
       </c>
       <c r="K24" t="n">
+        <v>14000</v>
+      </c>
+      <c r="L24" t="n">
         <v>15000</v>
       </c>
-      <c r="L24" t="n">
-        <v>16000</v>
-      </c>
       <c r="M24" t="n">
-        <v>15500</v>
+        <v>14429</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
@@ -2107,7 +2107,7 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>1192</v>
+        <v>1110</v>
       </c>
       <c r="Q24" t="n">
         <v>13</v>
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44764</v>
+        <v>44592</v>
       </c>
       <c r="E25" t="n">
         <v>15</v>
@@ -2157,7 +2157,7 @@
         </is>
       </c>
       <c r="J25" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="K25" t="n">
         <v>12000</v>
@@ -2205,7 +2205,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>45140</v>
+        <v>44914</v>
       </c>
       <c r="E26" t="n">
         <v>15</v>
@@ -2229,16 +2229,16 @@
         </is>
       </c>
       <c r="J26" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K26" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="L26" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="M26" t="n">
-        <v>16500</v>
+        <v>14400</v>
       </c>
       <c r="N26" t="inlineStr">
         <is>
@@ -2251,7 +2251,7 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>1269</v>
+        <v>1108</v>
       </c>
       <c r="Q26" t="n">
         <v>13</v>
@@ -2277,7 +2277,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>45092</v>
+        <v>44918</v>
       </c>
       <c r="E27" t="n">
         <v>15</v>
@@ -2297,20 +2297,20 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J27" t="n">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="K27" t="n">
+        <v>12000</v>
+      </c>
+      <c r="L27" t="n">
         <v>13000</v>
       </c>
-      <c r="L27" t="n">
-        <v>14000</v>
-      </c>
       <c r="M27" t="n">
-        <v>13500</v>
+        <v>12750</v>
       </c>
       <c r="N27" t="inlineStr">
         <is>
@@ -2323,7 +2323,7 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>1038</v>
+        <v>981</v>
       </c>
       <c r="Q27" t="n">
         <v>13</v>
@@ -2349,7 +2349,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44320</v>
+        <v>45096</v>
       </c>
       <c r="E28" t="n">
         <v>15</v>
@@ -2373,16 +2373,16 @@
         </is>
       </c>
       <c r="J28" t="n">
-        <v>160</v>
+        <v>750</v>
       </c>
       <c r="K28" t="n">
-        <v>19000</v>
+        <v>14000</v>
       </c>
       <c r="L28" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="M28" t="n">
-        <v>19500</v>
+        <v>14600</v>
       </c>
       <c r="N28" t="inlineStr">
         <is>
@@ -2395,7 +2395,7 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>1500</v>
+        <v>1123</v>
       </c>
       <c r="Q28" t="n">
         <v>13</v>
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>45141</v>
+        <v>44616</v>
       </c>
       <c r="E29" t="n">
         <v>15</v>
@@ -2445,16 +2445,16 @@
         </is>
       </c>
       <c r="J29" t="n">
-        <v>400</v>
+        <v>120</v>
       </c>
       <c r="K29" t="n">
-        <v>16000</v>
+        <v>19000</v>
       </c>
       <c r="L29" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="M29" t="n">
-        <v>16550</v>
+        <v>19500</v>
       </c>
       <c r="N29" t="inlineStr">
         <is>
@@ -2467,7 +2467,7 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>1273</v>
+        <v>1500</v>
       </c>
       <c r="Q29" t="n">
         <v>13</v>
@@ -2493,7 +2493,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44397</v>
+        <v>44988</v>
       </c>
       <c r="E30" t="n">
         <v>15</v>
@@ -2517,16 +2517,16 @@
         </is>
       </c>
       <c r="J30" t="n">
-        <v>140</v>
+        <v>750</v>
       </c>
       <c r="K30" t="n">
-        <v>12500</v>
+        <v>17000</v>
       </c>
       <c r="L30" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="M30" t="n">
-        <v>12750</v>
+        <v>17400</v>
       </c>
       <c r="N30" t="inlineStr">
         <is>
@@ -2539,7 +2539,7 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>981</v>
+        <v>1338</v>
       </c>
       <c r="Q30" t="n">
         <v>13</v>
@@ -2565,7 +2565,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44893</v>
+        <v>45140</v>
       </c>
       <c r="E31" t="n">
         <v>15</v>
@@ -2589,16 +2589,16 @@
         </is>
       </c>
       <c r="J31" t="n">
-        <v>900</v>
+        <v>200</v>
       </c>
       <c r="K31" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="L31" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="M31" t="n">
-        <v>13444</v>
+        <v>16500</v>
       </c>
       <c r="N31" t="inlineStr">
         <is>
@@ -2611,7 +2611,7 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>1034</v>
+        <v>1269</v>
       </c>
       <c r="Q31" t="n">
         <v>13</v>
@@ -2637,7 +2637,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44890</v>
+        <v>44855</v>
       </c>
       <c r="E32" t="n">
         <v>15</v>
@@ -2661,16 +2661,16 @@
         </is>
       </c>
       <c r="J32" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="K32" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="L32" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="M32" t="n">
-        <v>14500</v>
+        <v>10000</v>
       </c>
       <c r="N32" t="inlineStr">
         <is>
@@ -2683,7 +2683,7 @@
         </is>
       </c>
       <c r="P32" t="n">
-        <v>1115</v>
+        <v>769</v>
       </c>
       <c r="Q32" t="n">
         <v>13</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Jengibre.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Jengibre.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44832</v>
+        <v>45154</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="K2" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="L2" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="M2" t="n">
-        <v>13500</v>
+        <v>17500</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>1038</v>
+        <v>1346</v>
       </c>
       <c r="Q2" t="n">
         <v>13</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>45141</v>
+        <v>45028</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K3" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="L3" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="M3" t="n">
-        <v>16550</v>
+        <v>14500</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>1273</v>
+        <v>1115</v>
       </c>
       <c r="Q3" t="n">
         <v>13</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44469</v>
+        <v>44893</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -645,7 +645,7 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>140</v>
+        <v>900</v>
       </c>
       <c r="K4" t="n">
         <v>13000</v>
@@ -654,7 +654,7 @@
         <v>14000</v>
       </c>
       <c r="M4" t="n">
-        <v>13500</v>
+        <v>13444</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>1038</v>
+        <v>1034</v>
       </c>
       <c r="Q4" t="n">
         <v>13</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44320</v>
+        <v>45092</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>160</v>
+        <v>600</v>
       </c>
       <c r="K5" t="n">
-        <v>19000</v>
+        <v>13000</v>
       </c>
       <c r="L5" t="n">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="M5" t="n">
-        <v>19500</v>
+        <v>13500</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>1500</v>
+        <v>1038</v>
       </c>
       <c r="Q5" t="n">
         <v>13</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>45155</v>
+        <v>44764</v>
       </c>
       <c r="E6" t="n">
         <v>15</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K6" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="L6" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="M6" t="n">
-        <v>16500</v>
+        <v>12500</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>1269</v>
+        <v>962</v>
       </c>
       <c r="Q6" t="n">
         <v>13</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>45154</v>
+        <v>45049</v>
       </c>
       <c r="E7" t="n">
         <v>15</v>
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="K7" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="L7" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="M7" t="n">
-        <v>17500</v>
+        <v>13500</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>1346</v>
+        <v>1038</v>
       </c>
       <c r="Q7" t="n">
         <v>13</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44159</v>
+        <v>44616</v>
       </c>
       <c r="E8" t="n">
         <v>15</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="K8" t="n">
-        <v>23000</v>
+        <v>19000</v>
       </c>
       <c r="L8" t="n">
-        <v>24000</v>
+        <v>20000</v>
       </c>
       <c r="M8" t="n">
-        <v>23500</v>
+        <v>19500</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>1808</v>
+        <v>1500</v>
       </c>
       <c r="Q8" t="n">
         <v>13</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>45049</v>
+        <v>44379</v>
       </c>
       <c r="E9" t="n">
         <v>15</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>300</v>
+        <v>120</v>
       </c>
       <c r="K9" t="n">
+        <v>12000</v>
+      </c>
+      <c r="L9" t="n">
         <v>13000</v>
       </c>
-      <c r="L9" t="n">
-        <v>14000</v>
-      </c>
       <c r="M9" t="n">
-        <v>13500</v>
+        <v>12667</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>1038</v>
+        <v>974</v>
       </c>
       <c r="Q9" t="n">
         <v>13</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44984</v>
+        <v>44159</v>
       </c>
       <c r="E10" t="n">
         <v>15</v>
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="K10" t="n">
-        <v>16000</v>
+        <v>23000</v>
       </c>
       <c r="L10" t="n">
-        <v>17000</v>
+        <v>24000</v>
       </c>
       <c r="M10" t="n">
-        <v>16500</v>
+        <v>23500</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>1269</v>
+        <v>1808</v>
       </c>
       <c r="Q10" t="n">
         <v>13</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44406</v>
+        <v>44910</v>
       </c>
       <c r="E11" t="n">
         <v>15</v>
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>160</v>
+        <v>50</v>
       </c>
       <c r="K11" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="L11" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="M11" t="n">
-        <v>17500</v>
+        <v>14500</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>1346</v>
+        <v>1115</v>
       </c>
       <c r="Q11" t="n">
         <v>13</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44910</v>
+        <v>44469</v>
       </c>
       <c r="E12" t="n">
         <v>15</v>
@@ -1221,16 +1221,16 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>50</v>
+        <v>140</v>
       </c>
       <c r="K12" t="n">
+        <v>13000</v>
+      </c>
+      <c r="L12" t="n">
         <v>14000</v>
       </c>
-      <c r="L12" t="n">
-        <v>15000</v>
-      </c>
       <c r="M12" t="n">
-        <v>14500</v>
+        <v>13500</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>1115</v>
+        <v>1038</v>
       </c>
       <c r="Q12" t="n">
         <v>13</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44397</v>
+        <v>44592</v>
       </c>
       <c r="E13" t="n">
         <v>15</v>
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="K13" t="n">
-        <v>12500</v>
+        <v>12000</v>
       </c>
       <c r="L13" t="n">
         <v>13000</v>
       </c>
       <c r="M13" t="n">
-        <v>12750</v>
+        <v>12500</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>981</v>
+        <v>962</v>
       </c>
       <c r="Q13" t="n">
         <v>13</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44379</v>
+        <v>44972</v>
       </c>
       <c r="E14" t="n">
         <v>15</v>
@@ -1365,20 +1365,20 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>120</v>
+        <v>350</v>
       </c>
       <c r="K14" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="L14" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="M14" t="n">
-        <v>12667</v>
+        <v>17429</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>$/caja 13 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
@@ -1387,10 +1387,10 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>974</v>
+        <v>1162</v>
       </c>
       <c r="Q14" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="R14" t="inlineStr">
         <is>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44389</v>
+        <v>44988</v>
       </c>
       <c r="E15" t="n">
         <v>15</v>
@@ -1437,16 +1437,16 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>120</v>
+        <v>750</v>
       </c>
       <c r="K15" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="L15" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="M15" t="n">
-        <v>12500</v>
+        <v>17400</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>962</v>
+        <v>1338</v>
       </c>
       <c r="Q15" t="n">
         <v>13</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44580</v>
+        <v>45096</v>
       </c>
       <c r="E17" t="n">
         <v>15</v>
@@ -1581,16 +1581,16 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>160</v>
+        <v>750</v>
       </c>
       <c r="K17" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="L17" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="M17" t="n">
-        <v>11500</v>
+        <v>14600</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>885</v>
+        <v>1123</v>
       </c>
       <c r="Q17" t="n">
         <v>13</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>45100</v>
+        <v>44943</v>
       </c>
       <c r="E18" t="n">
         <v>15</v>
@@ -1649,20 +1649,20 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J18" t="n">
-        <v>200</v>
+        <v>350</v>
       </c>
       <c r="K18" t="n">
+        <v>14000</v>
+      </c>
+      <c r="L18" t="n">
         <v>15000</v>
       </c>
-      <c r="L18" t="n">
-        <v>16000</v>
-      </c>
       <c r="M18" t="n">
-        <v>15500</v>
+        <v>14429</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1675,7 +1675,7 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>1192</v>
+        <v>1110</v>
       </c>
       <c r="Q18" t="n">
         <v>13</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>45028</v>
+        <v>44984</v>
       </c>
       <c r="E19" t="n">
         <v>15</v>
@@ -1725,16 +1725,16 @@
         </is>
       </c>
       <c r="J19" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K19" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="L19" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="M19" t="n">
-        <v>14500</v>
+        <v>16500</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>1115</v>
+        <v>1269</v>
       </c>
       <c r="Q19" t="n">
         <v>13</v>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44893</v>
+        <v>44320</v>
       </c>
       <c r="E20" t="n">
         <v>15</v>
@@ -1797,16 +1797,16 @@
         </is>
       </c>
       <c r="J20" t="n">
-        <v>900</v>
+        <v>160</v>
       </c>
       <c r="K20" t="n">
-        <v>13000</v>
+        <v>19000</v>
       </c>
       <c r="L20" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="M20" t="n">
-        <v>13444</v>
+        <v>19500</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
@@ -1819,7 +1819,7 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>1034</v>
+        <v>1500</v>
       </c>
       <c r="Q20" t="n">
         <v>13</v>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44764</v>
+        <v>44855</v>
       </c>
       <c r="E21" t="n">
         <v>15</v>
@@ -1869,16 +1869,16 @@
         </is>
       </c>
       <c r="J21" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="K21" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="L21" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="M21" t="n">
-        <v>12500</v>
+        <v>10000</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
@@ -1891,7 +1891,7 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>962</v>
+        <v>769</v>
       </c>
       <c r="Q21" t="n">
         <v>13</v>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44972</v>
+        <v>45155</v>
       </c>
       <c r="E22" t="n">
         <v>15</v>
@@ -1941,20 +1941,20 @@
         </is>
       </c>
       <c r="J22" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="K22" t="n">
+        <v>16000</v>
+      </c>
+      <c r="L22" t="n">
         <v>17000</v>
       </c>
-      <c r="L22" t="n">
-        <v>18000</v>
-      </c>
       <c r="M22" t="n">
-        <v>17429</v>
+        <v>16500</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 13 kilos</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
@@ -1963,10 +1963,10 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>1162</v>
+        <v>1269</v>
       </c>
       <c r="Q22" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="R22" t="inlineStr">
         <is>
@@ -1989,7 +1989,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>45092</v>
+        <v>45100</v>
       </c>
       <c r="E23" t="n">
         <v>15</v>
@@ -2013,16 +2013,16 @@
         </is>
       </c>
       <c r="J23" t="n">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="K23" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="L23" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="M23" t="n">
-        <v>13500</v>
+        <v>15500</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
@@ -2035,7 +2035,7 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>1038</v>
+        <v>1192</v>
       </c>
       <c r="Q23" t="n">
         <v>13</v>
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44943</v>
+        <v>45141</v>
       </c>
       <c r="E24" t="n">
         <v>15</v>
@@ -2081,20 +2081,20 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J24" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="K24" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="L24" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="M24" t="n">
-        <v>14429</v>
+        <v>16550</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
@@ -2107,7 +2107,7 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>1110</v>
+        <v>1273</v>
       </c>
       <c r="Q24" t="n">
         <v>13</v>
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44592</v>
+        <v>44389</v>
       </c>
       <c r="E25" t="n">
         <v>15</v>
@@ -2277,7 +2277,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44918</v>
+        <v>44580</v>
       </c>
       <c r="E27" t="n">
         <v>15</v>
@@ -2297,20 +2297,20 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J27" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="K27" t="n">
+        <v>11000</v>
+      </c>
+      <c r="L27" t="n">
         <v>12000</v>
       </c>
-      <c r="L27" t="n">
-        <v>13000</v>
-      </c>
       <c r="M27" t="n">
-        <v>12750</v>
+        <v>11500</v>
       </c>
       <c r="N27" t="inlineStr">
         <is>
@@ -2323,7 +2323,7 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>981</v>
+        <v>885</v>
       </c>
       <c r="Q27" t="n">
         <v>13</v>
@@ -2349,7 +2349,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>45096</v>
+        <v>44406</v>
       </c>
       <c r="E28" t="n">
         <v>15</v>
@@ -2373,16 +2373,16 @@
         </is>
       </c>
       <c r="J28" t="n">
-        <v>750</v>
+        <v>160</v>
       </c>
       <c r="K28" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="L28" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="M28" t="n">
-        <v>14600</v>
+        <v>17500</v>
       </c>
       <c r="N28" t="inlineStr">
         <is>
@@ -2395,7 +2395,7 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>1123</v>
+        <v>1346</v>
       </c>
       <c r="Q28" t="n">
         <v>13</v>
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44616</v>
+        <v>44918</v>
       </c>
       <c r="E29" t="n">
         <v>15</v>
@@ -2441,20 +2441,20 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J29" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="K29" t="n">
-        <v>19000</v>
+        <v>12000</v>
       </c>
       <c r="L29" t="n">
-        <v>20000</v>
+        <v>13000</v>
       </c>
       <c r="M29" t="n">
-        <v>19500</v>
+        <v>12750</v>
       </c>
       <c r="N29" t="inlineStr">
         <is>
@@ -2467,7 +2467,7 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>1500</v>
+        <v>981</v>
       </c>
       <c r="Q29" t="n">
         <v>13</v>
@@ -2493,7 +2493,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44988</v>
+        <v>45140</v>
       </c>
       <c r="E30" t="n">
         <v>15</v>
@@ -2517,16 +2517,16 @@
         </is>
       </c>
       <c r="J30" t="n">
-        <v>750</v>
+        <v>200</v>
       </c>
       <c r="K30" t="n">
+        <v>16000</v>
+      </c>
+      <c r="L30" t="n">
         <v>17000</v>
       </c>
-      <c r="L30" t="n">
-        <v>18000</v>
-      </c>
       <c r="M30" t="n">
-        <v>17400</v>
+        <v>16500</v>
       </c>
       <c r="N30" t="inlineStr">
         <is>
@@ -2539,7 +2539,7 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>1338</v>
+        <v>1269</v>
       </c>
       <c r="Q30" t="n">
         <v>13</v>
@@ -2565,7 +2565,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>45140</v>
+        <v>44397</v>
       </c>
       <c r="E31" t="n">
         <v>15</v>
@@ -2589,16 +2589,16 @@
         </is>
       </c>
       <c r="J31" t="n">
-        <v>200</v>
+        <v>140</v>
       </c>
       <c r="K31" t="n">
-        <v>16000</v>
+        <v>12500</v>
       </c>
       <c r="L31" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="M31" t="n">
-        <v>16500</v>
+        <v>12750</v>
       </c>
       <c r="N31" t="inlineStr">
         <is>
@@ -2611,7 +2611,7 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>1269</v>
+        <v>981</v>
       </c>
       <c r="Q31" t="n">
         <v>13</v>
@@ -2637,7 +2637,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44855</v>
+        <v>44832</v>
       </c>
       <c r="E32" t="n">
         <v>15</v>
@@ -2661,16 +2661,16 @@
         </is>
       </c>
       <c r="J32" t="n">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="K32" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="L32" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="M32" t="n">
-        <v>10000</v>
+        <v>13500</v>
       </c>
       <c r="N32" t="inlineStr">
         <is>
@@ -2683,7 +2683,7 @@
         </is>
       </c>
       <c r="P32" t="n">
-        <v>769</v>
+        <v>1038</v>
       </c>
       <c r="Q32" t="n">
         <v>13</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Jengibre.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Jengibre.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>45154</v>
+        <v>44832</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="K2" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="L2" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="M2" t="n">
-        <v>17500</v>
+        <v>13500</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>1346</v>
+        <v>1038</v>
       </c>
       <c r="Q2" t="n">
         <v>13</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>45028</v>
+        <v>44855</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="K3" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="L3" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="M3" t="n">
-        <v>14500</v>
+        <v>10000</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>1115</v>
+        <v>769</v>
       </c>
       <c r="Q3" t="n">
         <v>13</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44893</v>
+        <v>45141</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>900</v>
+        <v>400</v>
       </c>
       <c r="K4" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="L4" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="M4" t="n">
-        <v>13444</v>
+        <v>16550</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>1034</v>
+        <v>1273</v>
       </c>
       <c r="Q4" t="n">
         <v>13</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44764</v>
+        <v>44406</v>
       </c>
       <c r="E6" t="n">
         <v>15</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="K6" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="L6" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="M6" t="n">
-        <v>12500</v>
+        <v>17500</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>962</v>
+        <v>1346</v>
       </c>
       <c r="Q6" t="n">
         <v>13</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>45049</v>
+        <v>44988</v>
       </c>
       <c r="E7" t="n">
         <v>15</v>
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>300</v>
+        <v>750</v>
       </c>
       <c r="K7" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="L7" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="M7" t="n">
-        <v>13500</v>
+        <v>17400</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>1038</v>
+        <v>1338</v>
       </c>
       <c r="Q7" t="n">
         <v>13</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44616</v>
+        <v>45096</v>
       </c>
       <c r="E8" t="n">
         <v>15</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>120</v>
+        <v>750</v>
       </c>
       <c r="K8" t="n">
-        <v>19000</v>
+        <v>14000</v>
       </c>
       <c r="L8" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="M8" t="n">
-        <v>19500</v>
+        <v>14600</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>1500</v>
+        <v>1123</v>
       </c>
       <c r="Q8" t="n">
         <v>13</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44379</v>
+        <v>45155</v>
       </c>
       <c r="E9" t="n">
         <v>15</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="K9" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="L9" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="M9" t="n">
-        <v>12667</v>
+        <v>16500</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>974</v>
+        <v>1269</v>
       </c>
       <c r="Q9" t="n">
         <v>13</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44159</v>
+        <v>44397</v>
       </c>
       <c r="E10" t="n">
         <v>15</v>
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="K10" t="n">
-        <v>23000</v>
+        <v>12500</v>
       </c>
       <c r="L10" t="n">
-        <v>24000</v>
+        <v>13000</v>
       </c>
       <c r="M10" t="n">
-        <v>23500</v>
+        <v>12750</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>1808</v>
+        <v>981</v>
       </c>
       <c r="Q10" t="n">
         <v>13</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44910</v>
+        <v>44914</v>
       </c>
       <c r="E11" t="n">
         <v>15</v>
@@ -1149,7 +1149,7 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="K11" t="n">
         <v>14000</v>
@@ -1158,7 +1158,7 @@
         <v>15000</v>
       </c>
       <c r="M11" t="n">
-        <v>14500</v>
+        <v>14400</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>1115</v>
+        <v>1108</v>
       </c>
       <c r="Q11" t="n">
         <v>13</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44469</v>
+        <v>44320</v>
       </c>
       <c r="E12" t="n">
         <v>15</v>
@@ -1221,16 +1221,16 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="K12" t="n">
-        <v>13000</v>
+        <v>19000</v>
       </c>
       <c r="L12" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="M12" t="n">
-        <v>13500</v>
+        <v>19500</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>1038</v>
+        <v>1500</v>
       </c>
       <c r="Q12" t="n">
         <v>13</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44592</v>
+        <v>44469</v>
       </c>
       <c r="E13" t="n">
         <v>15</v>
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="K13" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="L13" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="M13" t="n">
-        <v>12500</v>
+        <v>13500</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>962</v>
+        <v>1038</v>
       </c>
       <c r="Q13" t="n">
         <v>13</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44972</v>
+        <v>45100</v>
       </c>
       <c r="E14" t="n">
         <v>15</v>
@@ -1365,20 +1365,20 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>350</v>
+        <v>200</v>
       </c>
       <c r="K14" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="L14" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="M14" t="n">
-        <v>17429</v>
+        <v>15500</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 13 kilos</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
@@ -1387,10 +1387,10 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>1162</v>
+        <v>1192</v>
       </c>
       <c r="Q14" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="R14" t="inlineStr">
         <is>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44988</v>
+        <v>44943</v>
       </c>
       <c r="E15" t="n">
         <v>15</v>
@@ -1433,20 +1433,20 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J15" t="n">
-        <v>750</v>
+        <v>350</v>
       </c>
       <c r="K15" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="L15" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="M15" t="n">
-        <v>17400</v>
+        <v>14429</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>1338</v>
+        <v>1110</v>
       </c>
       <c r="Q15" t="n">
         <v>13</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44890</v>
+        <v>44379</v>
       </c>
       <c r="E16" t="n">
         <v>15</v>
@@ -1509,16 +1509,16 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>300</v>
+        <v>120</v>
       </c>
       <c r="K16" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="L16" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="M16" t="n">
-        <v>14500</v>
+        <v>12667</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>1115</v>
+        <v>974</v>
       </c>
       <c r="Q16" t="n">
         <v>13</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>45096</v>
+        <v>44389</v>
       </c>
       <c r="E17" t="n">
         <v>15</v>
@@ -1581,16 +1581,16 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>750</v>
+        <v>120</v>
       </c>
       <c r="K17" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="L17" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="M17" t="n">
-        <v>14600</v>
+        <v>12500</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>1123</v>
+        <v>962</v>
       </c>
       <c r="Q17" t="n">
         <v>13</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44943</v>
+        <v>44580</v>
       </c>
       <c r="E18" t="n">
         <v>15</v>
@@ -1649,20 +1649,20 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J18" t="n">
-        <v>350</v>
+        <v>160</v>
       </c>
       <c r="K18" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="L18" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="M18" t="n">
-        <v>14429</v>
+        <v>11500</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1675,7 +1675,7 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>1110</v>
+        <v>885</v>
       </c>
       <c r="Q18" t="n">
         <v>13</v>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44320</v>
+        <v>45154</v>
       </c>
       <c r="E20" t="n">
         <v>15</v>
@@ -1797,16 +1797,16 @@
         </is>
       </c>
       <c r="J20" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K20" t="n">
-        <v>19000</v>
+        <v>17000</v>
       </c>
       <c r="L20" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="M20" t="n">
-        <v>19500</v>
+        <v>17500</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
@@ -1819,7 +1819,7 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>1500</v>
+        <v>1346</v>
       </c>
       <c r="Q20" t="n">
         <v>13</v>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44855</v>
+        <v>45049</v>
       </c>
       <c r="E21" t="n">
         <v>15</v>
@@ -1869,16 +1869,16 @@
         </is>
       </c>
       <c r="J21" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="K21" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="L21" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="M21" t="n">
-        <v>10000</v>
+        <v>13500</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
@@ -1891,7 +1891,7 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>769</v>
+        <v>1038</v>
       </c>
       <c r="Q21" t="n">
         <v>13</v>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>45155</v>
+        <v>44592</v>
       </c>
       <c r="E22" t="n">
         <v>15</v>
@@ -1941,16 +1941,16 @@
         </is>
       </c>
       <c r="J22" t="n">
-        <v>300</v>
+        <v>120</v>
       </c>
       <c r="K22" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="L22" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="M22" t="n">
-        <v>16500</v>
+        <v>12500</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
@@ -1963,7 +1963,7 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>1269</v>
+        <v>962</v>
       </c>
       <c r="Q22" t="n">
         <v>13</v>
@@ -1989,7 +1989,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>45100</v>
+        <v>44890</v>
       </c>
       <c r="E23" t="n">
         <v>15</v>
@@ -2013,16 +2013,16 @@
         </is>
       </c>
       <c r="J23" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K23" t="n">
+        <v>14000</v>
+      </c>
+      <c r="L23" t="n">
         <v>15000</v>
       </c>
-      <c r="L23" t="n">
-        <v>16000</v>
-      </c>
       <c r="M23" t="n">
-        <v>15500</v>
+        <v>14500</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
@@ -2035,7 +2035,7 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>1192</v>
+        <v>1115</v>
       </c>
       <c r="Q23" t="n">
         <v>13</v>
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>45141</v>
+        <v>44616</v>
       </c>
       <c r="E24" t="n">
         <v>15</v>
@@ -2085,16 +2085,16 @@
         </is>
       </c>
       <c r="J24" t="n">
-        <v>400</v>
+        <v>120</v>
       </c>
       <c r="K24" t="n">
-        <v>16000</v>
+        <v>19000</v>
       </c>
       <c r="L24" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="M24" t="n">
-        <v>16550</v>
+        <v>19500</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
@@ -2107,7 +2107,7 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>1273</v>
+        <v>1500</v>
       </c>
       <c r="Q24" t="n">
         <v>13</v>
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44389</v>
+        <v>44764</v>
       </c>
       <c r="E25" t="n">
         <v>15</v>
@@ -2157,7 +2157,7 @@
         </is>
       </c>
       <c r="J25" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="K25" t="n">
         <v>12000</v>
@@ -2205,7 +2205,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44914</v>
+        <v>44972</v>
       </c>
       <c r="E26" t="n">
         <v>15</v>
@@ -2229,20 +2229,20 @@
         </is>
       </c>
       <c r="J26" t="n">
-        <v>100</v>
+        <v>350</v>
       </c>
       <c r="K26" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="L26" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="M26" t="n">
-        <v>14400</v>
+        <v>17429</v>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>$/caja 13 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
@@ -2251,10 +2251,10 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>1108</v>
+        <v>1162</v>
       </c>
       <c r="Q26" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="R26" t="inlineStr">
         <is>
@@ -2277,7 +2277,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44580</v>
+        <v>45028</v>
       </c>
       <c r="E27" t="n">
         <v>15</v>
@@ -2301,16 +2301,16 @@
         </is>
       </c>
       <c r="J27" t="n">
-        <v>160</v>
+        <v>300</v>
       </c>
       <c r="K27" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="L27" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="M27" t="n">
-        <v>11500</v>
+        <v>14500</v>
       </c>
       <c r="N27" t="inlineStr">
         <is>
@@ -2323,7 +2323,7 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>885</v>
+        <v>1115</v>
       </c>
       <c r="Q27" t="n">
         <v>13</v>
@@ -2349,7 +2349,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44406</v>
+        <v>44159</v>
       </c>
       <c r="E28" t="n">
         <v>15</v>
@@ -2373,16 +2373,16 @@
         </is>
       </c>
       <c r="J28" t="n">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="K28" t="n">
-        <v>17000</v>
+        <v>23000</v>
       </c>
       <c r="L28" t="n">
-        <v>18000</v>
+        <v>24000</v>
       </c>
       <c r="M28" t="n">
-        <v>17500</v>
+        <v>23500</v>
       </c>
       <c r="N28" t="inlineStr">
         <is>
@@ -2395,7 +2395,7 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>1346</v>
+        <v>1808</v>
       </c>
       <c r="Q28" t="n">
         <v>13</v>
@@ -2493,7 +2493,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>45140</v>
+        <v>44910</v>
       </c>
       <c r="E30" t="n">
         <v>15</v>
@@ -2517,16 +2517,16 @@
         </is>
       </c>
       <c r="J30" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="K30" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="L30" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="M30" t="n">
-        <v>16500</v>
+        <v>14500</v>
       </c>
       <c r="N30" t="inlineStr">
         <is>
@@ -2539,7 +2539,7 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>1269</v>
+        <v>1115</v>
       </c>
       <c r="Q30" t="n">
         <v>13</v>
@@ -2565,7 +2565,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44397</v>
+        <v>45140</v>
       </c>
       <c r="E31" t="n">
         <v>15</v>
@@ -2589,16 +2589,16 @@
         </is>
       </c>
       <c r="J31" t="n">
-        <v>140</v>
+        <v>200</v>
       </c>
       <c r="K31" t="n">
-        <v>12500</v>
+        <v>16000</v>
       </c>
       <c r="L31" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="M31" t="n">
-        <v>12750</v>
+        <v>16500</v>
       </c>
       <c r="N31" t="inlineStr">
         <is>
@@ -2611,7 +2611,7 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>981</v>
+        <v>1269</v>
       </c>
       <c r="Q31" t="n">
         <v>13</v>
@@ -2637,7 +2637,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44832</v>
+        <v>44893</v>
       </c>
       <c r="E32" t="n">
         <v>15</v>
@@ -2661,7 +2661,7 @@
         </is>
       </c>
       <c r="J32" t="n">
-        <v>100</v>
+        <v>900</v>
       </c>
       <c r="K32" t="n">
         <v>13000</v>
@@ -2670,7 +2670,7 @@
         <v>14000</v>
       </c>
       <c r="M32" t="n">
-        <v>13500</v>
+        <v>13444</v>
       </c>
       <c r="N32" t="inlineStr">
         <is>
@@ -2683,7 +2683,7 @@
         </is>
       </c>
       <c r="P32" t="n">
-        <v>1038</v>
+        <v>1034</v>
       </c>
       <c r="Q32" t="n">
         <v>13</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Jengibre.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Jengibre.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44832</v>
+        <v>44406</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>100</v>
+        <v>160</v>
       </c>
       <c r="K2" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="L2" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="M2" t="n">
-        <v>13500</v>
+        <v>17500</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>1038</v>
+        <v>1346</v>
       </c>
       <c r="Q2" t="n">
         <v>13</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44855</v>
+        <v>44379</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>500</v>
+        <v>120</v>
       </c>
       <c r="K3" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="L3" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="M3" t="n">
-        <v>10000</v>
+        <v>12667</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>769</v>
+        <v>974</v>
       </c>
       <c r="Q3" t="n">
         <v>13</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>45141</v>
+        <v>44972</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -645,20 +645,20 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="K4" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="L4" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="M4" t="n">
-        <v>16550</v>
+        <v>17429</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>$/caja 13 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
@@ -667,10 +667,10 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>1273</v>
+        <v>1162</v>
       </c>
       <c r="Q4" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="R4" t="inlineStr">
         <is>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>45092</v>
+        <v>44159</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>600</v>
+        <v>100</v>
       </c>
       <c r="K5" t="n">
-        <v>13000</v>
+        <v>23000</v>
       </c>
       <c r="L5" t="n">
-        <v>14000</v>
+        <v>24000</v>
       </c>
       <c r="M5" t="n">
-        <v>13500</v>
+        <v>23500</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>1038</v>
+        <v>1808</v>
       </c>
       <c r="Q5" t="n">
         <v>13</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44406</v>
+        <v>45092</v>
       </c>
       <c r="E6" t="n">
         <v>15</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>160</v>
+        <v>600</v>
       </c>
       <c r="K6" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="L6" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="M6" t="n">
-        <v>17500</v>
+        <v>13500</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>1346</v>
+        <v>1038</v>
       </c>
       <c r="Q6" t="n">
         <v>13</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44988</v>
+        <v>44592</v>
       </c>
       <c r="E7" t="n">
         <v>15</v>
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>750</v>
+        <v>120</v>
       </c>
       <c r="K7" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="L7" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="M7" t="n">
-        <v>17400</v>
+        <v>12500</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>1338</v>
+        <v>962</v>
       </c>
       <c r="Q7" t="n">
         <v>13</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>45096</v>
+        <v>44910</v>
       </c>
       <c r="E8" t="n">
         <v>15</v>
@@ -933,7 +933,7 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>750</v>
+        <v>50</v>
       </c>
       <c r="K8" t="n">
         <v>14000</v>
@@ -942,7 +942,7 @@
         <v>15000</v>
       </c>
       <c r="M8" t="n">
-        <v>14600</v>
+        <v>14500</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>1123</v>
+        <v>1115</v>
       </c>
       <c r="Q8" t="n">
         <v>13</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>45155</v>
+        <v>44580</v>
       </c>
       <c r="E9" t="n">
         <v>15</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>300</v>
+        <v>160</v>
       </c>
       <c r="K9" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="L9" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="M9" t="n">
-        <v>16500</v>
+        <v>11500</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>1269</v>
+        <v>885</v>
       </c>
       <c r="Q9" t="n">
         <v>13</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44397</v>
+        <v>44469</v>
       </c>
       <c r="E10" t="n">
         <v>15</v>
@@ -1080,13 +1080,13 @@
         <v>140</v>
       </c>
       <c r="K10" t="n">
-        <v>12500</v>
+        <v>13000</v>
       </c>
       <c r="L10" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="M10" t="n">
-        <v>12750</v>
+        <v>13500</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>981</v>
+        <v>1038</v>
       </c>
       <c r="Q10" t="n">
         <v>13</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44914</v>
+        <v>44389</v>
       </c>
       <c r="E11" t="n">
         <v>15</v>
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="K11" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="L11" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="M11" t="n">
-        <v>14400</v>
+        <v>12500</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>1108</v>
+        <v>962</v>
       </c>
       <c r="Q11" t="n">
         <v>13</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44320</v>
+        <v>44890</v>
       </c>
       <c r="E12" t="n">
         <v>15</v>
@@ -1221,16 +1221,16 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>160</v>
+        <v>300</v>
       </c>
       <c r="K12" t="n">
-        <v>19000</v>
+        <v>14000</v>
       </c>
       <c r="L12" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="M12" t="n">
-        <v>19500</v>
+        <v>14500</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>1500</v>
+        <v>1115</v>
       </c>
       <c r="Q12" t="n">
         <v>13</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44469</v>
+        <v>44988</v>
       </c>
       <c r="E13" t="n">
         <v>15</v>
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>140</v>
+        <v>750</v>
       </c>
       <c r="K13" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="L13" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="M13" t="n">
-        <v>13500</v>
+        <v>17400</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>1038</v>
+        <v>1338</v>
       </c>
       <c r="Q13" t="n">
         <v>13</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>45100</v>
+        <v>45049</v>
       </c>
       <c r="E14" t="n">
         <v>15</v>
@@ -1365,16 +1365,16 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K14" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="L14" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="M14" t="n">
-        <v>15500</v>
+        <v>13500</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>1192</v>
+        <v>1038</v>
       </c>
       <c r="Q14" t="n">
         <v>13</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44943</v>
+        <v>44984</v>
       </c>
       <c r="E15" t="n">
         <v>15</v>
@@ -1433,20 +1433,20 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J15" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="K15" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="L15" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="M15" t="n">
-        <v>14429</v>
+        <v>16500</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>1110</v>
+        <v>1269</v>
       </c>
       <c r="Q15" t="n">
         <v>13</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44379</v>
+        <v>44397</v>
       </c>
       <c r="E16" t="n">
         <v>15</v>
@@ -1509,16 +1509,16 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="K16" t="n">
-        <v>12000</v>
+        <v>12500</v>
       </c>
       <c r="L16" t="n">
         <v>13000</v>
       </c>
       <c r="M16" t="n">
-        <v>12667</v>
+        <v>12750</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>974</v>
+        <v>981</v>
       </c>
       <c r="Q16" t="n">
         <v>13</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44389</v>
+        <v>45141</v>
       </c>
       <c r="E17" t="n">
         <v>15</v>
@@ -1581,16 +1581,16 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>120</v>
+        <v>400</v>
       </c>
       <c r="K17" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="L17" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="M17" t="n">
-        <v>12500</v>
+        <v>16550</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>962</v>
+        <v>1273</v>
       </c>
       <c r="Q17" t="n">
         <v>13</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44580</v>
+        <v>45154</v>
       </c>
       <c r="E18" t="n">
         <v>15</v>
@@ -1653,16 +1653,16 @@
         </is>
       </c>
       <c r="J18" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K18" t="n">
-        <v>11000</v>
+        <v>17000</v>
       </c>
       <c r="L18" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="M18" t="n">
-        <v>11500</v>
+        <v>17500</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1675,7 +1675,7 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>885</v>
+        <v>1346</v>
       </c>
       <c r="Q18" t="n">
         <v>13</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44984</v>
+        <v>45155</v>
       </c>
       <c r="E19" t="n">
         <v>15</v>
@@ -1725,7 +1725,7 @@
         </is>
       </c>
       <c r="J19" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K19" t="n">
         <v>16000</v>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>45154</v>
+        <v>44893</v>
       </c>
       <c r="E20" t="n">
         <v>15</v>
@@ -1797,16 +1797,16 @@
         </is>
       </c>
       <c r="J20" t="n">
-        <v>250</v>
+        <v>900</v>
       </c>
       <c r="K20" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="L20" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="M20" t="n">
-        <v>17500</v>
+        <v>13444</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
@@ -1819,7 +1819,7 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>1346</v>
+        <v>1034</v>
       </c>
       <c r="Q20" t="n">
         <v>13</v>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>45049</v>
+        <v>44832</v>
       </c>
       <c r="E21" t="n">
         <v>15</v>
@@ -1869,7 +1869,7 @@
         </is>
       </c>
       <c r="J21" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="K21" t="n">
         <v>13000</v>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44592</v>
+        <v>45096</v>
       </c>
       <c r="E22" t="n">
         <v>15</v>
@@ -1941,16 +1941,16 @@
         </is>
       </c>
       <c r="J22" t="n">
-        <v>120</v>
+        <v>750</v>
       </c>
       <c r="K22" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="L22" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="M22" t="n">
-        <v>12500</v>
+        <v>14600</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
@@ -1963,7 +1963,7 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>962</v>
+        <v>1123</v>
       </c>
       <c r="Q22" t="n">
         <v>13</v>
@@ -1989,7 +1989,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44890</v>
+        <v>45100</v>
       </c>
       <c r="E23" t="n">
         <v>15</v>
@@ -2013,16 +2013,16 @@
         </is>
       </c>
       <c r="J23" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K23" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="L23" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="M23" t="n">
-        <v>14500</v>
+        <v>15500</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
@@ -2035,7 +2035,7 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>1115</v>
+        <v>1192</v>
       </c>
       <c r="Q23" t="n">
         <v>13</v>
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44616</v>
+        <v>44855</v>
       </c>
       <c r="E24" t="n">
         <v>15</v>
@@ -2085,16 +2085,16 @@
         </is>
       </c>
       <c r="J24" t="n">
-        <v>120</v>
+        <v>500</v>
       </c>
       <c r="K24" t="n">
-        <v>19000</v>
+        <v>10000</v>
       </c>
       <c r="L24" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="M24" t="n">
-        <v>19500</v>
+        <v>10000</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
@@ -2107,7 +2107,7 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>1500</v>
+        <v>769</v>
       </c>
       <c r="Q24" t="n">
         <v>13</v>
@@ -2205,7 +2205,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44972</v>
+        <v>44320</v>
       </c>
       <c r="E26" t="n">
         <v>15</v>
@@ -2229,20 +2229,20 @@
         </is>
       </c>
       <c r="J26" t="n">
-        <v>350</v>
+        <v>160</v>
       </c>
       <c r="K26" t="n">
-        <v>17000</v>
+        <v>19000</v>
       </c>
       <c r="L26" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="M26" t="n">
-        <v>17429</v>
+        <v>19500</v>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 13 kilos</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
@@ -2251,10 +2251,10 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>1162</v>
+        <v>1500</v>
       </c>
       <c r="Q26" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="R26" t="inlineStr">
         <is>
@@ -2277,7 +2277,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>45028</v>
+        <v>44943</v>
       </c>
       <c r="E27" t="n">
         <v>15</v>
@@ -2297,11 +2297,11 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J27" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="K27" t="n">
         <v>14000</v>
@@ -2310,7 +2310,7 @@
         <v>15000</v>
       </c>
       <c r="M27" t="n">
-        <v>14500</v>
+        <v>14429</v>
       </c>
       <c r="N27" t="inlineStr">
         <is>
@@ -2323,7 +2323,7 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>1115</v>
+        <v>1110</v>
       </c>
       <c r="Q27" t="n">
         <v>13</v>
@@ -2349,7 +2349,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44159</v>
+        <v>45140</v>
       </c>
       <c r="E28" t="n">
         <v>15</v>
@@ -2373,16 +2373,16 @@
         </is>
       </c>
       <c r="J28" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K28" t="n">
-        <v>23000</v>
+        <v>16000</v>
       </c>
       <c r="L28" t="n">
-        <v>24000</v>
+        <v>17000</v>
       </c>
       <c r="M28" t="n">
-        <v>23500</v>
+        <v>16500</v>
       </c>
       <c r="N28" t="inlineStr">
         <is>
@@ -2395,7 +2395,7 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>1808</v>
+        <v>1269</v>
       </c>
       <c r="Q28" t="n">
         <v>13</v>
@@ -2493,7 +2493,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44910</v>
+        <v>44616</v>
       </c>
       <c r="E30" t="n">
         <v>15</v>
@@ -2517,16 +2517,16 @@
         </is>
       </c>
       <c r="J30" t="n">
-        <v>50</v>
+        <v>120</v>
       </c>
       <c r="K30" t="n">
-        <v>14000</v>
+        <v>19000</v>
       </c>
       <c r="L30" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="M30" t="n">
-        <v>14500</v>
+        <v>19500</v>
       </c>
       <c r="N30" t="inlineStr">
         <is>
@@ -2539,7 +2539,7 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>1115</v>
+        <v>1500</v>
       </c>
       <c r="Q30" t="n">
         <v>13</v>
@@ -2565,7 +2565,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>45140</v>
+        <v>45028</v>
       </c>
       <c r="E31" t="n">
         <v>15</v>
@@ -2589,16 +2589,16 @@
         </is>
       </c>
       <c r="J31" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K31" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="L31" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="M31" t="n">
-        <v>16500</v>
+        <v>14500</v>
       </c>
       <c r="N31" t="inlineStr">
         <is>
@@ -2611,7 +2611,7 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>1269</v>
+        <v>1115</v>
       </c>
       <c r="Q31" t="n">
         <v>13</v>
@@ -2637,7 +2637,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44893</v>
+        <v>44914</v>
       </c>
       <c r="E32" t="n">
         <v>15</v>
@@ -2661,16 +2661,16 @@
         </is>
       </c>
       <c r="J32" t="n">
-        <v>900</v>
+        <v>100</v>
       </c>
       <c r="K32" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="L32" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="M32" t="n">
-        <v>13444</v>
+        <v>14400</v>
       </c>
       <c r="N32" t="inlineStr">
         <is>
@@ -2683,7 +2683,7 @@
         </is>
       </c>
       <c r="P32" t="n">
-        <v>1034</v>
+        <v>1108</v>
       </c>
       <c r="Q32" t="n">
         <v>13</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Jengibre.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Jengibre.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44406</v>
+        <v>44893</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>160</v>
+        <v>900</v>
       </c>
       <c r="K2" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="L2" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="M2" t="n">
-        <v>17500</v>
+        <v>13444</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>1346</v>
+        <v>1034</v>
       </c>
       <c r="Q2" t="n">
         <v>13</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44379</v>
+        <v>44984</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>120</v>
+        <v>400</v>
       </c>
       <c r="K3" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="L3" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="M3" t="n">
-        <v>12667</v>
+        <v>16500</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>974</v>
+        <v>1269</v>
       </c>
       <c r="Q3" t="n">
         <v>13</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44972</v>
+        <v>45141</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -645,20 +645,20 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="K4" t="n">
+        <v>16000</v>
+      </c>
+      <c r="L4" t="n">
         <v>17000</v>
       </c>
-      <c r="L4" t="n">
-        <v>18000</v>
-      </c>
       <c r="M4" t="n">
-        <v>17429</v>
+        <v>16550</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 13 kilos</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
@@ -667,10 +667,10 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>1162</v>
+        <v>1273</v>
       </c>
       <c r="Q4" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="R4" t="inlineStr">
         <is>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44159</v>
+        <v>45154</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="K5" t="n">
-        <v>23000</v>
+        <v>17000</v>
       </c>
       <c r="L5" t="n">
-        <v>24000</v>
+        <v>18000</v>
       </c>
       <c r="M5" t="n">
-        <v>23500</v>
+        <v>17500</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>1808</v>
+        <v>1346</v>
       </c>
       <c r="Q5" t="n">
         <v>13</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>45092</v>
+        <v>45155</v>
       </c>
       <c r="E6" t="n">
         <v>15</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="K6" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="L6" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="M6" t="n">
-        <v>13500</v>
+        <v>16500</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>1038</v>
+        <v>1269</v>
       </c>
       <c r="Q6" t="n">
         <v>13</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44592</v>
+        <v>44469</v>
       </c>
       <c r="E7" t="n">
         <v>15</v>
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="K7" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="L7" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="M7" t="n">
-        <v>12500</v>
+        <v>13500</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>962</v>
+        <v>1038</v>
       </c>
       <c r="Q7" t="n">
         <v>13</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44910</v>
+        <v>44406</v>
       </c>
       <c r="E8" t="n">
         <v>15</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>50</v>
+        <v>160</v>
       </c>
       <c r="K8" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="L8" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="M8" t="n">
-        <v>14500</v>
+        <v>17500</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>1115</v>
+        <v>1346</v>
       </c>
       <c r="Q8" t="n">
         <v>13</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44580</v>
+        <v>44592</v>
       </c>
       <c r="E9" t="n">
         <v>15</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="K9" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="L9" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="M9" t="n">
-        <v>11500</v>
+        <v>12500</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>885</v>
+        <v>962</v>
       </c>
       <c r="Q9" t="n">
         <v>13</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44469</v>
+        <v>44320</v>
       </c>
       <c r="E10" t="n">
         <v>15</v>
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="K10" t="n">
-        <v>13000</v>
+        <v>19000</v>
       </c>
       <c r="L10" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="M10" t="n">
-        <v>13500</v>
+        <v>19500</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>1038</v>
+        <v>1500</v>
       </c>
       <c r="Q10" t="n">
         <v>13</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44389</v>
+        <v>45028</v>
       </c>
       <c r="E11" t="n">
         <v>15</v>
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="K11" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="L11" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="M11" t="n">
-        <v>12500</v>
+        <v>14500</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>962</v>
+        <v>1115</v>
       </c>
       <c r="Q11" t="n">
         <v>13</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44890</v>
+        <v>45049</v>
       </c>
       <c r="E12" t="n">
         <v>15</v>
@@ -1224,13 +1224,13 @@
         <v>300</v>
       </c>
       <c r="K12" t="n">
+        <v>13000</v>
+      </c>
+      <c r="L12" t="n">
         <v>14000</v>
       </c>
-      <c r="L12" t="n">
-        <v>15000</v>
-      </c>
       <c r="M12" t="n">
-        <v>14500</v>
+        <v>13500</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>1115</v>
+        <v>1038</v>
       </c>
       <c r="Q12" t="n">
         <v>13</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44988</v>
+        <v>45096</v>
       </c>
       <c r="E13" t="n">
         <v>15</v>
@@ -1296,13 +1296,13 @@
         <v>750</v>
       </c>
       <c r="K13" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="L13" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="M13" t="n">
-        <v>17400</v>
+        <v>14600</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>1338</v>
+        <v>1123</v>
       </c>
       <c r="Q13" t="n">
         <v>13</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>45049</v>
+        <v>44972</v>
       </c>
       <c r="E14" t="n">
         <v>15</v>
@@ -1365,20 +1365,20 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="K14" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="L14" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="M14" t="n">
-        <v>13500</v>
+        <v>17429</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>$/caja 13 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
@@ -1387,10 +1387,10 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>1038</v>
+        <v>1162</v>
       </c>
       <c r="Q14" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="R14" t="inlineStr">
         <is>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44984</v>
+        <v>45092</v>
       </c>
       <c r="E15" t="n">
         <v>15</v>
@@ -1437,16 +1437,16 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="K15" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="L15" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="M15" t="n">
-        <v>16500</v>
+        <v>13500</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>1269</v>
+        <v>1038</v>
       </c>
       <c r="Q15" t="n">
         <v>13</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44397</v>
+        <v>44616</v>
       </c>
       <c r="E16" t="n">
         <v>15</v>
@@ -1509,16 +1509,16 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="K16" t="n">
-        <v>12500</v>
+        <v>19000</v>
       </c>
       <c r="L16" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="M16" t="n">
-        <v>12750</v>
+        <v>19500</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>981</v>
+        <v>1500</v>
       </c>
       <c r="Q16" t="n">
         <v>13</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>45141</v>
+        <v>44914</v>
       </c>
       <c r="E17" t="n">
         <v>15</v>
@@ -1581,16 +1581,16 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="K17" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="L17" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="M17" t="n">
-        <v>16550</v>
+        <v>14400</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>1273</v>
+        <v>1108</v>
       </c>
       <c r="Q17" t="n">
         <v>13</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>45154</v>
+        <v>44890</v>
       </c>
       <c r="E18" t="n">
         <v>15</v>
@@ -1653,16 +1653,16 @@
         </is>
       </c>
       <c r="J18" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="K18" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="L18" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="M18" t="n">
-        <v>17500</v>
+        <v>14500</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1675,7 +1675,7 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>1346</v>
+        <v>1115</v>
       </c>
       <c r="Q18" t="n">
         <v>13</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>45155</v>
+        <v>44910</v>
       </c>
       <c r="E19" t="n">
         <v>15</v>
@@ -1725,16 +1725,16 @@
         </is>
       </c>
       <c r="J19" t="n">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="K19" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="L19" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="M19" t="n">
-        <v>16500</v>
+        <v>14500</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>1269</v>
+        <v>1115</v>
       </c>
       <c r="Q19" t="n">
         <v>13</v>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44893</v>
+        <v>44988</v>
       </c>
       <c r="E20" t="n">
         <v>15</v>
@@ -1797,16 +1797,16 @@
         </is>
       </c>
       <c r="J20" t="n">
-        <v>900</v>
+        <v>750</v>
       </c>
       <c r="K20" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="L20" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="M20" t="n">
-        <v>13444</v>
+        <v>17400</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
@@ -1819,7 +1819,7 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>1034</v>
+        <v>1338</v>
       </c>
       <c r="Q20" t="n">
         <v>13</v>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44832</v>
+        <v>44918</v>
       </c>
       <c r="E21" t="n">
         <v>15</v>
@@ -1865,20 +1865,20 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J21" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K21" t="n">
+        <v>12000</v>
+      </c>
+      <c r="L21" t="n">
         <v>13000</v>
       </c>
-      <c r="L21" t="n">
-        <v>14000</v>
-      </c>
       <c r="M21" t="n">
-        <v>13500</v>
+        <v>12750</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
@@ -1891,7 +1891,7 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>1038</v>
+        <v>981</v>
       </c>
       <c r="Q21" t="n">
         <v>13</v>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>45096</v>
+        <v>44397</v>
       </c>
       <c r="E22" t="n">
         <v>15</v>
@@ -1941,16 +1941,16 @@
         </is>
       </c>
       <c r="J22" t="n">
-        <v>750</v>
+        <v>140</v>
       </c>
       <c r="K22" t="n">
-        <v>14000</v>
+        <v>12500</v>
       </c>
       <c r="L22" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="M22" t="n">
-        <v>14600</v>
+        <v>12750</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
@@ -1963,7 +1963,7 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>1123</v>
+        <v>981</v>
       </c>
       <c r="Q22" t="n">
         <v>13</v>
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44855</v>
+        <v>44943</v>
       </c>
       <c r="E24" t="n">
         <v>15</v>
@@ -2081,20 +2081,20 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J24" t="n">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="K24" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="L24" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="M24" t="n">
-        <v>10000</v>
+        <v>14429</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
@@ -2107,7 +2107,7 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>769</v>
+        <v>1110</v>
       </c>
       <c r="Q24" t="n">
         <v>13</v>
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44764</v>
+        <v>45140</v>
       </c>
       <c r="E25" t="n">
         <v>15</v>
@@ -2160,13 +2160,13 @@
         <v>200</v>
       </c>
       <c r="K25" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="L25" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="M25" t="n">
-        <v>12500</v>
+        <v>16500</v>
       </c>
       <c r="N25" t="inlineStr">
         <is>
@@ -2179,7 +2179,7 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>962</v>
+        <v>1269</v>
       </c>
       <c r="Q25" t="n">
         <v>13</v>
@@ -2205,7 +2205,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44320</v>
+        <v>44159</v>
       </c>
       <c r="E26" t="n">
         <v>15</v>
@@ -2229,16 +2229,16 @@
         </is>
       </c>
       <c r="J26" t="n">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="K26" t="n">
-        <v>19000</v>
+        <v>23000</v>
       </c>
       <c r="L26" t="n">
-        <v>20000</v>
+        <v>24000</v>
       </c>
       <c r="M26" t="n">
-        <v>19500</v>
+        <v>23500</v>
       </c>
       <c r="N26" t="inlineStr">
         <is>
@@ -2251,7 +2251,7 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>1500</v>
+        <v>1808</v>
       </c>
       <c r="Q26" t="n">
         <v>13</v>
@@ -2277,7 +2277,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44943</v>
+        <v>44580</v>
       </c>
       <c r="E27" t="n">
         <v>15</v>
@@ -2297,20 +2297,20 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J27" t="n">
-        <v>350</v>
+        <v>160</v>
       </c>
       <c r="K27" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="L27" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="M27" t="n">
-        <v>14429</v>
+        <v>11500</v>
       </c>
       <c r="N27" t="inlineStr">
         <is>
@@ -2323,7 +2323,7 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>1110</v>
+        <v>885</v>
       </c>
       <c r="Q27" t="n">
         <v>13</v>
@@ -2349,7 +2349,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>45140</v>
+        <v>44832</v>
       </c>
       <c r="E28" t="n">
         <v>15</v>
@@ -2373,16 +2373,16 @@
         </is>
       </c>
       <c r="J28" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K28" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="L28" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="M28" t="n">
-        <v>16500</v>
+        <v>13500</v>
       </c>
       <c r="N28" t="inlineStr">
         <is>
@@ -2395,7 +2395,7 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>1269</v>
+        <v>1038</v>
       </c>
       <c r="Q28" t="n">
         <v>13</v>
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44918</v>
+        <v>44389</v>
       </c>
       <c r="E29" t="n">
         <v>15</v>
@@ -2441,11 +2441,11 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J29" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="K29" t="n">
         <v>12000</v>
@@ -2454,7 +2454,7 @@
         <v>13000</v>
       </c>
       <c r="M29" t="n">
-        <v>12750</v>
+        <v>12500</v>
       </c>
       <c r="N29" t="inlineStr">
         <is>
@@ -2467,7 +2467,7 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>981</v>
+        <v>962</v>
       </c>
       <c r="Q29" t="n">
         <v>13</v>
@@ -2493,7 +2493,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44616</v>
+        <v>44855</v>
       </c>
       <c r="E30" t="n">
         <v>15</v>
@@ -2517,16 +2517,16 @@
         </is>
       </c>
       <c r="J30" t="n">
-        <v>120</v>
+        <v>500</v>
       </c>
       <c r="K30" t="n">
-        <v>19000</v>
+        <v>10000</v>
       </c>
       <c r="L30" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="M30" t="n">
-        <v>19500</v>
+        <v>10000</v>
       </c>
       <c r="N30" t="inlineStr">
         <is>
@@ -2539,7 +2539,7 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>1500</v>
+        <v>769</v>
       </c>
       <c r="Q30" t="n">
         <v>13</v>
@@ -2565,7 +2565,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>45028</v>
+        <v>44764</v>
       </c>
       <c r="E31" t="n">
         <v>15</v>
@@ -2589,16 +2589,16 @@
         </is>
       </c>
       <c r="J31" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K31" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="L31" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="M31" t="n">
-        <v>14500</v>
+        <v>12500</v>
       </c>
       <c r="N31" t="inlineStr">
         <is>
@@ -2611,7 +2611,7 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>1115</v>
+        <v>962</v>
       </c>
       <c r="Q31" t="n">
         <v>13</v>
@@ -2637,7 +2637,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44914</v>
+        <v>44379</v>
       </c>
       <c r="E32" t="n">
         <v>15</v>
@@ -2661,16 +2661,16 @@
         </is>
       </c>
       <c r="J32" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="K32" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="L32" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="M32" t="n">
-        <v>14400</v>
+        <v>12667</v>
       </c>
       <c r="N32" t="inlineStr">
         <is>
@@ -2683,7 +2683,7 @@
         </is>
       </c>
       <c r="P32" t="n">
-        <v>1108</v>
+        <v>974</v>
       </c>
       <c r="Q32" t="n">
         <v>13</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Jengibre.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Jengibre.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R32"/>
+  <dimension ref="A1:R33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>45096</v>
+        <v>45238</v>
       </c>
       <c r="E13" t="n">
         <v>15</v>
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>750</v>
+        <v>250</v>
       </c>
       <c r="K13" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="L13" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="M13" t="n">
-        <v>14600</v>
+        <v>16500</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>1123</v>
+        <v>1269</v>
       </c>
       <c r="Q13" t="n">
         <v>13</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44972</v>
+        <v>45096</v>
       </c>
       <c r="E14" t="n">
         <v>15</v>
@@ -1365,20 +1365,20 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>350</v>
+        <v>750</v>
       </c>
       <c r="K14" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="L14" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="M14" t="n">
-        <v>17429</v>
+        <v>14600</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 13 kilos</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
@@ -1387,10 +1387,10 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>1162</v>
+        <v>1123</v>
       </c>
       <c r="Q14" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="R14" t="inlineStr">
         <is>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>45092</v>
+        <v>44972</v>
       </c>
       <c r="E15" t="n">
         <v>15</v>
@@ -1437,20 +1437,20 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>600</v>
+        <v>350</v>
       </c>
       <c r="K15" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="L15" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="M15" t="n">
-        <v>13500</v>
+        <v>17429</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>$/caja 13 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
@@ -1459,10 +1459,10 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>1038</v>
+        <v>1162</v>
       </c>
       <c r="Q15" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="R15" t="inlineStr">
         <is>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44616</v>
+        <v>45092</v>
       </c>
       <c r="E16" t="n">
         <v>15</v>
@@ -1509,16 +1509,16 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>120</v>
+        <v>600</v>
       </c>
       <c r="K16" t="n">
-        <v>19000</v>
+        <v>13000</v>
       </c>
       <c r="L16" t="n">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="M16" t="n">
-        <v>19500</v>
+        <v>13500</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>1500</v>
+        <v>1038</v>
       </c>
       <c r="Q16" t="n">
         <v>13</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44914</v>
+        <v>44616</v>
       </c>
       <c r="E17" t="n">
         <v>15</v>
@@ -1581,16 +1581,16 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="K17" t="n">
-        <v>14000</v>
+        <v>19000</v>
       </c>
       <c r="L17" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="M17" t="n">
-        <v>14400</v>
+        <v>19500</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>1108</v>
+        <v>1500</v>
       </c>
       <c r="Q17" t="n">
         <v>13</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44890</v>
+        <v>44914</v>
       </c>
       <c r="E18" t="n">
         <v>15</v>
@@ -1653,7 +1653,7 @@
         </is>
       </c>
       <c r="J18" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="K18" t="n">
         <v>14000</v>
@@ -1662,7 +1662,7 @@
         <v>15000</v>
       </c>
       <c r="M18" t="n">
-        <v>14500</v>
+        <v>14400</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1675,7 +1675,7 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>1115</v>
+        <v>1108</v>
       </c>
       <c r="Q18" t="n">
         <v>13</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44910</v>
+        <v>44890</v>
       </c>
       <c r="E19" t="n">
         <v>15</v>
@@ -1725,7 +1725,7 @@
         </is>
       </c>
       <c r="J19" t="n">
-        <v>50</v>
+        <v>300</v>
       </c>
       <c r="K19" t="n">
         <v>14000</v>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44988</v>
+        <v>44910</v>
       </c>
       <c r="E20" t="n">
         <v>15</v>
@@ -1797,16 +1797,16 @@
         </is>
       </c>
       <c r="J20" t="n">
-        <v>750</v>
+        <v>50</v>
       </c>
       <c r="K20" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="L20" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="M20" t="n">
-        <v>17400</v>
+        <v>14500</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
@@ -1819,7 +1819,7 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>1338</v>
+        <v>1115</v>
       </c>
       <c r="Q20" t="n">
         <v>13</v>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44918</v>
+        <v>44988</v>
       </c>
       <c r="E21" t="n">
         <v>15</v>
@@ -1865,20 +1865,20 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J21" t="n">
-        <v>200</v>
+        <v>750</v>
       </c>
       <c r="K21" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="L21" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="M21" t="n">
-        <v>12750</v>
+        <v>17400</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
@@ -1891,7 +1891,7 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>981</v>
+        <v>1338</v>
       </c>
       <c r="Q21" t="n">
         <v>13</v>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44397</v>
+        <v>44918</v>
       </c>
       <c r="E22" t="n">
         <v>15</v>
@@ -1937,14 +1937,14 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J22" t="n">
-        <v>140</v>
+        <v>200</v>
       </c>
       <c r="K22" t="n">
-        <v>12500</v>
+        <v>12000</v>
       </c>
       <c r="L22" t="n">
         <v>13000</v>
@@ -1989,7 +1989,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>45100</v>
+        <v>44397</v>
       </c>
       <c r="E23" t="n">
         <v>15</v>
@@ -2013,16 +2013,16 @@
         </is>
       </c>
       <c r="J23" t="n">
-        <v>200</v>
+        <v>140</v>
       </c>
       <c r="K23" t="n">
-        <v>15000</v>
+        <v>12500</v>
       </c>
       <c r="L23" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="M23" t="n">
-        <v>15500</v>
+        <v>12750</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
@@ -2035,7 +2035,7 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>1192</v>
+        <v>981</v>
       </c>
       <c r="Q23" t="n">
         <v>13</v>
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44943</v>
+        <v>45100</v>
       </c>
       <c r="E24" t="n">
         <v>15</v>
@@ -2081,20 +2081,20 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J24" t="n">
-        <v>350</v>
+        <v>200</v>
       </c>
       <c r="K24" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="L24" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="M24" t="n">
-        <v>14429</v>
+        <v>15500</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
@@ -2107,7 +2107,7 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>1110</v>
+        <v>1192</v>
       </c>
       <c r="Q24" t="n">
         <v>13</v>
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>45140</v>
+        <v>44943</v>
       </c>
       <c r="E25" t="n">
         <v>15</v>
@@ -2153,20 +2153,20 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J25" t="n">
-        <v>200</v>
+        <v>350</v>
       </c>
       <c r="K25" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="L25" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="M25" t="n">
-        <v>16500</v>
+        <v>14429</v>
       </c>
       <c r="N25" t="inlineStr">
         <is>
@@ -2179,7 +2179,7 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>1269</v>
+        <v>1110</v>
       </c>
       <c r="Q25" t="n">
         <v>13</v>
@@ -2205,7 +2205,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44159</v>
+        <v>45140</v>
       </c>
       <c r="E26" t="n">
         <v>15</v>
@@ -2229,16 +2229,16 @@
         </is>
       </c>
       <c r="J26" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K26" t="n">
-        <v>23000</v>
+        <v>16000</v>
       </c>
       <c r="L26" t="n">
-        <v>24000</v>
+        <v>17000</v>
       </c>
       <c r="M26" t="n">
-        <v>23500</v>
+        <v>16500</v>
       </c>
       <c r="N26" t="inlineStr">
         <is>
@@ -2251,7 +2251,7 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>1808</v>
+        <v>1269</v>
       </c>
       <c r="Q26" t="n">
         <v>13</v>
@@ -2277,7 +2277,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44580</v>
+        <v>44159</v>
       </c>
       <c r="E27" t="n">
         <v>15</v>
@@ -2301,16 +2301,16 @@
         </is>
       </c>
       <c r="J27" t="n">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="K27" t="n">
-        <v>11000</v>
+        <v>23000</v>
       </c>
       <c r="L27" t="n">
-        <v>12000</v>
+        <v>24000</v>
       </c>
       <c r="M27" t="n">
-        <v>11500</v>
+        <v>23500</v>
       </c>
       <c r="N27" t="inlineStr">
         <is>
@@ -2323,7 +2323,7 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>885</v>
+        <v>1808</v>
       </c>
       <c r="Q27" t="n">
         <v>13</v>
@@ -2349,7 +2349,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44832</v>
+        <v>44580</v>
       </c>
       <c r="E28" t="n">
         <v>15</v>
@@ -2373,16 +2373,16 @@
         </is>
       </c>
       <c r="J28" t="n">
-        <v>100</v>
+        <v>160</v>
       </c>
       <c r="K28" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="L28" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="M28" t="n">
-        <v>13500</v>
+        <v>11500</v>
       </c>
       <c r="N28" t="inlineStr">
         <is>
@@ -2395,7 +2395,7 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>1038</v>
+        <v>885</v>
       </c>
       <c r="Q28" t="n">
         <v>13</v>
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44389</v>
+        <v>44832</v>
       </c>
       <c r="E29" t="n">
         <v>15</v>
@@ -2445,16 +2445,16 @@
         </is>
       </c>
       <c r="J29" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="K29" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="L29" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="M29" t="n">
-        <v>12500</v>
+        <v>13500</v>
       </c>
       <c r="N29" t="inlineStr">
         <is>
@@ -2467,7 +2467,7 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>962</v>
+        <v>1038</v>
       </c>
       <c r="Q29" t="n">
         <v>13</v>
@@ -2493,7 +2493,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44855</v>
+        <v>44389</v>
       </c>
       <c r="E30" t="n">
         <v>15</v>
@@ -2517,16 +2517,16 @@
         </is>
       </c>
       <c r="J30" t="n">
-        <v>500</v>
+        <v>120</v>
       </c>
       <c r="K30" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="L30" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="M30" t="n">
-        <v>10000</v>
+        <v>12500</v>
       </c>
       <c r="N30" t="inlineStr">
         <is>
@@ -2539,7 +2539,7 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>769</v>
+        <v>962</v>
       </c>
       <c r="Q30" t="n">
         <v>13</v>
@@ -2565,7 +2565,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44764</v>
+        <v>44855</v>
       </c>
       <c r="E31" t="n">
         <v>15</v>
@@ -2589,16 +2589,16 @@
         </is>
       </c>
       <c r="J31" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="K31" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="L31" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="M31" t="n">
-        <v>12500</v>
+        <v>10000</v>
       </c>
       <c r="N31" t="inlineStr">
         <is>
@@ -2611,7 +2611,7 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>962</v>
+        <v>769</v>
       </c>
       <c r="Q31" t="n">
         <v>13</v>
@@ -2637,7 +2637,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44379</v>
+        <v>44764</v>
       </c>
       <c r="E32" t="n">
         <v>15</v>
@@ -2661,7 +2661,7 @@
         </is>
       </c>
       <c r="J32" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="K32" t="n">
         <v>12000</v>
@@ -2670,25 +2670,97 @@
         <v>13000</v>
       </c>
       <c r="M32" t="n">
+        <v>12500</v>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>$/caja 13 kilos</t>
+        </is>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>Perú</t>
+        </is>
+      </c>
+      <c r="P32" t="n">
+        <v>962</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>13</v>
+      </c>
+      <c r="R32" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>1</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Agrícola del Norte S.A. de Arica</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="n">
+        <v>44379</v>
+      </c>
+      <c r="E33" t="n">
+        <v>15</v>
+      </c>
+      <c r="F33" t="n">
+        <v>100114007</v>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>Jengibre</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J33" t="n">
+        <v>120</v>
+      </c>
+      <c r="K33" t="n">
+        <v>12000</v>
+      </c>
+      <c r="L33" t="n">
+        <v>13000</v>
+      </c>
+      <c r="M33" t="n">
         <v>12667</v>
       </c>
-      <c r="N32" t="inlineStr">
-        <is>
-          <t>$/caja 13 kilos</t>
-        </is>
-      </c>
-      <c r="O32" t="inlineStr">
-        <is>
-          <t>Perú</t>
-        </is>
-      </c>
-      <c r="P32" t="n">
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>$/caja 13 kilos</t>
+        </is>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>Perú</t>
+        </is>
+      </c>
+      <c r="P33" t="n">
         <v>974</v>
       </c>
-      <c r="Q32" t="n">
-        <v>13</v>
-      </c>
-      <c r="R32" t="inlineStr">
+      <c r="Q33" t="n">
+        <v>13</v>
+      </c>
+      <c r="R33" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Jengibre.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Jengibre.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R33"/>
+  <dimension ref="A1:R34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2766,6 +2766,78 @@
         </is>
       </c>
     </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>1</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Agrícola del Norte S.A. de Arica</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="D34" s="2" t="n">
+        <v>45239</v>
+      </c>
+      <c r="E34" t="n">
+        <v>15</v>
+      </c>
+      <c r="F34" t="n">
+        <v>100114007</v>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>Jengibre</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J34" t="n">
+        <v>800</v>
+      </c>
+      <c r="K34" t="n">
+        <v>16000</v>
+      </c>
+      <c r="L34" t="n">
+        <v>17000</v>
+      </c>
+      <c r="M34" t="n">
+        <v>16500</v>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>$/caja 13 kilos</t>
+        </is>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>Perú</t>
+        </is>
+      </c>
+      <c r="P34" t="n">
+        <v>1269</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>13</v>
+      </c>
+      <c r="R34" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Jengibre.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Jengibre.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R34"/>
+  <dimension ref="A1:R35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>45141</v>
+        <v>45245</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="K4" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="L4" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="M4" t="n">
-        <v>16550</v>
+        <v>17500</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>1273</v>
+        <v>1346</v>
       </c>
       <c r="Q4" t="n">
         <v>13</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>45154</v>
+        <v>45141</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="K5" t="n">
+        <v>16000</v>
+      </c>
+      <c r="L5" t="n">
         <v>17000</v>
       </c>
-      <c r="L5" t="n">
-        <v>18000</v>
-      </c>
       <c r="M5" t="n">
-        <v>17500</v>
+        <v>16550</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>1346</v>
+        <v>1273</v>
       </c>
       <c r="Q5" t="n">
         <v>13</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>45155</v>
+        <v>45154</v>
       </c>
       <c r="E6" t="n">
         <v>15</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="K6" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="L6" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="M6" t="n">
-        <v>16500</v>
+        <v>17500</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>1269</v>
+        <v>1346</v>
       </c>
       <c r="Q6" t="n">
         <v>13</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44469</v>
+        <v>45155</v>
       </c>
       <c r="E7" t="n">
         <v>15</v>
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>140</v>
+        <v>300</v>
       </c>
       <c r="K7" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="L7" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="M7" t="n">
-        <v>13500</v>
+        <v>16500</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>1038</v>
+        <v>1269</v>
       </c>
       <c r="Q7" t="n">
         <v>13</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44406</v>
+        <v>44469</v>
       </c>
       <c r="E8" t="n">
         <v>15</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="K8" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="L8" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="M8" t="n">
-        <v>17500</v>
+        <v>13500</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>1346</v>
+        <v>1038</v>
       </c>
       <c r="Q8" t="n">
         <v>13</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44592</v>
+        <v>44406</v>
       </c>
       <c r="E9" t="n">
         <v>15</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="K9" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="L9" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="M9" t="n">
-        <v>12500</v>
+        <v>17500</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>962</v>
+        <v>1346</v>
       </c>
       <c r="Q9" t="n">
         <v>13</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44320</v>
+        <v>44592</v>
       </c>
       <c r="E10" t="n">
         <v>15</v>
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="K10" t="n">
-        <v>19000</v>
+        <v>12000</v>
       </c>
       <c r="L10" t="n">
-        <v>20000</v>
+        <v>13000</v>
       </c>
       <c r="M10" t="n">
-        <v>19500</v>
+        <v>12500</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>1500</v>
+        <v>962</v>
       </c>
       <c r="Q10" t="n">
         <v>13</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>45028</v>
+        <v>44320</v>
       </c>
       <c r="E11" t="n">
         <v>15</v>
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>300</v>
+        <v>160</v>
       </c>
       <c r="K11" t="n">
-        <v>14000</v>
+        <v>19000</v>
       </c>
       <c r="L11" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="M11" t="n">
-        <v>14500</v>
+        <v>19500</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>1115</v>
+        <v>1500</v>
       </c>
       <c r="Q11" t="n">
         <v>13</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>45049</v>
+        <v>45028</v>
       </c>
       <c r="E12" t="n">
         <v>15</v>
@@ -1224,13 +1224,13 @@
         <v>300</v>
       </c>
       <c r="K12" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="L12" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="M12" t="n">
-        <v>13500</v>
+        <v>14500</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>1038</v>
+        <v>1115</v>
       </c>
       <c r="Q12" t="n">
         <v>13</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>45238</v>
+        <v>45049</v>
       </c>
       <c r="E13" t="n">
         <v>15</v>
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="K13" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="L13" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="M13" t="n">
-        <v>16500</v>
+        <v>13500</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>1269</v>
+        <v>1038</v>
       </c>
       <c r="Q13" t="n">
         <v>13</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>45096</v>
+        <v>45238</v>
       </c>
       <c r="E14" t="n">
         <v>15</v>
@@ -1365,16 +1365,16 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>750</v>
+        <v>250</v>
       </c>
       <c r="K14" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="L14" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="M14" t="n">
-        <v>14600</v>
+        <v>16500</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>1123</v>
+        <v>1269</v>
       </c>
       <c r="Q14" t="n">
         <v>13</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44972</v>
+        <v>45096</v>
       </c>
       <c r="E15" t="n">
         <v>15</v>
@@ -1437,20 +1437,20 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>350</v>
+        <v>750</v>
       </c>
       <c r="K15" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="L15" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="M15" t="n">
-        <v>17429</v>
+        <v>14600</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 13 kilos</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
@@ -1459,10 +1459,10 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>1162</v>
+        <v>1123</v>
       </c>
       <c r="Q15" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="R15" t="inlineStr">
         <is>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>45092</v>
+        <v>44972</v>
       </c>
       <c r="E16" t="n">
         <v>15</v>
@@ -1509,20 +1509,20 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>600</v>
+        <v>350</v>
       </c>
       <c r="K16" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="L16" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="M16" t="n">
-        <v>13500</v>
+        <v>17429</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>$/caja 13 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
@@ -1531,10 +1531,10 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>1038</v>
+        <v>1162</v>
       </c>
       <c r="Q16" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="R16" t="inlineStr">
         <is>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44616</v>
+        <v>45092</v>
       </c>
       <c r="E17" t="n">
         <v>15</v>
@@ -1581,16 +1581,16 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>120</v>
+        <v>600</v>
       </c>
       <c r="K17" t="n">
-        <v>19000</v>
+        <v>13000</v>
       </c>
       <c r="L17" t="n">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="M17" t="n">
-        <v>19500</v>
+        <v>13500</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>1500</v>
+        <v>1038</v>
       </c>
       <c r="Q17" t="n">
         <v>13</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44914</v>
+        <v>44616</v>
       </c>
       <c r="E18" t="n">
         <v>15</v>
@@ -1653,16 +1653,16 @@
         </is>
       </c>
       <c r="J18" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="K18" t="n">
-        <v>14000</v>
+        <v>19000</v>
       </c>
       <c r="L18" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="M18" t="n">
-        <v>14400</v>
+        <v>19500</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1675,7 +1675,7 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>1108</v>
+        <v>1500</v>
       </c>
       <c r="Q18" t="n">
         <v>13</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44890</v>
+        <v>44914</v>
       </c>
       <c r="E19" t="n">
         <v>15</v>
@@ -1725,7 +1725,7 @@
         </is>
       </c>
       <c r="J19" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="K19" t="n">
         <v>14000</v>
@@ -1734,7 +1734,7 @@
         <v>15000</v>
       </c>
       <c r="M19" t="n">
-        <v>14500</v>
+        <v>14400</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>1115</v>
+        <v>1108</v>
       </c>
       <c r="Q19" t="n">
         <v>13</v>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44910</v>
+        <v>44890</v>
       </c>
       <c r="E20" t="n">
         <v>15</v>
@@ -1797,7 +1797,7 @@
         </is>
       </c>
       <c r="J20" t="n">
-        <v>50</v>
+        <v>300</v>
       </c>
       <c r="K20" t="n">
         <v>14000</v>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44988</v>
+        <v>44910</v>
       </c>
       <c r="E21" t="n">
         <v>15</v>
@@ -1869,16 +1869,16 @@
         </is>
       </c>
       <c r="J21" t="n">
-        <v>750</v>
+        <v>50</v>
       </c>
       <c r="K21" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="L21" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="M21" t="n">
-        <v>17400</v>
+        <v>14500</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
@@ -1891,7 +1891,7 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>1338</v>
+        <v>1115</v>
       </c>
       <c r="Q21" t="n">
         <v>13</v>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44918</v>
+        <v>44988</v>
       </c>
       <c r="E22" t="n">
         <v>15</v>
@@ -1937,20 +1937,20 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J22" t="n">
-        <v>200</v>
+        <v>750</v>
       </c>
       <c r="K22" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="L22" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="M22" t="n">
-        <v>12750</v>
+        <v>17400</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
@@ -1963,7 +1963,7 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>981</v>
+        <v>1338</v>
       </c>
       <c r="Q22" t="n">
         <v>13</v>
@@ -1989,7 +1989,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44397</v>
+        <v>44918</v>
       </c>
       <c r="E23" t="n">
         <v>15</v>
@@ -2009,14 +2009,14 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J23" t="n">
-        <v>140</v>
+        <v>200</v>
       </c>
       <c r="K23" t="n">
-        <v>12500</v>
+        <v>12000</v>
       </c>
       <c r="L23" t="n">
         <v>13000</v>
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>45100</v>
+        <v>44397</v>
       </c>
       <c r="E24" t="n">
         <v>15</v>
@@ -2085,16 +2085,16 @@
         </is>
       </c>
       <c r="J24" t="n">
-        <v>200</v>
+        <v>140</v>
       </c>
       <c r="K24" t="n">
-        <v>15000</v>
+        <v>12500</v>
       </c>
       <c r="L24" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="M24" t="n">
-        <v>15500</v>
+        <v>12750</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
@@ -2107,7 +2107,7 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>1192</v>
+        <v>981</v>
       </c>
       <c r="Q24" t="n">
         <v>13</v>
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44943</v>
+        <v>45100</v>
       </c>
       <c r="E25" t="n">
         <v>15</v>
@@ -2153,20 +2153,20 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J25" t="n">
-        <v>350</v>
+        <v>200</v>
       </c>
       <c r="K25" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="L25" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="M25" t="n">
-        <v>14429</v>
+        <v>15500</v>
       </c>
       <c r="N25" t="inlineStr">
         <is>
@@ -2179,7 +2179,7 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>1110</v>
+        <v>1192</v>
       </c>
       <c r="Q25" t="n">
         <v>13</v>
@@ -2205,7 +2205,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>45140</v>
+        <v>44943</v>
       </c>
       <c r="E26" t="n">
         <v>15</v>
@@ -2225,20 +2225,20 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J26" t="n">
-        <v>200</v>
+        <v>350</v>
       </c>
       <c r="K26" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="L26" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="M26" t="n">
-        <v>16500</v>
+        <v>14429</v>
       </c>
       <c r="N26" t="inlineStr">
         <is>
@@ -2251,7 +2251,7 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>1269</v>
+        <v>1110</v>
       </c>
       <c r="Q26" t="n">
         <v>13</v>
@@ -2277,7 +2277,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44159</v>
+        <v>45140</v>
       </c>
       <c r="E27" t="n">
         <v>15</v>
@@ -2301,16 +2301,16 @@
         </is>
       </c>
       <c r="J27" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K27" t="n">
-        <v>23000</v>
+        <v>16000</v>
       </c>
       <c r="L27" t="n">
-        <v>24000</v>
+        <v>17000</v>
       </c>
       <c r="M27" t="n">
-        <v>23500</v>
+        <v>16500</v>
       </c>
       <c r="N27" t="inlineStr">
         <is>
@@ -2323,7 +2323,7 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>1808</v>
+        <v>1269</v>
       </c>
       <c r="Q27" t="n">
         <v>13</v>
@@ -2349,7 +2349,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44580</v>
+        <v>44159</v>
       </c>
       <c r="E28" t="n">
         <v>15</v>
@@ -2373,16 +2373,16 @@
         </is>
       </c>
       <c r="J28" t="n">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="K28" t="n">
-        <v>11000</v>
+        <v>23000</v>
       </c>
       <c r="L28" t="n">
-        <v>12000</v>
+        <v>24000</v>
       </c>
       <c r="M28" t="n">
-        <v>11500</v>
+        <v>23500</v>
       </c>
       <c r="N28" t="inlineStr">
         <is>
@@ -2395,7 +2395,7 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>885</v>
+        <v>1808</v>
       </c>
       <c r="Q28" t="n">
         <v>13</v>
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44832</v>
+        <v>44580</v>
       </c>
       <c r="E29" t="n">
         <v>15</v>
@@ -2445,16 +2445,16 @@
         </is>
       </c>
       <c r="J29" t="n">
-        <v>100</v>
+        <v>160</v>
       </c>
       <c r="K29" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="L29" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="M29" t="n">
-        <v>13500</v>
+        <v>11500</v>
       </c>
       <c r="N29" t="inlineStr">
         <is>
@@ -2467,7 +2467,7 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>1038</v>
+        <v>885</v>
       </c>
       <c r="Q29" t="n">
         <v>13</v>
@@ -2493,7 +2493,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44389</v>
+        <v>44832</v>
       </c>
       <c r="E30" t="n">
         <v>15</v>
@@ -2517,16 +2517,16 @@
         </is>
       </c>
       <c r="J30" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="K30" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="L30" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="M30" t="n">
-        <v>12500</v>
+        <v>13500</v>
       </c>
       <c r="N30" t="inlineStr">
         <is>
@@ -2539,7 +2539,7 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>962</v>
+        <v>1038</v>
       </c>
       <c r="Q30" t="n">
         <v>13</v>
@@ -2565,7 +2565,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44855</v>
+        <v>44389</v>
       </c>
       <c r="E31" t="n">
         <v>15</v>
@@ -2589,16 +2589,16 @@
         </is>
       </c>
       <c r="J31" t="n">
-        <v>500</v>
+        <v>120</v>
       </c>
       <c r="K31" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="L31" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="M31" t="n">
-        <v>10000</v>
+        <v>12500</v>
       </c>
       <c r="N31" t="inlineStr">
         <is>
@@ -2611,7 +2611,7 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>769</v>
+        <v>962</v>
       </c>
       <c r="Q31" t="n">
         <v>13</v>
@@ -2637,7 +2637,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44764</v>
+        <v>44855</v>
       </c>
       <c r="E32" t="n">
         <v>15</v>
@@ -2661,16 +2661,16 @@
         </is>
       </c>
       <c r="J32" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="K32" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="L32" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="M32" t="n">
-        <v>12500</v>
+        <v>10000</v>
       </c>
       <c r="N32" t="inlineStr">
         <is>
@@ -2683,7 +2683,7 @@
         </is>
       </c>
       <c r="P32" t="n">
-        <v>962</v>
+        <v>769</v>
       </c>
       <c r="Q32" t="n">
         <v>13</v>
@@ -2709,7 +2709,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44379</v>
+        <v>44764</v>
       </c>
       <c r="E33" t="n">
         <v>15</v>
@@ -2733,7 +2733,7 @@
         </is>
       </c>
       <c r="J33" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="K33" t="n">
         <v>12000</v>
@@ -2742,7 +2742,7 @@
         <v>13000</v>
       </c>
       <c r="M33" t="n">
-        <v>12667</v>
+        <v>12500</v>
       </c>
       <c r="N33" t="inlineStr">
         <is>
@@ -2755,7 +2755,7 @@
         </is>
       </c>
       <c r="P33" t="n">
-        <v>974</v>
+        <v>962</v>
       </c>
       <c r="Q33" t="n">
         <v>13</v>
@@ -2781,58 +2781,130 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
+        <v>44379</v>
+      </c>
+      <c r="E34" t="n">
+        <v>15</v>
+      </c>
+      <c r="F34" t="n">
+        <v>100114007</v>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>Jengibre</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J34" t="n">
+        <v>120</v>
+      </c>
+      <c r="K34" t="n">
+        <v>12000</v>
+      </c>
+      <c r="L34" t="n">
+        <v>13000</v>
+      </c>
+      <c r="M34" t="n">
+        <v>12667</v>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>$/caja 13 kilos</t>
+        </is>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>Perú</t>
+        </is>
+      </c>
+      <c r="P34" t="n">
+        <v>974</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>13</v>
+      </c>
+      <c r="R34" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>1</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Agrícola del Norte S.A. de Arica</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="D35" s="2" t="n">
         <v>45239</v>
       </c>
-      <c r="E34" t="n">
-        <v>15</v>
-      </c>
-      <c r="F34" t="n">
-        <v>100114007</v>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>Jengibre</t>
-        </is>
-      </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>Sin especificar</t>
-        </is>
-      </c>
-      <c r="I34" t="inlineStr">
-        <is>
-          <t>Primera</t>
-        </is>
-      </c>
-      <c r="J34" t="n">
+      <c r="E35" t="n">
+        <v>15</v>
+      </c>
+      <c r="F35" t="n">
+        <v>100114007</v>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>Jengibre</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J35" t="n">
         <v>800</v>
       </c>
-      <c r="K34" t="n">
+      <c r="K35" t="n">
         <v>16000</v>
       </c>
-      <c r="L34" t="n">
+      <c r="L35" t="n">
         <v>17000</v>
       </c>
-      <c r="M34" t="n">
+      <c r="M35" t="n">
         <v>16500</v>
       </c>
-      <c r="N34" t="inlineStr">
-        <is>
-          <t>$/caja 13 kilos</t>
-        </is>
-      </c>
-      <c r="O34" t="inlineStr">
-        <is>
-          <t>Perú</t>
-        </is>
-      </c>
-      <c r="P34" t="n">
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>$/caja 13 kilos</t>
+        </is>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>Perú</t>
+        </is>
+      </c>
+      <c r="P35" t="n">
         <v>1269</v>
       </c>
-      <c r="Q34" t="n">
-        <v>13</v>
-      </c>
-      <c r="R34" t="inlineStr">
+      <c r="Q35" t="n">
+        <v>13</v>
+      </c>
+      <c r="R35" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Jengibre.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Jengibre.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44893</v>
+        <v>45154</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>900</v>
+        <v>250</v>
       </c>
       <c r="K2" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="L2" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="M2" t="n">
-        <v>13444</v>
+        <v>17500</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>1034</v>
+        <v>1346</v>
       </c>
       <c r="Q2" t="n">
         <v>13</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44984</v>
+        <v>45238</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -573,7 +573,7 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>400</v>
+        <v>250</v>
       </c>
       <c r="K3" t="n">
         <v>16000</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>45245</v>
+        <v>45092</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="K4" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="L4" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="M4" t="n">
-        <v>17500</v>
+        <v>13500</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>1346</v>
+        <v>1038</v>
       </c>
       <c r="Q4" t="n">
         <v>13</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>45141</v>
+        <v>45245</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="K5" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="L5" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="M5" t="n">
-        <v>16550</v>
+        <v>17500</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>1273</v>
+        <v>1346</v>
       </c>
       <c r="Q5" t="n">
         <v>13</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>45154</v>
+        <v>44379</v>
       </c>
       <c r="E6" t="n">
         <v>15</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>250</v>
+        <v>120</v>
       </c>
       <c r="K6" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="L6" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="M6" t="n">
-        <v>17500</v>
+        <v>12667</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>1346</v>
+        <v>974</v>
       </c>
       <c r="Q6" t="n">
         <v>13</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>45155</v>
+        <v>44389</v>
       </c>
       <c r="E7" t="n">
         <v>15</v>
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>300</v>
+        <v>120</v>
       </c>
       <c r="K7" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="L7" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="M7" t="n">
-        <v>16500</v>
+        <v>12500</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>1269</v>
+        <v>962</v>
       </c>
       <c r="Q7" t="n">
         <v>13</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44469</v>
+        <v>44406</v>
       </c>
       <c r="E8" t="n">
         <v>15</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="K8" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="L8" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="M8" t="n">
-        <v>13500</v>
+        <v>17500</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>1038</v>
+        <v>1346</v>
       </c>
       <c r="Q8" t="n">
         <v>13</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44406</v>
+        <v>44972</v>
       </c>
       <c r="E9" t="n">
         <v>15</v>
@@ -1005,7 +1005,7 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>160</v>
+        <v>350</v>
       </c>
       <c r="K9" t="n">
         <v>17000</v>
@@ -1014,11 +1014,11 @@
         <v>18000</v>
       </c>
       <c r="M9" t="n">
-        <v>17500</v>
+        <v>17429</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>$/caja 13 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
@@ -1027,10 +1027,10 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>1346</v>
+        <v>1162</v>
       </c>
       <c r="Q9" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="R9" t="inlineStr">
         <is>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44592</v>
+        <v>44855</v>
       </c>
       <c r="E10" t="n">
         <v>15</v>
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>120</v>
+        <v>500</v>
       </c>
       <c r="K10" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="L10" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="M10" t="n">
-        <v>12500</v>
+        <v>10000</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>962</v>
+        <v>769</v>
       </c>
       <c r="Q10" t="n">
         <v>13</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44320</v>
+        <v>44890</v>
       </c>
       <c r="E11" t="n">
         <v>15</v>
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>160</v>
+        <v>300</v>
       </c>
       <c r="K11" t="n">
-        <v>19000</v>
+        <v>14000</v>
       </c>
       <c r="L11" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="M11" t="n">
-        <v>19500</v>
+        <v>14500</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>1500</v>
+        <v>1115</v>
       </c>
       <c r="Q11" t="n">
         <v>13</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>45028</v>
+        <v>44918</v>
       </c>
       <c r="E12" t="n">
         <v>15</v>
@@ -1217,20 +1217,20 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J12" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K12" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="L12" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="M12" t="n">
-        <v>14500</v>
+        <v>12750</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>1115</v>
+        <v>981</v>
       </c>
       <c r="Q12" t="n">
         <v>13</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>45049</v>
+        <v>44320</v>
       </c>
       <c r="E13" t="n">
         <v>15</v>
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>300</v>
+        <v>160</v>
       </c>
       <c r="K13" t="n">
-        <v>13000</v>
+        <v>19000</v>
       </c>
       <c r="L13" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="M13" t="n">
-        <v>13500</v>
+        <v>19500</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>1038</v>
+        <v>1500</v>
       </c>
       <c r="Q13" t="n">
         <v>13</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>45238</v>
+        <v>44469</v>
       </c>
       <c r="E14" t="n">
         <v>15</v>
@@ -1365,16 +1365,16 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>250</v>
+        <v>140</v>
       </c>
       <c r="K14" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="L14" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="M14" t="n">
-        <v>16500</v>
+        <v>13500</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>1269</v>
+        <v>1038</v>
       </c>
       <c r="Q14" t="n">
         <v>13</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>45096</v>
+        <v>45049</v>
       </c>
       <c r="E15" t="n">
         <v>15</v>
@@ -1437,16 +1437,16 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>750</v>
+        <v>300</v>
       </c>
       <c r="K15" t="n">
+        <v>13000</v>
+      </c>
+      <c r="L15" t="n">
         <v>14000</v>
       </c>
-      <c r="L15" t="n">
-        <v>15000</v>
-      </c>
       <c r="M15" t="n">
-        <v>14600</v>
+        <v>13500</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>1123</v>
+        <v>1038</v>
       </c>
       <c r="Q15" t="n">
         <v>13</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44972</v>
+        <v>44910</v>
       </c>
       <c r="E16" t="n">
         <v>15</v>
@@ -1509,20 +1509,20 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>350</v>
+        <v>50</v>
       </c>
       <c r="K16" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="L16" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="M16" t="n">
-        <v>17429</v>
+        <v>14500</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 13 kilos</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
@@ -1531,10 +1531,10 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>1162</v>
+        <v>1115</v>
       </c>
       <c r="Q16" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="R16" t="inlineStr">
         <is>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>45092</v>
+        <v>44984</v>
       </c>
       <c r="E17" t="n">
         <v>15</v>
@@ -1581,16 +1581,16 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="K17" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="L17" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="M17" t="n">
-        <v>13500</v>
+        <v>16500</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>1038</v>
+        <v>1269</v>
       </c>
       <c r="Q17" t="n">
         <v>13</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44914</v>
+        <v>45239</v>
       </c>
       <c r="E19" t="n">
         <v>15</v>
@@ -1725,16 +1725,16 @@
         </is>
       </c>
       <c r="J19" t="n">
-        <v>100</v>
+        <v>800</v>
       </c>
       <c r="K19" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="L19" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="M19" t="n">
-        <v>14400</v>
+        <v>16500</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>1108</v>
+        <v>1269</v>
       </c>
       <c r="Q19" t="n">
         <v>13</v>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44890</v>
+        <v>44893</v>
       </c>
       <c r="E20" t="n">
         <v>15</v>
@@ -1797,16 +1797,16 @@
         </is>
       </c>
       <c r="J20" t="n">
-        <v>300</v>
+        <v>900</v>
       </c>
       <c r="K20" t="n">
+        <v>13000</v>
+      </c>
+      <c r="L20" t="n">
         <v>14000</v>
       </c>
-      <c r="L20" t="n">
-        <v>15000</v>
-      </c>
       <c r="M20" t="n">
-        <v>14500</v>
+        <v>13444</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
@@ -1819,7 +1819,7 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>1115</v>
+        <v>1034</v>
       </c>
       <c r="Q20" t="n">
         <v>13</v>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44910</v>
+        <v>45028</v>
       </c>
       <c r="E21" t="n">
         <v>15</v>
@@ -1869,7 +1869,7 @@
         </is>
       </c>
       <c r="J21" t="n">
-        <v>50</v>
+        <v>300</v>
       </c>
       <c r="K21" t="n">
         <v>14000</v>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44988</v>
+        <v>44159</v>
       </c>
       <c r="E22" t="n">
         <v>15</v>
@@ -1941,16 +1941,16 @@
         </is>
       </c>
       <c r="J22" t="n">
-        <v>750</v>
+        <v>100</v>
       </c>
       <c r="K22" t="n">
-        <v>17000</v>
+        <v>23000</v>
       </c>
       <c r="L22" t="n">
-        <v>18000</v>
+        <v>24000</v>
       </c>
       <c r="M22" t="n">
-        <v>17400</v>
+        <v>23500</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
@@ -1963,7 +1963,7 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>1338</v>
+        <v>1808</v>
       </c>
       <c r="Q22" t="n">
         <v>13</v>
@@ -1989,7 +1989,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44918</v>
+        <v>44988</v>
       </c>
       <c r="E23" t="n">
         <v>15</v>
@@ -2009,20 +2009,20 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J23" t="n">
-        <v>200</v>
+        <v>750</v>
       </c>
       <c r="K23" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="L23" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="M23" t="n">
-        <v>12750</v>
+        <v>17400</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
@@ -2035,7 +2035,7 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>981</v>
+        <v>1338</v>
       </c>
       <c r="Q23" t="n">
         <v>13</v>
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44397</v>
+        <v>45141</v>
       </c>
       <c r="E24" t="n">
         <v>15</v>
@@ -2085,16 +2085,16 @@
         </is>
       </c>
       <c r="J24" t="n">
-        <v>140</v>
+        <v>400</v>
       </c>
       <c r="K24" t="n">
-        <v>12500</v>
+        <v>16000</v>
       </c>
       <c r="L24" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="M24" t="n">
-        <v>12750</v>
+        <v>16550</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
@@ -2107,7 +2107,7 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>981</v>
+        <v>1273</v>
       </c>
       <c r="Q24" t="n">
         <v>13</v>
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>45100</v>
+        <v>44397</v>
       </c>
       <c r="E25" t="n">
         <v>15</v>
@@ -2157,16 +2157,16 @@
         </is>
       </c>
       <c r="J25" t="n">
-        <v>200</v>
+        <v>140</v>
       </c>
       <c r="K25" t="n">
-        <v>15000</v>
+        <v>12500</v>
       </c>
       <c r="L25" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="M25" t="n">
-        <v>15500</v>
+        <v>12750</v>
       </c>
       <c r="N25" t="inlineStr">
         <is>
@@ -2179,7 +2179,7 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>1192</v>
+        <v>981</v>
       </c>
       <c r="Q25" t="n">
         <v>13</v>
@@ -2205,7 +2205,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44943</v>
+        <v>44764</v>
       </c>
       <c r="E26" t="n">
         <v>15</v>
@@ -2225,20 +2225,20 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J26" t="n">
-        <v>350</v>
+        <v>200</v>
       </c>
       <c r="K26" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="L26" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="M26" t="n">
-        <v>14429</v>
+        <v>12500</v>
       </c>
       <c r="N26" t="inlineStr">
         <is>
@@ -2251,7 +2251,7 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>1110</v>
+        <v>962</v>
       </c>
       <c r="Q26" t="n">
         <v>13</v>
@@ -2277,7 +2277,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>45140</v>
+        <v>45155</v>
       </c>
       <c r="E27" t="n">
         <v>15</v>
@@ -2301,7 +2301,7 @@
         </is>
       </c>
       <c r="J27" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K27" t="n">
         <v>16000</v>
@@ -2349,7 +2349,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44159</v>
+        <v>45096</v>
       </c>
       <c r="E28" t="n">
         <v>15</v>
@@ -2373,16 +2373,16 @@
         </is>
       </c>
       <c r="J28" t="n">
-        <v>100</v>
+        <v>750</v>
       </c>
       <c r="K28" t="n">
-        <v>23000</v>
+        <v>14000</v>
       </c>
       <c r="L28" t="n">
-        <v>24000</v>
+        <v>15000</v>
       </c>
       <c r="M28" t="n">
-        <v>23500</v>
+        <v>14600</v>
       </c>
       <c r="N28" t="inlineStr">
         <is>
@@ -2395,7 +2395,7 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>1808</v>
+        <v>1123</v>
       </c>
       <c r="Q28" t="n">
         <v>13</v>
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44580</v>
+        <v>45140</v>
       </c>
       <c r="E29" t="n">
         <v>15</v>
@@ -2445,16 +2445,16 @@
         </is>
       </c>
       <c r="J29" t="n">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="K29" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="L29" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="M29" t="n">
-        <v>11500</v>
+        <v>16500</v>
       </c>
       <c r="N29" t="inlineStr">
         <is>
@@ -2467,7 +2467,7 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>885</v>
+        <v>1269</v>
       </c>
       <c r="Q29" t="n">
         <v>13</v>
@@ -2493,7 +2493,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44832</v>
+        <v>44943</v>
       </c>
       <c r="E30" t="n">
         <v>15</v>
@@ -2513,20 +2513,20 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J30" t="n">
-        <v>100</v>
+        <v>350</v>
       </c>
       <c r="K30" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="L30" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="M30" t="n">
-        <v>13500</v>
+        <v>14429</v>
       </c>
       <c r="N30" t="inlineStr">
         <is>
@@ -2539,7 +2539,7 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>1038</v>
+        <v>1110</v>
       </c>
       <c r="Q30" t="n">
         <v>13</v>
@@ -2565,7 +2565,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44389</v>
+        <v>44832</v>
       </c>
       <c r="E31" t="n">
         <v>15</v>
@@ -2589,16 +2589,16 @@
         </is>
       </c>
       <c r="J31" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="K31" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="L31" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="M31" t="n">
-        <v>12500</v>
+        <v>13500</v>
       </c>
       <c r="N31" t="inlineStr">
         <is>
@@ -2611,7 +2611,7 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>962</v>
+        <v>1038</v>
       </c>
       <c r="Q31" t="n">
         <v>13</v>
@@ -2637,7 +2637,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44855</v>
+        <v>44580</v>
       </c>
       <c r="E32" t="n">
         <v>15</v>
@@ -2661,16 +2661,16 @@
         </is>
       </c>
       <c r="J32" t="n">
-        <v>500</v>
+        <v>160</v>
       </c>
       <c r="K32" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="L32" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M32" t="n">
-        <v>10000</v>
+        <v>11500</v>
       </c>
       <c r="N32" t="inlineStr">
         <is>
@@ -2683,7 +2683,7 @@
         </is>
       </c>
       <c r="P32" t="n">
-        <v>769</v>
+        <v>885</v>
       </c>
       <c r="Q32" t="n">
         <v>13</v>
@@ -2709,7 +2709,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44764</v>
+        <v>44592</v>
       </c>
       <c r="E33" t="n">
         <v>15</v>
@@ -2733,7 +2733,7 @@
         </is>
       </c>
       <c r="J33" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="K33" t="n">
         <v>12000</v>
@@ -2781,7 +2781,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44379</v>
+        <v>44914</v>
       </c>
       <c r="E34" t="n">
         <v>15</v>
@@ -2805,16 +2805,16 @@
         </is>
       </c>
       <c r="J34" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="K34" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="L34" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="M34" t="n">
-        <v>12667</v>
+        <v>14400</v>
       </c>
       <c r="N34" t="inlineStr">
         <is>
@@ -2827,7 +2827,7 @@
         </is>
       </c>
       <c r="P34" t="n">
-        <v>974</v>
+        <v>1108</v>
       </c>
       <c r="Q34" t="n">
         <v>13</v>
@@ -2853,7 +2853,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>45239</v>
+        <v>45100</v>
       </c>
       <c r="E35" t="n">
         <v>15</v>
@@ -2877,16 +2877,16 @@
         </is>
       </c>
       <c r="J35" t="n">
-        <v>800</v>
+        <v>200</v>
       </c>
       <c r="K35" t="n">
+        <v>15000</v>
+      </c>
+      <c r="L35" t="n">
         <v>16000</v>
       </c>
-      <c r="L35" t="n">
-        <v>17000</v>
-      </c>
       <c r="M35" t="n">
-        <v>16500</v>
+        <v>15500</v>
       </c>
       <c r="N35" t="inlineStr">
         <is>
@@ -2899,7 +2899,7 @@
         </is>
       </c>
       <c r="P35" t="n">
-        <v>1269</v>
+        <v>1192</v>
       </c>
       <c r="Q35" t="n">
         <v>13</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Jengibre.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Jengibre.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>45154</v>
+        <v>44893</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>250</v>
+        <v>900</v>
       </c>
       <c r="K2" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="L2" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="M2" t="n">
-        <v>17500</v>
+        <v>13444</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>1346</v>
+        <v>1034</v>
       </c>
       <c r="Q2" t="n">
         <v>13</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>45238</v>
+        <v>44984</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -573,7 +573,7 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="K3" t="n">
         <v>16000</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>45092</v>
+        <v>45245</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="K4" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="L4" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="M4" t="n">
-        <v>13500</v>
+        <v>17500</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>1038</v>
+        <v>1346</v>
       </c>
       <c r="Q4" t="n">
         <v>13</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>45245</v>
+        <v>45141</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="K5" t="n">
+        <v>16000</v>
+      </c>
+      <c r="L5" t="n">
         <v>17000</v>
       </c>
-      <c r="L5" t="n">
-        <v>18000</v>
-      </c>
       <c r="M5" t="n">
-        <v>17500</v>
+        <v>16550</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>1346</v>
+        <v>1273</v>
       </c>
       <c r="Q5" t="n">
         <v>13</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44379</v>
+        <v>45154</v>
       </c>
       <c r="E6" t="n">
         <v>15</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>120</v>
+        <v>250</v>
       </c>
       <c r="K6" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="L6" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="M6" t="n">
-        <v>12667</v>
+        <v>17500</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>974</v>
+        <v>1346</v>
       </c>
       <c r="Q6" t="n">
         <v>13</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44389</v>
+        <v>45155</v>
       </c>
       <c r="E7" t="n">
         <v>15</v>
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="K7" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="L7" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="M7" t="n">
-        <v>12500</v>
+        <v>16500</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>962</v>
+        <v>1269</v>
       </c>
       <c r="Q7" t="n">
         <v>13</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44406</v>
+        <v>44469</v>
       </c>
       <c r="E8" t="n">
         <v>15</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="K8" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="L8" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="M8" t="n">
-        <v>17500</v>
+        <v>13500</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>1346</v>
+        <v>1038</v>
       </c>
       <c r="Q8" t="n">
         <v>13</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44972</v>
+        <v>44406</v>
       </c>
       <c r="E9" t="n">
         <v>15</v>
@@ -1005,7 +1005,7 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>350</v>
+        <v>160</v>
       </c>
       <c r="K9" t="n">
         <v>17000</v>
@@ -1014,11 +1014,11 @@
         <v>18000</v>
       </c>
       <c r="M9" t="n">
-        <v>17429</v>
+        <v>17500</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 13 kilos</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
@@ -1027,10 +1027,10 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>1162</v>
+        <v>1346</v>
       </c>
       <c r="Q9" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="R9" t="inlineStr">
         <is>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44855</v>
+        <v>44592</v>
       </c>
       <c r="E10" t="n">
         <v>15</v>
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>500</v>
+        <v>120</v>
       </c>
       <c r="K10" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="L10" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="M10" t="n">
-        <v>10000</v>
+        <v>12500</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>769</v>
+        <v>962</v>
       </c>
       <c r="Q10" t="n">
         <v>13</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44890</v>
+        <v>44320</v>
       </c>
       <c r="E11" t="n">
         <v>15</v>
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>300</v>
+        <v>160</v>
       </c>
       <c r="K11" t="n">
-        <v>14000</v>
+        <v>19000</v>
       </c>
       <c r="L11" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="M11" t="n">
-        <v>14500</v>
+        <v>19500</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>1115</v>
+        <v>1500</v>
       </c>
       <c r="Q11" t="n">
         <v>13</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44918</v>
+        <v>45028</v>
       </c>
       <c r="E12" t="n">
         <v>15</v>
@@ -1217,20 +1217,20 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J12" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K12" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="L12" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="M12" t="n">
-        <v>12750</v>
+        <v>14500</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>981</v>
+        <v>1115</v>
       </c>
       <c r="Q12" t="n">
         <v>13</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44320</v>
+        <v>45049</v>
       </c>
       <c r="E13" t="n">
         <v>15</v>
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>160</v>
+        <v>300</v>
       </c>
       <c r="K13" t="n">
-        <v>19000</v>
+        <v>13000</v>
       </c>
       <c r="L13" t="n">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="M13" t="n">
-        <v>19500</v>
+        <v>13500</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>1500</v>
+        <v>1038</v>
       </c>
       <c r="Q13" t="n">
         <v>13</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44469</v>
+        <v>45238</v>
       </c>
       <c r="E14" t="n">
         <v>15</v>
@@ -1365,16 +1365,16 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>140</v>
+        <v>250</v>
       </c>
       <c r="K14" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="L14" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="M14" t="n">
-        <v>13500</v>
+        <v>16500</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>1038</v>
+        <v>1269</v>
       </c>
       <c r="Q14" t="n">
         <v>13</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>45049</v>
+        <v>45096</v>
       </c>
       <c r="E15" t="n">
         <v>15</v>
@@ -1437,16 +1437,16 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>300</v>
+        <v>750</v>
       </c>
       <c r="K15" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="L15" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="M15" t="n">
-        <v>13500</v>
+        <v>14600</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>1038</v>
+        <v>1123</v>
       </c>
       <c r="Q15" t="n">
         <v>13</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44910</v>
+        <v>44972</v>
       </c>
       <c r="E16" t="n">
         <v>15</v>
@@ -1509,20 +1509,20 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>50</v>
+        <v>350</v>
       </c>
       <c r="K16" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="L16" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="M16" t="n">
-        <v>14500</v>
+        <v>17429</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>$/caja 13 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
@@ -1531,10 +1531,10 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>1115</v>
+        <v>1162</v>
       </c>
       <c r="Q16" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="R16" t="inlineStr">
         <is>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44984</v>
+        <v>45092</v>
       </c>
       <c r="E17" t="n">
         <v>15</v>
@@ -1581,16 +1581,16 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="K17" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="L17" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="M17" t="n">
-        <v>16500</v>
+        <v>13500</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>1269</v>
+        <v>1038</v>
       </c>
       <c r="Q17" t="n">
         <v>13</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>45239</v>
+        <v>44914</v>
       </c>
       <c r="E19" t="n">
         <v>15</v>
@@ -1725,16 +1725,16 @@
         </is>
       </c>
       <c r="J19" t="n">
-        <v>800</v>
+        <v>100</v>
       </c>
       <c r="K19" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="L19" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="M19" t="n">
-        <v>16500</v>
+        <v>14400</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>1269</v>
+        <v>1108</v>
       </c>
       <c r="Q19" t="n">
         <v>13</v>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44893</v>
+        <v>44890</v>
       </c>
       <c r="E20" t="n">
         <v>15</v>
@@ -1797,16 +1797,16 @@
         </is>
       </c>
       <c r="J20" t="n">
-        <v>900</v>
+        <v>300</v>
       </c>
       <c r="K20" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="L20" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="M20" t="n">
-        <v>13444</v>
+        <v>14500</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
@@ -1819,7 +1819,7 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>1034</v>
+        <v>1115</v>
       </c>
       <c r="Q20" t="n">
         <v>13</v>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>45028</v>
+        <v>44910</v>
       </c>
       <c r="E21" t="n">
         <v>15</v>
@@ -1869,7 +1869,7 @@
         </is>
       </c>
       <c r="J21" t="n">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="K21" t="n">
         <v>14000</v>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44159</v>
+        <v>44988</v>
       </c>
       <c r="E22" t="n">
         <v>15</v>
@@ -1941,16 +1941,16 @@
         </is>
       </c>
       <c r="J22" t="n">
-        <v>100</v>
+        <v>750</v>
       </c>
       <c r="K22" t="n">
-        <v>23000</v>
+        <v>17000</v>
       </c>
       <c r="L22" t="n">
-        <v>24000</v>
+        <v>18000</v>
       </c>
       <c r="M22" t="n">
-        <v>23500</v>
+        <v>17400</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
@@ -1963,7 +1963,7 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>1808</v>
+        <v>1338</v>
       </c>
       <c r="Q22" t="n">
         <v>13</v>
@@ -1989,7 +1989,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44988</v>
+        <v>44918</v>
       </c>
       <c r="E23" t="n">
         <v>15</v>
@@ -2009,20 +2009,20 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J23" t="n">
-        <v>750</v>
+        <v>200</v>
       </c>
       <c r="K23" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="L23" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="M23" t="n">
-        <v>17400</v>
+        <v>12750</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
@@ -2035,7 +2035,7 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>1338</v>
+        <v>981</v>
       </c>
       <c r="Q23" t="n">
         <v>13</v>
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>45141</v>
+        <v>44397</v>
       </c>
       <c r="E24" t="n">
         <v>15</v>
@@ -2085,16 +2085,16 @@
         </is>
       </c>
       <c r="J24" t="n">
-        <v>400</v>
+        <v>140</v>
       </c>
       <c r="K24" t="n">
-        <v>16000</v>
+        <v>12500</v>
       </c>
       <c r="L24" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="M24" t="n">
-        <v>16550</v>
+        <v>12750</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
@@ -2107,7 +2107,7 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>1273</v>
+        <v>981</v>
       </c>
       <c r="Q24" t="n">
         <v>13</v>
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44397</v>
+        <v>45100</v>
       </c>
       <c r="E25" t="n">
         <v>15</v>
@@ -2157,16 +2157,16 @@
         </is>
       </c>
       <c r="J25" t="n">
-        <v>140</v>
+        <v>200</v>
       </c>
       <c r="K25" t="n">
-        <v>12500</v>
+        <v>15000</v>
       </c>
       <c r="L25" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="M25" t="n">
-        <v>12750</v>
+        <v>15500</v>
       </c>
       <c r="N25" t="inlineStr">
         <is>
@@ -2179,7 +2179,7 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>981</v>
+        <v>1192</v>
       </c>
       <c r="Q25" t="n">
         <v>13</v>
@@ -2205,7 +2205,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44764</v>
+        <v>44943</v>
       </c>
       <c r="E26" t="n">
         <v>15</v>
@@ -2225,20 +2225,20 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J26" t="n">
-        <v>200</v>
+        <v>350</v>
       </c>
       <c r="K26" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="L26" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="M26" t="n">
-        <v>12500</v>
+        <v>14429</v>
       </c>
       <c r="N26" t="inlineStr">
         <is>
@@ -2251,7 +2251,7 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>962</v>
+        <v>1110</v>
       </c>
       <c r="Q26" t="n">
         <v>13</v>
@@ -2277,7 +2277,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>45155</v>
+        <v>45140</v>
       </c>
       <c r="E27" t="n">
         <v>15</v>
@@ -2301,7 +2301,7 @@
         </is>
       </c>
       <c r="J27" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K27" t="n">
         <v>16000</v>
@@ -2349,7 +2349,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>45096</v>
+        <v>44159</v>
       </c>
       <c r="E28" t="n">
         <v>15</v>
@@ -2373,16 +2373,16 @@
         </is>
       </c>
       <c r="J28" t="n">
-        <v>750</v>
+        <v>100</v>
       </c>
       <c r="K28" t="n">
-        <v>14000</v>
+        <v>23000</v>
       </c>
       <c r="L28" t="n">
-        <v>15000</v>
+        <v>24000</v>
       </c>
       <c r="M28" t="n">
-        <v>14600</v>
+        <v>23500</v>
       </c>
       <c r="N28" t="inlineStr">
         <is>
@@ -2395,7 +2395,7 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>1123</v>
+        <v>1808</v>
       </c>
       <c r="Q28" t="n">
         <v>13</v>
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>45140</v>
+        <v>44580</v>
       </c>
       <c r="E29" t="n">
         <v>15</v>
@@ -2445,16 +2445,16 @@
         </is>
       </c>
       <c r="J29" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="K29" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="L29" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="M29" t="n">
-        <v>16500</v>
+        <v>11500</v>
       </c>
       <c r="N29" t="inlineStr">
         <is>
@@ -2467,7 +2467,7 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>1269</v>
+        <v>885</v>
       </c>
       <c r="Q29" t="n">
         <v>13</v>
@@ -2493,7 +2493,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44943</v>
+        <v>44832</v>
       </c>
       <c r="E30" t="n">
         <v>15</v>
@@ -2513,20 +2513,20 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J30" t="n">
-        <v>350</v>
+        <v>100</v>
       </c>
       <c r="K30" t="n">
+        <v>13000</v>
+      </c>
+      <c r="L30" t="n">
         <v>14000</v>
       </c>
-      <c r="L30" t="n">
-        <v>15000</v>
-      </c>
       <c r="M30" t="n">
-        <v>14429</v>
+        <v>13500</v>
       </c>
       <c r="N30" t="inlineStr">
         <is>
@@ -2539,7 +2539,7 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>1110</v>
+        <v>1038</v>
       </c>
       <c r="Q30" t="n">
         <v>13</v>
@@ -2565,7 +2565,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44832</v>
+        <v>44389</v>
       </c>
       <c r="E31" t="n">
         <v>15</v>
@@ -2589,16 +2589,16 @@
         </is>
       </c>
       <c r="J31" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="K31" t="n">
+        <v>12000</v>
+      </c>
+      <c r="L31" t="n">
         <v>13000</v>
       </c>
-      <c r="L31" t="n">
-        <v>14000</v>
-      </c>
       <c r="M31" t="n">
-        <v>13500</v>
+        <v>12500</v>
       </c>
       <c r="N31" t="inlineStr">
         <is>
@@ -2611,7 +2611,7 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>1038</v>
+        <v>962</v>
       </c>
       <c r="Q31" t="n">
         <v>13</v>
@@ -2637,7 +2637,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44580</v>
+        <v>44855</v>
       </c>
       <c r="E32" t="n">
         <v>15</v>
@@ -2661,16 +2661,16 @@
         </is>
       </c>
       <c r="J32" t="n">
-        <v>160</v>
+        <v>500</v>
       </c>
       <c r="K32" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="L32" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="M32" t="n">
-        <v>11500</v>
+        <v>10000</v>
       </c>
       <c r="N32" t="inlineStr">
         <is>
@@ -2683,7 +2683,7 @@
         </is>
       </c>
       <c r="P32" t="n">
-        <v>885</v>
+        <v>769</v>
       </c>
       <c r="Q32" t="n">
         <v>13</v>
@@ -2709,7 +2709,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44592</v>
+        <v>44764</v>
       </c>
       <c r="E33" t="n">
         <v>15</v>
@@ -2733,7 +2733,7 @@
         </is>
       </c>
       <c r="J33" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="K33" t="n">
         <v>12000</v>
@@ -2781,7 +2781,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44914</v>
+        <v>44379</v>
       </c>
       <c r="E34" t="n">
         <v>15</v>
@@ -2805,16 +2805,16 @@
         </is>
       </c>
       <c r="J34" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="K34" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="L34" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="M34" t="n">
-        <v>14400</v>
+        <v>12667</v>
       </c>
       <c r="N34" t="inlineStr">
         <is>
@@ -2827,7 +2827,7 @@
         </is>
       </c>
       <c r="P34" t="n">
-        <v>1108</v>
+        <v>974</v>
       </c>
       <c r="Q34" t="n">
         <v>13</v>
@@ -2853,7 +2853,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>45100</v>
+        <v>45239</v>
       </c>
       <c r="E35" t="n">
         <v>15</v>
@@ -2877,16 +2877,16 @@
         </is>
       </c>
       <c r="J35" t="n">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="K35" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="L35" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="M35" t="n">
-        <v>15500</v>
+        <v>16500</v>
       </c>
       <c r="N35" t="inlineStr">
         <is>
@@ -2899,7 +2899,7 @@
         </is>
       </c>
       <c r="P35" t="n">
-        <v>1192</v>
+        <v>1269</v>
       </c>
       <c r="Q35" t="n">
         <v>13</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Jengibre.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Jengibre.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R35"/>
+  <dimension ref="A1:R37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44389</v>
+        <v>45251</v>
       </c>
       <c r="E7" t="n">
         <v>15</v>
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="K7" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="L7" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="M7" t="n">
-        <v>12500</v>
+        <v>17000</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>962</v>
+        <v>1308</v>
       </c>
       <c r="Q7" t="n">
         <v>13</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44406</v>
+        <v>45251</v>
       </c>
       <c r="E8" t="n">
         <v>15</v>
@@ -929,20 +929,20 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J8" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="K8" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="L8" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="M8" t="n">
-        <v>17500</v>
+        <v>16000</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>1346</v>
+        <v>1231</v>
       </c>
       <c r="Q8" t="n">
         <v>13</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44972</v>
+        <v>44389</v>
       </c>
       <c r="E9" t="n">
         <v>15</v>
@@ -1005,20 +1005,20 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>350</v>
+        <v>120</v>
       </c>
       <c r="K9" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="L9" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="M9" t="n">
-        <v>17429</v>
+        <v>12500</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 13 kilos</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
@@ -1027,10 +1027,10 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>1162</v>
+        <v>962</v>
       </c>
       <c r="Q9" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="R9" t="inlineStr">
         <is>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44855</v>
+        <v>44406</v>
       </c>
       <c r="E10" t="n">
         <v>15</v>
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>500</v>
+        <v>160</v>
       </c>
       <c r="K10" t="n">
-        <v>10000</v>
+        <v>17000</v>
       </c>
       <c r="L10" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="M10" t="n">
-        <v>10000</v>
+        <v>17500</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>769</v>
+        <v>1346</v>
       </c>
       <c r="Q10" t="n">
         <v>13</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44890</v>
+        <v>44972</v>
       </c>
       <c r="E11" t="n">
         <v>15</v>
@@ -1149,20 +1149,20 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="K11" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="L11" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="M11" t="n">
-        <v>14500</v>
+        <v>17429</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>$/caja 13 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
@@ -1171,10 +1171,10 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>1115</v>
+        <v>1162</v>
       </c>
       <c r="Q11" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="R11" t="inlineStr">
         <is>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44918</v>
+        <v>44855</v>
       </c>
       <c r="E12" t="n">
         <v>15</v>
@@ -1217,20 +1217,20 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J12" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="K12" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="L12" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="M12" t="n">
-        <v>12750</v>
+        <v>10000</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>981</v>
+        <v>769</v>
       </c>
       <c r="Q12" t="n">
         <v>13</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44320</v>
+        <v>44890</v>
       </c>
       <c r="E13" t="n">
         <v>15</v>
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>160</v>
+        <v>300</v>
       </c>
       <c r="K13" t="n">
-        <v>19000</v>
+        <v>14000</v>
       </c>
       <c r="L13" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="M13" t="n">
-        <v>19500</v>
+        <v>14500</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>1500</v>
+        <v>1115</v>
       </c>
       <c r="Q13" t="n">
         <v>13</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44469</v>
+        <v>44918</v>
       </c>
       <c r="E14" t="n">
         <v>15</v>
@@ -1361,20 +1361,20 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J14" t="n">
-        <v>140</v>
+        <v>200</v>
       </c>
       <c r="K14" t="n">
+        <v>12000</v>
+      </c>
+      <c r="L14" t="n">
         <v>13000</v>
       </c>
-      <c r="L14" t="n">
-        <v>14000</v>
-      </c>
       <c r="M14" t="n">
-        <v>13500</v>
+        <v>12750</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>1038</v>
+        <v>981</v>
       </c>
       <c r="Q14" t="n">
         <v>13</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>45049</v>
+        <v>44320</v>
       </c>
       <c r="E15" t="n">
         <v>15</v>
@@ -1437,16 +1437,16 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>300</v>
+        <v>160</v>
       </c>
       <c r="K15" t="n">
-        <v>13000</v>
+        <v>19000</v>
       </c>
       <c r="L15" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="M15" t="n">
-        <v>13500</v>
+        <v>19500</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>1038</v>
+        <v>1500</v>
       </c>
       <c r="Q15" t="n">
         <v>13</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44910</v>
+        <v>44469</v>
       </c>
       <c r="E16" t="n">
         <v>15</v>
@@ -1509,16 +1509,16 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>50</v>
+        <v>140</v>
       </c>
       <c r="K16" t="n">
+        <v>13000</v>
+      </c>
+      <c r="L16" t="n">
         <v>14000</v>
       </c>
-      <c r="L16" t="n">
-        <v>15000</v>
-      </c>
       <c r="M16" t="n">
-        <v>14500</v>
+        <v>13500</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>1115</v>
+        <v>1038</v>
       </c>
       <c r="Q16" t="n">
         <v>13</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44984</v>
+        <v>45049</v>
       </c>
       <c r="E17" t="n">
         <v>15</v>
@@ -1581,16 +1581,16 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K17" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="L17" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="M17" t="n">
-        <v>16500</v>
+        <v>13500</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>1269</v>
+        <v>1038</v>
       </c>
       <c r="Q17" t="n">
         <v>13</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44616</v>
+        <v>44910</v>
       </c>
       <c r="E18" t="n">
         <v>15</v>
@@ -1653,16 +1653,16 @@
         </is>
       </c>
       <c r="J18" t="n">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="K18" t="n">
-        <v>19000</v>
+        <v>14000</v>
       </c>
       <c r="L18" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="M18" t="n">
-        <v>19500</v>
+        <v>14500</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1675,7 +1675,7 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>1500</v>
+        <v>1115</v>
       </c>
       <c r="Q18" t="n">
         <v>13</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>45239</v>
+        <v>44984</v>
       </c>
       <c r="E19" t="n">
         <v>15</v>
@@ -1725,7 +1725,7 @@
         </is>
       </c>
       <c r="J19" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="K19" t="n">
         <v>16000</v>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44893</v>
+        <v>44616</v>
       </c>
       <c r="E20" t="n">
         <v>15</v>
@@ -1797,16 +1797,16 @@
         </is>
       </c>
       <c r="J20" t="n">
-        <v>900</v>
+        <v>120</v>
       </c>
       <c r="K20" t="n">
-        <v>13000</v>
+        <v>19000</v>
       </c>
       <c r="L20" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="M20" t="n">
-        <v>13444</v>
+        <v>19500</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
@@ -1819,7 +1819,7 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>1034</v>
+        <v>1500</v>
       </c>
       <c r="Q20" t="n">
         <v>13</v>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>45028</v>
+        <v>45239</v>
       </c>
       <c r="E21" t="n">
         <v>15</v>
@@ -1869,16 +1869,16 @@
         </is>
       </c>
       <c r="J21" t="n">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="K21" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="L21" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="M21" t="n">
-        <v>14500</v>
+        <v>16500</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
@@ -1891,7 +1891,7 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>1115</v>
+        <v>1269</v>
       </c>
       <c r="Q21" t="n">
         <v>13</v>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44159</v>
+        <v>44893</v>
       </c>
       <c r="E22" t="n">
         <v>15</v>
@@ -1941,16 +1941,16 @@
         </is>
       </c>
       <c r="J22" t="n">
-        <v>100</v>
+        <v>900</v>
       </c>
       <c r="K22" t="n">
-        <v>23000</v>
+        <v>13000</v>
       </c>
       <c r="L22" t="n">
-        <v>24000</v>
+        <v>14000</v>
       </c>
       <c r="M22" t="n">
-        <v>23500</v>
+        <v>13444</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
@@ -1963,7 +1963,7 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>1808</v>
+        <v>1034</v>
       </c>
       <c r="Q22" t="n">
         <v>13</v>
@@ -1989,7 +1989,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44988</v>
+        <v>45028</v>
       </c>
       <c r="E23" t="n">
         <v>15</v>
@@ -2013,16 +2013,16 @@
         </is>
       </c>
       <c r="J23" t="n">
-        <v>750</v>
+        <v>300</v>
       </c>
       <c r="K23" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="L23" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="M23" t="n">
-        <v>17400</v>
+        <v>14500</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
@@ -2035,7 +2035,7 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>1338</v>
+        <v>1115</v>
       </c>
       <c r="Q23" t="n">
         <v>13</v>
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>45141</v>
+        <v>44159</v>
       </c>
       <c r="E24" t="n">
         <v>15</v>
@@ -2085,16 +2085,16 @@
         </is>
       </c>
       <c r="J24" t="n">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="K24" t="n">
-        <v>16000</v>
+        <v>23000</v>
       </c>
       <c r="L24" t="n">
-        <v>17000</v>
+        <v>24000</v>
       </c>
       <c r="M24" t="n">
-        <v>16550</v>
+        <v>23500</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
@@ -2107,7 +2107,7 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>1273</v>
+        <v>1808</v>
       </c>
       <c r="Q24" t="n">
         <v>13</v>
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44397</v>
+        <v>44988</v>
       </c>
       <c r="E25" t="n">
         <v>15</v>
@@ -2157,16 +2157,16 @@
         </is>
       </c>
       <c r="J25" t="n">
-        <v>140</v>
+        <v>750</v>
       </c>
       <c r="K25" t="n">
-        <v>12500</v>
+        <v>17000</v>
       </c>
       <c r="L25" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="M25" t="n">
-        <v>12750</v>
+        <v>17400</v>
       </c>
       <c r="N25" t="inlineStr">
         <is>
@@ -2179,7 +2179,7 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>981</v>
+        <v>1338</v>
       </c>
       <c r="Q25" t="n">
         <v>13</v>
@@ -2205,7 +2205,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44764</v>
+        <v>45141</v>
       </c>
       <c r="E26" t="n">
         <v>15</v>
@@ -2229,16 +2229,16 @@
         </is>
       </c>
       <c r="J26" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="K26" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="L26" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="M26" t="n">
-        <v>12500</v>
+        <v>16550</v>
       </c>
       <c r="N26" t="inlineStr">
         <is>
@@ -2251,7 +2251,7 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>962</v>
+        <v>1273</v>
       </c>
       <c r="Q26" t="n">
         <v>13</v>
@@ -2277,7 +2277,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>45155</v>
+        <v>44397</v>
       </c>
       <c r="E27" t="n">
         <v>15</v>
@@ -2301,16 +2301,16 @@
         </is>
       </c>
       <c r="J27" t="n">
-        <v>300</v>
+        <v>140</v>
       </c>
       <c r="K27" t="n">
-        <v>16000</v>
+        <v>12500</v>
       </c>
       <c r="L27" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="M27" t="n">
-        <v>16500</v>
+        <v>12750</v>
       </c>
       <c r="N27" t="inlineStr">
         <is>
@@ -2323,7 +2323,7 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>1269</v>
+        <v>981</v>
       </c>
       <c r="Q27" t="n">
         <v>13</v>
@@ -2349,7 +2349,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>45096</v>
+        <v>44764</v>
       </c>
       <c r="E28" t="n">
         <v>15</v>
@@ -2373,16 +2373,16 @@
         </is>
       </c>
       <c r="J28" t="n">
-        <v>750</v>
+        <v>200</v>
       </c>
       <c r="K28" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="L28" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="M28" t="n">
-        <v>14600</v>
+        <v>12500</v>
       </c>
       <c r="N28" t="inlineStr">
         <is>
@@ -2395,7 +2395,7 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>1123</v>
+        <v>962</v>
       </c>
       <c r="Q28" t="n">
         <v>13</v>
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>45140</v>
+        <v>45155</v>
       </c>
       <c r="E29" t="n">
         <v>15</v>
@@ -2445,7 +2445,7 @@
         </is>
       </c>
       <c r="J29" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K29" t="n">
         <v>16000</v>
@@ -2493,7 +2493,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44943</v>
+        <v>45096</v>
       </c>
       <c r="E30" t="n">
         <v>15</v>
@@ -2513,11 +2513,11 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J30" t="n">
-        <v>350</v>
+        <v>750</v>
       </c>
       <c r="K30" t="n">
         <v>14000</v>
@@ -2526,7 +2526,7 @@
         <v>15000</v>
       </c>
       <c r="M30" t="n">
-        <v>14429</v>
+        <v>14600</v>
       </c>
       <c r="N30" t="inlineStr">
         <is>
@@ -2539,7 +2539,7 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>1110</v>
+        <v>1123</v>
       </c>
       <c r="Q30" t="n">
         <v>13</v>
@@ -2565,7 +2565,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44832</v>
+        <v>45140</v>
       </c>
       <c r="E31" t="n">
         <v>15</v>
@@ -2589,16 +2589,16 @@
         </is>
       </c>
       <c r="J31" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K31" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="L31" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="M31" t="n">
-        <v>13500</v>
+        <v>16500</v>
       </c>
       <c r="N31" t="inlineStr">
         <is>
@@ -2611,7 +2611,7 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>1038</v>
+        <v>1269</v>
       </c>
       <c r="Q31" t="n">
         <v>13</v>
@@ -2637,7 +2637,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44580</v>
+        <v>44943</v>
       </c>
       <c r="E32" t="n">
         <v>15</v>
@@ -2657,20 +2657,20 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J32" t="n">
-        <v>160</v>
+        <v>350</v>
       </c>
       <c r="K32" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="L32" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="M32" t="n">
-        <v>11500</v>
+        <v>14429</v>
       </c>
       <c r="N32" t="inlineStr">
         <is>
@@ -2683,7 +2683,7 @@
         </is>
       </c>
       <c r="P32" t="n">
-        <v>885</v>
+        <v>1110</v>
       </c>
       <c r="Q32" t="n">
         <v>13</v>
@@ -2709,7 +2709,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44592</v>
+        <v>44832</v>
       </c>
       <c r="E33" t="n">
         <v>15</v>
@@ -2733,16 +2733,16 @@
         </is>
       </c>
       <c r="J33" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="K33" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="L33" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="M33" t="n">
-        <v>12500</v>
+        <v>13500</v>
       </c>
       <c r="N33" t="inlineStr">
         <is>
@@ -2755,7 +2755,7 @@
         </is>
       </c>
       <c r="P33" t="n">
-        <v>962</v>
+        <v>1038</v>
       </c>
       <c r="Q33" t="n">
         <v>13</v>
@@ -2781,7 +2781,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44914</v>
+        <v>44580</v>
       </c>
       <c r="E34" t="n">
         <v>15</v>
@@ -2805,16 +2805,16 @@
         </is>
       </c>
       <c r="J34" t="n">
-        <v>100</v>
+        <v>160</v>
       </c>
       <c r="K34" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="L34" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="M34" t="n">
-        <v>14400</v>
+        <v>11500</v>
       </c>
       <c r="N34" t="inlineStr">
         <is>
@@ -2827,7 +2827,7 @@
         </is>
       </c>
       <c r="P34" t="n">
-        <v>1108</v>
+        <v>885</v>
       </c>
       <c r="Q34" t="n">
         <v>13</v>
@@ -2853,58 +2853,202 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
+        <v>44592</v>
+      </c>
+      <c r="E35" t="n">
+        <v>15</v>
+      </c>
+      <c r="F35" t="n">
+        <v>100114007</v>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>Jengibre</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J35" t="n">
+        <v>120</v>
+      </c>
+      <c r="K35" t="n">
+        <v>12000</v>
+      </c>
+      <c r="L35" t="n">
+        <v>13000</v>
+      </c>
+      <c r="M35" t="n">
+        <v>12500</v>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>$/caja 13 kilos</t>
+        </is>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>Perú</t>
+        </is>
+      </c>
+      <c r="P35" t="n">
+        <v>962</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>13</v>
+      </c>
+      <c r="R35" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>1</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Agrícola del Norte S.A. de Arica</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="D36" s="2" t="n">
+        <v>44914</v>
+      </c>
+      <c r="E36" t="n">
+        <v>15</v>
+      </c>
+      <c r="F36" t="n">
+        <v>100114007</v>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>Jengibre</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J36" t="n">
+        <v>100</v>
+      </c>
+      <c r="K36" t="n">
+        <v>14000</v>
+      </c>
+      <c r="L36" t="n">
+        <v>15000</v>
+      </c>
+      <c r="M36" t="n">
+        <v>14400</v>
+      </c>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>$/caja 13 kilos</t>
+        </is>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>Perú</t>
+        </is>
+      </c>
+      <c r="P36" t="n">
+        <v>1108</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>13</v>
+      </c>
+      <c r="R36" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>1</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Agrícola del Norte S.A. de Arica</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="D37" s="2" t="n">
         <v>45100</v>
       </c>
-      <c r="E35" t="n">
-        <v>15</v>
-      </c>
-      <c r="F35" t="n">
-        <v>100114007</v>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>Jengibre</t>
-        </is>
-      </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>Sin especificar</t>
-        </is>
-      </c>
-      <c r="I35" t="inlineStr">
-        <is>
-          <t>Primera</t>
-        </is>
-      </c>
-      <c r="J35" t="n">
+      <c r="E37" t="n">
+        <v>15</v>
+      </c>
+      <c r="F37" t="n">
+        <v>100114007</v>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>Jengibre</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J37" t="n">
         <v>200</v>
       </c>
-      <c r="K35" t="n">
+      <c r="K37" t="n">
         <v>15000</v>
       </c>
-      <c r="L35" t="n">
+      <c r="L37" t="n">
         <v>16000</v>
       </c>
-      <c r="M35" t="n">
+      <c r="M37" t="n">
         <v>15500</v>
       </c>
-      <c r="N35" t="inlineStr">
-        <is>
-          <t>$/caja 13 kilos</t>
-        </is>
-      </c>
-      <c r="O35" t="inlineStr">
-        <is>
-          <t>Perú</t>
-        </is>
-      </c>
-      <c r="P35" t="n">
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>$/caja 13 kilos</t>
+        </is>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>Perú</t>
+        </is>
+      </c>
+      <c r="P37" t="n">
         <v>1192</v>
       </c>
-      <c r="Q35" t="n">
-        <v>13</v>
-      </c>
-      <c r="R35" t="inlineStr">
+      <c r="Q37" t="n">
+        <v>13</v>
+      </c>
+      <c r="R37" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Jengibre.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Jengibre.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R37"/>
+  <dimension ref="A1:R38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44469</v>
+        <v>45264</v>
       </c>
       <c r="E16" t="n">
         <v>15</v>
@@ -1509,16 +1509,16 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>140</v>
+        <v>300</v>
       </c>
       <c r="K16" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="L16" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="M16" t="n">
-        <v>13500</v>
+        <v>17000</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>1038</v>
+        <v>1308</v>
       </c>
       <c r="Q16" t="n">
         <v>13</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>45049</v>
+        <v>44469</v>
       </c>
       <c r="E17" t="n">
         <v>15</v>
@@ -1581,7 +1581,7 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>300</v>
+        <v>140</v>
       </c>
       <c r="K17" t="n">
         <v>13000</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44910</v>
+        <v>45049</v>
       </c>
       <c r="E18" t="n">
         <v>15</v>
@@ -1653,16 +1653,16 @@
         </is>
       </c>
       <c r="J18" t="n">
-        <v>50</v>
+        <v>300</v>
       </c>
       <c r="K18" t="n">
+        <v>13000</v>
+      </c>
+      <c r="L18" t="n">
         <v>14000</v>
       </c>
-      <c r="L18" t="n">
-        <v>15000</v>
-      </c>
       <c r="M18" t="n">
-        <v>14500</v>
+        <v>13500</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1675,7 +1675,7 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>1115</v>
+        <v>1038</v>
       </c>
       <c r="Q18" t="n">
         <v>13</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44984</v>
+        <v>44910</v>
       </c>
       <c r="E19" t="n">
         <v>15</v>
@@ -1725,16 +1725,16 @@
         </is>
       </c>
       <c r="J19" t="n">
-        <v>400</v>
+        <v>50</v>
       </c>
       <c r="K19" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="L19" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="M19" t="n">
-        <v>16500</v>
+        <v>14500</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>1269</v>
+        <v>1115</v>
       </c>
       <c r="Q19" t="n">
         <v>13</v>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44616</v>
+        <v>44984</v>
       </c>
       <c r="E20" t="n">
         <v>15</v>
@@ -1797,16 +1797,16 @@
         </is>
       </c>
       <c r="J20" t="n">
-        <v>120</v>
+        <v>400</v>
       </c>
       <c r="K20" t="n">
-        <v>19000</v>
+        <v>16000</v>
       </c>
       <c r="L20" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="M20" t="n">
-        <v>19500</v>
+        <v>16500</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
@@ -1819,7 +1819,7 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>1500</v>
+        <v>1269</v>
       </c>
       <c r="Q20" t="n">
         <v>13</v>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>45239</v>
+        <v>44616</v>
       </c>
       <c r="E21" t="n">
         <v>15</v>
@@ -1869,16 +1869,16 @@
         </is>
       </c>
       <c r="J21" t="n">
-        <v>800</v>
+        <v>120</v>
       </c>
       <c r="K21" t="n">
-        <v>16000</v>
+        <v>19000</v>
       </c>
       <c r="L21" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="M21" t="n">
-        <v>16500</v>
+        <v>19500</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
@@ -1891,7 +1891,7 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>1269</v>
+        <v>1500</v>
       </c>
       <c r="Q21" t="n">
         <v>13</v>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44893</v>
+        <v>45239</v>
       </c>
       <c r="E22" t="n">
         <v>15</v>
@@ -1941,16 +1941,16 @@
         </is>
       </c>
       <c r="J22" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="K22" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="L22" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="M22" t="n">
-        <v>13444</v>
+        <v>16500</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
@@ -1963,7 +1963,7 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>1034</v>
+        <v>1269</v>
       </c>
       <c r="Q22" t="n">
         <v>13</v>
@@ -1989,7 +1989,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>45028</v>
+        <v>44893</v>
       </c>
       <c r="E23" t="n">
         <v>15</v>
@@ -2013,16 +2013,16 @@
         </is>
       </c>
       <c r="J23" t="n">
-        <v>300</v>
+        <v>900</v>
       </c>
       <c r="K23" t="n">
+        <v>13000</v>
+      </c>
+      <c r="L23" t="n">
         <v>14000</v>
       </c>
-      <c r="L23" t="n">
-        <v>15000</v>
-      </c>
       <c r="M23" t="n">
-        <v>14500</v>
+        <v>13444</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
@@ -2035,7 +2035,7 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>1115</v>
+        <v>1034</v>
       </c>
       <c r="Q23" t="n">
         <v>13</v>
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44159</v>
+        <v>45028</v>
       </c>
       <c r="E24" t="n">
         <v>15</v>
@@ -2085,16 +2085,16 @@
         </is>
       </c>
       <c r="J24" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="K24" t="n">
-        <v>23000</v>
+        <v>14000</v>
       </c>
       <c r="L24" t="n">
-        <v>24000</v>
+        <v>15000</v>
       </c>
       <c r="M24" t="n">
-        <v>23500</v>
+        <v>14500</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
@@ -2107,7 +2107,7 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>1808</v>
+        <v>1115</v>
       </c>
       <c r="Q24" t="n">
         <v>13</v>
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44988</v>
+        <v>44159</v>
       </c>
       <c r="E25" t="n">
         <v>15</v>
@@ -2157,16 +2157,16 @@
         </is>
       </c>
       <c r="J25" t="n">
-        <v>750</v>
+        <v>100</v>
       </c>
       <c r="K25" t="n">
-        <v>17000</v>
+        <v>23000</v>
       </c>
       <c r="L25" t="n">
-        <v>18000</v>
+        <v>24000</v>
       </c>
       <c r="M25" t="n">
-        <v>17400</v>
+        <v>23500</v>
       </c>
       <c r="N25" t="inlineStr">
         <is>
@@ -2179,7 +2179,7 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>1338</v>
+        <v>1808</v>
       </c>
       <c r="Q25" t="n">
         <v>13</v>
@@ -2205,7 +2205,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>45141</v>
+        <v>44988</v>
       </c>
       <c r="E26" t="n">
         <v>15</v>
@@ -2229,16 +2229,16 @@
         </is>
       </c>
       <c r="J26" t="n">
-        <v>400</v>
+        <v>750</v>
       </c>
       <c r="K26" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="L26" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="M26" t="n">
-        <v>16550</v>
+        <v>17400</v>
       </c>
       <c r="N26" t="inlineStr">
         <is>
@@ -2251,7 +2251,7 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>1273</v>
+        <v>1338</v>
       </c>
       <c r="Q26" t="n">
         <v>13</v>
@@ -2277,7 +2277,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44397</v>
+        <v>45141</v>
       </c>
       <c r="E27" t="n">
         <v>15</v>
@@ -2301,16 +2301,16 @@
         </is>
       </c>
       <c r="J27" t="n">
-        <v>140</v>
+        <v>400</v>
       </c>
       <c r="K27" t="n">
-        <v>12500</v>
+        <v>16000</v>
       </c>
       <c r="L27" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="M27" t="n">
-        <v>12750</v>
+        <v>16550</v>
       </c>
       <c r="N27" t="inlineStr">
         <is>
@@ -2323,7 +2323,7 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>981</v>
+        <v>1273</v>
       </c>
       <c r="Q27" t="n">
         <v>13</v>
@@ -2349,7 +2349,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44764</v>
+        <v>44397</v>
       </c>
       <c r="E28" t="n">
         <v>15</v>
@@ -2373,16 +2373,16 @@
         </is>
       </c>
       <c r="J28" t="n">
-        <v>200</v>
+        <v>140</v>
       </c>
       <c r="K28" t="n">
-        <v>12000</v>
+        <v>12500</v>
       </c>
       <c r="L28" t="n">
         <v>13000</v>
       </c>
       <c r="M28" t="n">
-        <v>12500</v>
+        <v>12750</v>
       </c>
       <c r="N28" t="inlineStr">
         <is>
@@ -2395,7 +2395,7 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>962</v>
+        <v>981</v>
       </c>
       <c r="Q28" t="n">
         <v>13</v>
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>45155</v>
+        <v>44764</v>
       </c>
       <c r="E29" t="n">
         <v>15</v>
@@ -2445,16 +2445,16 @@
         </is>
       </c>
       <c r="J29" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K29" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="L29" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="M29" t="n">
-        <v>16500</v>
+        <v>12500</v>
       </c>
       <c r="N29" t="inlineStr">
         <is>
@@ -2467,7 +2467,7 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>1269</v>
+        <v>962</v>
       </c>
       <c r="Q29" t="n">
         <v>13</v>
@@ -2493,7 +2493,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>45096</v>
+        <v>45155</v>
       </c>
       <c r="E30" t="n">
         <v>15</v>
@@ -2517,16 +2517,16 @@
         </is>
       </c>
       <c r="J30" t="n">
-        <v>750</v>
+        <v>300</v>
       </c>
       <c r="K30" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="L30" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="M30" t="n">
-        <v>14600</v>
+        <v>16500</v>
       </c>
       <c r="N30" t="inlineStr">
         <is>
@@ -2539,7 +2539,7 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>1123</v>
+        <v>1269</v>
       </c>
       <c r="Q30" t="n">
         <v>13</v>
@@ -2565,7 +2565,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>45140</v>
+        <v>45096</v>
       </c>
       <c r="E31" t="n">
         <v>15</v>
@@ -2589,16 +2589,16 @@
         </is>
       </c>
       <c r="J31" t="n">
-        <v>200</v>
+        <v>750</v>
       </c>
       <c r="K31" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="L31" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="M31" t="n">
-        <v>16500</v>
+        <v>14600</v>
       </c>
       <c r="N31" t="inlineStr">
         <is>
@@ -2611,7 +2611,7 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>1269</v>
+        <v>1123</v>
       </c>
       <c r="Q31" t="n">
         <v>13</v>
@@ -2637,7 +2637,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44943</v>
+        <v>45140</v>
       </c>
       <c r="E32" t="n">
         <v>15</v>
@@ -2657,20 +2657,20 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J32" t="n">
-        <v>350</v>
+        <v>200</v>
       </c>
       <c r="K32" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="L32" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="M32" t="n">
-        <v>14429</v>
+        <v>16500</v>
       </c>
       <c r="N32" t="inlineStr">
         <is>
@@ -2683,7 +2683,7 @@
         </is>
       </c>
       <c r="P32" t="n">
-        <v>1110</v>
+        <v>1269</v>
       </c>
       <c r="Q32" t="n">
         <v>13</v>
@@ -2709,7 +2709,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44832</v>
+        <v>44943</v>
       </c>
       <c r="E33" t="n">
         <v>15</v>
@@ -2729,20 +2729,20 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J33" t="n">
-        <v>100</v>
+        <v>350</v>
       </c>
       <c r="K33" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="L33" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="M33" t="n">
-        <v>13500</v>
+        <v>14429</v>
       </c>
       <c r="N33" t="inlineStr">
         <is>
@@ -2755,7 +2755,7 @@
         </is>
       </c>
       <c r="P33" t="n">
-        <v>1038</v>
+        <v>1110</v>
       </c>
       <c r="Q33" t="n">
         <v>13</v>
@@ -2781,7 +2781,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44580</v>
+        <v>44832</v>
       </c>
       <c r="E34" t="n">
         <v>15</v>
@@ -2805,16 +2805,16 @@
         </is>
       </c>
       <c r="J34" t="n">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="K34" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="L34" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="M34" t="n">
-        <v>11500</v>
+        <v>13500</v>
       </c>
       <c r="N34" t="inlineStr">
         <is>
@@ -2827,7 +2827,7 @@
         </is>
       </c>
       <c r="P34" t="n">
-        <v>885</v>
+        <v>1038</v>
       </c>
       <c r="Q34" t="n">
         <v>13</v>
@@ -2853,7 +2853,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44592</v>
+        <v>44580</v>
       </c>
       <c r="E35" t="n">
         <v>15</v>
@@ -2877,16 +2877,16 @@
         </is>
       </c>
       <c r="J35" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="K35" t="n">
+        <v>11000</v>
+      </c>
+      <c r="L35" t="n">
         <v>12000</v>
       </c>
-      <c r="L35" t="n">
-        <v>13000</v>
-      </c>
       <c r="M35" t="n">
-        <v>12500</v>
+        <v>11500</v>
       </c>
       <c r="N35" t="inlineStr">
         <is>
@@ -2899,7 +2899,7 @@
         </is>
       </c>
       <c r="P35" t="n">
-        <v>962</v>
+        <v>885</v>
       </c>
       <c r="Q35" t="n">
         <v>13</v>
@@ -2925,7 +2925,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44914</v>
+        <v>44592</v>
       </c>
       <c r="E36" t="n">
         <v>15</v>
@@ -2949,16 +2949,16 @@
         </is>
       </c>
       <c r="J36" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="K36" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="L36" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="M36" t="n">
-        <v>14400</v>
+        <v>12500</v>
       </c>
       <c r="N36" t="inlineStr">
         <is>
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="P36" t="n">
-        <v>1108</v>
+        <v>962</v>
       </c>
       <c r="Q36" t="n">
         <v>13</v>
@@ -2997,58 +2997,130 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
+        <v>44914</v>
+      </c>
+      <c r="E37" t="n">
+        <v>15</v>
+      </c>
+      <c r="F37" t="n">
+        <v>100114007</v>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>Jengibre</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J37" t="n">
+        <v>100</v>
+      </c>
+      <c r="K37" t="n">
+        <v>14000</v>
+      </c>
+      <c r="L37" t="n">
+        <v>15000</v>
+      </c>
+      <c r="M37" t="n">
+        <v>14400</v>
+      </c>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>$/caja 13 kilos</t>
+        </is>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>Perú</t>
+        </is>
+      </c>
+      <c r="P37" t="n">
+        <v>1108</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>13</v>
+      </c>
+      <c r="R37" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>1</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Agrícola del Norte S.A. de Arica</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="D38" s="2" t="n">
         <v>45100</v>
       </c>
-      <c r="E37" t="n">
-        <v>15</v>
-      </c>
-      <c r="F37" t="n">
-        <v>100114007</v>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>Jengibre</t>
-        </is>
-      </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>Sin especificar</t>
-        </is>
-      </c>
-      <c r="I37" t="inlineStr">
-        <is>
-          <t>Primera</t>
-        </is>
-      </c>
-      <c r="J37" t="n">
+      <c r="E38" t="n">
+        <v>15</v>
+      </c>
+      <c r="F38" t="n">
+        <v>100114007</v>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>Jengibre</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J38" t="n">
         <v>200</v>
       </c>
-      <c r="K37" t="n">
+      <c r="K38" t="n">
         <v>15000</v>
       </c>
-      <c r="L37" t="n">
+      <c r="L38" t="n">
         <v>16000</v>
       </c>
-      <c r="M37" t="n">
+      <c r="M38" t="n">
         <v>15500</v>
       </c>
-      <c r="N37" t="inlineStr">
-        <is>
-          <t>$/caja 13 kilos</t>
-        </is>
-      </c>
-      <c r="O37" t="inlineStr">
-        <is>
-          <t>Perú</t>
-        </is>
-      </c>
-      <c r="P37" t="n">
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>$/caja 13 kilos</t>
+        </is>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>Perú</t>
+        </is>
+      </c>
+      <c r="P38" t="n">
         <v>1192</v>
       </c>
-      <c r="Q37" t="n">
-        <v>13</v>
-      </c>
-      <c r="R37" t="inlineStr">
+      <c r="Q38" t="n">
+        <v>13</v>
+      </c>
+      <c r="R38" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Jengibre.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Jengibre.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>45154</v>
+        <v>44893</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>250</v>
+        <v>900</v>
       </c>
       <c r="K2" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="L2" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="M2" t="n">
-        <v>17500</v>
+        <v>13444</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>1346</v>
+        <v>1034</v>
       </c>
       <c r="Q2" t="n">
         <v>13</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>45238</v>
+        <v>44159</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="K3" t="n">
-        <v>16000</v>
+        <v>23000</v>
       </c>
       <c r="L3" t="n">
-        <v>17000</v>
+        <v>24000</v>
       </c>
       <c r="M3" t="n">
-        <v>16500</v>
+        <v>23500</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>1269</v>
+        <v>1808</v>
       </c>
       <c r="Q3" t="n">
         <v>13</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>45092</v>
+        <v>45154</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>600</v>
+        <v>250</v>
       </c>
       <c r="K4" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="L4" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="M4" t="n">
-        <v>13500</v>
+        <v>17500</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>1038</v>
+        <v>1346</v>
       </c>
       <c r="Q4" t="n">
         <v>13</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>45245</v>
+        <v>45096</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>200</v>
+        <v>750</v>
       </c>
       <c r="K5" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="L5" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="M5" t="n">
-        <v>17500</v>
+        <v>14600</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>1346</v>
+        <v>1123</v>
       </c>
       <c r="Q5" t="n">
         <v>13</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44379</v>
+        <v>44389</v>
       </c>
       <c r="E6" t="n">
         <v>15</v>
@@ -798,7 +798,7 @@
         <v>13000</v>
       </c>
       <c r="M6" t="n">
-        <v>12667</v>
+        <v>12500</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>974</v>
+        <v>962</v>
       </c>
       <c r="Q6" t="n">
         <v>13</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>45251</v>
+        <v>45100</v>
       </c>
       <c r="E7" t="n">
         <v>15</v>
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="K7" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="L7" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="M7" t="n">
-        <v>17000</v>
+        <v>15500</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>1308</v>
+        <v>1192</v>
       </c>
       <c r="Q7" t="n">
         <v>13</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>45251</v>
+        <v>44918</v>
       </c>
       <c r="E8" t="n">
         <v>15</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="K8" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="L8" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="M8" t="n">
-        <v>16000</v>
+        <v>12750</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>1231</v>
+        <v>981</v>
       </c>
       <c r="Q8" t="n">
         <v>13</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44389</v>
+        <v>45238</v>
       </c>
       <c r="E9" t="n">
         <v>15</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>120</v>
+        <v>250</v>
       </c>
       <c r="K9" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="L9" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="M9" t="n">
-        <v>12500</v>
+        <v>16500</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>962</v>
+        <v>1269</v>
       </c>
       <c r="Q9" t="n">
         <v>13</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44406</v>
+        <v>44855</v>
       </c>
       <c r="E10" t="n">
         <v>15</v>
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>160</v>
+        <v>500</v>
       </c>
       <c r="K10" t="n">
-        <v>17000</v>
+        <v>10000</v>
       </c>
       <c r="L10" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="M10" t="n">
-        <v>17500</v>
+        <v>10000</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>1346</v>
+        <v>769</v>
       </c>
       <c r="Q10" t="n">
         <v>13</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44972</v>
+        <v>44379</v>
       </c>
       <c r="E11" t="n">
         <v>15</v>
@@ -1149,20 +1149,20 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>350</v>
+        <v>120</v>
       </c>
       <c r="K11" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="L11" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="M11" t="n">
-        <v>17429</v>
+        <v>12667</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 13 kilos</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
@@ -1171,10 +1171,10 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>1162</v>
+        <v>974</v>
       </c>
       <c r="Q11" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="R11" t="inlineStr">
         <is>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44855</v>
+        <v>45140</v>
       </c>
       <c r="E12" t="n">
         <v>15</v>
@@ -1221,16 +1221,16 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="K12" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="L12" t="n">
-        <v>10000</v>
+        <v>17000</v>
       </c>
       <c r="M12" t="n">
-        <v>10000</v>
+        <v>16500</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>769</v>
+        <v>1269</v>
       </c>
       <c r="Q12" t="n">
         <v>13</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44890</v>
+        <v>44832</v>
       </c>
       <c r="E13" t="n">
         <v>15</v>
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="K13" t="n">
+        <v>13000</v>
+      </c>
+      <c r="L13" t="n">
         <v>14000</v>
       </c>
-      <c r="L13" t="n">
-        <v>15000</v>
-      </c>
       <c r="M13" t="n">
-        <v>14500</v>
+        <v>13500</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>1115</v>
+        <v>1038</v>
       </c>
       <c r="Q13" t="n">
         <v>13</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44918</v>
+        <v>44592</v>
       </c>
       <c r="E14" t="n">
         <v>15</v>
@@ -1361,11 +1361,11 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J14" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="K14" t="n">
         <v>12000</v>
@@ -1374,7 +1374,7 @@
         <v>13000</v>
       </c>
       <c r="M14" t="n">
-        <v>12750</v>
+        <v>12500</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>981</v>
+        <v>962</v>
       </c>
       <c r="Q14" t="n">
         <v>13</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44320</v>
+        <v>44616</v>
       </c>
       <c r="E15" t="n">
         <v>15</v>
@@ -1437,7 +1437,7 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="K15" t="n">
         <v>19000</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>45264</v>
+        <v>45155</v>
       </c>
       <c r="E16" t="n">
         <v>15</v>
@@ -1515,10 +1515,10 @@
         <v>16000</v>
       </c>
       <c r="L16" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="M16" t="n">
-        <v>17000</v>
+        <v>16500</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>1308</v>
+        <v>1269</v>
       </c>
       <c r="Q16" t="n">
         <v>13</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44469</v>
+        <v>44397</v>
       </c>
       <c r="E17" t="n">
         <v>15</v>
@@ -1584,13 +1584,13 @@
         <v>140</v>
       </c>
       <c r="K17" t="n">
+        <v>12500</v>
+      </c>
+      <c r="L17" t="n">
         <v>13000</v>
       </c>
-      <c r="L17" t="n">
-        <v>14000</v>
-      </c>
       <c r="M17" t="n">
-        <v>13500</v>
+        <v>12750</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>1038</v>
+        <v>981</v>
       </c>
       <c r="Q17" t="n">
         <v>13</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>45049</v>
+        <v>44406</v>
       </c>
       <c r="E18" t="n">
         <v>15</v>
@@ -1653,16 +1653,16 @@
         </is>
       </c>
       <c r="J18" t="n">
-        <v>300</v>
+        <v>160</v>
       </c>
       <c r="K18" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="L18" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="M18" t="n">
-        <v>13500</v>
+        <v>17500</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1675,7 +1675,7 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>1038</v>
+        <v>1346</v>
       </c>
       <c r="Q18" t="n">
         <v>13</v>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44984</v>
+        <v>45251</v>
       </c>
       <c r="E20" t="n">
         <v>15</v>
@@ -1797,16 +1797,16 @@
         </is>
       </c>
       <c r="J20" t="n">
-        <v>400</v>
+        <v>150</v>
       </c>
       <c r="K20" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="L20" t="n">
         <v>17000</v>
       </c>
       <c r="M20" t="n">
-        <v>16500</v>
+        <v>17000</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
@@ -1819,7 +1819,7 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>1269</v>
+        <v>1308</v>
       </c>
       <c r="Q20" t="n">
         <v>13</v>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44616</v>
+        <v>45251</v>
       </c>
       <c r="E21" t="n">
         <v>15</v>
@@ -1865,20 +1865,20 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J21" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="K21" t="n">
-        <v>19000</v>
+        <v>16000</v>
       </c>
       <c r="L21" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="M21" t="n">
-        <v>19500</v>
+        <v>16000</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
@@ -1891,7 +1891,7 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>1500</v>
+        <v>1231</v>
       </c>
       <c r="Q21" t="n">
         <v>13</v>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>45239</v>
+        <v>44320</v>
       </c>
       <c r="E22" t="n">
         <v>15</v>
@@ -1941,16 +1941,16 @@
         </is>
       </c>
       <c r="J22" t="n">
-        <v>800</v>
+        <v>160</v>
       </c>
       <c r="K22" t="n">
-        <v>16000</v>
+        <v>19000</v>
       </c>
       <c r="L22" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="M22" t="n">
-        <v>16500</v>
+        <v>19500</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
@@ -1963,7 +1963,7 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>1269</v>
+        <v>1500</v>
       </c>
       <c r="Q22" t="n">
         <v>13</v>
@@ -1989,7 +1989,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44893</v>
+        <v>45239</v>
       </c>
       <c r="E23" t="n">
         <v>15</v>
@@ -2013,16 +2013,16 @@
         </is>
       </c>
       <c r="J23" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="K23" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="L23" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="M23" t="n">
-        <v>13444</v>
+        <v>16500</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
@@ -2035,7 +2035,7 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>1034</v>
+        <v>1269</v>
       </c>
       <c r="Q23" t="n">
         <v>13</v>
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>45028</v>
+        <v>44580</v>
       </c>
       <c r="E24" t="n">
         <v>15</v>
@@ -2085,16 +2085,16 @@
         </is>
       </c>
       <c r="J24" t="n">
-        <v>300</v>
+        <v>160</v>
       </c>
       <c r="K24" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="L24" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="M24" t="n">
-        <v>14500</v>
+        <v>11500</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
@@ -2107,7 +2107,7 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>1115</v>
+        <v>885</v>
       </c>
       <c r="Q24" t="n">
         <v>13</v>
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44159</v>
+        <v>45141</v>
       </c>
       <c r="E25" t="n">
         <v>15</v>
@@ -2157,16 +2157,16 @@
         </is>
       </c>
       <c r="J25" t="n">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="K25" t="n">
-        <v>23000</v>
+        <v>16000</v>
       </c>
       <c r="L25" t="n">
-        <v>24000</v>
+        <v>17000</v>
       </c>
       <c r="M25" t="n">
-        <v>23500</v>
+        <v>16550</v>
       </c>
       <c r="N25" t="inlineStr">
         <is>
@@ -2179,7 +2179,7 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>1808</v>
+        <v>1273</v>
       </c>
       <c r="Q25" t="n">
         <v>13</v>
@@ -2205,7 +2205,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44988</v>
+        <v>44469</v>
       </c>
       <c r="E26" t="n">
         <v>15</v>
@@ -2229,16 +2229,16 @@
         </is>
       </c>
       <c r="J26" t="n">
-        <v>750</v>
+        <v>140</v>
       </c>
       <c r="K26" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="L26" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="M26" t="n">
-        <v>17400</v>
+        <v>13500</v>
       </c>
       <c r="N26" t="inlineStr">
         <is>
@@ -2251,7 +2251,7 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>1338</v>
+        <v>1038</v>
       </c>
       <c r="Q26" t="n">
         <v>13</v>
@@ -2277,7 +2277,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>45141</v>
+        <v>45028</v>
       </c>
       <c r="E27" t="n">
         <v>15</v>
@@ -2301,16 +2301,16 @@
         </is>
       </c>
       <c r="J27" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K27" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="L27" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="M27" t="n">
-        <v>16550</v>
+        <v>14500</v>
       </c>
       <c r="N27" t="inlineStr">
         <is>
@@ -2323,7 +2323,7 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>1273</v>
+        <v>1115</v>
       </c>
       <c r="Q27" t="n">
         <v>13</v>
@@ -2349,7 +2349,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44397</v>
+        <v>44764</v>
       </c>
       <c r="E28" t="n">
         <v>15</v>
@@ -2373,16 +2373,16 @@
         </is>
       </c>
       <c r="J28" t="n">
-        <v>140</v>
+        <v>200</v>
       </c>
       <c r="K28" t="n">
-        <v>12500</v>
+        <v>12000</v>
       </c>
       <c r="L28" t="n">
         <v>13000</v>
       </c>
       <c r="M28" t="n">
-        <v>12750</v>
+        <v>12500</v>
       </c>
       <c r="N28" t="inlineStr">
         <is>
@@ -2395,7 +2395,7 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>981</v>
+        <v>962</v>
       </c>
       <c r="Q28" t="n">
         <v>13</v>
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44764</v>
+        <v>44984</v>
       </c>
       <c r="E29" t="n">
         <v>15</v>
@@ -2445,16 +2445,16 @@
         </is>
       </c>
       <c r="J29" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="K29" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="L29" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="M29" t="n">
-        <v>12500</v>
+        <v>16500</v>
       </c>
       <c r="N29" t="inlineStr">
         <is>
@@ -2467,7 +2467,7 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>962</v>
+        <v>1269</v>
       </c>
       <c r="Q29" t="n">
         <v>13</v>
@@ -2493,7 +2493,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>45155</v>
+        <v>44972</v>
       </c>
       <c r="E30" t="n">
         <v>15</v>
@@ -2517,20 +2517,20 @@
         </is>
       </c>
       <c r="J30" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="K30" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="L30" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="M30" t="n">
-        <v>16500</v>
+        <v>17429</v>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>$/caja 13 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
@@ -2539,10 +2539,10 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>1269</v>
+        <v>1162</v>
       </c>
       <c r="Q30" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="R30" t="inlineStr">
         <is>
@@ -2565,7 +2565,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>45096</v>
+        <v>44988</v>
       </c>
       <c r="E31" t="n">
         <v>15</v>
@@ -2592,13 +2592,13 @@
         <v>750</v>
       </c>
       <c r="K31" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="L31" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="M31" t="n">
-        <v>14600</v>
+        <v>17400</v>
       </c>
       <c r="N31" t="inlineStr">
         <is>
@@ -2611,7 +2611,7 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>1123</v>
+        <v>1338</v>
       </c>
       <c r="Q31" t="n">
         <v>13</v>
@@ -2637,7 +2637,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>45140</v>
+        <v>45264</v>
       </c>
       <c r="E32" t="n">
         <v>15</v>
@@ -2661,17 +2661,17 @@
         </is>
       </c>
       <c r="J32" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K32" t="n">
         <v>16000</v>
       </c>
       <c r="L32" t="n">
+        <v>18000</v>
+      </c>
+      <c r="M32" t="n">
         <v>17000</v>
       </c>
-      <c r="M32" t="n">
-        <v>16500</v>
-      </c>
       <c r="N32" t="inlineStr">
         <is>
           <t>$/caja 13 kilos</t>
@@ -2683,7 +2683,7 @@
         </is>
       </c>
       <c r="P32" t="n">
-        <v>1269</v>
+        <v>1308</v>
       </c>
       <c r="Q32" t="n">
         <v>13</v>
@@ -2709,7 +2709,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44943</v>
+        <v>45245</v>
       </c>
       <c r="E33" t="n">
         <v>15</v>
@@ -2729,20 +2729,20 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J33" t="n">
-        <v>350</v>
+        <v>200</v>
       </c>
       <c r="K33" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="L33" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="M33" t="n">
-        <v>14429</v>
+        <v>17500</v>
       </c>
       <c r="N33" t="inlineStr">
         <is>
@@ -2755,7 +2755,7 @@
         </is>
       </c>
       <c r="P33" t="n">
-        <v>1110</v>
+        <v>1346</v>
       </c>
       <c r="Q33" t="n">
         <v>13</v>
@@ -2781,7 +2781,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44832</v>
+        <v>44890</v>
       </c>
       <c r="E34" t="n">
         <v>15</v>
@@ -2805,16 +2805,16 @@
         </is>
       </c>
       <c r="J34" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="K34" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="L34" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="M34" t="n">
-        <v>13500</v>
+        <v>14500</v>
       </c>
       <c r="N34" t="inlineStr">
         <is>
@@ -2827,7 +2827,7 @@
         </is>
       </c>
       <c r="P34" t="n">
-        <v>1038</v>
+        <v>1115</v>
       </c>
       <c r="Q34" t="n">
         <v>13</v>
@@ -2853,7 +2853,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44580</v>
+        <v>44943</v>
       </c>
       <c r="E35" t="n">
         <v>15</v>
@@ -2873,20 +2873,20 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J35" t="n">
-        <v>160</v>
+        <v>350</v>
       </c>
       <c r="K35" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="L35" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="M35" t="n">
-        <v>11500</v>
+        <v>14429</v>
       </c>
       <c r="N35" t="inlineStr">
         <is>
@@ -2899,7 +2899,7 @@
         </is>
       </c>
       <c r="P35" t="n">
-        <v>885</v>
+        <v>1110</v>
       </c>
       <c r="Q35" t="n">
         <v>13</v>
@@ -2925,7 +2925,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44592</v>
+        <v>44914</v>
       </c>
       <c r="E36" t="n">
         <v>15</v>
@@ -2949,16 +2949,16 @@
         </is>
       </c>
       <c r="J36" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="K36" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="L36" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="M36" t="n">
-        <v>12500</v>
+        <v>14400</v>
       </c>
       <c r="N36" t="inlineStr">
         <is>
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="P36" t="n">
-        <v>962</v>
+        <v>1108</v>
       </c>
       <c r="Q36" t="n">
         <v>13</v>
@@ -2997,7 +2997,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44914</v>
+        <v>45092</v>
       </c>
       <c r="E37" t="n">
         <v>15</v>
@@ -3021,16 +3021,16 @@
         </is>
       </c>
       <c r="J37" t="n">
-        <v>100</v>
+        <v>600</v>
       </c>
       <c r="K37" t="n">
+        <v>13000</v>
+      </c>
+      <c r="L37" t="n">
         <v>14000</v>
       </c>
-      <c r="L37" t="n">
-        <v>15000</v>
-      </c>
       <c r="M37" t="n">
-        <v>14400</v>
+        <v>13500</v>
       </c>
       <c r="N37" t="inlineStr">
         <is>
@@ -3043,7 +3043,7 @@
         </is>
       </c>
       <c r="P37" t="n">
-        <v>1108</v>
+        <v>1038</v>
       </c>
       <c r="Q37" t="n">
         <v>13</v>
@@ -3069,7 +3069,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>45100</v>
+        <v>45049</v>
       </c>
       <c r="E38" t="n">
         <v>15</v>
@@ -3093,16 +3093,16 @@
         </is>
       </c>
       <c r="J38" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K38" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="L38" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="M38" t="n">
-        <v>15500</v>
+        <v>13500</v>
       </c>
       <c r="N38" t="inlineStr">
         <is>
@@ -3115,7 +3115,7 @@
         </is>
       </c>
       <c r="P38" t="n">
-        <v>1192</v>
+        <v>1038</v>
       </c>
       <c r="Q38" t="n">
         <v>13</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Jengibre.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Jengibre.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44893</v>
+        <v>45264</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>900</v>
+        <v>300</v>
       </c>
       <c r="K2" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="L2" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="M2" t="n">
-        <v>13444</v>
+        <v>17000</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>1034</v>
+        <v>1308</v>
       </c>
       <c r="Q2" t="n">
         <v>13</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44159</v>
+        <v>44320</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>100</v>
+        <v>160</v>
       </c>
       <c r="K3" t="n">
-        <v>23000</v>
+        <v>19000</v>
       </c>
       <c r="L3" t="n">
-        <v>24000</v>
+        <v>20000</v>
       </c>
       <c r="M3" t="n">
-        <v>23500</v>
+        <v>19500</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>1808</v>
+        <v>1500</v>
       </c>
       <c r="Q3" t="n">
         <v>13</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>45154</v>
+        <v>44389</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>250</v>
+        <v>120</v>
       </c>
       <c r="K4" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="L4" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="M4" t="n">
-        <v>17500</v>
+        <v>12500</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>1346</v>
+        <v>962</v>
       </c>
       <c r="Q4" t="n">
         <v>13</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>45096</v>
+        <v>44984</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>750</v>
+        <v>400</v>
       </c>
       <c r="K5" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="L5" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="M5" t="n">
-        <v>14600</v>
+        <v>16500</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>1123</v>
+        <v>1269</v>
       </c>
       <c r="Q5" t="n">
         <v>13</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44389</v>
+        <v>45096</v>
       </c>
       <c r="E6" t="n">
         <v>15</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>120</v>
+        <v>750</v>
       </c>
       <c r="K6" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="L6" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="M6" t="n">
-        <v>12500</v>
+        <v>14600</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>962</v>
+        <v>1123</v>
       </c>
       <c r="Q6" t="n">
         <v>13</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>45100</v>
+        <v>44943</v>
       </c>
       <c r="E7" t="n">
         <v>15</v>
@@ -857,20 +857,20 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J7" t="n">
-        <v>200</v>
+        <v>350</v>
       </c>
       <c r="K7" t="n">
+        <v>14000</v>
+      </c>
+      <c r="L7" t="n">
         <v>15000</v>
       </c>
-      <c r="L7" t="n">
-        <v>16000</v>
-      </c>
       <c r="M7" t="n">
-        <v>15500</v>
+        <v>14429</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>1192</v>
+        <v>1110</v>
       </c>
       <c r="Q7" t="n">
         <v>13</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44918</v>
+        <v>44988</v>
       </c>
       <c r="E8" t="n">
         <v>15</v>
@@ -929,20 +929,20 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J8" t="n">
-        <v>200</v>
+        <v>750</v>
       </c>
       <c r="K8" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="L8" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="M8" t="n">
-        <v>12750</v>
+        <v>17400</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>981</v>
+        <v>1338</v>
       </c>
       <c r="Q8" t="n">
         <v>13</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>45238</v>
+        <v>44893</v>
       </c>
       <c r="E9" t="n">
         <v>15</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>250</v>
+        <v>900</v>
       </c>
       <c r="K9" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="L9" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="M9" t="n">
-        <v>16500</v>
+        <v>13444</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>1269</v>
+        <v>1034</v>
       </c>
       <c r="Q9" t="n">
         <v>13</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44855</v>
+        <v>44910</v>
       </c>
       <c r="E10" t="n">
         <v>15</v>
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="K10" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="L10" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="M10" t="n">
-        <v>10000</v>
+        <v>14500</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>769</v>
+        <v>1115</v>
       </c>
       <c r="Q10" t="n">
         <v>13</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44379</v>
+        <v>45141</v>
       </c>
       <c r="E11" t="n">
         <v>15</v>
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>120</v>
+        <v>400</v>
       </c>
       <c r="K11" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="L11" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="M11" t="n">
-        <v>12667</v>
+        <v>16550</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>974</v>
+        <v>1273</v>
       </c>
       <c r="Q11" t="n">
         <v>13</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>45140</v>
+        <v>45251</v>
       </c>
       <c r="E12" t="n">
         <v>15</v>
@@ -1221,16 +1221,16 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="K12" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="L12" t="n">
         <v>17000</v>
       </c>
       <c r="M12" t="n">
-        <v>16500</v>
+        <v>17000</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>1269</v>
+        <v>1308</v>
       </c>
       <c r="Q12" t="n">
         <v>13</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44832</v>
+        <v>45251</v>
       </c>
       <c r="E13" t="n">
         <v>15</v>
@@ -1289,20 +1289,20 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J13" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="K13" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="L13" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="M13" t="n">
-        <v>13500</v>
+        <v>16000</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>1038</v>
+        <v>1231</v>
       </c>
       <c r="Q13" t="n">
         <v>13</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44592</v>
+        <v>44855</v>
       </c>
       <c r="E14" t="n">
         <v>15</v>
@@ -1365,16 +1365,16 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>120</v>
+        <v>500</v>
       </c>
       <c r="K14" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="L14" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="M14" t="n">
-        <v>12500</v>
+        <v>10000</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>962</v>
+        <v>769</v>
       </c>
       <c r="Q14" t="n">
         <v>13</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44616</v>
+        <v>44406</v>
       </c>
       <c r="E15" t="n">
         <v>15</v>
@@ -1437,16 +1437,16 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="K15" t="n">
-        <v>19000</v>
+        <v>17000</v>
       </c>
       <c r="L15" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="M15" t="n">
-        <v>19500</v>
+        <v>17500</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>1500</v>
+        <v>1346</v>
       </c>
       <c r="Q15" t="n">
         <v>13</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>45155</v>
+        <v>45028</v>
       </c>
       <c r="E16" t="n">
         <v>15</v>
@@ -1512,13 +1512,13 @@
         <v>300</v>
       </c>
       <c r="K16" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="L16" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="M16" t="n">
-        <v>16500</v>
+        <v>14500</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>1269</v>
+        <v>1115</v>
       </c>
       <c r="Q16" t="n">
         <v>13</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44397</v>
+        <v>44972</v>
       </c>
       <c r="E17" t="n">
         <v>15</v>
@@ -1581,20 +1581,20 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>140</v>
+        <v>350</v>
       </c>
       <c r="K17" t="n">
-        <v>12500</v>
+        <v>17000</v>
       </c>
       <c r="L17" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="M17" t="n">
-        <v>12750</v>
+        <v>17429</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>$/caja 13 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
@@ -1603,10 +1603,10 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>981</v>
+        <v>1162</v>
       </c>
       <c r="Q17" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="R17" t="inlineStr">
         <is>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44406</v>
+        <v>44616</v>
       </c>
       <c r="E18" t="n">
         <v>15</v>
@@ -1653,16 +1653,16 @@
         </is>
       </c>
       <c r="J18" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="K18" t="n">
-        <v>17000</v>
+        <v>19000</v>
       </c>
       <c r="L18" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="M18" t="n">
-        <v>17500</v>
+        <v>19500</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1675,7 +1675,7 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>1346</v>
+        <v>1500</v>
       </c>
       <c r="Q18" t="n">
         <v>13</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44910</v>
+        <v>45238</v>
       </c>
       <c r="E19" t="n">
         <v>15</v>
@@ -1725,16 +1725,16 @@
         </is>
       </c>
       <c r="J19" t="n">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="K19" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="L19" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="M19" t="n">
-        <v>14500</v>
+        <v>16500</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>1115</v>
+        <v>1269</v>
       </c>
       <c r="Q19" t="n">
         <v>13</v>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>45251</v>
+        <v>45140</v>
       </c>
       <c r="E20" t="n">
         <v>15</v>
@@ -1797,16 +1797,16 @@
         </is>
       </c>
       <c r="J20" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="K20" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="L20" t="n">
         <v>17000</v>
       </c>
       <c r="M20" t="n">
-        <v>17000</v>
+        <v>16500</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
@@ -1819,7 +1819,7 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>1308</v>
+        <v>1269</v>
       </c>
       <c r="Q20" t="n">
         <v>13</v>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>45251</v>
+        <v>44914</v>
       </c>
       <c r="E21" t="n">
         <v>15</v>
@@ -1865,20 +1865,20 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J21" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="K21" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="L21" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="M21" t="n">
-        <v>16000</v>
+        <v>14400</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
@@ -1891,7 +1891,7 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>1231</v>
+        <v>1108</v>
       </c>
       <c r="Q21" t="n">
         <v>13</v>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44320</v>
+        <v>44469</v>
       </c>
       <c r="E22" t="n">
         <v>15</v>
@@ -1941,16 +1941,16 @@
         </is>
       </c>
       <c r="J22" t="n">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="K22" t="n">
-        <v>19000</v>
+        <v>13000</v>
       </c>
       <c r="L22" t="n">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="M22" t="n">
-        <v>19500</v>
+        <v>13500</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
@@ -1963,7 +1963,7 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>1500</v>
+        <v>1038</v>
       </c>
       <c r="Q22" t="n">
         <v>13</v>
@@ -1989,7 +1989,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>45239</v>
+        <v>45092</v>
       </c>
       <c r="E23" t="n">
         <v>15</v>
@@ -2013,16 +2013,16 @@
         </is>
       </c>
       <c r="J23" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="K23" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="L23" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="M23" t="n">
-        <v>16500</v>
+        <v>13500</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
@@ -2035,7 +2035,7 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>1269</v>
+        <v>1038</v>
       </c>
       <c r="Q23" t="n">
         <v>13</v>
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44580</v>
+        <v>44379</v>
       </c>
       <c r="E24" t="n">
         <v>15</v>
@@ -2085,16 +2085,16 @@
         </is>
       </c>
       <c r="J24" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="K24" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="L24" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="M24" t="n">
-        <v>11500</v>
+        <v>12667</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
@@ -2107,7 +2107,7 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>885</v>
+        <v>974</v>
       </c>
       <c r="Q24" t="n">
         <v>13</v>
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>45141</v>
+        <v>44764</v>
       </c>
       <c r="E25" t="n">
         <v>15</v>
@@ -2157,16 +2157,16 @@
         </is>
       </c>
       <c r="J25" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="K25" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="L25" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="M25" t="n">
-        <v>16550</v>
+        <v>12500</v>
       </c>
       <c r="N25" t="inlineStr">
         <is>
@@ -2179,7 +2179,7 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>1273</v>
+        <v>962</v>
       </c>
       <c r="Q25" t="n">
         <v>13</v>
@@ -2205,7 +2205,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44469</v>
+        <v>44890</v>
       </c>
       <c r="E26" t="n">
         <v>15</v>
@@ -2229,16 +2229,16 @@
         </is>
       </c>
       <c r="J26" t="n">
-        <v>140</v>
+        <v>300</v>
       </c>
       <c r="K26" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="L26" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="M26" t="n">
-        <v>13500</v>
+        <v>14500</v>
       </c>
       <c r="N26" t="inlineStr">
         <is>
@@ -2251,7 +2251,7 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>1038</v>
+        <v>1115</v>
       </c>
       <c r="Q26" t="n">
         <v>13</v>
@@ -2277,7 +2277,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>45028</v>
+        <v>44159</v>
       </c>
       <c r="E27" t="n">
         <v>15</v>
@@ -2301,16 +2301,16 @@
         </is>
       </c>
       <c r="J27" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="K27" t="n">
-        <v>14000</v>
+        <v>23000</v>
       </c>
       <c r="L27" t="n">
-        <v>15000</v>
+        <v>24000</v>
       </c>
       <c r="M27" t="n">
-        <v>14500</v>
+        <v>23500</v>
       </c>
       <c r="N27" t="inlineStr">
         <is>
@@ -2323,7 +2323,7 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>1115</v>
+        <v>1808</v>
       </c>
       <c r="Q27" t="n">
         <v>13</v>
@@ -2349,7 +2349,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44764</v>
+        <v>45154</v>
       </c>
       <c r="E28" t="n">
         <v>15</v>
@@ -2373,16 +2373,16 @@
         </is>
       </c>
       <c r="J28" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="K28" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="L28" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="M28" t="n">
-        <v>12500</v>
+        <v>17500</v>
       </c>
       <c r="N28" t="inlineStr">
         <is>
@@ -2395,7 +2395,7 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>962</v>
+        <v>1346</v>
       </c>
       <c r="Q28" t="n">
         <v>13</v>
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44984</v>
+        <v>45245</v>
       </c>
       <c r="E29" t="n">
         <v>15</v>
@@ -2445,16 +2445,16 @@
         </is>
       </c>
       <c r="J29" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="K29" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="L29" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="M29" t="n">
-        <v>16500</v>
+        <v>17500</v>
       </c>
       <c r="N29" t="inlineStr">
         <is>
@@ -2467,7 +2467,7 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>1269</v>
+        <v>1346</v>
       </c>
       <c r="Q29" t="n">
         <v>13</v>
@@ -2493,7 +2493,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44972</v>
+        <v>44397</v>
       </c>
       <c r="E30" t="n">
         <v>15</v>
@@ -2517,20 +2517,20 @@
         </is>
       </c>
       <c r="J30" t="n">
-        <v>350</v>
+        <v>140</v>
       </c>
       <c r="K30" t="n">
-        <v>17000</v>
+        <v>12500</v>
       </c>
       <c r="L30" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="M30" t="n">
-        <v>17429</v>
+        <v>12750</v>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 13 kilos</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
@@ -2539,10 +2539,10 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>1162</v>
+        <v>981</v>
       </c>
       <c r="Q30" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="R30" t="inlineStr">
         <is>
@@ -2565,7 +2565,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44988</v>
+        <v>45049</v>
       </c>
       <c r="E31" t="n">
         <v>15</v>
@@ -2589,16 +2589,16 @@
         </is>
       </c>
       <c r="J31" t="n">
-        <v>750</v>
+        <v>300</v>
       </c>
       <c r="K31" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="L31" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="M31" t="n">
-        <v>17400</v>
+        <v>13500</v>
       </c>
       <c r="N31" t="inlineStr">
         <is>
@@ -2611,7 +2611,7 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>1338</v>
+        <v>1038</v>
       </c>
       <c r="Q31" t="n">
         <v>13</v>
@@ -2637,7 +2637,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>45264</v>
+        <v>44580</v>
       </c>
       <c r="E32" t="n">
         <v>15</v>
@@ -2661,16 +2661,16 @@
         </is>
       </c>
       <c r="J32" t="n">
-        <v>300</v>
+        <v>160</v>
       </c>
       <c r="K32" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="L32" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="M32" t="n">
-        <v>17000</v>
+        <v>11500</v>
       </c>
       <c r="N32" t="inlineStr">
         <is>
@@ -2683,7 +2683,7 @@
         </is>
       </c>
       <c r="P32" t="n">
-        <v>1308</v>
+        <v>885</v>
       </c>
       <c r="Q32" t="n">
         <v>13</v>
@@ -2709,7 +2709,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>45245</v>
+        <v>45239</v>
       </c>
       <c r="E33" t="n">
         <v>15</v>
@@ -2733,16 +2733,16 @@
         </is>
       </c>
       <c r="J33" t="n">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="K33" t="n">
+        <v>16000</v>
+      </c>
+      <c r="L33" t="n">
         <v>17000</v>
       </c>
-      <c r="L33" t="n">
-        <v>18000</v>
-      </c>
       <c r="M33" t="n">
-        <v>17500</v>
+        <v>16500</v>
       </c>
       <c r="N33" t="inlineStr">
         <is>
@@ -2755,7 +2755,7 @@
         </is>
       </c>
       <c r="P33" t="n">
-        <v>1346</v>
+        <v>1269</v>
       </c>
       <c r="Q33" t="n">
         <v>13</v>
@@ -2781,7 +2781,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44890</v>
+        <v>44592</v>
       </c>
       <c r="E34" t="n">
         <v>15</v>
@@ -2805,16 +2805,16 @@
         </is>
       </c>
       <c r="J34" t="n">
-        <v>300</v>
+        <v>120</v>
       </c>
       <c r="K34" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="L34" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="M34" t="n">
-        <v>14500</v>
+        <v>12500</v>
       </c>
       <c r="N34" t="inlineStr">
         <is>
@@ -2827,7 +2827,7 @@
         </is>
       </c>
       <c r="P34" t="n">
-        <v>1115</v>
+        <v>962</v>
       </c>
       <c r="Q34" t="n">
         <v>13</v>
@@ -2853,7 +2853,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44943</v>
+        <v>44832</v>
       </c>
       <c r="E35" t="n">
         <v>15</v>
@@ -2873,20 +2873,20 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J35" t="n">
-        <v>350</v>
+        <v>100</v>
       </c>
       <c r="K35" t="n">
+        <v>13000</v>
+      </c>
+      <c r="L35" t="n">
         <v>14000</v>
       </c>
-      <c r="L35" t="n">
-        <v>15000</v>
-      </c>
       <c r="M35" t="n">
-        <v>14429</v>
+        <v>13500</v>
       </c>
       <c r="N35" t="inlineStr">
         <is>
@@ -2899,7 +2899,7 @@
         </is>
       </c>
       <c r="P35" t="n">
-        <v>1110</v>
+        <v>1038</v>
       </c>
       <c r="Q35" t="n">
         <v>13</v>
@@ -2925,7 +2925,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44914</v>
+        <v>44918</v>
       </c>
       <c r="E36" t="n">
         <v>15</v>
@@ -2945,20 +2945,20 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J36" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K36" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="L36" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="M36" t="n">
-        <v>14400</v>
+        <v>12750</v>
       </c>
       <c r="N36" t="inlineStr">
         <is>
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="P36" t="n">
-        <v>1108</v>
+        <v>981</v>
       </c>
       <c r="Q36" t="n">
         <v>13</v>
@@ -2997,7 +2997,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>45092</v>
+        <v>45155</v>
       </c>
       <c r="E37" t="n">
         <v>15</v>
@@ -3021,16 +3021,16 @@
         </is>
       </c>
       <c r="J37" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="K37" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="L37" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="M37" t="n">
-        <v>13500</v>
+        <v>16500</v>
       </c>
       <c r="N37" t="inlineStr">
         <is>
@@ -3043,7 +3043,7 @@
         </is>
       </c>
       <c r="P37" t="n">
-        <v>1038</v>
+        <v>1269</v>
       </c>
       <c r="Q37" t="n">
         <v>13</v>
@@ -3069,7 +3069,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>45049</v>
+        <v>45100</v>
       </c>
       <c r="E38" t="n">
         <v>15</v>
@@ -3093,16 +3093,16 @@
         </is>
       </c>
       <c r="J38" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K38" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="L38" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="M38" t="n">
-        <v>13500</v>
+        <v>15500</v>
       </c>
       <c r="N38" t="inlineStr">
         <is>
@@ -3115,7 +3115,7 @@
         </is>
       </c>
       <c r="P38" t="n">
-        <v>1038</v>
+        <v>1192</v>
       </c>
       <c r="Q38" t="n">
         <v>13</v>
